--- a/data/BinanceAccount.xlsx
+++ b/data/BinanceAccount.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="569">
   <si>
     <t xml:space="preserve">STT</t>
   </si>
@@ -1912,16 +1912,16 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2052,7 +2052,7 @@
   <dimension ref="A1:F573"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2107,7 +2107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
@@ -2117,81 +2117,65 @@
       <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>566</v>
-      </c>
-      <c r="E3" t="s">
-        <v>567</v>
-      </c>
-      <c r="F3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="5"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>566</v>
-      </c>
-      <c r="E4" t="s">
-        <v>567</v>
-      </c>
-      <c r="F4" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="5"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>566</v>
-      </c>
-      <c r="E5" t="s">
-        <v>567</v>
-      </c>
-      <c r="F5" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="5"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
-        <v>566</v>
-      </c>
-      <c r="E6" t="s">
-        <v>567</v>
-      </c>
-      <c r="F6" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="5"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -2199,27 +2183,35 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
+      <c r="D8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E8" t="s">
+        <v>567</v>
+      </c>
+      <c r="F8" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -2227,7 +2219,7 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
@@ -2241,7 +2233,7 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
@@ -2255,7 +2247,7 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
@@ -2269,7 +2261,7 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
@@ -2283,7 +2275,7 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
@@ -2297,7 +2289,7 @@
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
@@ -2311,7 +2303,7 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
@@ -2325,7 +2317,7 @@
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
@@ -2339,7 +2331,7 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
@@ -2353,7 +2345,7 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
@@ -2367,13 +2359,13 @@
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -2381,13 +2373,13 @@
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -2395,7 +2387,7 @@
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
@@ -2409,13 +2401,13 @@
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -2423,7 +2415,7 @@
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="n">
@@ -2437,7 +2429,7 @@
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
@@ -2451,7 +2443,7 @@
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
@@ -2465,7 +2457,7 @@
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
@@ -2479,7 +2471,7 @@
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
@@ -2493,7 +2485,7 @@
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
@@ -2507,13 +2499,13 @@
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -2521,7 +2513,7 @@
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
@@ -2535,7 +2527,7 @@
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
@@ -2549,7 +2541,7 @@
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
@@ -2563,7 +2555,7 @@
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
@@ -2577,7 +2569,7 @@
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="n">
@@ -2591,7 +2583,7 @@
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="n">
@@ -2605,7 +2597,7 @@
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="n">
@@ -2619,7 +2611,7 @@
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="9"/>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="n">
@@ -2633,7 +2625,7 @@
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="8"/>
-      <c r="F38" s="9"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="n">
@@ -2647,7 +2639,7 @@
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="9"/>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
@@ -2661,7 +2653,7 @@
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="9"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
@@ -2675,7 +2667,7 @@
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="9"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="n">
@@ -2689,7 +2681,7 @@
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="9"/>
+      <c r="F42" s="11"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="n">
@@ -2703,7 +2695,7 @@
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="9"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="n">
@@ -2717,7 +2709,7 @@
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="9"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="n">
@@ -2731,7 +2723,7 @@
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="9"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="n">
@@ -2745,7 +2737,7 @@
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="9"/>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="n">
@@ -2759,13 +2751,13 @@
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="9"/>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -2773,7 +2765,7 @@
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="9"/>
+      <c r="F48" s="11"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="n">
@@ -2787,7 +2779,7 @@
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="9"/>
+      <c r="F49" s="11"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="n">
@@ -2801,7 +2793,7 @@
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="9"/>
+      <c r="F50" s="11"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="n">
@@ -2815,7 +2807,7 @@
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="9"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="n">
@@ -2829,7 +2821,7 @@
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="9"/>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="n">
@@ -2843,7 +2835,7 @@
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="9"/>
+      <c r="F53" s="11"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="n">
@@ -2857,7 +2849,7 @@
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="9"/>
+      <c r="F54" s="11"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="n">
@@ -2871,7 +2863,7 @@
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="9"/>
+      <c r="F55" s="11"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="n">
@@ -2885,7 +2877,7 @@
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="8"/>
-      <c r="F56" s="9"/>
+      <c r="F56" s="11"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="n">
@@ -2899,7 +2891,7 @@
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="9"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="n">
@@ -2913,7 +2905,7 @@
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="9"/>
+      <c r="F58" s="11"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="n">
@@ -2927,13 +2919,13 @@
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="8"/>
-      <c r="F59" s="9"/>
+      <c r="F59" s="11"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -2941,7 +2933,7 @@
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="8"/>
-      <c r="F60" s="9"/>
+      <c r="F60" s="11"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="n">
@@ -2955,7 +2947,7 @@
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="8"/>
-      <c r="F61" s="9"/>
+      <c r="F61" s="11"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="n">
@@ -2969,7 +2961,7 @@
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="8"/>
-      <c r="F62" s="9"/>
+      <c r="F62" s="11"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="n">
@@ -2983,7 +2975,7 @@
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="8"/>
-      <c r="F63" s="9"/>
+      <c r="F63" s="11"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="n">
@@ -2997,7 +2989,7 @@
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="8"/>
-      <c r="F64" s="9"/>
+      <c r="F64" s="11"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="n">
@@ -3011,13 +3003,13 @@
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="8"/>
-      <c r="F65" s="9"/>
+      <c r="F65" s="11"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C66" s="7" t="s">
@@ -3025,7 +3017,7 @@
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="8"/>
-      <c r="F66" s="9"/>
+      <c r="F66" s="11"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="n">
@@ -3039,7 +3031,7 @@
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="8"/>
-      <c r="F67" s="9"/>
+      <c r="F67" s="11"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="n">
@@ -3053,7 +3045,7 @@
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="8"/>
-      <c r="F68" s="9"/>
+      <c r="F68" s="11"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="n">
@@ -3067,7 +3059,7 @@
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="8"/>
-      <c r="F69" s="9"/>
+      <c r="F69" s="11"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="n">
@@ -3081,7 +3073,7 @@
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="8"/>
-      <c r="F70" s="9"/>
+      <c r="F70" s="11"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="n">
@@ -3095,7 +3087,7 @@
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="8"/>
-      <c r="F71" s="9"/>
+      <c r="F71" s="11"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="n">
@@ -3109,7 +3101,7 @@
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="8"/>
-      <c r="F72" s="9"/>
+      <c r="F72" s="11"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="n">
@@ -3123,7 +3115,7 @@
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="8"/>
-      <c r="F73" s="9"/>
+      <c r="F73" s="11"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="n">
@@ -3137,7 +3129,7 @@
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="8"/>
-      <c r="F74" s="9"/>
+      <c r="F74" s="11"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="n">
@@ -3151,7 +3143,7 @@
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="8"/>
-      <c r="F75" s="9"/>
+      <c r="F75" s="11"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="n">
@@ -3165,13 +3157,13 @@
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="8"/>
-      <c r="F76" s="9"/>
+      <c r="F76" s="11"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="n">
         <v>76</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="9" t="s">
         <v>85</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -3179,7 +3171,7 @@
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="8"/>
-      <c r="F77" s="9"/>
+      <c r="F77" s="11"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="n">
@@ -3191,7 +3183,7 @@
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="8"/>
-      <c r="F78" s="9"/>
+      <c r="F78" s="11"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="n">
@@ -3205,7 +3197,7 @@
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="8"/>
-      <c r="F79" s="9"/>
+      <c r="F79" s="11"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="n">
@@ -3219,7 +3211,7 @@
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="8"/>
-      <c r="F80" s="9"/>
+      <c r="F80" s="11"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="n">
@@ -3233,7 +3225,7 @@
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="8"/>
-      <c r="F81" s="9"/>
+      <c r="F81" s="11"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="n">
@@ -3247,7 +3239,7 @@
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="8"/>
-      <c r="F82" s="9"/>
+      <c r="F82" s="11"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="n">
@@ -3261,7 +3253,7 @@
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="8"/>
-      <c r="F83" s="9"/>
+      <c r="F83" s="11"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="n">
@@ -3275,7 +3267,7 @@
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="8"/>
-      <c r="F84" s="9"/>
+      <c r="F84" s="11"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="n">
@@ -3287,7 +3279,7 @@
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="8"/>
-      <c r="F85" s="9"/>
+      <c r="F85" s="11"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="n">
@@ -3301,7 +3293,7 @@
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="8"/>
-      <c r="F86" s="9"/>
+      <c r="F86" s="11"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="n">
@@ -3315,7 +3307,7 @@
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="8"/>
-      <c r="F87" s="9"/>
+      <c r="F87" s="11"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="n">
@@ -3329,7 +3321,7 @@
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="8"/>
-      <c r="F88" s="9"/>
+      <c r="F88" s="11"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="n">
@@ -3343,7 +3335,7 @@
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="8"/>
-      <c r="F89" s="9"/>
+      <c r="F89" s="11"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="n">
@@ -3357,7 +3349,7 @@
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="8"/>
-      <c r="F90" s="9"/>
+      <c r="F90" s="11"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="n">
@@ -3371,7 +3363,7 @@
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="8"/>
-      <c r="F91" s="9"/>
+      <c r="F91" s="11"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="n">
@@ -3385,7 +3377,7 @@
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="8"/>
-      <c r="F92" s="9"/>
+      <c r="F92" s="11"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="n">
@@ -3399,7 +3391,7 @@
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="8"/>
-      <c r="F93" s="9"/>
+      <c r="F93" s="11"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="n">
@@ -3413,7 +3405,7 @@
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="8"/>
-      <c r="F94" s="9"/>
+      <c r="F94" s="11"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="n">
@@ -3427,7 +3419,7 @@
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="8"/>
-      <c r="F95" s="9"/>
+      <c r="F95" s="11"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="n">
@@ -3441,7 +3433,7 @@
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="8"/>
-      <c r="F96" s="9"/>
+      <c r="F96" s="11"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="n">
@@ -3455,7 +3447,7 @@
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="8"/>
-      <c r="F97" s="9"/>
+      <c r="F97" s="11"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="n">
@@ -3469,7 +3461,7 @@
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="8"/>
-      <c r="F98" s="9"/>
+      <c r="F98" s="11"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="n">
@@ -3483,7 +3475,7 @@
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="8"/>
-      <c r="F99" s="9"/>
+      <c r="F99" s="11"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="n">
@@ -3497,13 +3489,13 @@
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="8"/>
-      <c r="F100" s="9"/>
+      <c r="F100" s="11"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="9" t="s">
         <v>107</v>
       </c>
       <c r="C101" s="7" t="s">
@@ -3511,13 +3503,13 @@
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="8"/>
-      <c r="F101" s="9"/>
+      <c r="F101" s="11"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="n">
         <v>101</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C102" s="7" t="s">
@@ -3525,13 +3517,13 @@
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="8"/>
-      <c r="F102" s="9"/>
+      <c r="F102" s="11"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="n">
         <v>102</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C103" s="7" t="s">
@@ -3539,13 +3531,13 @@
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="8"/>
-      <c r="F103" s="9"/>
+      <c r="F103" s="11"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="n">
         <v>103</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C104" s="7" t="s">
@@ -3553,13 +3545,13 @@
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="8"/>
-      <c r="F104" s="9"/>
+      <c r="F104" s="11"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="n">
         <v>104</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="9" t="s">
         <v>111</v>
       </c>
       <c r="C105" s="7" t="s">
@@ -3567,13 +3559,13 @@
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="8"/>
-      <c r="F105" s="9"/>
+      <c r="F105" s="11"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="n">
         <v>105</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="9" t="s">
         <v>112</v>
       </c>
       <c r="C106" s="7" t="s">
@@ -3581,13 +3573,13 @@
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="8"/>
-      <c r="F106" s="9"/>
+      <c r="F106" s="11"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="n">
         <v>106</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C107" s="7" t="s">
@@ -3595,7 +3587,7 @@
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="8"/>
-      <c r="F107" s="9"/>
+      <c r="F107" s="11"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="n">
@@ -3611,7 +3603,7 @@
         <v>8</v>
       </c>
       <c r="E108" s="8"/>
-      <c r="F108" s="9"/>
+      <c r="F108" s="11"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="n">
@@ -3627,7 +3619,7 @@
         <v>8</v>
       </c>
       <c r="E109" s="8"/>
-      <c r="F109" s="9"/>
+      <c r="F109" s="11"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="n">
@@ -3641,7 +3633,7 @@
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="8"/>
-      <c r="F110" s="9"/>
+      <c r="F110" s="11"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="n">
@@ -3655,7 +3647,7 @@
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="8"/>
-      <c r="F111" s="9"/>
+      <c r="F111" s="11"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="n">
@@ -3669,7 +3661,7 @@
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="8"/>
-      <c r="F112" s="9"/>
+      <c r="F112" s="11"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="n">
@@ -3683,7 +3675,7 @@
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="8"/>
-      <c r="F113" s="9"/>
+      <c r="F113" s="11"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="n">
@@ -3697,7 +3689,7 @@
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="8"/>
-      <c r="F114" s="9"/>
+      <c r="F114" s="11"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="n">
@@ -3711,7 +3703,7 @@
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="8"/>
-      <c r="F115" s="9"/>
+      <c r="F115" s="11"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="n">
@@ -3725,7 +3717,7 @@
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="8"/>
-      <c r="F116" s="9"/>
+      <c r="F116" s="11"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="n">
@@ -3739,7 +3731,7 @@
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="8"/>
-      <c r="F117" s="9"/>
+      <c r="F117" s="11"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="n">
@@ -3753,7 +3745,7 @@
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="8"/>
-      <c r="F118" s="9"/>
+      <c r="F118" s="11"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="n">
@@ -3767,7 +3759,7 @@
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="8"/>
-      <c r="F119" s="9"/>
+      <c r="F119" s="11"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="n">
@@ -3781,7 +3773,7 @@
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="8"/>
-      <c r="F120" s="9"/>
+      <c r="F120" s="11"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="n">
@@ -3795,7 +3787,7 @@
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="8"/>
-      <c r="F121" s="9"/>
+      <c r="F121" s="11"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="n">
@@ -3809,7 +3801,7 @@
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="8"/>
-      <c r="F122" s="9"/>
+      <c r="F122" s="11"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="n">
@@ -3823,7 +3815,7 @@
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="8"/>
-      <c r="F123" s="9"/>
+      <c r="F123" s="11"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="n">
@@ -3837,7 +3829,7 @@
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="8"/>
-      <c r="F124" s="9"/>
+      <c r="F124" s="11"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="n">
@@ -3851,7 +3843,7 @@
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="8"/>
-      <c r="F125" s="9"/>
+      <c r="F125" s="11"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="n">
@@ -3865,7 +3857,7 @@
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="8"/>
-      <c r="F126" s="9"/>
+      <c r="F126" s="11"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="n">
@@ -3879,7 +3871,7 @@
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="8"/>
-      <c r="F127" s="9"/>
+      <c r="F127" s="11"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="n">
@@ -3893,7 +3885,7 @@
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="8"/>
-      <c r="F128" s="9"/>
+      <c r="F128" s="11"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="n">
@@ -3907,7 +3899,7 @@
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="8"/>
-      <c r="F129" s="9"/>
+      <c r="F129" s="11"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="n">
@@ -3921,7 +3913,7 @@
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="8"/>
-      <c r="F130" s="9"/>
+      <c r="F130" s="11"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="n">
@@ -3935,7 +3927,7 @@
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="8"/>
-      <c r="F131" s="9"/>
+      <c r="F131" s="11"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="n">
@@ -3949,7 +3941,7 @@
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="8"/>
-      <c r="F132" s="9"/>
+      <c r="F132" s="11"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="n">
@@ -3963,7 +3955,7 @@
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="8"/>
-      <c r="F133" s="9"/>
+      <c r="F133" s="11"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="n">
@@ -3977,7 +3969,7 @@
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="8"/>
-      <c r="F134" s="9"/>
+      <c r="F134" s="11"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="n">
@@ -3991,7 +3983,7 @@
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="8"/>
-      <c r="F135" s="9"/>
+      <c r="F135" s="11"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="n">
@@ -4005,7 +3997,7 @@
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="8"/>
-      <c r="F136" s="9"/>
+      <c r="F136" s="11"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="n">
@@ -4019,7 +4011,7 @@
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="8"/>
-      <c r="F137" s="9"/>
+      <c r="F137" s="11"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="n">
@@ -4033,7 +4025,7 @@
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="8"/>
-      <c r="F138" s="9"/>
+      <c r="F138" s="11"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="n">
@@ -4047,7 +4039,7 @@
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="8"/>
-      <c r="F139" s="9"/>
+      <c r="F139" s="11"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="n">
@@ -4061,7 +4053,7 @@
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="8"/>
-      <c r="F140" s="9"/>
+      <c r="F140" s="11"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="n">
@@ -4075,7 +4067,7 @@
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="8"/>
-      <c r="F141" s="9"/>
+      <c r="F141" s="11"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="n">
@@ -4089,7 +4081,7 @@
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="8"/>
-      <c r="F142" s="9"/>
+      <c r="F142" s="11"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="n">
@@ -4103,7 +4095,7 @@
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="8"/>
-      <c r="F143" s="9"/>
+      <c r="F143" s="11"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="n">
@@ -4117,7 +4109,7 @@
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="8"/>
-      <c r="F144" s="9"/>
+      <c r="F144" s="11"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="n">
@@ -4131,7 +4123,7 @@
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="8"/>
-      <c r="F145" s="9"/>
+      <c r="F145" s="11"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="n">
@@ -4145,7 +4137,7 @@
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="8"/>
-      <c r="F146" s="9"/>
+      <c r="F146" s="11"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="n">
@@ -4159,7 +4151,7 @@
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="8"/>
-      <c r="F147" s="9"/>
+      <c r="F147" s="11"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="n">
@@ -4173,7 +4165,7 @@
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="8"/>
-      <c r="F148" s="9"/>
+      <c r="F148" s="11"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="n">
@@ -4187,7 +4179,7 @@
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="8"/>
-      <c r="F149" s="9"/>
+      <c r="F149" s="11"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="n">
@@ -4201,7 +4193,7 @@
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="8"/>
-      <c r="F150" s="9"/>
+      <c r="F150" s="11"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="n">
@@ -4215,7 +4207,7 @@
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="8"/>
-      <c r="F151" s="9"/>
+      <c r="F151" s="11"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="n">
@@ -4229,7 +4221,7 @@
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="8"/>
-      <c r="F152" s="9"/>
+      <c r="F152" s="11"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="n">
@@ -4243,7 +4235,7 @@
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="8"/>
-      <c r="F153" s="9"/>
+      <c r="F153" s="11"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="n">
@@ -4257,7 +4249,7 @@
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="8"/>
-      <c r="F154" s="9"/>
+      <c r="F154" s="11"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="n">
@@ -4271,7 +4263,7 @@
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="8"/>
-      <c r="F155" s="9"/>
+      <c r="F155" s="11"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="n">
@@ -4285,7 +4277,7 @@
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="8"/>
-      <c r="F156" s="9"/>
+      <c r="F156" s="11"/>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="n">
@@ -4299,7 +4291,7 @@
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="8"/>
-      <c r="F157" s="9"/>
+      <c r="F157" s="11"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="5" t="n">
@@ -4313,7 +4305,7 @@
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="8"/>
-      <c r="F158" s="9"/>
+      <c r="F158" s="11"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="n">
@@ -4327,7 +4319,7 @@
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="8"/>
-      <c r="F159" s="9"/>
+      <c r="F159" s="11"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="n">
@@ -4341,7 +4333,7 @@
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="8"/>
-      <c r="F160" s="9"/>
+      <c r="F160" s="11"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="n">
@@ -4355,7 +4347,7 @@
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="8"/>
-      <c r="F161" s="9"/>
+      <c r="F161" s="11"/>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="n">
@@ -4369,7 +4361,7 @@
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="8"/>
-      <c r="F162" s="9"/>
+      <c r="F162" s="11"/>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="n">
@@ -4383,7 +4375,7 @@
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="8"/>
-      <c r="F163" s="9"/>
+      <c r="F163" s="11"/>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="n">
@@ -4397,7 +4389,7 @@
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="8"/>
-      <c r="F164" s="9"/>
+      <c r="F164" s="11"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="n">
@@ -4411,7 +4403,7 @@
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="8"/>
-      <c r="F165" s="9"/>
+      <c r="F165" s="11"/>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="n">
@@ -4425,7 +4417,7 @@
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="8"/>
-      <c r="F166" s="9"/>
+      <c r="F166" s="11"/>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="n">
@@ -4439,7 +4431,7 @@
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="8"/>
-      <c r="F167" s="9"/>
+      <c r="F167" s="11"/>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5" t="n">
@@ -4453,7 +4445,7 @@
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="8"/>
-      <c r="F168" s="9"/>
+      <c r="F168" s="11"/>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="n">
@@ -4467,7 +4459,7 @@
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="8"/>
-      <c r="F169" s="9"/>
+      <c r="F169" s="11"/>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="n">
@@ -4481,7 +4473,7 @@
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="8"/>
-      <c r="F170" s="9"/>
+      <c r="F170" s="11"/>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="n">
@@ -4495,7 +4487,7 @@
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="8"/>
-      <c r="F171" s="9"/>
+      <c r="F171" s="11"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="n">
@@ -4509,7 +4501,7 @@
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="8"/>
-      <c r="F172" s="9"/>
+      <c r="F172" s="11"/>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="n">
@@ -4523,7 +4515,7 @@
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="8"/>
-      <c r="F173" s="9"/>
+      <c r="F173" s="11"/>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="n">
@@ -4537,7 +4529,7 @@
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="8"/>
-      <c r="F174" s="9"/>
+      <c r="F174" s="11"/>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="n">
@@ -4551,7 +4543,7 @@
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="8"/>
-      <c r="F175" s="9"/>
+      <c r="F175" s="11"/>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="n">
@@ -4565,7 +4557,7 @@
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="8"/>
-      <c r="F176" s="9"/>
+      <c r="F176" s="11"/>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="n">
@@ -4579,7 +4571,7 @@
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="8"/>
-      <c r="F177" s="9"/>
+      <c r="F177" s="11"/>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="n">
@@ -4593,7 +4585,7 @@
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="8"/>
-      <c r="F178" s="9"/>
+      <c r="F178" s="11"/>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="n">
@@ -4607,7 +4599,7 @@
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="8"/>
-      <c r="F179" s="9"/>
+      <c r="F179" s="11"/>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="n">
@@ -4621,7 +4613,7 @@
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="8"/>
-      <c r="F180" s="9"/>
+      <c r="F180" s="11"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="n">
@@ -4635,7 +4627,7 @@
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="8"/>
-      <c r="F181" s="9"/>
+      <c r="F181" s="11"/>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="n">
@@ -4649,7 +4641,7 @@
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="8"/>
-      <c r="F182" s="9"/>
+      <c r="F182" s="11"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="n">
@@ -4663,7 +4655,7 @@
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="8"/>
-      <c r="F183" s="9"/>
+      <c r="F183" s="11"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="n">
@@ -4677,7 +4669,7 @@
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="8"/>
-      <c r="F184" s="9"/>
+      <c r="F184" s="11"/>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="n">
@@ -4691,7 +4683,7 @@
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="8"/>
-      <c r="F185" s="9"/>
+      <c r="F185" s="11"/>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="n">
@@ -4705,7 +4697,7 @@
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="8"/>
-      <c r="F186" s="9"/>
+      <c r="F186" s="11"/>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="n">
@@ -4719,7 +4711,7 @@
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="8"/>
-      <c r="F187" s="9"/>
+      <c r="F187" s="11"/>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="n">
@@ -4733,7 +4725,7 @@
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="8"/>
-      <c r="F188" s="9"/>
+      <c r="F188" s="11"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="n">
@@ -4747,7 +4739,7 @@
       </c>
       <c r="D189" s="5"/>
       <c r="E189" s="8"/>
-      <c r="F189" s="9"/>
+      <c r="F189" s="11"/>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="n">
@@ -4761,7 +4753,7 @@
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="8"/>
-      <c r="F190" s="9"/>
+      <c r="F190" s="11"/>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="n">
@@ -4775,7 +4767,7 @@
       </c>
       <c r="D191" s="5"/>
       <c r="E191" s="8"/>
-      <c r="F191" s="9"/>
+      <c r="F191" s="11"/>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="n">
@@ -4789,7 +4781,7 @@
       </c>
       <c r="D192" s="5"/>
       <c r="E192" s="8"/>
-      <c r="F192" s="9"/>
+      <c r="F192" s="11"/>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="n">
@@ -4803,7 +4795,7 @@
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="8"/>
-      <c r="F193" s="9"/>
+      <c r="F193" s="11"/>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="n">
@@ -4817,7 +4809,7 @@
       </c>
       <c r="D194" s="5"/>
       <c r="E194" s="8"/>
-      <c r="F194" s="9"/>
+      <c r="F194" s="11"/>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="n">
@@ -4831,7 +4823,7 @@
       </c>
       <c r="D195" s="5"/>
       <c r="E195" s="8"/>
-      <c r="F195" s="9"/>
+      <c r="F195" s="11"/>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="n">
@@ -4845,7 +4837,7 @@
       </c>
       <c r="D196" s="5"/>
       <c r="E196" s="8"/>
-      <c r="F196" s="9"/>
+      <c r="F196" s="11"/>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5" t="n">
@@ -4859,7 +4851,7 @@
       </c>
       <c r="D197" s="5"/>
       <c r="E197" s="8"/>
-      <c r="F197" s="9"/>
+      <c r="F197" s="11"/>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="n">
@@ -4873,7 +4865,7 @@
       </c>
       <c r="D198" s="5"/>
       <c r="E198" s="8"/>
-      <c r="F198" s="9"/>
+      <c r="F198" s="11"/>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5" t="n">
@@ -4887,7 +4879,7 @@
       </c>
       <c r="D199" s="5"/>
       <c r="E199" s="8"/>
-      <c r="F199" s="9"/>
+      <c r="F199" s="11"/>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="n">
@@ -4901,7 +4893,7 @@
       </c>
       <c r="D200" s="5"/>
       <c r="E200" s="8"/>
-      <c r="F200" s="9"/>
+      <c r="F200" s="11"/>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="n">
@@ -4915,7 +4907,7 @@
       </c>
       <c r="D201" s="5"/>
       <c r="E201" s="8"/>
-      <c r="F201" s="9"/>
+      <c r="F201" s="11"/>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="5" t="n">
@@ -4929,7 +4921,7 @@
       </c>
       <c r="D202" s="5"/>
       <c r="E202" s="8"/>
-      <c r="F202" s="9"/>
+      <c r="F202" s="11"/>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="n">
@@ -4943,7 +4935,7 @@
       </c>
       <c r="D203" s="5"/>
       <c r="E203" s="8"/>
-      <c r="F203" s="9"/>
+      <c r="F203" s="11"/>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="n">
@@ -4957,7 +4949,7 @@
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="8"/>
-      <c r="F204" s="9"/>
+      <c r="F204" s="11"/>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="5" t="n">
@@ -4971,7 +4963,7 @@
       </c>
       <c r="D205" s="5"/>
       <c r="E205" s="8"/>
-      <c r="F205" s="9"/>
+      <c r="F205" s="11"/>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="5" t="n">
@@ -4985,7 +4977,7 @@
       </c>
       <c r="D206" s="5"/>
       <c r="E206" s="8"/>
-      <c r="F206" s="9"/>
+      <c r="F206" s="11"/>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="5" t="n">
@@ -4999,7 +4991,7 @@
       </c>
       <c r="D207" s="5"/>
       <c r="E207" s="8"/>
-      <c r="F207" s="9"/>
+      <c r="F207" s="11"/>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="5" t="n">
@@ -5013,7 +5005,7 @@
       </c>
       <c r="D208" s="5"/>
       <c r="E208" s="8"/>
-      <c r="F208" s="9"/>
+      <c r="F208" s="11"/>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="5" t="n">
@@ -5027,7 +5019,7 @@
       </c>
       <c r="D209" s="5"/>
       <c r="E209" s="8"/>
-      <c r="F209" s="9"/>
+      <c r="F209" s="11"/>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="5" t="n">
@@ -5041,7 +5033,7 @@
       </c>
       <c r="D210" s="5"/>
       <c r="E210" s="8"/>
-      <c r="F210" s="9"/>
+      <c r="F210" s="11"/>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="n">
@@ -5055,7 +5047,7 @@
       </c>
       <c r="D211" s="5"/>
       <c r="E211" s="8"/>
-      <c r="F211" s="9"/>
+      <c r="F211" s="11"/>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="5" t="n">
@@ -5069,7 +5061,7 @@
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="8"/>
-      <c r="F212" s="9"/>
+      <c r="F212" s="11"/>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5" t="n">
@@ -5083,7 +5075,7 @@
       </c>
       <c r="D213" s="5"/>
       <c r="E213" s="8"/>
-      <c r="F213" s="9"/>
+      <c r="F213" s="11"/>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="5" t="n">
@@ -5097,7 +5089,7 @@
       </c>
       <c r="D214" s="5"/>
       <c r="E214" s="8"/>
-      <c r="F214" s="9"/>
+      <c r="F214" s="11"/>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="5" t="n">
@@ -5111,7 +5103,7 @@
       </c>
       <c r="D215" s="5"/>
       <c r="E215" s="8"/>
-      <c r="F215" s="9"/>
+      <c r="F215" s="11"/>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="n">
@@ -5125,7 +5117,7 @@
       </c>
       <c r="D216" s="5"/>
       <c r="E216" s="8"/>
-      <c r="F216" s="9"/>
+      <c r="F216" s="11"/>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="n">
@@ -5139,7 +5131,7 @@
       </c>
       <c r="D217" s="5"/>
       <c r="E217" s="8"/>
-      <c r="F217" s="9"/>
+      <c r="F217" s="11"/>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="n">
@@ -5153,7 +5145,7 @@
       </c>
       <c r="D218" s="5"/>
       <c r="E218" s="8"/>
-      <c r="F218" s="9"/>
+      <c r="F218" s="11"/>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="5" t="n">
@@ -5167,7 +5159,7 @@
       </c>
       <c r="D219" s="5"/>
       <c r="E219" s="8"/>
-      <c r="F219" s="9"/>
+      <c r="F219" s="11"/>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5" t="n">
@@ -5181,7 +5173,7 @@
       </c>
       <c r="D220" s="5"/>
       <c r="E220" s="8"/>
-      <c r="F220" s="9"/>
+      <c r="F220" s="11"/>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="n">
@@ -5195,7 +5187,7 @@
       </c>
       <c r="D221" s="5"/>
       <c r="E221" s="8"/>
-      <c r="F221" s="9"/>
+      <c r="F221" s="11"/>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="5" t="n">
@@ -5209,7 +5201,7 @@
       </c>
       <c r="D222" s="5"/>
       <c r="E222" s="8"/>
-      <c r="F222" s="9"/>
+      <c r="F222" s="11"/>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="5" t="n">
@@ -5223,7 +5215,7 @@
       </c>
       <c r="D223" s="5"/>
       <c r="E223" s="8"/>
-      <c r="F223" s="9"/>
+      <c r="F223" s="11"/>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="5" t="n">
@@ -5237,7 +5229,7 @@
       </c>
       <c r="D224" s="5"/>
       <c r="E224" s="8"/>
-      <c r="F224" s="9"/>
+      <c r="F224" s="11"/>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="5" t="n">
@@ -5251,7 +5243,7 @@
       </c>
       <c r="D225" s="5"/>
       <c r="E225" s="8"/>
-      <c r="F225" s="9"/>
+      <c r="F225" s="11"/>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="5" t="n">
@@ -5265,7 +5257,7 @@
       </c>
       <c r="D226" s="5"/>
       <c r="E226" s="8"/>
-      <c r="F226" s="9"/>
+      <c r="F226" s="11"/>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="5" t="n">
@@ -5279,7 +5271,7 @@
       </c>
       <c r="D227" s="5"/>
       <c r="E227" s="8"/>
-      <c r="F227" s="9"/>
+      <c r="F227" s="11"/>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="5" t="n">
@@ -5293,7 +5285,7 @@
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="8"/>
-      <c r="F228" s="9"/>
+      <c r="F228" s="11"/>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="5" t="n">
@@ -5307,7 +5299,7 @@
       </c>
       <c r="D229" s="5"/>
       <c r="E229" s="8"/>
-      <c r="F229" s="9"/>
+      <c r="F229" s="11"/>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5" t="n">
@@ -5321,7 +5313,7 @@
       </c>
       <c r="D230" s="5"/>
       <c r="E230" s="8"/>
-      <c r="F230" s="9"/>
+      <c r="F230" s="11"/>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="5" t="n">
@@ -5335,7 +5327,7 @@
       </c>
       <c r="D231" s="5"/>
       <c r="E231" s="8"/>
-      <c r="F231" s="9"/>
+      <c r="F231" s="11"/>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="5" t="n">
@@ -5349,7 +5341,7 @@
       </c>
       <c r="D232" s="5"/>
       <c r="E232" s="8"/>
-      <c r="F232" s="9"/>
+      <c r="F232" s="11"/>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="5" t="n">
@@ -5363,7 +5355,7 @@
       </c>
       <c r="D233" s="5"/>
       <c r="E233" s="8"/>
-      <c r="F233" s="9"/>
+      <c r="F233" s="11"/>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="5" t="n">
@@ -5377,7 +5369,7 @@
       </c>
       <c r="D234" s="5"/>
       <c r="E234" s="8"/>
-      <c r="F234" s="9"/>
+      <c r="F234" s="11"/>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="5" t="n">
@@ -5391,7 +5383,7 @@
       </c>
       <c r="D235" s="5"/>
       <c r="E235" s="8"/>
-      <c r="F235" s="9"/>
+      <c r="F235" s="11"/>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="5" t="n">
@@ -5405,7 +5397,7 @@
       </c>
       <c r="D236" s="5"/>
       <c r="E236" s="8"/>
-      <c r="F236" s="9"/>
+      <c r="F236" s="11"/>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="5" t="n">
@@ -5419,7 +5411,7 @@
       </c>
       <c r="D237" s="5"/>
       <c r="E237" s="8"/>
-      <c r="F237" s="9"/>
+      <c r="F237" s="11"/>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="5" t="n">
@@ -5433,7 +5425,7 @@
       </c>
       <c r="D238" s="5"/>
       <c r="E238" s="8"/>
-      <c r="F238" s="9"/>
+      <c r="F238" s="11"/>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="5" t="n">
@@ -5447,7 +5439,7 @@
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="8"/>
-      <c r="F239" s="9"/>
+      <c r="F239" s="11"/>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="5" t="n">
@@ -5461,7 +5453,7 @@
       </c>
       <c r="D240" s="5"/>
       <c r="E240" s="8"/>
-      <c r="F240" s="9"/>
+      <c r="F240" s="11"/>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="5" t="n">
@@ -5475,7 +5467,7 @@
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="8"/>
-      <c r="F241" s="9"/>
+      <c r="F241" s="11"/>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="5" t="n">
@@ -5489,7 +5481,7 @@
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="8"/>
-      <c r="F242" s="9"/>
+      <c r="F242" s="11"/>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="5" t="n">
@@ -5503,7 +5495,7 @@
       </c>
       <c r="D243" s="5"/>
       <c r="E243" s="8"/>
-      <c r="F243" s="9"/>
+      <c r="F243" s="11"/>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="5" t="n">
@@ -5517,7 +5509,7 @@
       </c>
       <c r="D244" s="5"/>
       <c r="E244" s="8"/>
-      <c r="F244" s="9"/>
+      <c r="F244" s="11"/>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="5" t="n">
@@ -5531,7 +5523,7 @@
       </c>
       <c r="D245" s="5"/>
       <c r="E245" s="8"/>
-      <c r="F245" s="9"/>
+      <c r="F245" s="11"/>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="5" t="n">
@@ -5545,7 +5537,7 @@
       </c>
       <c r="D246" s="5"/>
       <c r="E246" s="8"/>
-      <c r="F246" s="9"/>
+      <c r="F246" s="11"/>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="5" t="n">
@@ -5559,7 +5551,7 @@
       </c>
       <c r="D247" s="5"/>
       <c r="E247" s="8"/>
-      <c r="F247" s="9"/>
+      <c r="F247" s="11"/>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="5" t="n">
@@ -5573,7 +5565,7 @@
       </c>
       <c r="D248" s="5"/>
       <c r="E248" s="8"/>
-      <c r="F248" s="9"/>
+      <c r="F248" s="11"/>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="5" t="n">
@@ -5587,7 +5579,7 @@
       </c>
       <c r="D249" s="5"/>
       <c r="E249" s="8"/>
-      <c r="F249" s="9"/>
+      <c r="F249" s="11"/>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="5" t="n">
@@ -5601,7 +5593,7 @@
       </c>
       <c r="D250" s="5"/>
       <c r="E250" s="8"/>
-      <c r="F250" s="9"/>
+      <c r="F250" s="11"/>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="5" t="n">
@@ -5615,7 +5607,7 @@
       </c>
       <c r="D251" s="5"/>
       <c r="E251" s="8"/>
-      <c r="F251" s="9"/>
+      <c r="F251" s="11"/>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="5" t="n">
@@ -5629,7 +5621,7 @@
       </c>
       <c r="D252" s="5"/>
       <c r="E252" s="8"/>
-      <c r="F252" s="9"/>
+      <c r="F252" s="11"/>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="5" t="n">
@@ -5643,7 +5635,7 @@
       </c>
       <c r="D253" s="5"/>
       <c r="E253" s="8"/>
-      <c r="F253" s="9"/>
+      <c r="F253" s="11"/>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="5" t="n">
@@ -5657,7 +5649,7 @@
       </c>
       <c r="D254" s="5"/>
       <c r="E254" s="8"/>
-      <c r="F254" s="9"/>
+      <c r="F254" s="11"/>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="5" t="n">
@@ -5671,7 +5663,7 @@
       </c>
       <c r="D255" s="5"/>
       <c r="E255" s="8"/>
-      <c r="F255" s="9"/>
+      <c r="F255" s="11"/>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="5" t="n">
@@ -5685,7 +5677,7 @@
       </c>
       <c r="D256" s="5"/>
       <c r="E256" s="8"/>
-      <c r="F256" s="9"/>
+      <c r="F256" s="11"/>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="5" t="n">
@@ -5699,7 +5691,7 @@
       </c>
       <c r="D257" s="5"/>
       <c r="E257" s="8"/>
-      <c r="F257" s="9"/>
+      <c r="F257" s="11"/>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="5" t="n">
@@ -5713,7 +5705,7 @@
       </c>
       <c r="D258" s="5"/>
       <c r="E258" s="8"/>
-      <c r="F258" s="9"/>
+      <c r="F258" s="11"/>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="5" t="n">
@@ -5727,7 +5719,7 @@
       </c>
       <c r="D259" s="5"/>
       <c r="E259" s="8"/>
-      <c r="F259" s="9"/>
+      <c r="F259" s="11"/>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="5" t="n">
@@ -5741,7 +5733,7 @@
       </c>
       <c r="D260" s="5"/>
       <c r="E260" s="8"/>
-      <c r="F260" s="9"/>
+      <c r="F260" s="11"/>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="5" t="n">
@@ -5755,7 +5747,7 @@
       </c>
       <c r="D261" s="5"/>
       <c r="E261" s="8"/>
-      <c r="F261" s="9"/>
+      <c r="F261" s="11"/>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="5" t="n">
@@ -5769,7 +5761,7 @@
       </c>
       <c r="D262" s="5"/>
       <c r="E262" s="8"/>
-      <c r="F262" s="9"/>
+      <c r="F262" s="11"/>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="5" t="n">
@@ -5783,7 +5775,7 @@
       </c>
       <c r="D263" s="5"/>
       <c r="E263" s="8"/>
-      <c r="F263" s="9"/>
+      <c r="F263" s="11"/>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="5" t="n">
@@ -5797,7 +5789,7 @@
       </c>
       <c r="D264" s="5"/>
       <c r="E264" s="8"/>
-      <c r="F264" s="9"/>
+      <c r="F264" s="11"/>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="5" t="n">
@@ -5811,7 +5803,7 @@
       </c>
       <c r="D265" s="5"/>
       <c r="E265" s="8"/>
-      <c r="F265" s="9"/>
+      <c r="F265" s="11"/>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="5" t="n">
@@ -5825,7 +5817,7 @@
       </c>
       <c r="D266" s="5"/>
       <c r="E266" s="8"/>
-      <c r="F266" s="9"/>
+      <c r="F266" s="11"/>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="5" t="n">
@@ -5839,7 +5831,7 @@
       </c>
       <c r="D267" s="5"/>
       <c r="E267" s="8"/>
-      <c r="F267" s="9"/>
+      <c r="F267" s="11"/>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="5" t="n">
@@ -5853,7 +5845,7 @@
       </c>
       <c r="D268" s="5"/>
       <c r="E268" s="8"/>
-      <c r="F268" s="9"/>
+      <c r="F268" s="11"/>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="5" t="n">
@@ -5867,7 +5859,7 @@
       </c>
       <c r="D269" s="5"/>
       <c r="E269" s="8"/>
-      <c r="F269" s="9"/>
+      <c r="F269" s="11"/>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="5" t="n">
@@ -5881,7 +5873,7 @@
       </c>
       <c r="D270" s="5"/>
       <c r="E270" s="8"/>
-      <c r="F270" s="9"/>
+      <c r="F270" s="11"/>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="5" t="n">
@@ -5895,7 +5887,7 @@
       </c>
       <c r="D271" s="5"/>
       <c r="E271" s="8"/>
-      <c r="F271" s="9"/>
+      <c r="F271" s="11"/>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="5" t="n">
@@ -5909,7 +5901,7 @@
       </c>
       <c r="D272" s="5"/>
       <c r="E272" s="8"/>
-      <c r="F272" s="9"/>
+      <c r="F272" s="11"/>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="5" t="n">
@@ -5923,7 +5915,7 @@
       </c>
       <c r="D273" s="5"/>
       <c r="E273" s="8"/>
-      <c r="F273" s="9"/>
+      <c r="F273" s="11"/>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="5" t="n">
@@ -5937,7 +5929,7 @@
       </c>
       <c r="D274" s="5"/>
       <c r="E274" s="8"/>
-      <c r="F274" s="9"/>
+      <c r="F274" s="11"/>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="5" t="n">
@@ -5951,7 +5943,7 @@
       </c>
       <c r="D275" s="5"/>
       <c r="E275" s="8"/>
-      <c r="F275" s="9"/>
+      <c r="F275" s="11"/>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="5" t="n">
@@ -5965,7 +5957,7 @@
       </c>
       <c r="D276" s="5"/>
       <c r="E276" s="8"/>
-      <c r="F276" s="9"/>
+      <c r="F276" s="11"/>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="5" t="n">
@@ -5979,7 +5971,7 @@
       </c>
       <c r="D277" s="5"/>
       <c r="E277" s="8"/>
-      <c r="F277" s="9"/>
+      <c r="F277" s="11"/>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="5" t="n">
@@ -5993,7 +5985,7 @@
       </c>
       <c r="D278" s="5"/>
       <c r="E278" s="8"/>
-      <c r="F278" s="9"/>
+      <c r="F278" s="11"/>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="5" t="n">
@@ -6007,7 +5999,7 @@
       </c>
       <c r="D279" s="5"/>
       <c r="E279" s="8"/>
-      <c r="F279" s="9"/>
+      <c r="F279" s="11"/>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="5" t="n">
@@ -6021,7 +6013,7 @@
       </c>
       <c r="D280" s="5"/>
       <c r="E280" s="8"/>
-      <c r="F280" s="9"/>
+      <c r="F280" s="11"/>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="5" t="n">
@@ -6035,7 +6027,7 @@
       </c>
       <c r="D281" s="5"/>
       <c r="E281" s="8"/>
-      <c r="F281" s="9"/>
+      <c r="F281" s="11"/>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="5" t="n">
@@ -6049,7 +6041,7 @@
       </c>
       <c r="D282" s="5"/>
       <c r="E282" s="8"/>
-      <c r="F282" s="9"/>
+      <c r="F282" s="11"/>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="5" t="n">
@@ -6063,7 +6055,7 @@
       </c>
       <c r="D283" s="5"/>
       <c r="E283" s="8"/>
-      <c r="F283" s="9"/>
+      <c r="F283" s="11"/>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="5" t="n">
@@ -6077,7 +6069,7 @@
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="8"/>
-      <c r="F284" s="9"/>
+      <c r="F284" s="11"/>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="5" t="n">
@@ -6091,7 +6083,7 @@
       </c>
       <c r="D285" s="5"/>
       <c r="E285" s="8"/>
-      <c r="F285" s="9"/>
+      <c r="F285" s="11"/>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="5" t="n">
@@ -6105,7 +6097,7 @@
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="8"/>
-      <c r="F286" s="9"/>
+      <c r="F286" s="11"/>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="5" t="n">
@@ -6119,7 +6111,7 @@
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="8"/>
-      <c r="F287" s="9"/>
+      <c r="F287" s="11"/>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="5" t="n">
@@ -6133,7 +6125,7 @@
       </c>
       <c r="D288" s="5"/>
       <c r="E288" s="8"/>
-      <c r="F288" s="9"/>
+      <c r="F288" s="11"/>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="5" t="n">
@@ -6147,7 +6139,7 @@
       </c>
       <c r="D289" s="5"/>
       <c r="E289" s="8"/>
-      <c r="F289" s="9"/>
+      <c r="F289" s="11"/>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="5" t="n">
@@ -6161,7 +6153,7 @@
       </c>
       <c r="D290" s="5"/>
       <c r="E290" s="8"/>
-      <c r="F290" s="9"/>
+      <c r="F290" s="11"/>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="5" t="n">
@@ -6175,7 +6167,7 @@
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="8"/>
-      <c r="F291" s="9"/>
+      <c r="F291" s="11"/>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="5" t="n">
@@ -6189,7 +6181,7 @@
       </c>
       <c r="D292" s="5"/>
       <c r="E292" s="8"/>
-      <c r="F292" s="9"/>
+      <c r="F292" s="11"/>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="5" t="n">
@@ -6203,7 +6195,7 @@
       </c>
       <c r="D293" s="5"/>
       <c r="E293" s="8"/>
-      <c r="F293" s="9"/>
+      <c r="F293" s="11"/>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="5" t="n">
@@ -6217,7 +6209,7 @@
       </c>
       <c r="D294" s="5"/>
       <c r="E294" s="8"/>
-      <c r="F294" s="9"/>
+      <c r="F294" s="11"/>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="5" t="n">
@@ -6231,7 +6223,7 @@
       </c>
       <c r="D295" s="5"/>
       <c r="E295" s="8"/>
-      <c r="F295" s="9"/>
+      <c r="F295" s="11"/>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="5" t="n">
@@ -6245,7 +6237,7 @@
       </c>
       <c r="D296" s="5"/>
       <c r="E296" s="8"/>
-      <c r="F296" s="9"/>
+      <c r="F296" s="11"/>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="5" t="n">
@@ -6259,7 +6251,7 @@
       </c>
       <c r="D297" s="5"/>
       <c r="E297" s="8"/>
-      <c r="F297" s="9"/>
+      <c r="F297" s="11"/>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="5" t="n">
@@ -6273,7 +6265,7 @@
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="8"/>
-      <c r="F298" s="9"/>
+      <c r="F298" s="11"/>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="5" t="n">
@@ -6287,7 +6279,7 @@
       </c>
       <c r="D299" s="5"/>
       <c r="E299" s="8"/>
-      <c r="F299" s="9"/>
+      <c r="F299" s="11"/>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="5" t="n">
@@ -6301,7 +6293,7 @@
       </c>
       <c r="D300" s="5"/>
       <c r="E300" s="8"/>
-      <c r="F300" s="9"/>
+      <c r="F300" s="11"/>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="5" t="n">
@@ -6315,7 +6307,7 @@
       </c>
       <c r="D301" s="5"/>
       <c r="E301" s="8"/>
-      <c r="F301" s="9"/>
+      <c r="F301" s="11"/>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="5" t="n">
@@ -6329,7 +6321,7 @@
       </c>
       <c r="D302" s="5"/>
       <c r="E302" s="8"/>
-      <c r="F302" s="9"/>
+      <c r="F302" s="11"/>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="5" t="n">
@@ -6343,7 +6335,7 @@
       </c>
       <c r="D303" s="5"/>
       <c r="E303" s="8"/>
-      <c r="F303" s="9"/>
+      <c r="F303" s="11"/>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="5" t="n">
@@ -6357,7 +6349,7 @@
       </c>
       <c r="D304" s="5"/>
       <c r="E304" s="8"/>
-      <c r="F304" s="9"/>
+      <c r="F304" s="11"/>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="5" t="n">
@@ -6371,7 +6363,7 @@
       </c>
       <c r="D305" s="5"/>
       <c r="E305" s="8"/>
-      <c r="F305" s="9"/>
+      <c r="F305" s="11"/>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="5" t="n">
@@ -6385,7 +6377,7 @@
       </c>
       <c r="D306" s="5"/>
       <c r="E306" s="8"/>
-      <c r="F306" s="9"/>
+      <c r="F306" s="11"/>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="5" t="n">
@@ -6399,7 +6391,7 @@
       </c>
       <c r="D307" s="5"/>
       <c r="E307" s="8"/>
-      <c r="F307" s="9"/>
+      <c r="F307" s="11"/>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="5" t="n">
@@ -6413,7 +6405,7 @@
       </c>
       <c r="D308" s="5"/>
       <c r="E308" s="8"/>
-      <c r="F308" s="9"/>
+      <c r="F308" s="11"/>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="5" t="n">
@@ -6427,7 +6419,7 @@
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="8"/>
-      <c r="F309" s="9"/>
+      <c r="F309" s="11"/>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="5" t="n">
@@ -6441,7 +6433,7 @@
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="8"/>
-      <c r="F310" s="9"/>
+      <c r="F310" s="11"/>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="5" t="n">
@@ -6455,7 +6447,7 @@
       </c>
       <c r="D311" s="5"/>
       <c r="E311" s="8"/>
-      <c r="F311" s="9"/>
+      <c r="F311" s="11"/>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="5" t="n">
@@ -6469,7 +6461,7 @@
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="8"/>
-      <c r="F312" s="9"/>
+      <c r="F312" s="11"/>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="5" t="n">
@@ -6483,7 +6475,7 @@
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="8"/>
-      <c r="F313" s="9"/>
+      <c r="F313" s="11"/>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="5" t="n">
@@ -6497,7 +6489,7 @@
       </c>
       <c r="D314" s="5"/>
       <c r="E314" s="8"/>
-      <c r="F314" s="9"/>
+      <c r="F314" s="11"/>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="5" t="n">
@@ -6511,7 +6503,7 @@
       </c>
       <c r="D315" s="5"/>
       <c r="E315" s="8"/>
-      <c r="F315" s="9"/>
+      <c r="F315" s="11"/>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="5" t="n">
@@ -6525,7 +6517,7 @@
       </c>
       <c r="D316" s="5"/>
       <c r="E316" s="8"/>
-      <c r="F316" s="9"/>
+      <c r="F316" s="11"/>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="5" t="n">
@@ -6539,7 +6531,7 @@
       </c>
       <c r="D317" s="5"/>
       <c r="E317" s="8"/>
-      <c r="F317" s="9"/>
+      <c r="F317" s="11"/>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="5" t="n">
@@ -6553,7 +6545,7 @@
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="8"/>
-      <c r="F318" s="9"/>
+      <c r="F318" s="11"/>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="5" t="n">
@@ -6567,7 +6559,7 @@
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="8"/>
-      <c r="F319" s="9"/>
+      <c r="F319" s="11"/>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="5" t="n">
@@ -6581,7 +6573,7 @@
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="8"/>
-      <c r="F320" s="9"/>
+      <c r="F320" s="11"/>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="5" t="n">
@@ -6595,7 +6587,7 @@
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="8"/>
-      <c r="F321" s="9"/>
+      <c r="F321" s="11"/>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="5" t="n">
@@ -6609,7 +6601,7 @@
       </c>
       <c r="D322" s="5"/>
       <c r="E322" s="8"/>
-      <c r="F322" s="9"/>
+      <c r="F322" s="11"/>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="5" t="n">
@@ -6623,7 +6615,7 @@
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="8"/>
-      <c r="F323" s="9"/>
+      <c r="F323" s="11"/>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="5" t="n">
@@ -6637,7 +6629,7 @@
       </c>
       <c r="D324" s="5"/>
       <c r="E324" s="8"/>
-      <c r="F324" s="9"/>
+      <c r="F324" s="11"/>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="5" t="n">
@@ -6651,7 +6643,7 @@
       </c>
       <c r="D325" s="5"/>
       <c r="E325" s="8"/>
-      <c r="F325" s="9"/>
+      <c r="F325" s="11"/>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="5" t="n">
@@ -6665,7 +6657,7 @@
       </c>
       <c r="D326" s="5"/>
       <c r="E326" s="8"/>
-      <c r="F326" s="9"/>
+      <c r="F326" s="11"/>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="5" t="n">
@@ -6679,7 +6671,7 @@
       </c>
       <c r="D327" s="5"/>
       <c r="E327" s="8"/>
-      <c r="F327" s="9"/>
+      <c r="F327" s="11"/>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="5" t="n">
@@ -6693,7 +6685,7 @@
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="8"/>
-      <c r="F328" s="9"/>
+      <c r="F328" s="11"/>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="5" t="n">
@@ -6707,7 +6699,7 @@
       </c>
       <c r="D329" s="5"/>
       <c r="E329" s="8"/>
-      <c r="F329" s="9"/>
+      <c r="F329" s="11"/>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="5" t="n">
@@ -6721,7 +6713,7 @@
       </c>
       <c r="D330" s="5"/>
       <c r="E330" s="8"/>
-      <c r="F330" s="9"/>
+      <c r="F330" s="11"/>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="5" t="n">
@@ -6735,7 +6727,7 @@
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="8"/>
-      <c r="F331" s="9"/>
+      <c r="F331" s="11"/>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="5" t="n">
@@ -6749,7 +6741,7 @@
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="8"/>
-      <c r="F332" s="9"/>
+      <c r="F332" s="11"/>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="5" t="n">
@@ -6763,7 +6755,7 @@
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="8"/>
-      <c r="F333" s="9"/>
+      <c r="F333" s="11"/>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="5" t="n">
@@ -6777,7 +6769,7 @@
       </c>
       <c r="D334" s="5"/>
       <c r="E334" s="8"/>
-      <c r="F334" s="9"/>
+      <c r="F334" s="11"/>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="5" t="n">
@@ -6791,7 +6783,7 @@
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="8"/>
-      <c r="F335" s="9"/>
+      <c r="F335" s="11"/>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="5" t="n">
@@ -6805,7 +6797,7 @@
       </c>
       <c r="D336" s="5"/>
       <c r="E336" s="8"/>
-      <c r="F336" s="9"/>
+      <c r="F336" s="11"/>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="5" t="n">
@@ -6819,7 +6811,7 @@
       </c>
       <c r="D337" s="5"/>
       <c r="E337" s="8"/>
-      <c r="F337" s="9"/>
+      <c r="F337" s="11"/>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="5" t="n">
@@ -6833,7 +6825,7 @@
       </c>
       <c r="D338" s="5"/>
       <c r="E338" s="8"/>
-      <c r="F338" s="9"/>
+      <c r="F338" s="11"/>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="5" t="n">
@@ -6847,7 +6839,7 @@
       </c>
       <c r="D339" s="5"/>
       <c r="E339" s="8"/>
-      <c r="F339" s="9"/>
+      <c r="F339" s="11"/>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="5" t="n">
@@ -6861,7 +6853,7 @@
       </c>
       <c r="D340" s="5"/>
       <c r="E340" s="8"/>
-      <c r="F340" s="9"/>
+      <c r="F340" s="11"/>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="5" t="n">
@@ -6875,7 +6867,7 @@
       </c>
       <c r="D341" s="5"/>
       <c r="E341" s="8"/>
-      <c r="F341" s="9"/>
+      <c r="F341" s="11"/>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="5" t="n">
@@ -6889,7 +6881,7 @@
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="8"/>
-      <c r="F342" s="9"/>
+      <c r="F342" s="11"/>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="5" t="n">
@@ -6903,7 +6895,7 @@
       </c>
       <c r="D343" s="5"/>
       <c r="E343" s="8"/>
-      <c r="F343" s="9"/>
+      <c r="F343" s="11"/>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="5" t="n">
@@ -6917,7 +6909,7 @@
       </c>
       <c r="D344" s="5"/>
       <c r="E344" s="8"/>
-      <c r="F344" s="9"/>
+      <c r="F344" s="11"/>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="5" t="n">
@@ -6931,7 +6923,7 @@
       </c>
       <c r="D345" s="5"/>
       <c r="E345" s="8"/>
-      <c r="F345" s="9"/>
+      <c r="F345" s="11"/>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="5" t="n">
@@ -6945,7 +6937,7 @@
       </c>
       <c r="D346" s="5"/>
       <c r="E346" s="8"/>
-      <c r="F346" s="9"/>
+      <c r="F346" s="11"/>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="5" t="n">
@@ -6959,7 +6951,7 @@
       </c>
       <c r="D347" s="5"/>
       <c r="E347" s="8"/>
-      <c r="F347" s="9"/>
+      <c r="F347" s="11"/>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="5" t="n">
@@ -6973,7 +6965,7 @@
       </c>
       <c r="D348" s="5"/>
       <c r="E348" s="8"/>
-      <c r="F348" s="9"/>
+      <c r="F348" s="11"/>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="5" t="n">
@@ -6987,7 +6979,7 @@
       </c>
       <c r="D349" s="5"/>
       <c r="E349" s="8"/>
-      <c r="F349" s="9"/>
+      <c r="F349" s="11"/>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="5" t="n">
@@ -7001,7 +6993,7 @@
       </c>
       <c r="D350" s="5"/>
       <c r="E350" s="8"/>
-      <c r="F350" s="9"/>
+      <c r="F350" s="11"/>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="5" t="n">
@@ -7015,7 +7007,7 @@
       </c>
       <c r="D351" s="5"/>
       <c r="E351" s="8"/>
-      <c r="F351" s="9"/>
+      <c r="F351" s="11"/>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="5" t="n">
@@ -7029,7 +7021,7 @@
       </c>
       <c r="D352" s="5"/>
       <c r="E352" s="8"/>
-      <c r="F352" s="9"/>
+      <c r="F352" s="11"/>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="5" t="n">
@@ -7043,7 +7035,7 @@
       </c>
       <c r="D353" s="5"/>
       <c r="E353" s="8"/>
-      <c r="F353" s="9"/>
+      <c r="F353" s="11"/>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="5" t="n">
@@ -7057,7 +7049,7 @@
       </c>
       <c r="D354" s="5"/>
       <c r="E354" s="8"/>
-      <c r="F354" s="9"/>
+      <c r="F354" s="11"/>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="5" t="n">
@@ -7071,7 +7063,7 @@
       </c>
       <c r="D355" s="5"/>
       <c r="E355" s="8"/>
-      <c r="F355" s="9"/>
+      <c r="F355" s="11"/>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="5" t="n">
@@ -7085,7 +7077,7 @@
       </c>
       <c r="D356" s="5"/>
       <c r="E356" s="8"/>
-      <c r="F356" s="9"/>
+      <c r="F356" s="11"/>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="5" t="n">
@@ -7099,7 +7091,7 @@
       </c>
       <c r="D357" s="5"/>
       <c r="E357" s="8"/>
-      <c r="F357" s="9"/>
+      <c r="F357" s="11"/>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="5" t="n">
@@ -7113,7 +7105,7 @@
       </c>
       <c r="D358" s="5"/>
       <c r="E358" s="8"/>
-      <c r="F358" s="9"/>
+      <c r="F358" s="11"/>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="5" t="n">
@@ -7127,7 +7119,7 @@
       </c>
       <c r="D359" s="5"/>
       <c r="E359" s="8"/>
-      <c r="F359" s="9"/>
+      <c r="F359" s="11"/>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="5" t="n">
@@ -7141,7 +7133,7 @@
       </c>
       <c r="D360" s="5"/>
       <c r="E360" s="8"/>
-      <c r="F360" s="9"/>
+      <c r="F360" s="11"/>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="5" t="n">
@@ -7155,7 +7147,7 @@
       </c>
       <c r="D361" s="5"/>
       <c r="E361" s="8"/>
-      <c r="F361" s="9"/>
+      <c r="F361" s="11"/>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="5" t="n">
@@ -7169,7 +7161,7 @@
       </c>
       <c r="D362" s="5"/>
       <c r="E362" s="8"/>
-      <c r="F362" s="9"/>
+      <c r="F362" s="11"/>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="5" t="n">
@@ -7183,7 +7175,7 @@
       </c>
       <c r="D363" s="5"/>
       <c r="E363" s="8"/>
-      <c r="F363" s="9"/>
+      <c r="F363" s="11"/>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="5" t="n">
@@ -7197,7 +7189,7 @@
       </c>
       <c r="D364" s="5"/>
       <c r="E364" s="8"/>
-      <c r="F364" s="9"/>
+      <c r="F364" s="11"/>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="5" t="n">
@@ -7211,7 +7203,7 @@
       </c>
       <c r="D365" s="5"/>
       <c r="E365" s="8"/>
-      <c r="F365" s="9"/>
+      <c r="F365" s="11"/>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="5" t="n">
@@ -7225,7 +7217,7 @@
       </c>
       <c r="D366" s="5"/>
       <c r="E366" s="8"/>
-      <c r="F366" s="9"/>
+      <c r="F366" s="11"/>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="5" t="n">
@@ -7239,7 +7231,7 @@
       </c>
       <c r="D367" s="5"/>
       <c r="E367" s="8"/>
-      <c r="F367" s="9"/>
+      <c r="F367" s="11"/>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="5" t="n">
@@ -7253,7 +7245,7 @@
       </c>
       <c r="D368" s="5"/>
       <c r="E368" s="8"/>
-      <c r="F368" s="9"/>
+      <c r="F368" s="11"/>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="5" t="n">
@@ -7267,7 +7259,7 @@
       </c>
       <c r="D369" s="5"/>
       <c r="E369" s="8"/>
-      <c r="F369" s="9"/>
+      <c r="F369" s="11"/>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="5" t="n">
@@ -7281,7 +7273,7 @@
       </c>
       <c r="D370" s="5"/>
       <c r="E370" s="8"/>
-      <c r="F370" s="9"/>
+      <c r="F370" s="11"/>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="5" t="n">
@@ -7295,7 +7287,7 @@
       </c>
       <c r="D371" s="5"/>
       <c r="E371" s="8"/>
-      <c r="F371" s="9"/>
+      <c r="F371" s="11"/>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="5" t="n">
@@ -7309,7 +7301,7 @@
       </c>
       <c r="D372" s="5"/>
       <c r="E372" s="8"/>
-      <c r="F372" s="9"/>
+      <c r="F372" s="11"/>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="5" t="n">
@@ -7323,7 +7315,7 @@
       </c>
       <c r="D373" s="5"/>
       <c r="E373" s="8"/>
-      <c r="F373" s="9"/>
+      <c r="F373" s="11"/>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="5" t="n">
@@ -7337,7 +7329,7 @@
       </c>
       <c r="D374" s="5"/>
       <c r="E374" s="8"/>
-      <c r="F374" s="9"/>
+      <c r="F374" s="11"/>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="5" t="n">
@@ -7351,7 +7343,7 @@
       </c>
       <c r="D375" s="5"/>
       <c r="E375" s="8"/>
-      <c r="F375" s="9"/>
+      <c r="F375" s="11"/>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="5" t="n">
@@ -7365,7 +7357,7 @@
       </c>
       <c r="D376" s="5"/>
       <c r="E376" s="8"/>
-      <c r="F376" s="9"/>
+      <c r="F376" s="11"/>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="5" t="n">
@@ -7379,7 +7371,7 @@
       </c>
       <c r="D377" s="5"/>
       <c r="E377" s="8"/>
-      <c r="F377" s="9"/>
+      <c r="F377" s="11"/>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="5" t="n">
@@ -7393,7 +7385,7 @@
       </c>
       <c r="D378" s="5"/>
       <c r="E378" s="8"/>
-      <c r="F378" s="9"/>
+      <c r="F378" s="11"/>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="5" t="n">
@@ -7407,7 +7399,7 @@
       </c>
       <c r="D379" s="5"/>
       <c r="E379" s="8"/>
-      <c r="F379" s="9"/>
+      <c r="F379" s="11"/>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="5" t="n">
@@ -7421,7 +7413,7 @@
       </c>
       <c r="D380" s="5"/>
       <c r="E380" s="8"/>
-      <c r="F380" s="9"/>
+      <c r="F380" s="11"/>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="5" t="n">
@@ -7435,7 +7427,7 @@
       </c>
       <c r="D381" s="5"/>
       <c r="E381" s="8"/>
-      <c r="F381" s="9"/>
+      <c r="F381" s="11"/>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="5" t="n">
@@ -7449,7 +7441,7 @@
       </c>
       <c r="D382" s="5"/>
       <c r="E382" s="8"/>
-      <c r="F382" s="9"/>
+      <c r="F382" s="11"/>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="5" t="n">
@@ -7463,7 +7455,7 @@
       </c>
       <c r="D383" s="5"/>
       <c r="E383" s="8"/>
-      <c r="F383" s="9"/>
+      <c r="F383" s="11"/>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="5" t="n">
@@ -7477,7 +7469,7 @@
       </c>
       <c r="D384" s="5"/>
       <c r="E384" s="8"/>
-      <c r="F384" s="9"/>
+      <c r="F384" s="11"/>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="5" t="n">
@@ -7491,7 +7483,7 @@
       </c>
       <c r="D385" s="5"/>
       <c r="E385" s="8"/>
-      <c r="F385" s="9"/>
+      <c r="F385" s="11"/>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="5" t="n">
@@ -7505,7 +7497,7 @@
       </c>
       <c r="D386" s="5"/>
       <c r="E386" s="8"/>
-      <c r="F386" s="9"/>
+      <c r="F386" s="11"/>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="5" t="n">
@@ -7519,7 +7511,7 @@
       </c>
       <c r="D387" s="5"/>
       <c r="E387" s="8"/>
-      <c r="F387" s="9"/>
+      <c r="F387" s="11"/>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="5" t="n">
@@ -7533,7 +7525,7 @@
       </c>
       <c r="D388" s="5"/>
       <c r="E388" s="8"/>
-      <c r="F388" s="9"/>
+      <c r="F388" s="11"/>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="5" t="n">
@@ -7547,7 +7539,7 @@
       </c>
       <c r="D389" s="5"/>
       <c r="E389" s="8"/>
-      <c r="F389" s="9"/>
+      <c r="F389" s="11"/>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="5" t="n">
@@ -7561,7 +7553,7 @@
       </c>
       <c r="D390" s="5"/>
       <c r="E390" s="8"/>
-      <c r="F390" s="9"/>
+      <c r="F390" s="11"/>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="5" t="n">
@@ -7575,7 +7567,7 @@
       </c>
       <c r="D391" s="5"/>
       <c r="E391" s="8"/>
-      <c r="F391" s="9"/>
+      <c r="F391" s="11"/>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="5" t="n">
@@ -7589,7 +7581,7 @@
       </c>
       <c r="D392" s="5"/>
       <c r="E392" s="8"/>
-      <c r="F392" s="9"/>
+      <c r="F392" s="11"/>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="5" t="n">
@@ -7603,7 +7595,7 @@
       </c>
       <c r="D393" s="5"/>
       <c r="E393" s="8"/>
-      <c r="F393" s="9"/>
+      <c r="F393" s="11"/>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="5" t="n">
@@ -7617,7 +7609,7 @@
       </c>
       <c r="D394" s="5"/>
       <c r="E394" s="8"/>
-      <c r="F394" s="9"/>
+      <c r="F394" s="11"/>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="5" t="n">
@@ -7631,7 +7623,7 @@
       </c>
       <c r="D395" s="5"/>
       <c r="E395" s="8"/>
-      <c r="F395" s="9"/>
+      <c r="F395" s="11"/>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="5" t="n">
@@ -7645,7 +7637,7 @@
       </c>
       <c r="D396" s="5"/>
       <c r="E396" s="8"/>
-      <c r="F396" s="9"/>
+      <c r="F396" s="11"/>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="5" t="n">
@@ -7659,7 +7651,7 @@
       </c>
       <c r="D397" s="5"/>
       <c r="E397" s="8"/>
-      <c r="F397" s="9"/>
+      <c r="F397" s="11"/>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="5" t="n">
@@ -7673,7 +7665,7 @@
       </c>
       <c r="D398" s="5"/>
       <c r="E398" s="8"/>
-      <c r="F398" s="9"/>
+      <c r="F398" s="11"/>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="5" t="n">
@@ -7687,7 +7679,7 @@
       </c>
       <c r="D399" s="5"/>
       <c r="E399" s="8"/>
-      <c r="F399" s="9"/>
+      <c r="F399" s="11"/>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="5" t="n">
@@ -7701,7 +7693,7 @@
       </c>
       <c r="D400" s="5"/>
       <c r="E400" s="8"/>
-      <c r="F400" s="9"/>
+      <c r="F400" s="11"/>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="5" t="n">
@@ -7715,7 +7707,7 @@
       </c>
       <c r="D401" s="5"/>
       <c r="E401" s="8"/>
-      <c r="F401" s="9"/>
+      <c r="F401" s="11"/>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="5" t="n">
@@ -7729,7 +7721,7 @@
       </c>
       <c r="D402" s="5"/>
       <c r="E402" s="8"/>
-      <c r="F402" s="9"/>
+      <c r="F402" s="11"/>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="5" t="n">
@@ -7743,7 +7735,7 @@
       </c>
       <c r="D403" s="5"/>
       <c r="E403" s="8"/>
-      <c r="F403" s="9"/>
+      <c r="F403" s="11"/>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="5" t="n">
@@ -7757,7 +7749,7 @@
       </c>
       <c r="D404" s="5"/>
       <c r="E404" s="8"/>
-      <c r="F404" s="9"/>
+      <c r="F404" s="11"/>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="5" t="n">
@@ -7771,7 +7763,7 @@
       </c>
       <c r="D405" s="5"/>
       <c r="E405" s="8"/>
-      <c r="F405" s="9"/>
+      <c r="F405" s="11"/>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="5" t="n">
@@ -7785,7 +7777,7 @@
       </c>
       <c r="D406" s="5"/>
       <c r="E406" s="8"/>
-      <c r="F406" s="9"/>
+      <c r="F406" s="11"/>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="5" t="n">
@@ -7799,7 +7791,7 @@
       </c>
       <c r="D407" s="5"/>
       <c r="E407" s="8"/>
-      <c r="F407" s="9"/>
+      <c r="F407" s="11"/>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="5" t="n">
@@ -7813,7 +7805,7 @@
       </c>
       <c r="D408" s="5"/>
       <c r="E408" s="8"/>
-      <c r="F408" s="9"/>
+      <c r="F408" s="11"/>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="5" t="n">
@@ -7827,7 +7819,7 @@
       </c>
       <c r="D409" s="5"/>
       <c r="E409" s="8"/>
-      <c r="F409" s="9"/>
+      <c r="F409" s="11"/>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="5" t="n">
@@ -7841,7 +7833,7 @@
       </c>
       <c r="D410" s="5"/>
       <c r="E410" s="8"/>
-      <c r="F410" s="9"/>
+      <c r="F410" s="11"/>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="5" t="n">
@@ -7855,7 +7847,7 @@
       </c>
       <c r="D411" s="5"/>
       <c r="E411" s="8"/>
-      <c r="F411" s="9"/>
+      <c r="F411" s="11"/>
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="5" t="n">
@@ -7869,7 +7861,7 @@
       </c>
       <c r="D412" s="5"/>
       <c r="E412" s="8"/>
-      <c r="F412" s="9"/>
+      <c r="F412" s="11"/>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="5" t="n">
@@ -7883,7 +7875,7 @@
       </c>
       <c r="D413" s="5"/>
       <c r="E413" s="8"/>
-      <c r="F413" s="9"/>
+      <c r="F413" s="11"/>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="5" t="n">
@@ -7897,7 +7889,7 @@
       </c>
       <c r="D414" s="5"/>
       <c r="E414" s="8"/>
-      <c r="F414" s="9"/>
+      <c r="F414" s="11"/>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="5" t="n">
@@ -7911,7 +7903,7 @@
       </c>
       <c r="D415" s="5"/>
       <c r="E415" s="8"/>
-      <c r="F415" s="9"/>
+      <c r="F415" s="11"/>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="5" t="n">
@@ -7925,7 +7917,7 @@
       </c>
       <c r="D416" s="5"/>
       <c r="E416" s="8"/>
-      <c r="F416" s="9"/>
+      <c r="F416" s="11"/>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="5" t="n">
@@ -7939,7 +7931,7 @@
       </c>
       <c r="D417" s="5"/>
       <c r="E417" s="8"/>
-      <c r="F417" s="9"/>
+      <c r="F417" s="11"/>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="5" t="n">
@@ -7953,7 +7945,7 @@
       </c>
       <c r="D418" s="5"/>
       <c r="E418" s="8"/>
-      <c r="F418" s="9"/>
+      <c r="F418" s="11"/>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="5" t="n">
@@ -7967,7 +7959,7 @@
       </c>
       <c r="D419" s="5"/>
       <c r="E419" s="8"/>
-      <c r="F419" s="9"/>
+      <c r="F419" s="11"/>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="5" t="n">
@@ -7981,7 +7973,7 @@
       </c>
       <c r="D420" s="5"/>
       <c r="E420" s="8"/>
-      <c r="F420" s="9"/>
+      <c r="F420" s="11"/>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="5" t="n">
@@ -7995,7 +7987,7 @@
       </c>
       <c r="D421" s="5"/>
       <c r="E421" s="8"/>
-      <c r="F421" s="9"/>
+      <c r="F421" s="11"/>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="5" t="n">
@@ -8009,7 +8001,7 @@
       </c>
       <c r="D422" s="5"/>
       <c r="E422" s="8"/>
-      <c r="F422" s="9"/>
+      <c r="F422" s="11"/>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="5" t="n">
@@ -8023,7 +8015,7 @@
       </c>
       <c r="D423" s="5"/>
       <c r="E423" s="8"/>
-      <c r="F423" s="9"/>
+      <c r="F423" s="11"/>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="5" t="n">
@@ -8037,7 +8029,7 @@
       </c>
       <c r="D424" s="5"/>
       <c r="E424" s="8"/>
-      <c r="F424" s="9"/>
+      <c r="F424" s="11"/>
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="5" t="n">
@@ -8051,7 +8043,7 @@
       </c>
       <c r="D425" s="5"/>
       <c r="E425" s="8"/>
-      <c r="F425" s="9"/>
+      <c r="F425" s="11"/>
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="5" t="n">
@@ -8065,7 +8057,7 @@
       </c>
       <c r="D426" s="5"/>
       <c r="E426" s="8"/>
-      <c r="F426" s="9"/>
+      <c r="F426" s="11"/>
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="5" t="n">
@@ -8079,7 +8071,7 @@
       </c>
       <c r="D427" s="5"/>
       <c r="E427" s="8"/>
-      <c r="F427" s="9"/>
+      <c r="F427" s="11"/>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="5" t="n">
@@ -8093,7 +8085,7 @@
       </c>
       <c r="D428" s="5"/>
       <c r="E428" s="8"/>
-      <c r="F428" s="9"/>
+      <c r="F428" s="11"/>
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="5" t="n">
@@ -8107,7 +8099,7 @@
       </c>
       <c r="D429" s="5"/>
       <c r="E429" s="8"/>
-      <c r="F429" s="9"/>
+      <c r="F429" s="11"/>
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="5" t="n">
@@ -8121,7 +8113,7 @@
       </c>
       <c r="D430" s="5"/>
       <c r="E430" s="8"/>
-      <c r="F430" s="9"/>
+      <c r="F430" s="11"/>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="5" t="n">
@@ -8135,7 +8127,7 @@
       </c>
       <c r="D431" s="5"/>
       <c r="E431" s="8"/>
-      <c r="F431" s="9"/>
+      <c r="F431" s="11"/>
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="5" t="n">
@@ -8149,7 +8141,7 @@
       </c>
       <c r="D432" s="5"/>
       <c r="E432" s="8"/>
-      <c r="F432" s="9"/>
+      <c r="F432" s="11"/>
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="5" t="n">
@@ -8163,7 +8155,7 @@
       </c>
       <c r="D433" s="5"/>
       <c r="E433" s="8"/>
-      <c r="F433" s="9"/>
+      <c r="F433" s="11"/>
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="5" t="n">
@@ -8177,7 +8169,7 @@
       </c>
       <c r="D434" s="5"/>
       <c r="E434" s="8"/>
-      <c r="F434" s="9"/>
+      <c r="F434" s="11"/>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="5" t="n">
@@ -8191,7 +8183,7 @@
       </c>
       <c r="D435" s="5"/>
       <c r="E435" s="8"/>
-      <c r="F435" s="9"/>
+      <c r="F435" s="11"/>
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="5" t="n">
@@ -8205,7 +8197,7 @@
       </c>
       <c r="D436" s="5"/>
       <c r="E436" s="8"/>
-      <c r="F436" s="9"/>
+      <c r="F436" s="11"/>
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="5" t="n">
@@ -8219,7 +8211,7 @@
       </c>
       <c r="D437" s="5"/>
       <c r="E437" s="8"/>
-      <c r="F437" s="9"/>
+      <c r="F437" s="11"/>
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="5" t="n">
@@ -8233,7 +8225,7 @@
       </c>
       <c r="D438" s="5"/>
       <c r="E438" s="8"/>
-      <c r="F438" s="9"/>
+      <c r="F438" s="11"/>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="5" t="n">
@@ -8247,7 +8239,7 @@
       </c>
       <c r="D439" s="5"/>
       <c r="E439" s="8"/>
-      <c r="F439" s="9"/>
+      <c r="F439" s="11"/>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="5" t="n">
@@ -8261,7 +8253,7 @@
       </c>
       <c r="D440" s="5"/>
       <c r="E440" s="8"/>
-      <c r="F440" s="9"/>
+      <c r="F440" s="11"/>
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="5" t="n">
@@ -8275,7 +8267,7 @@
       </c>
       <c r="D441" s="5"/>
       <c r="E441" s="8"/>
-      <c r="F441" s="9"/>
+      <c r="F441" s="11"/>
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="5" t="n">
@@ -8289,7 +8281,7 @@
       </c>
       <c r="D442" s="5"/>
       <c r="E442" s="8"/>
-      <c r="F442" s="9"/>
+      <c r="F442" s="11"/>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="5" t="n">
@@ -8303,7 +8295,7 @@
       </c>
       <c r="D443" s="5"/>
       <c r="E443" s="8"/>
-      <c r="F443" s="9"/>
+      <c r="F443" s="11"/>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="5" t="n">
@@ -8317,7 +8309,7 @@
       </c>
       <c r="D444" s="5"/>
       <c r="E444" s="8"/>
-      <c r="F444" s="9"/>
+      <c r="F444" s="11"/>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="5" t="n">
@@ -8331,7 +8323,7 @@
       </c>
       <c r="D445" s="5"/>
       <c r="E445" s="8"/>
-      <c r="F445" s="9"/>
+      <c r="F445" s="11"/>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="5" t="n">
@@ -8345,7 +8337,7 @@
       </c>
       <c r="D446" s="5"/>
       <c r="E446" s="8"/>
-      <c r="F446" s="9"/>
+      <c r="F446" s="11"/>
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="5" t="n">
@@ -8359,7 +8351,7 @@
       </c>
       <c r="D447" s="5"/>
       <c r="E447" s="8"/>
-      <c r="F447" s="9"/>
+      <c r="F447" s="11"/>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="5" t="n">
@@ -8373,7 +8365,7 @@
       </c>
       <c r="D448" s="5"/>
       <c r="E448" s="8"/>
-      <c r="F448" s="9"/>
+      <c r="F448" s="11"/>
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="5" t="n">
@@ -8387,7 +8379,7 @@
       </c>
       <c r="D449" s="5"/>
       <c r="E449" s="8"/>
-      <c r="F449" s="9"/>
+      <c r="F449" s="11"/>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="5" t="n">
@@ -8401,7 +8393,7 @@
       </c>
       <c r="D450" s="5"/>
       <c r="E450" s="8"/>
-      <c r="F450" s="9"/>
+      <c r="F450" s="11"/>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="5" t="n">
@@ -8415,7 +8407,7 @@
       </c>
       <c r="D451" s="5"/>
       <c r="E451" s="8"/>
-      <c r="F451" s="9"/>
+      <c r="F451" s="11"/>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="5" t="n">
@@ -8429,7 +8421,7 @@
       </c>
       <c r="D452" s="5"/>
       <c r="E452" s="8"/>
-      <c r="F452" s="9"/>
+      <c r="F452" s="11"/>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="5" t="n">
@@ -8443,7 +8435,7 @@
       </c>
       <c r="D453" s="5"/>
       <c r="E453" s="8"/>
-      <c r="F453" s="9"/>
+      <c r="F453" s="11"/>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="5" t="n">
@@ -8457,7 +8449,7 @@
       </c>
       <c r="D454" s="5"/>
       <c r="E454" s="8"/>
-      <c r="F454" s="9"/>
+      <c r="F454" s="11"/>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="5" t="n">
@@ -8471,7 +8463,7 @@
       </c>
       <c r="D455" s="5"/>
       <c r="E455" s="8"/>
-      <c r="F455" s="9"/>
+      <c r="F455" s="11"/>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="5" t="n">
@@ -8485,7 +8477,7 @@
       </c>
       <c r="D456" s="5"/>
       <c r="E456" s="8"/>
-      <c r="F456" s="9"/>
+      <c r="F456" s="11"/>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="5" t="n">
@@ -8499,7 +8491,7 @@
       </c>
       <c r="D457" s="5"/>
       <c r="E457" s="8"/>
-      <c r="F457" s="9"/>
+      <c r="F457" s="11"/>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="5" t="n">
@@ -8513,7 +8505,7 @@
       </c>
       <c r="D458" s="5"/>
       <c r="E458" s="8"/>
-      <c r="F458" s="9"/>
+      <c r="F458" s="11"/>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="5" t="n">
@@ -8527,7 +8519,7 @@
       </c>
       <c r="D459" s="5"/>
       <c r="E459" s="8"/>
-      <c r="F459" s="9"/>
+      <c r="F459" s="11"/>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="5" t="n">
@@ -8541,7 +8533,7 @@
       </c>
       <c r="D460" s="5"/>
       <c r="E460" s="8"/>
-      <c r="F460" s="9"/>
+      <c r="F460" s="11"/>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="5" t="n">
@@ -8555,7 +8547,7 @@
       </c>
       <c r="D461" s="5"/>
       <c r="E461" s="8"/>
-      <c r="F461" s="9"/>
+      <c r="F461" s="11"/>
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="5" t="n">
@@ -8569,7 +8561,7 @@
       </c>
       <c r="D462" s="5"/>
       <c r="E462" s="8"/>
-      <c r="F462" s="9"/>
+      <c r="F462" s="11"/>
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="5" t="n">
@@ -8583,7 +8575,7 @@
       </c>
       <c r="D463" s="5"/>
       <c r="E463" s="8"/>
-      <c r="F463" s="9"/>
+      <c r="F463" s="11"/>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="5" t="n">
@@ -8597,7 +8589,7 @@
       </c>
       <c r="D464" s="5"/>
       <c r="E464" s="8"/>
-      <c r="F464" s="9"/>
+      <c r="F464" s="11"/>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="5" t="n">
@@ -8611,7 +8603,7 @@
       </c>
       <c r="D465" s="5"/>
       <c r="E465" s="8"/>
-      <c r="F465" s="9"/>
+      <c r="F465" s="11"/>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="5" t="n">
@@ -8625,7 +8617,7 @@
       </c>
       <c r="D466" s="5"/>
       <c r="E466" s="8"/>
-      <c r="F466" s="9"/>
+      <c r="F466" s="11"/>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="5" t="n">
@@ -8639,7 +8631,7 @@
       </c>
       <c r="D467" s="5"/>
       <c r="E467" s="8"/>
-      <c r="F467" s="9"/>
+      <c r="F467" s="11"/>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="5" t="n">
@@ -8653,7 +8645,7 @@
       </c>
       <c r="D468" s="5"/>
       <c r="E468" s="8"/>
-      <c r="F468" s="9"/>
+      <c r="F468" s="11"/>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="5" t="n">
@@ -8667,7 +8659,7 @@
       </c>
       <c r="D469" s="5"/>
       <c r="E469" s="8"/>
-      <c r="F469" s="9"/>
+      <c r="F469" s="11"/>
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="5" t="n">
@@ -8681,7 +8673,7 @@
       </c>
       <c r="D470" s="5"/>
       <c r="E470" s="8"/>
-      <c r="F470" s="9"/>
+      <c r="F470" s="11"/>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="5" t="n">
@@ -8695,7 +8687,7 @@
       </c>
       <c r="D471" s="5"/>
       <c r="E471" s="8"/>
-      <c r="F471" s="9"/>
+      <c r="F471" s="11"/>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="5" t="n">
@@ -8709,7 +8701,7 @@
       </c>
       <c r="D472" s="5"/>
       <c r="E472" s="8"/>
-      <c r="F472" s="9"/>
+      <c r="F472" s="11"/>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="5" t="n">
@@ -8723,7 +8715,7 @@
       </c>
       <c r="D473" s="5"/>
       <c r="E473" s="8"/>
-      <c r="F473" s="9"/>
+      <c r="F473" s="11"/>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="5" t="n">
@@ -8737,7 +8729,7 @@
       </c>
       <c r="D474" s="5"/>
       <c r="E474" s="8"/>
-      <c r="F474" s="9"/>
+      <c r="F474" s="11"/>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="5" t="n">
@@ -8751,7 +8743,7 @@
       </c>
       <c r="D475" s="5"/>
       <c r="E475" s="8"/>
-      <c r="F475" s="9"/>
+      <c r="F475" s="11"/>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="5" t="n">
@@ -8765,7 +8757,7 @@
       </c>
       <c r="D476" s="5"/>
       <c r="E476" s="8"/>
-      <c r="F476" s="9"/>
+      <c r="F476" s="11"/>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="5" t="n">
@@ -8779,7 +8771,7 @@
       </c>
       <c r="D477" s="5"/>
       <c r="E477" s="8"/>
-      <c r="F477" s="9"/>
+      <c r="F477" s="11"/>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="5" t="n">
@@ -8793,7 +8785,7 @@
       </c>
       <c r="D478" s="5"/>
       <c r="E478" s="8"/>
-      <c r="F478" s="9"/>
+      <c r="F478" s="11"/>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="5" t="n">
@@ -8807,7 +8799,7 @@
       </c>
       <c r="D479" s="5"/>
       <c r="E479" s="8"/>
-      <c r="F479" s="9"/>
+      <c r="F479" s="11"/>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="5" t="n">
@@ -8821,7 +8813,7 @@
       </c>
       <c r="D480" s="5"/>
       <c r="E480" s="8"/>
-      <c r="F480" s="9"/>
+      <c r="F480" s="11"/>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="5" t="n">
@@ -8835,7 +8827,7 @@
       </c>
       <c r="D481" s="5"/>
       <c r="E481" s="8"/>
-      <c r="F481" s="9"/>
+      <c r="F481" s="11"/>
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="5" t="n">
@@ -8849,7 +8841,7 @@
       </c>
       <c r="D482" s="5"/>
       <c r="E482" s="8"/>
-      <c r="F482" s="9"/>
+      <c r="F482" s="11"/>
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="5" t="n">
@@ -8863,7 +8855,7 @@
       </c>
       <c r="D483" s="5"/>
       <c r="E483" s="8"/>
-      <c r="F483" s="9"/>
+      <c r="F483" s="11"/>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="5" t="n">
@@ -8877,7 +8869,7 @@
       </c>
       <c r="D484" s="5"/>
       <c r="E484" s="8"/>
-      <c r="F484" s="9"/>
+      <c r="F484" s="11"/>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="5" t="n">
@@ -8891,7 +8883,7 @@
       </c>
       <c r="D485" s="5"/>
       <c r="E485" s="8"/>
-      <c r="F485" s="9"/>
+      <c r="F485" s="11"/>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="5" t="n">
@@ -8905,7 +8897,7 @@
       </c>
       <c r="D486" s="5"/>
       <c r="E486" s="8"/>
-      <c r="F486" s="9"/>
+      <c r="F486" s="11"/>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="5" t="n">
@@ -8919,7 +8911,7 @@
       </c>
       <c r="D487" s="5"/>
       <c r="E487" s="8"/>
-      <c r="F487" s="9"/>
+      <c r="F487" s="11"/>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="5" t="n">
@@ -8933,7 +8925,7 @@
       </c>
       <c r="D488" s="5"/>
       <c r="E488" s="8"/>
-      <c r="F488" s="9"/>
+      <c r="F488" s="11"/>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="5" t="n">
@@ -8947,7 +8939,7 @@
       </c>
       <c r="D489" s="5"/>
       <c r="E489" s="8"/>
-      <c r="F489" s="9"/>
+      <c r="F489" s="11"/>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="5" t="n">
@@ -8961,7 +8953,7 @@
       </c>
       <c r="D490" s="5"/>
       <c r="E490" s="8"/>
-      <c r="F490" s="9"/>
+      <c r="F490" s="11"/>
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="5" t="n">
@@ -8975,7 +8967,7 @@
       </c>
       <c r="D491" s="5"/>
       <c r="E491" s="8"/>
-      <c r="F491" s="9"/>
+      <c r="F491" s="11"/>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="5" t="n">
@@ -8989,7 +8981,7 @@
       </c>
       <c r="D492" s="5"/>
       <c r="E492" s="8"/>
-      <c r="F492" s="9"/>
+      <c r="F492" s="11"/>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="5" t="n">
@@ -9003,7 +8995,7 @@
       </c>
       <c r="D493" s="5"/>
       <c r="E493" s="8"/>
-      <c r="F493" s="9"/>
+      <c r="F493" s="11"/>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="5" t="n">
@@ -9017,7 +9009,7 @@
       </c>
       <c r="D494" s="5"/>
       <c r="E494" s="8"/>
-      <c r="F494" s="9"/>
+      <c r="F494" s="11"/>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="5" t="n">
@@ -9031,7 +9023,7 @@
       </c>
       <c r="D495" s="5"/>
       <c r="E495" s="8"/>
-      <c r="F495" s="9"/>
+      <c r="F495" s="11"/>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="5" t="n">
@@ -9045,7 +9037,7 @@
       </c>
       <c r="D496" s="5"/>
       <c r="E496" s="8"/>
-      <c r="F496" s="9"/>
+      <c r="F496" s="11"/>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="5" t="n">
@@ -9059,7 +9051,7 @@
       </c>
       <c r="D497" s="5"/>
       <c r="E497" s="8"/>
-      <c r="F497" s="9"/>
+      <c r="F497" s="11"/>
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="5" t="n">
@@ -9073,7 +9065,7 @@
       </c>
       <c r="D498" s="5"/>
       <c r="E498" s="8"/>
-      <c r="F498" s="9"/>
+      <c r="F498" s="11"/>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="5" t="n">
@@ -9087,7 +9079,7 @@
       </c>
       <c r="D499" s="5"/>
       <c r="E499" s="8"/>
-      <c r="F499" s="9"/>
+      <c r="F499" s="11"/>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="5" t="n">
@@ -9101,7 +9093,7 @@
       </c>
       <c r="D500" s="5"/>
       <c r="E500" s="8"/>
-      <c r="F500" s="9"/>
+      <c r="F500" s="11"/>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="5" t="n">
@@ -9115,7 +9107,7 @@
       </c>
       <c r="D501" s="5"/>
       <c r="E501" s="8"/>
-      <c r="F501" s="9"/>
+      <c r="F501" s="11"/>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="5" t="n">
@@ -9128,7 +9120,7 @@
         <v>7</v>
       </c>
       <c r="D502" s="5"/>
-      <c r="E502" s="9"/>
+      <c r="E502" s="11"/>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="5" t="n">
@@ -9141,7 +9133,7 @@
         <v>7</v>
       </c>
       <c r="D503" s="5"/>
-      <c r="E503" s="9"/>
+      <c r="E503" s="11"/>
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="5" t="n">
@@ -9154,7 +9146,7 @@
         <v>7</v>
       </c>
       <c r="D504" s="5"/>
-      <c r="E504" s="9"/>
+      <c r="E504" s="11"/>
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="5" t="n">
@@ -9167,7 +9159,7 @@
         <v>7</v>
       </c>
       <c r="D505" s="5"/>
-      <c r="E505" s="9"/>
+      <c r="E505" s="11"/>
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="5" t="n">
@@ -9180,7 +9172,7 @@
         <v>7</v>
       </c>
       <c r="D506" s="5"/>
-      <c r="E506" s="9"/>
+      <c r="E506" s="11"/>
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="5" t="n">
@@ -9193,7 +9185,7 @@
         <v>7</v>
       </c>
       <c r="D507" s="5"/>
-      <c r="E507" s="9"/>
+      <c r="E507" s="11"/>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="5" t="n">
@@ -9206,7 +9198,7 @@
         <v>7</v>
       </c>
       <c r="D508" s="5"/>
-      <c r="E508" s="9"/>
+      <c r="E508" s="11"/>
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="5" t="n">
@@ -9219,7 +9211,7 @@
         <v>7</v>
       </c>
       <c r="D509" s="5"/>
-      <c r="E509" s="9"/>
+      <c r="E509" s="11"/>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="5" t="n">
@@ -9232,7 +9224,7 @@
         <v>7</v>
       </c>
       <c r="D510" s="5"/>
-      <c r="E510" s="9"/>
+      <c r="E510" s="11"/>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="5" t="n">
@@ -9245,7 +9237,7 @@
         <v>7</v>
       </c>
       <c r="D511" s="5"/>
-      <c r="E511" s="9"/>
+      <c r="E511" s="11"/>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="5" t="n">
@@ -9258,7 +9250,7 @@
         <v>7</v>
       </c>
       <c r="D512" s="5"/>
-      <c r="E512" s="9"/>
+      <c r="E512" s="11"/>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="5" t="n">
@@ -9271,7 +9263,7 @@
         <v>7</v>
       </c>
       <c r="D513" s="5"/>
-      <c r="E513" s="9"/>
+      <c r="E513" s="11"/>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="5" t="n">
@@ -9284,7 +9276,7 @@
         <v>7</v>
       </c>
       <c r="D514" s="5"/>
-      <c r="E514" s="9"/>
+      <c r="E514" s="11"/>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="5" t="n">
@@ -9297,7 +9289,7 @@
         <v>7</v>
       </c>
       <c r="D515" s="5"/>
-      <c r="E515" s="9"/>
+      <c r="E515" s="11"/>
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="5" t="n">
@@ -9310,7 +9302,7 @@
         <v>7</v>
       </c>
       <c r="D516" s="5"/>
-      <c r="E516" s="9"/>
+      <c r="E516" s="11"/>
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="5" t="n">
@@ -9323,7 +9315,7 @@
         <v>7</v>
       </c>
       <c r="D517" s="5"/>
-      <c r="E517" s="9"/>
+      <c r="E517" s="11"/>
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="5" t="n">
@@ -9336,7 +9328,7 @@
         <v>7</v>
       </c>
       <c r="D518" s="5"/>
-      <c r="E518" s="9"/>
+      <c r="E518" s="11"/>
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="5" t="n">
@@ -9349,7 +9341,7 @@
         <v>7</v>
       </c>
       <c r="D519" s="5"/>
-      <c r="E519" s="9"/>
+      <c r="E519" s="11"/>
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="5" t="n">
@@ -9362,7 +9354,7 @@
         <v>7</v>
       </c>
       <c r="D520" s="5"/>
-      <c r="E520" s="9"/>
+      <c r="E520" s="11"/>
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="5" t="n">
@@ -9375,7 +9367,7 @@
         <v>7</v>
       </c>
       <c r="D521" s="5"/>
-      <c r="E521" s="9"/>
+      <c r="E521" s="11"/>
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="5" t="n">
@@ -9388,7 +9380,7 @@
         <v>7</v>
       </c>
       <c r="D522" s="5"/>
-      <c r="E522" s="9"/>
+      <c r="E522" s="11"/>
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="5" t="n">
@@ -9401,7 +9393,7 @@
         <v>7</v>
       </c>
       <c r="D523" s="5"/>
-      <c r="E523" s="9"/>
+      <c r="E523" s="11"/>
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="5" t="n">
@@ -9414,7 +9406,7 @@
         <v>7</v>
       </c>
       <c r="D524" s="5"/>
-      <c r="E524" s="9"/>
+      <c r="E524" s="11"/>
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="5" t="n">
@@ -9427,7 +9419,7 @@
         <v>7</v>
       </c>
       <c r="D525" s="5"/>
-      <c r="E525" s="9"/>
+      <c r="E525" s="11"/>
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="5" t="n">
@@ -9440,7 +9432,7 @@
         <v>7</v>
       </c>
       <c r="D526" s="5"/>
-      <c r="E526" s="9"/>
+      <c r="E526" s="11"/>
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="5" t="n">
@@ -9453,7 +9445,7 @@
         <v>7</v>
       </c>
       <c r="D527" s="5"/>
-      <c r="E527" s="9"/>
+      <c r="E527" s="11"/>
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="5" t="n">
@@ -9466,7 +9458,7 @@
         <v>7</v>
       </c>
       <c r="D528" s="5"/>
-      <c r="E528" s="9"/>
+      <c r="E528" s="11"/>
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="5" t="n">
@@ -9479,7 +9471,7 @@
         <v>7</v>
       </c>
       <c r="D529" s="5"/>
-      <c r="E529" s="9"/>
+      <c r="E529" s="11"/>
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="5" t="n">
@@ -9492,7 +9484,7 @@
         <v>7</v>
       </c>
       <c r="D530" s="5"/>
-      <c r="E530" s="9"/>
+      <c r="E530" s="11"/>
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="5" t="n">
@@ -9505,7 +9497,7 @@
         <v>7</v>
       </c>
       <c r="D531" s="5"/>
-      <c r="E531" s="9"/>
+      <c r="E531" s="11"/>
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="5" t="n">
@@ -9518,7 +9510,7 @@
         <v>7</v>
       </c>
       <c r="D532" s="5"/>
-      <c r="E532" s="9"/>
+      <c r="E532" s="11"/>
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="5" t="n">
@@ -9531,7 +9523,7 @@
         <v>7</v>
       </c>
       <c r="D533" s="5"/>
-      <c r="E533" s="9"/>
+      <c r="E533" s="11"/>
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="5" t="n">
@@ -9544,7 +9536,7 @@
         <v>7</v>
       </c>
       <c r="D534" s="5"/>
-      <c r="E534" s="9"/>
+      <c r="E534" s="11"/>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="5" t="n">
@@ -9557,7 +9549,7 @@
         <v>7</v>
       </c>
       <c r="D535" s="5"/>
-      <c r="E535" s="9"/>
+      <c r="E535" s="11"/>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="5" t="n">
@@ -9570,7 +9562,7 @@
         <v>7</v>
       </c>
       <c r="D536" s="5"/>
-      <c r="E536" s="9"/>
+      <c r="E536" s="11"/>
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="5" t="n">
@@ -9583,7 +9575,7 @@
         <v>7</v>
       </c>
       <c r="D537" s="5"/>
-      <c r="E537" s="9"/>
+      <c r="E537" s="11"/>
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="5" t="n">
@@ -9596,7 +9588,7 @@
         <v>7</v>
       </c>
       <c r="D538" s="5"/>
-      <c r="E538" s="9"/>
+      <c r="E538" s="11"/>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="5" t="n">
@@ -9609,7 +9601,7 @@
         <v>7</v>
       </c>
       <c r="D539" s="5"/>
-      <c r="E539" s="9"/>
+      <c r="E539" s="11"/>
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="5" t="n">
@@ -9622,7 +9614,7 @@
         <v>7</v>
       </c>
       <c r="D540" s="5"/>
-      <c r="E540" s="9"/>
+      <c r="E540" s="11"/>
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="5" t="n">
@@ -9635,7 +9627,7 @@
         <v>7</v>
       </c>
       <c r="D541" s="5"/>
-      <c r="E541" s="9"/>
+      <c r="E541" s="11"/>
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="5" t="n">
@@ -9648,7 +9640,7 @@
         <v>7</v>
       </c>
       <c r="D542" s="5"/>
-      <c r="E542" s="9"/>
+      <c r="E542" s="11"/>
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="5" t="n">
@@ -9661,7 +9653,7 @@
         <v>7</v>
       </c>
       <c r="D543" s="5"/>
-      <c r="E543" s="9"/>
+      <c r="E543" s="11"/>
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="5" t="n">
@@ -9674,7 +9666,7 @@
         <v>7</v>
       </c>
       <c r="D544" s="5"/>
-      <c r="E544" s="9"/>
+      <c r="E544" s="11"/>
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="5" t="n">
@@ -9687,7 +9679,7 @@
         <v>7</v>
       </c>
       <c r="D545" s="5"/>
-      <c r="E545" s="9"/>
+      <c r="E545" s="11"/>
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="5" t="n">
@@ -9700,7 +9692,7 @@
         <v>7</v>
       </c>
       <c r="D546" s="5"/>
-      <c r="E546" s="9"/>
+      <c r="E546" s="11"/>
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="5" t="n">
@@ -9713,7 +9705,7 @@
         <v>7</v>
       </c>
       <c r="D547" s="5"/>
-      <c r="E547" s="9"/>
+      <c r="E547" s="11"/>
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="5" t="n">
@@ -9726,7 +9718,7 @@
         <v>7</v>
       </c>
       <c r="D548" s="5"/>
-      <c r="E548" s="9"/>
+      <c r="E548" s="11"/>
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="5" t="n">
@@ -9739,7 +9731,7 @@
         <v>7</v>
       </c>
       <c r="D549" s="5"/>
-      <c r="E549" s="9"/>
+      <c r="E549" s="11"/>
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="5" t="n">
@@ -9752,7 +9744,7 @@
         <v>7</v>
       </c>
       <c r="D550" s="5"/>
-      <c r="E550" s="9"/>
+      <c r="E550" s="11"/>
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="5" t="n">
@@ -9765,7 +9757,7 @@
         <v>7</v>
       </c>
       <c r="D551" s="5"/>
-      <c r="E551" s="9"/>
+      <c r="E551" s="11"/>
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="5" t="n">
@@ -9778,7 +9770,7 @@
         <v>7</v>
       </c>
       <c r="D552" s="5"/>
-      <c r="E552" s="9"/>
+      <c r="E552" s="11"/>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="5" t="n">
@@ -9791,7 +9783,7 @@
         <v>7</v>
       </c>
       <c r="D553" s="5"/>
-      <c r="E553" s="9"/>
+      <c r="E553" s="11"/>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="5" t="n">
@@ -9804,7 +9796,7 @@
         <v>7</v>
       </c>
       <c r="D554" s="5"/>
-      <c r="E554" s="9"/>
+      <c r="E554" s="11"/>
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="5" t="n">
@@ -9817,7 +9809,7 @@
         <v>7</v>
       </c>
       <c r="D555" s="5"/>
-      <c r="E555" s="9"/>
+      <c r="E555" s="11"/>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="5" t="n">
@@ -9830,7 +9822,7 @@
         <v>7</v>
       </c>
       <c r="D556" s="5"/>
-      <c r="E556" s="9"/>
+      <c r="E556" s="11"/>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="5" t="n">
@@ -9843,7 +9835,7 @@
         <v>7</v>
       </c>
       <c r="D557" s="5"/>
-      <c r="E557" s="9"/>
+      <c r="E557" s="11"/>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="5" t="n">
@@ -9856,7 +9848,7 @@
         <v>7</v>
       </c>
       <c r="D558" s="5"/>
-      <c r="E558" s="9"/>
+      <c r="E558" s="11"/>
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="5" t="n">
@@ -9869,7 +9861,7 @@
         <v>7</v>
       </c>
       <c r="D559" s="5"/>
-      <c r="E559" s="9"/>
+      <c r="E559" s="11"/>
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="5" t="n">
@@ -9882,7 +9874,7 @@
         <v>7</v>
       </c>
       <c r="D560" s="5"/>
-      <c r="E560" s="9"/>
+      <c r="E560" s="11"/>
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="5" t="n">
@@ -9895,7 +9887,7 @@
         <v>7</v>
       </c>
       <c r="D561" s="5"/>
-      <c r="E561" s="9"/>
+      <c r="E561" s="11"/>
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="5" t="n">
@@ -9908,7 +9900,7 @@
         <v>7</v>
       </c>
       <c r="D562" s="5"/>
-      <c r="E562" s="9"/>
+      <c r="E562" s="11"/>
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="5" t="n">
@@ -9921,7 +9913,7 @@
         <v>7</v>
       </c>
       <c r="D563" s="5"/>
-      <c r="E563" s="9"/>
+      <c r="E563" s="11"/>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="5" t="n">
@@ -9934,7 +9926,7 @@
         <v>7</v>
       </c>
       <c r="D564" s="5"/>
-      <c r="E564" s="9"/>
+      <c r="E564" s="11"/>
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="5" t="n">
@@ -9947,7 +9939,7 @@
         <v>7</v>
       </c>
       <c r="D565" s="5"/>
-      <c r="E565" s="9"/>
+      <c r="E565" s="11"/>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="5" t="n">
@@ -9960,7 +9952,7 @@
         <v>7</v>
       </c>
       <c r="D566" s="5"/>
-      <c r="E566" s="9"/>
+      <c r="E566" s="11"/>
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="5" t="n">
@@ -9973,7 +9965,7 @@
         <v>7</v>
       </c>
       <c r="D567" s="5"/>
-      <c r="E567" s="9"/>
+      <c r="E567" s="11"/>
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="5" t="n">
@@ -9986,7 +9978,7 @@
         <v>7</v>
       </c>
       <c r="D568" s="5"/>
-      <c r="E568" s="9"/>
+      <c r="E568" s="11"/>
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="5" t="n">
@@ -9999,7 +9991,7 @@
         <v>7</v>
       </c>
       <c r="D569" s="5"/>
-      <c r="E569" s="9"/>
+      <c r="E569" s="11"/>
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="5" t="n">
@@ -10012,7 +10004,7 @@
         <v>7</v>
       </c>
       <c r="D570" s="5"/>
-      <c r="E570" s="9"/>
+      <c r="E570" s="11"/>
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="5" t="n">
@@ -10025,7 +10017,7 @@
         <v>7</v>
       </c>
       <c r="D571" s="5"/>
-      <c r="E571" s="9"/>
+      <c r="E571" s="11"/>
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="5" t="n">
@@ -10038,7 +10030,7 @@
         <v>7</v>
       </c>
       <c r="D572" s="5"/>
-      <c r="E572" s="9"/>
+      <c r="E572" s="11"/>
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="5" t="n">
@@ -10051,7 +10043,7 @@
         <v>7</v>
       </c>
       <c r="D573" s="5"/>
-      <c r="E573" s="9"/>
+      <c r="E573" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/BinanceAccount.xlsx
+++ b/data/BinanceAccount.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="565">
   <si>
     <t xml:space="preserve">STT</t>
   </si>
@@ -61,40 +61,28 @@
     <t xml:space="preserve">True</t>
   </si>
   <si>
-    <t xml:space="preserve">hoangtubongdemsun@grr.la</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hoangdinhminhkhoi@grr.la</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hoangdinhminhkhoi2301@grr.la</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hoangharu2301@grr.la</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hoangvuivehihi@grr.la</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anhnhoemnhiu48@grr.la</t>
-  </si>
-  <si>
-    <t xml:space="preserve">butbithongthai@grr.la</t>
-  </si>
-  <si>
     <t xml:space="preserve">camamth@grr.la</t>
   </si>
   <si>
+    <t xml:space="preserve">100707216</t>
+  </si>
+  <si>
     <t xml:space="preserve">cambientho@grr.la</t>
   </si>
   <si>
-    <t xml:space="preserve">chogiahutthuoc@grr.la</t>
+    <t xml:space="preserve">100729928</t>
   </si>
   <si>
     <t xml:space="preserve">cogiaothaohj@grr.la</t>
   </si>
   <si>
+    <t xml:space="preserve">100737174</t>
+  </si>
+  <si>
     <t xml:space="preserve">conmabenho@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100733203</t>
   </si>
   <si>
     <t xml:space="preserve">conmeoxauqua@grr.la</t>
@@ -1728,10 +1716,10 @@
     <t xml:space="preserve">zjiqjimop@grr.la</t>
   </si>
   <si>
-    <t>VU</t>
-  </si>
-  <si>
-    <t>NGUYEN</t>
+    <t>kava1ys70jvnajkv88529ys6urjcyle3k2j9r24g6a7</t>
+  </si>
+  <si>
+    <t>100745946</t>
   </si>
   <si>
     <t>True</t>
@@ -1912,16 +1900,16 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1944,11 +1932,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2049,10 +2037,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F573"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2109,7 +2097,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>11</v>
@@ -2117,5965 +2105,5979 @@
       <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="8"/>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="8"/>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
+      <c r="D7" t="s">
+        <v>562</v>
+      </c>
+      <c r="E7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F7" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>566</v>
-      </c>
-      <c r="E8" t="s">
-        <v>567</v>
-      </c>
-      <c r="F8" t="s">
-        <v>568</v>
-      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="11"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="11"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="11"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="11"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="11"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="n">
+        <v>23</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="11"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="11"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="11"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="14" t="s">
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="11"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="11"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="11"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="11"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="11"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="11"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="11"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="11"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="11"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="11"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="8"/>
-      <c r="F38" s="11"/>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="11"/>
+      <c r="F39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="11"/>
+      <c r="F40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="11"/>
+      <c r="F42" s="9"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="11"/>
+      <c r="F43" s="9"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="11"/>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="11"/>
+      <c r="F45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="11"/>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="11"/>
+      <c r="F47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="11"/>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="11"/>
+      <c r="F49" s="9"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="11"/>
+      <c r="F50" s="9"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="11"/>
+      <c r="F51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="11"/>
+      <c r="F52" s="9"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="11"/>
+      <c r="F53" s="9"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="11"/>
+      <c r="F54" s="9"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="11"/>
+      <c r="F55" s="9"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="8"/>
-      <c r="F56" s="11"/>
+      <c r="F56" s="9"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="11"/>
+      <c r="F57" s="9"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="11"/>
+      <c r="F58" s="9"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="8"/>
-      <c r="F59" s="11"/>
+      <c r="F59" s="9"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="8"/>
-      <c r="F60" s="11"/>
+      <c r="F60" s="9"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="8"/>
-      <c r="F61" s="11"/>
+      <c r="F61" s="9"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="8"/>
-      <c r="F62" s="11"/>
+      <c r="F62" s="9"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="8"/>
-      <c r="F63" s="11"/>
+      <c r="F63" s="9"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="8"/>
-      <c r="F64" s="11"/>
+      <c r="F64" s="9"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="8"/>
-      <c r="F65" s="11"/>
+      <c r="F65" s="9"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="8"/>
-      <c r="F66" s="11"/>
+      <c r="F66" s="9"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="8"/>
-      <c r="F67" s="11"/>
+      <c r="F67" s="9"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="8"/>
-      <c r="F68" s="11"/>
+      <c r="F68" s="9"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="8"/>
-      <c r="F69" s="11"/>
+      <c r="F69" s="9"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>78</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B70" s="6"/>
       <c r="C70" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="8"/>
-      <c r="F70" s="11"/>
+      <c r="F70" s="9"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="8"/>
-      <c r="F71" s="11"/>
+      <c r="F71" s="9"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="8"/>
-      <c r="F72" s="11"/>
+      <c r="F72" s="9"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="8"/>
-      <c r="F73" s="11"/>
+      <c r="F73" s="9"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="8"/>
-      <c r="F74" s="11"/>
+      <c r="F74" s="9"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="8"/>
-      <c r="F75" s="11"/>
+      <c r="F75" s="9"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="8"/>
-      <c r="F76" s="11"/>
+      <c r="F76" s="9"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>85</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B77" s="16"/>
       <c r="C77" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="8"/>
-      <c r="F77" s="11"/>
+      <c r="F77" s="9"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="C78" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="8"/>
-      <c r="F78" s="11"/>
+      <c r="F78" s="9"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="8"/>
-      <c r="F79" s="11"/>
+      <c r="F79" s="9"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="8"/>
-      <c r="F80" s="11"/>
+      <c r="F80" s="9"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="8"/>
-      <c r="F81" s="11"/>
+      <c r="F81" s="9"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="8"/>
-      <c r="F82" s="11"/>
+      <c r="F82" s="9"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="8"/>
-      <c r="F83" s="11"/>
+      <c r="F83" s="9"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="8"/>
-      <c r="F84" s="11"/>
+      <c r="F84" s="9"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="n">
-        <v>84</v>
-      </c>
-      <c r="B85" s="16"/>
+        <v>92</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="C85" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="8"/>
-      <c r="F85" s="11"/>
+      <c r="F85" s="9"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="8"/>
-      <c r="F86" s="11"/>
+      <c r="F86" s="9"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="8"/>
-      <c r="F87" s="11"/>
+      <c r="F87" s="9"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="8"/>
-      <c r="F88" s="11"/>
+      <c r="F88" s="9"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="8"/>
-      <c r="F89" s="11"/>
+      <c r="F89" s="9"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="8"/>
-      <c r="F90" s="11"/>
+      <c r="F90" s="9"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="8"/>
-      <c r="F91" s="11"/>
+      <c r="F91" s="9"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="8"/>
-      <c r="F92" s="11"/>
+      <c r="F92" s="9"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="n">
-        <v>92</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="8"/>
-      <c r="F93" s="11"/>
+      <c r="F93" s="9"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="n">
-        <v>93</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="8"/>
-      <c r="F94" s="11"/>
+      <c r="F94" s="9"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="n">
-        <v>94</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="8"/>
-      <c r="F95" s="11"/>
+      <c r="F95" s="9"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="n">
-        <v>95</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="8"/>
-      <c r="F96" s="11"/>
+      <c r="F96" s="9"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="8"/>
-      <c r="F97" s="11"/>
+      <c r="F97" s="9"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="n">
-        <v>97</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="8"/>
-      <c r="F98" s="11"/>
+      <c r="F98" s="9"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="n">
-        <v>98</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D99" s="5"/>
+      <c r="D99" s="17" t="s">
+        <v>8</v>
+      </c>
       <c r="E99" s="8"/>
-      <c r="F99" s="11"/>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F99" s="9"/>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="n">
-        <v>99</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D100" s="5"/>
+      <c r="D100" s="17" t="s">
+        <v>8</v>
+      </c>
       <c r="E100" s="8"/>
-      <c r="F100" s="11"/>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F100" s="9"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="8"/>
-      <c r="F101" s="11"/>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F101" s="9"/>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="n">
-        <v>101</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="8"/>
-      <c r="F102" s="11"/>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F102" s="9"/>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="n">
-        <v>102</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="8"/>
-      <c r="F103" s="11"/>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F103" s="9"/>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="n">
-        <v>103</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>114</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="8"/>
-      <c r="F104" s="11"/>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F104" s="9"/>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="n">
-        <v>104</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="8"/>
-      <c r="F105" s="11"/>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F105" s="9"/>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="n">
-        <v>105</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="8"/>
-      <c r="F106" s="11"/>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F106" s="9"/>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="n">
-        <v>106</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="8"/>
-      <c r="F107" s="11"/>
+      <c r="F107" s="9"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="n">
-        <v>107</v>
-      </c>
-      <c r="B108" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D108" s="18" t="s">
-        <v>8</v>
-      </c>
+      <c r="D108" s="5"/>
       <c r="E108" s="8"/>
-      <c r="F108" s="11"/>
+      <c r="F108" s="9"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="n">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D109" s="18" t="s">
-        <v>8</v>
-      </c>
+      <c r="D109" s="5"/>
       <c r="E109" s="8"/>
-      <c r="F109" s="11"/>
+      <c r="F109" s="9"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="8"/>
-      <c r="F110" s="11"/>
+      <c r="F110" s="9"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="n">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="8"/>
-      <c r="F111" s="11"/>
+      <c r="F111" s="9"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="n">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="8"/>
-      <c r="F112" s="11"/>
+      <c r="F112" s="9"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="8"/>
-      <c r="F113" s="11"/>
+      <c r="F113" s="9"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="n">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="8"/>
-      <c r="F114" s="11"/>
+      <c r="F114" s="9"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="8"/>
-      <c r="F115" s="11"/>
+      <c r="F115" s="9"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="n">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="8"/>
-      <c r="F116" s="11"/>
+      <c r="F116" s="9"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="8"/>
-      <c r="F117" s="11"/>
+      <c r="F117" s="9"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="8"/>
-      <c r="F118" s="11"/>
+      <c r="F118" s="9"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="n">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="8"/>
-      <c r="F119" s="11"/>
+      <c r="F119" s="9"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="8"/>
-      <c r="F120" s="11"/>
+      <c r="F120" s="9"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="8"/>
-      <c r="F121" s="11"/>
+      <c r="F121" s="9"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="8"/>
-      <c r="F122" s="11"/>
+      <c r="F122" s="9"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="n">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="8"/>
-      <c r="F123" s="11"/>
+      <c r="F123" s="9"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="8"/>
-      <c r="F124" s="11"/>
+      <c r="F124" s="9"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="n">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="8"/>
-      <c r="F125" s="11"/>
+      <c r="F125" s="9"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="n">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="8"/>
-      <c r="F126" s="11"/>
+      <c r="F126" s="9"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="n">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="8"/>
-      <c r="F127" s="11"/>
+      <c r="F127" s="9"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="n">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="8"/>
-      <c r="F128" s="11"/>
+      <c r="F128" s="9"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="8"/>
-      <c r="F129" s="11"/>
+      <c r="F129" s="9"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="n">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="8"/>
-      <c r="F130" s="11"/>
+      <c r="F130" s="9"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="n">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="8"/>
-      <c r="F131" s="11"/>
+      <c r="F131" s="9"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="n">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="8"/>
-      <c r="F132" s="11"/>
+      <c r="F132" s="9"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="8"/>
-      <c r="F133" s="11"/>
+      <c r="F133" s="9"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="n">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="8"/>
-      <c r="F134" s="11"/>
+      <c r="F134" s="9"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="8"/>
-      <c r="F135" s="11"/>
+      <c r="F135" s="9"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="n">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="8"/>
-      <c r="F136" s="11"/>
+      <c r="F136" s="9"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="8"/>
-      <c r="F137" s="11"/>
+      <c r="F137" s="9"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="8"/>
-      <c r="F138" s="11"/>
+      <c r="F138" s="9"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="n">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="8"/>
-      <c r="F139" s="11"/>
+      <c r="F139" s="9"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="n">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="8"/>
-      <c r="F140" s="11"/>
+      <c r="F140" s="9"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="n">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="8"/>
-      <c r="F141" s="11"/>
+      <c r="F141" s="9"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="n">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="8"/>
-      <c r="F142" s="11"/>
+      <c r="F142" s="9"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="n">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="8"/>
-      <c r="F143" s="11"/>
+      <c r="F143" s="9"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="n">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="8"/>
-      <c r="F144" s="11"/>
+      <c r="F144" s="9"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="n">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="8"/>
-      <c r="F145" s="11"/>
+      <c r="F145" s="9"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="n">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="8"/>
-      <c r="F146" s="11"/>
+      <c r="F146" s="9"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="n">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="8"/>
-      <c r="F147" s="11"/>
+      <c r="F147" s="9"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="n">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="8"/>
-      <c r="F148" s="11"/>
+      <c r="F148" s="9"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="n">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="8"/>
-      <c r="F149" s="11"/>
+      <c r="F149" s="9"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="n">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="8"/>
-      <c r="F150" s="11"/>
+      <c r="F150" s="9"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="n">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="8"/>
-      <c r="F151" s="11"/>
+      <c r="F151" s="9"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="n">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="8"/>
-      <c r="F152" s="11"/>
+      <c r="F152" s="9"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="8"/>
-      <c r="F153" s="11"/>
+      <c r="F153" s="9"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="8"/>
-      <c r="F154" s="11"/>
+      <c r="F154" s="9"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="n">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="8"/>
-      <c r="F155" s="11"/>
+      <c r="F155" s="9"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="8"/>
-      <c r="F156" s="11"/>
+      <c r="F156" s="9"/>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="n">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="8"/>
-      <c r="F157" s="11"/>
+      <c r="F157" s="9"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="5" t="n">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="8"/>
-      <c r="F158" s="11"/>
+      <c r="F158" s="9"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="n">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="8"/>
-      <c r="F159" s="11"/>
+      <c r="F159" s="9"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="n">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="8"/>
-      <c r="F160" s="11"/>
+      <c r="F160" s="9"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="8"/>
-      <c r="F161" s="11"/>
+      <c r="F161" s="9"/>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="n">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="8"/>
-      <c r="F162" s="11"/>
+      <c r="F162" s="9"/>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="n">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="8"/>
-      <c r="F163" s="11"/>
+      <c r="F163" s="9"/>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="n">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="8"/>
-      <c r="F164" s="11"/>
+      <c r="F164" s="9"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="n">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="8"/>
-      <c r="F165" s="11"/>
+      <c r="F165" s="9"/>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="n">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="8"/>
-      <c r="F166" s="11"/>
+      <c r="F166" s="9"/>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="n">
-        <v>166</v>
-      </c>
-      <c r="B167" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="B167" s="20" t="s">
+        <v>177</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="8"/>
-      <c r="F167" s="11"/>
+      <c r="F167" s="9"/>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="8"/>
-      <c r="F168" s="11"/>
+      <c r="F168" s="9"/>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="n">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="8"/>
-      <c r="F169" s="11"/>
+      <c r="F169" s="9"/>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="n">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="8"/>
-      <c r="F170" s="11"/>
+      <c r="F170" s="9"/>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="n">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="8"/>
-      <c r="F171" s="11"/>
+      <c r="F171" s="9"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="n">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="8"/>
-      <c r="F172" s="11"/>
+      <c r="F172" s="9"/>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="n">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="8"/>
-      <c r="F173" s="11"/>
+      <c r="F173" s="9"/>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="n">
-        <v>173</v>
-      </c>
-      <c r="B174" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+      <c r="B174" s="20" t="s">
+        <v>184</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="8"/>
-      <c r="F174" s="11"/>
+      <c r="F174" s="9"/>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="n">
-        <v>174</v>
-      </c>
-      <c r="B175" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="B175" s="19" t="s">
+        <v>185</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="8"/>
-      <c r="F175" s="11"/>
+      <c r="F175" s="9"/>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="n">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="8"/>
-      <c r="F176" s="11"/>
+      <c r="F176" s="9"/>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="n">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="8"/>
-      <c r="F177" s="11"/>
+      <c r="F177" s="9"/>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="n">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="8"/>
-      <c r="F178" s="11"/>
+      <c r="F178" s="9"/>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="n">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="8"/>
-      <c r="F179" s="11"/>
+      <c r="F179" s="9"/>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="n">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="8"/>
-      <c r="F180" s="11"/>
+      <c r="F180" s="9"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="n">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="8"/>
-      <c r="F181" s="11"/>
+      <c r="F181" s="9"/>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="n">
-        <v>181</v>
-      </c>
-      <c r="B182" s="20" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="B182" s="19" t="s">
+        <v>192</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="8"/>
-      <c r="F182" s="11"/>
+      <c r="F182" s="9"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="n">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="8"/>
-      <c r="F183" s="11"/>
+      <c r="F183" s="9"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="n">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="8"/>
-      <c r="F184" s="11"/>
+      <c r="F184" s="9"/>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="n">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="8"/>
-      <c r="F185" s="11"/>
+      <c r="F185" s="9"/>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="n">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="8"/>
-      <c r="F186" s="11"/>
+      <c r="F186" s="9"/>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="n">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="8"/>
-      <c r="F187" s="11"/>
+      <c r="F187" s="9"/>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="n">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="8"/>
-      <c r="F188" s="11"/>
+      <c r="F188" s="9"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="n">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D189" s="5"/>
       <c r="E189" s="8"/>
-      <c r="F189" s="11"/>
+      <c r="F189" s="9"/>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="n">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="8"/>
-      <c r="F190" s="11"/>
+      <c r="F190" s="9"/>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="n">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D191" s="5"/>
       <c r="E191" s="8"/>
-      <c r="F191" s="11"/>
+      <c r="F191" s="9"/>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="n">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D192" s="5"/>
       <c r="E192" s="8"/>
-      <c r="F192" s="11"/>
+      <c r="F192" s="9"/>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="n">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="8"/>
-      <c r="F193" s="11"/>
+      <c r="F193" s="9"/>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="n">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D194" s="5"/>
       <c r="E194" s="8"/>
-      <c r="F194" s="11"/>
+      <c r="F194" s="9"/>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="n">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D195" s="5"/>
       <c r="E195" s="8"/>
-      <c r="F195" s="11"/>
+      <c r="F195" s="9"/>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="n">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D196" s="5"/>
       <c r="E196" s="8"/>
-      <c r="F196" s="11"/>
+      <c r="F196" s="9"/>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5" t="n">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D197" s="5"/>
       <c r="E197" s="8"/>
-      <c r="F197" s="11"/>
+      <c r="F197" s="9"/>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="n">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D198" s="5"/>
       <c r="E198" s="8"/>
-      <c r="F198" s="11"/>
+      <c r="F198" s="9"/>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5" t="n">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D199" s="5"/>
       <c r="E199" s="8"/>
-      <c r="F199" s="11"/>
+      <c r="F199" s="9"/>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="n">
-        <v>199</v>
-      </c>
-      <c r="B200" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="B200" s="21" t="s">
+        <v>210</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D200" s="5"/>
       <c r="E200" s="8"/>
-      <c r="F200" s="11"/>
+      <c r="F200" s="9"/>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="n">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D201" s="5"/>
       <c r="E201" s="8"/>
-      <c r="F201" s="11"/>
+      <c r="F201" s="9"/>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="5" t="n">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D202" s="5"/>
       <c r="E202" s="8"/>
-      <c r="F202" s="11"/>
+      <c r="F202" s="9"/>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D203" s="5"/>
       <c r="E203" s="8"/>
-      <c r="F203" s="11"/>
+      <c r="F203" s="9"/>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="n">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="8"/>
-      <c r="F204" s="11"/>
+      <c r="F204" s="9"/>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="5" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D205" s="5"/>
       <c r="E205" s="8"/>
-      <c r="F205" s="11"/>
+      <c r="F205" s="9"/>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="5" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B206" s="19" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D206" s="5"/>
       <c r="E206" s="8"/>
-      <c r="F206" s="11"/>
+      <c r="F206" s="9"/>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="5" t="n">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D207" s="5"/>
       <c r="E207" s="8"/>
-      <c r="F207" s="11"/>
+      <c r="F207" s="9"/>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="5" t="n">
-        <v>207</v>
-      </c>
-      <c r="B208" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="B208" s="19" t="s">
+        <v>218</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D208" s="5"/>
       <c r="E208" s="8"/>
-      <c r="F208" s="11"/>
+      <c r="F208" s="9"/>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="5" t="n">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D209" s="5"/>
       <c r="E209" s="8"/>
-      <c r="F209" s="11"/>
+      <c r="F209" s="9"/>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="5" t="n">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D210" s="5"/>
       <c r="E210" s="8"/>
-      <c r="F210" s="11"/>
+      <c r="F210" s="9"/>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="n">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B211" s="19" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D211" s="5"/>
       <c r="E211" s="8"/>
-      <c r="F211" s="11"/>
+      <c r="F211" s="9"/>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="5" t="n">
-        <v>211</v>
-      </c>
-      <c r="B212" s="19" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="B212" s="21" t="s">
+        <v>222</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="8"/>
-      <c r="F212" s="11"/>
+      <c r="F212" s="9"/>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5" t="n">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B213" s="19" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D213" s="5"/>
       <c r="E213" s="8"/>
-      <c r="F213" s="11"/>
+      <c r="F213" s="9"/>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="5" t="n">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B214" s="19" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D214" s="5"/>
       <c r="E214" s="8"/>
-      <c r="F214" s="11"/>
+      <c r="F214" s="9"/>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="5" t="n">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D215" s="5"/>
       <c r="E215" s="8"/>
-      <c r="F215" s="11"/>
+      <c r="F215" s="9"/>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="n">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D216" s="5"/>
       <c r="E216" s="8"/>
-      <c r="F216" s="11"/>
+      <c r="F216" s="9"/>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="n">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B217" s="19" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D217" s="5"/>
       <c r="E217" s="8"/>
-      <c r="F217" s="11"/>
+      <c r="F217" s="9"/>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="n">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B218" s="19" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D218" s="5"/>
       <c r="E218" s="8"/>
-      <c r="F218" s="11"/>
+      <c r="F218" s="9"/>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="5" t="n">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D219" s="5"/>
       <c r="E219" s="8"/>
-      <c r="F219" s="11"/>
+      <c r="F219" s="9"/>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5" t="n">
-        <v>219</v>
-      </c>
-      <c r="B220" s="21" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="B220" s="19" t="s">
+        <v>230</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D220" s="5"/>
       <c r="E220" s="8"/>
-      <c r="F220" s="11"/>
+      <c r="F220" s="9"/>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="n">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B221" s="19" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D221" s="5"/>
       <c r="E221" s="8"/>
-      <c r="F221" s="11"/>
+      <c r="F221" s="9"/>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="5" t="n">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B222" s="19" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D222" s="5"/>
       <c r="E222" s="8"/>
-      <c r="F222" s="11"/>
+      <c r="F222" s="9"/>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="5" t="n">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B223" s="19" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D223" s="5"/>
       <c r="E223" s="8"/>
-      <c r="F223" s="11"/>
+      <c r="F223" s="9"/>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="5" t="n">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B224" s="19" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D224" s="5"/>
       <c r="E224" s="8"/>
-      <c r="F224" s="11"/>
+      <c r="F224" s="9"/>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="5" t="n">
-        <v>224</v>
-      </c>
-      <c r="B225" s="19" t="s">
-        <v>231</v>
+        <v>232</v>
+      </c>
+      <c r="B225" s="20" t="s">
+        <v>235</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D225" s="5"/>
       <c r="E225" s="8"/>
-      <c r="F225" s="11"/>
+      <c r="F225" s="9"/>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="5" t="n">
-        <v>225</v>
-      </c>
-      <c r="B226" s="19" t="s">
-        <v>232</v>
+        <v>233</v>
+      </c>
+      <c r="B226" s="22" t="s">
+        <v>236</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D226" s="5"/>
       <c r="E226" s="8"/>
-      <c r="F226" s="11"/>
+      <c r="F226" s="9"/>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="5" t="n">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B227" s="19" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D227" s="5"/>
       <c r="E227" s="8"/>
-      <c r="F227" s="11"/>
+      <c r="F227" s="9"/>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="5" t="n">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B228" s="19" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="8"/>
-      <c r="F228" s="11"/>
+      <c r="F228" s="9"/>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="5" t="n">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B229" s="19" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D229" s="5"/>
       <c r="E229" s="8"/>
-      <c r="F229" s="11"/>
+      <c r="F229" s="9"/>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5" t="n">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B230" s="19" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D230" s="5"/>
       <c r="E230" s="8"/>
-      <c r="F230" s="11"/>
+      <c r="F230" s="9"/>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="5" t="n">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B231" s="19" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D231" s="5"/>
       <c r="E231" s="8"/>
-      <c r="F231" s="11"/>
+      <c r="F231" s="9"/>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="5" t="n">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B232" s="19" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D232" s="5"/>
       <c r="E232" s="8"/>
-      <c r="F232" s="11"/>
+      <c r="F232" s="9"/>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="5" t="n">
-        <v>232</v>
-      </c>
-      <c r="B233" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
+      </c>
+      <c r="B233" s="19" t="s">
+        <v>243</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D233" s="5"/>
       <c r="E233" s="8"/>
-      <c r="F233" s="11"/>
+      <c r="F233" s="9"/>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="5" t="n">
-        <v>233</v>
-      </c>
-      <c r="B234" s="22" t="s">
-        <v>240</v>
+        <v>241</v>
+      </c>
+      <c r="B234" s="19" t="s">
+        <v>244</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D234" s="5"/>
       <c r="E234" s="8"/>
-      <c r="F234" s="11"/>
+      <c r="F234" s="9"/>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="5" t="n">
-        <v>234</v>
-      </c>
-      <c r="B235" s="19" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="B235" s="21" t="s">
+        <v>245</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D235" s="5"/>
       <c r="E235" s="8"/>
-      <c r="F235" s="11"/>
+      <c r="F235" s="9"/>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="5" t="n">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B236" s="19" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D236" s="5"/>
       <c r="E236" s="8"/>
-      <c r="F236" s="11"/>
+      <c r="F236" s="9"/>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="5" t="n">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B237" s="19" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D237" s="5"/>
       <c r="E237" s="8"/>
-      <c r="F237" s="11"/>
+      <c r="F237" s="9"/>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="5" t="n">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B238" s="19" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D238" s="5"/>
       <c r="E238" s="8"/>
-      <c r="F238" s="11"/>
+      <c r="F238" s="9"/>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="5" t="n">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B239" s="19" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="8"/>
-      <c r="F239" s="11"/>
+      <c r="F239" s="9"/>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="5" t="n">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B240" s="19" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D240" s="5"/>
       <c r="E240" s="8"/>
-      <c r="F240" s="11"/>
+      <c r="F240" s="9"/>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="5" t="n">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B241" s="19" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="8"/>
-      <c r="F241" s="11"/>
+      <c r="F241" s="9"/>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="5" t="n">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B242" s="19" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="8"/>
-      <c r="F242" s="11"/>
+      <c r="F242" s="9"/>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="5" t="n">
-        <v>242</v>
-      </c>
-      <c r="B243" s="21" t="s">
-        <v>249</v>
+        <v>250</v>
+      </c>
+      <c r="B243" s="19" t="s">
+        <v>253</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D243" s="5"/>
       <c r="E243" s="8"/>
-      <c r="F243" s="11"/>
+      <c r="F243" s="9"/>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="5" t="n">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B244" s="19" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D244" s="5"/>
       <c r="E244" s="8"/>
-      <c r="F244" s="11"/>
+      <c r="F244" s="9"/>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="5" t="n">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B245" s="19" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D245" s="5"/>
       <c r="E245" s="8"/>
-      <c r="F245" s="11"/>
+      <c r="F245" s="9"/>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="5" t="n">
-        <v>245</v>
-      </c>
-      <c r="B246" s="19" t="s">
-        <v>252</v>
+        <v>253</v>
+      </c>
+      <c r="B246" s="23" t="s">
+        <v>256</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D246" s="5"/>
       <c r="E246" s="8"/>
-      <c r="F246" s="11"/>
+      <c r="F246" s="9"/>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="5" t="n">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B247" s="19" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D247" s="5"/>
       <c r="E247" s="8"/>
-      <c r="F247" s="11"/>
+      <c r="F247" s="9"/>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="5" t="n">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B248" s="19" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D248" s="5"/>
       <c r="E248" s="8"/>
-      <c r="F248" s="11"/>
+      <c r="F248" s="9"/>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="5" t="n">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B249" s="19" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D249" s="5"/>
       <c r="E249" s="8"/>
-      <c r="F249" s="11"/>
+      <c r="F249" s="9"/>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="5" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B250" s="19" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D250" s="5"/>
       <c r="E250" s="8"/>
-      <c r="F250" s="11"/>
+      <c r="F250" s="9"/>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="5" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B251" s="19" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D251" s="5"/>
       <c r="E251" s="8"/>
-      <c r="F251" s="11"/>
+      <c r="F251" s="9"/>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="5" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B252" s="19" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D252" s="5"/>
       <c r="E252" s="8"/>
-      <c r="F252" s="11"/>
+      <c r="F252" s="9"/>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="5" t="n">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B253" s="19" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D253" s="5"/>
       <c r="E253" s="8"/>
-      <c r="F253" s="11"/>
+      <c r="F253" s="9"/>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="5" t="n">
-        <v>253</v>
-      </c>
-      <c r="B254" s="23" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="B254" s="19" t="s">
+        <v>264</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D254" s="5"/>
       <c r="E254" s="8"/>
-      <c r="F254" s="11"/>
+      <c r="F254" s="9"/>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="5" t="n">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B255" s="19" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D255" s="5"/>
       <c r="E255" s="8"/>
-      <c r="F255" s="11"/>
+      <c r="F255" s="9"/>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="5" t="n">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B256" s="19" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D256" s="5"/>
       <c r="E256" s="8"/>
-      <c r="F256" s="11"/>
+      <c r="F256" s="9"/>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="5" t="n">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B257" s="19" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D257" s="5"/>
       <c r="E257" s="8"/>
-      <c r="F257" s="11"/>
+      <c r="F257" s="9"/>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="5" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B258" s="19" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D258" s="5"/>
       <c r="E258" s="8"/>
-      <c r="F258" s="11"/>
+      <c r="F258" s="9"/>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="5" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B259" s="19" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D259" s="5"/>
       <c r="E259" s="8"/>
-      <c r="F259" s="11"/>
+      <c r="F259" s="9"/>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="5" t="n">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B260" s="19" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D260" s="5"/>
       <c r="E260" s="8"/>
-      <c r="F260" s="11"/>
+      <c r="F260" s="9"/>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="5" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B261" s="19" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D261" s="5"/>
       <c r="E261" s="8"/>
-      <c r="F261" s="11"/>
+      <c r="F261" s="9"/>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="5" t="n">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B262" s="19" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D262" s="5"/>
       <c r="E262" s="8"/>
-      <c r="F262" s="11"/>
+      <c r="F262" s="9"/>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="5" t="n">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B263" s="19" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D263" s="5"/>
       <c r="E263" s="8"/>
-      <c r="F263" s="11"/>
+      <c r="F263" s="9"/>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="5" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B264" s="19" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D264" s="5"/>
       <c r="E264" s="8"/>
-      <c r="F264" s="11"/>
+      <c r="F264" s="9"/>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="5" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B265" s="19" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D265" s="5"/>
       <c r="E265" s="8"/>
-      <c r="F265" s="11"/>
+      <c r="F265" s="9"/>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="5" t="n">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B266" s="19" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D266" s="5"/>
       <c r="E266" s="8"/>
-      <c r="F266" s="11"/>
+      <c r="F266" s="9"/>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="5" t="n">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B267" s="19" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D267" s="5"/>
       <c r="E267" s="8"/>
-      <c r="F267" s="11"/>
+      <c r="F267" s="9"/>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="5" t="n">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B268" s="19" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D268" s="5"/>
       <c r="E268" s="8"/>
-      <c r="F268" s="11"/>
+      <c r="F268" s="9"/>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="5" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B269" s="19" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D269" s="5"/>
       <c r="E269" s="8"/>
-      <c r="F269" s="11"/>
+      <c r="F269" s="9"/>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="5" t="n">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B270" s="19" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D270" s="5"/>
       <c r="E270" s="8"/>
-      <c r="F270" s="11"/>
+      <c r="F270" s="9"/>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="5" t="n">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B271" s="19" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D271" s="5"/>
       <c r="E271" s="8"/>
-      <c r="F271" s="11"/>
+      <c r="F271" s="9"/>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="5" t="n">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B272" s="19" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D272" s="5"/>
       <c r="E272" s="8"/>
-      <c r="F272" s="11"/>
+      <c r="F272" s="9"/>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="5" t="n">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B273" s="19" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D273" s="5"/>
       <c r="E273" s="8"/>
-      <c r="F273" s="11"/>
+      <c r="F273" s="9"/>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="5" t="n">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B274" s="19" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D274" s="5"/>
       <c r="E274" s="8"/>
-      <c r="F274" s="11"/>
+      <c r="F274" s="9"/>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="5" t="n">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B275" s="19" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C275" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D275" s="5"/>
       <c r="E275" s="8"/>
-      <c r="F275" s="11"/>
+      <c r="F275" s="9"/>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="5" t="n">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B276" s="19" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D276" s="5"/>
       <c r="E276" s="8"/>
-      <c r="F276" s="11"/>
+      <c r="F276" s="9"/>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="5" t="n">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B277" s="19" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D277" s="5"/>
       <c r="E277" s="8"/>
-      <c r="F277" s="11"/>
+      <c r="F277" s="9"/>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="5" t="n">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B278" s="19" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D278" s="5"/>
       <c r="E278" s="8"/>
-      <c r="F278" s="11"/>
+      <c r="F278" s="9"/>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="5" t="n">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B279" s="19" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D279" s="5"/>
       <c r="E279" s="8"/>
-      <c r="F279" s="11"/>
+      <c r="F279" s="9"/>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="5" t="n">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B280" s="19" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D280" s="5"/>
       <c r="E280" s="8"/>
-      <c r="F280" s="11"/>
+      <c r="F280" s="9"/>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="5" t="n">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B281" s="19" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D281" s="5"/>
       <c r="E281" s="8"/>
-      <c r="F281" s="11"/>
+      <c r="F281" s="9"/>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="5" t="n">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B282" s="19" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D282" s="5"/>
       <c r="E282" s="8"/>
-      <c r="F282" s="11"/>
+      <c r="F282" s="9"/>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="5" t="n">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B283" s="19" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D283" s="5"/>
       <c r="E283" s="8"/>
-      <c r="F283" s="11"/>
+      <c r="F283" s="9"/>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="5" t="n">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B284" s="19" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="8"/>
-      <c r="F284" s="11"/>
+      <c r="F284" s="9"/>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="5" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B285" s="19" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D285" s="5"/>
       <c r="E285" s="8"/>
-      <c r="F285" s="11"/>
+      <c r="F285" s="9"/>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="5" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B286" s="19" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="8"/>
-      <c r="F286" s="11"/>
+      <c r="F286" s="9"/>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="5" t="n">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B287" s="19" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="8"/>
-      <c r="F287" s="11"/>
+      <c r="F287" s="9"/>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="5" t="n">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B288" s="19" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D288" s="5"/>
       <c r="E288" s="8"/>
-      <c r="F288" s="11"/>
+      <c r="F288" s="9"/>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="5" t="n">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B289" s="19" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D289" s="5"/>
       <c r="E289" s="8"/>
-      <c r="F289" s="11"/>
+      <c r="F289" s="9"/>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="5" t="n">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B290" s="19" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D290" s="5"/>
       <c r="E290" s="8"/>
-      <c r="F290" s="11"/>
+      <c r="F290" s="9"/>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="5" t="n">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B291" s="19" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="8"/>
-      <c r="F291" s="11"/>
+      <c r="F291" s="9"/>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="5" t="n">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B292" s="19" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D292" s="5"/>
       <c r="E292" s="8"/>
-      <c r="F292" s="11"/>
+      <c r="F292" s="9"/>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="5" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B293" s="19" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D293" s="5"/>
       <c r="E293" s="8"/>
-      <c r="F293" s="11"/>
+      <c r="F293" s="9"/>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="5" t="n">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B294" s="19" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D294" s="5"/>
       <c r="E294" s="8"/>
-      <c r="F294" s="11"/>
+      <c r="F294" s="9"/>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="5" t="n">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B295" s="19" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C295" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D295" s="5"/>
       <c r="E295" s="8"/>
-      <c r="F295" s="11"/>
+      <c r="F295" s="9"/>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="5" t="n">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B296" s="19" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D296" s="5"/>
       <c r="E296" s="8"/>
-      <c r="F296" s="11"/>
+      <c r="F296" s="9"/>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="5" t="n">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B297" s="19" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D297" s="5"/>
       <c r="E297" s="8"/>
-      <c r="F297" s="11"/>
+      <c r="F297" s="9"/>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="5" t="n">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B298" s="19" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="8"/>
-      <c r="F298" s="11"/>
+      <c r="F298" s="9"/>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="5" t="n">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B299" s="19" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D299" s="5"/>
       <c r="E299" s="8"/>
-      <c r="F299" s="11"/>
+      <c r="F299" s="9"/>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="5" t="n">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B300" s="19" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D300" s="5"/>
       <c r="E300" s="8"/>
-      <c r="F300" s="11"/>
+      <c r="F300" s="9"/>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="5" t="n">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B301" s="19" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D301" s="5"/>
       <c r="E301" s="8"/>
-      <c r="F301" s="11"/>
+      <c r="F301" s="9"/>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="5" t="n">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B302" s="19" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D302" s="5"/>
       <c r="E302" s="8"/>
-      <c r="F302" s="11"/>
+      <c r="F302" s="9"/>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="5" t="n">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B303" s="19" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D303" s="5"/>
       <c r="E303" s="8"/>
-      <c r="F303" s="11"/>
+      <c r="F303" s="9"/>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="5" t="n">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B304" s="19" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D304" s="5"/>
       <c r="E304" s="8"/>
-      <c r="F304" s="11"/>
+      <c r="F304" s="9"/>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="5" t="n">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B305" s="19" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D305" s="5"/>
       <c r="E305" s="8"/>
-      <c r="F305" s="11"/>
+      <c r="F305" s="9"/>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="5" t="n">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B306" s="19" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D306" s="5"/>
       <c r="E306" s="8"/>
-      <c r="F306" s="11"/>
+      <c r="F306" s="9"/>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="5" t="n">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B307" s="19" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D307" s="5"/>
       <c r="E307" s="8"/>
-      <c r="F307" s="11"/>
+      <c r="F307" s="9"/>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="5" t="n">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B308" s="19" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D308" s="5"/>
       <c r="E308" s="8"/>
-      <c r="F308" s="11"/>
+      <c r="F308" s="9"/>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="5" t="n">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B309" s="19" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="8"/>
-      <c r="F309" s="11"/>
+      <c r="F309" s="9"/>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="5" t="n">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B310" s="19" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="8"/>
-      <c r="F310" s="11"/>
+      <c r="F310" s="9"/>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="5" t="n">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B311" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D311" s="5"/>
       <c r="E311" s="8"/>
-      <c r="F311" s="11"/>
+      <c r="F311" s="9"/>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="5" t="n">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B312" s="19" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="8"/>
-      <c r="F312" s="11"/>
+      <c r="F312" s="9"/>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="5" t="n">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B313" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="8"/>
-      <c r="F313" s="11"/>
+      <c r="F313" s="9"/>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="5" t="n">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B314" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D314" s="5"/>
       <c r="E314" s="8"/>
-      <c r="F314" s="11"/>
+      <c r="F314" s="9"/>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="5" t="n">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B315" s="19" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D315" s="5"/>
       <c r="E315" s="8"/>
-      <c r="F315" s="11"/>
+      <c r="F315" s="9"/>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="5" t="n">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B316" s="19" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D316" s="5"/>
       <c r="E316" s="8"/>
-      <c r="F316" s="11"/>
+      <c r="F316" s="9"/>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="5" t="n">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B317" s="19" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D317" s="5"/>
       <c r="E317" s="8"/>
-      <c r="F317" s="11"/>
+      <c r="F317" s="9"/>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="5" t="n">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B318" s="19" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="8"/>
-      <c r="F318" s="11"/>
+      <c r="F318" s="9"/>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="5" t="n">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B319" s="19" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="8"/>
-      <c r="F319" s="11"/>
+      <c r="F319" s="9"/>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="5" t="n">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B320" s="19" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="8"/>
-      <c r="F320" s="11"/>
+      <c r="F320" s="9"/>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="5" t="n">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B321" s="19" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="8"/>
-      <c r="F321" s="11"/>
+      <c r="F321" s="9"/>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="5" t="n">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B322" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D322" s="5"/>
       <c r="E322" s="8"/>
-      <c r="F322" s="11"/>
+      <c r="F322" s="9"/>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="5" t="n">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B323" s="19" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="8"/>
-      <c r="F323" s="11"/>
+      <c r="F323" s="9"/>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="5" t="n">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B324" s="19" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C324" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D324" s="5"/>
       <c r="E324" s="8"/>
-      <c r="F324" s="11"/>
+      <c r="F324" s="9"/>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="5" t="n">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B325" s="19" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C325" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D325" s="5"/>
       <c r="E325" s="8"/>
-      <c r="F325" s="11"/>
+      <c r="F325" s="9"/>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="5" t="n">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B326" s="19" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C326" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D326" s="5"/>
       <c r="E326" s="8"/>
-      <c r="F326" s="11"/>
+      <c r="F326" s="9"/>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="5" t="n">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B327" s="19" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C327" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D327" s="5"/>
       <c r="E327" s="8"/>
-      <c r="F327" s="11"/>
+      <c r="F327" s="9"/>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="5" t="n">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B328" s="19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C328" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="8"/>
-      <c r="F328" s="11"/>
+      <c r="F328" s="9"/>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="5" t="n">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B329" s="19" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C329" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D329" s="5"/>
       <c r="E329" s="8"/>
-      <c r="F329" s="11"/>
+      <c r="F329" s="9"/>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="5" t="n">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B330" s="19" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C330" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D330" s="5"/>
       <c r="E330" s="8"/>
-      <c r="F330" s="11"/>
+      <c r="F330" s="9"/>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="5" t="n">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B331" s="19" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="8"/>
-      <c r="F331" s="11"/>
+      <c r="F331" s="9"/>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="5" t="n">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B332" s="19" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C332" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="8"/>
-      <c r="F332" s="11"/>
+      <c r="F332" s="9"/>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="5" t="n">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B333" s="19" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C333" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="8"/>
-      <c r="F333" s="11"/>
+      <c r="F333" s="9"/>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="5" t="n">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B334" s="19" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C334" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D334" s="5"/>
       <c r="E334" s="8"/>
-      <c r="F334" s="11"/>
+      <c r="F334" s="9"/>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="5" t="n">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B335" s="19" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C335" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="8"/>
-      <c r="F335" s="11"/>
+      <c r="F335" s="9"/>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="5" t="n">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B336" s="19" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D336" s="5"/>
       <c r="E336" s="8"/>
-      <c r="F336" s="11"/>
+      <c r="F336" s="9"/>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="5" t="n">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B337" s="19" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D337" s="5"/>
       <c r="E337" s="8"/>
-      <c r="F337" s="11"/>
+      <c r="F337" s="9"/>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="5" t="n">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B338" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D338" s="5"/>
       <c r="E338" s="8"/>
-      <c r="F338" s="11"/>
+      <c r="F338" s="9"/>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="5" t="n">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B339" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C339" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D339" s="5"/>
       <c r="E339" s="8"/>
-      <c r="F339" s="11"/>
+      <c r="F339" s="9"/>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="5" t="n">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B340" s="19" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D340" s="5"/>
       <c r="E340" s="8"/>
-      <c r="F340" s="11"/>
+      <c r="F340" s="9"/>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="5" t="n">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B341" s="19" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C341" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D341" s="5"/>
       <c r="E341" s="8"/>
-      <c r="F341" s="11"/>
+      <c r="F341" s="9"/>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="5" t="n">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B342" s="19" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C342" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="8"/>
-      <c r="F342" s="11"/>
+      <c r="F342" s="9"/>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="5" t="n">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B343" s="19" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C343" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D343" s="5"/>
       <c r="E343" s="8"/>
-      <c r="F343" s="11"/>
+      <c r="F343" s="9"/>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="5" t="n">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B344" s="19" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C344" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D344" s="5"/>
       <c r="E344" s="8"/>
-      <c r="F344" s="11"/>
+      <c r="F344" s="9"/>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="5" t="n">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B345" s="19" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C345" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D345" s="5"/>
       <c r="E345" s="8"/>
-      <c r="F345" s="11"/>
+      <c r="F345" s="9"/>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="5" t="n">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B346" s="19" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D346" s="5"/>
       <c r="E346" s="8"/>
-      <c r="F346" s="11"/>
+      <c r="F346" s="9"/>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="5" t="n">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B347" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D347" s="5"/>
       <c r="E347" s="8"/>
-      <c r="F347" s="11"/>
+      <c r="F347" s="9"/>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="5" t="n">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B348" s="19" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D348" s="5"/>
       <c r="E348" s="8"/>
-      <c r="F348" s="11"/>
+      <c r="F348" s="9"/>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="5" t="n">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B349" s="19" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D349" s="5"/>
       <c r="E349" s="8"/>
-      <c r="F349" s="11"/>
+      <c r="F349" s="9"/>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="5" t="n">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B350" s="19" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D350" s="5"/>
       <c r="E350" s="8"/>
-      <c r="F350" s="11"/>
+      <c r="F350" s="9"/>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="5" t="n">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B351" s="19" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C351" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D351" s="5"/>
       <c r="E351" s="8"/>
-      <c r="F351" s="11"/>
+      <c r="F351" s="9"/>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="5" t="n">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B352" s="19" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C352" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D352" s="5"/>
       <c r="E352" s="8"/>
-      <c r="F352" s="11"/>
+      <c r="F352" s="9"/>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="5" t="n">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B353" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C353" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D353" s="5"/>
       <c r="E353" s="8"/>
-      <c r="F353" s="11"/>
+      <c r="F353" s="9"/>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="5" t="n">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B354" s="19" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C354" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D354" s="5"/>
       <c r="E354" s="8"/>
-      <c r="F354" s="11"/>
+      <c r="F354" s="9"/>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="5" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B355" s="19" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C355" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D355" s="5"/>
       <c r="E355" s="8"/>
-      <c r="F355" s="11"/>
+      <c r="F355" s="9"/>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="5" t="n">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B356" s="19" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C356" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D356" s="5"/>
       <c r="E356" s="8"/>
-      <c r="F356" s="11"/>
+      <c r="F356" s="9"/>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="5" t="n">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B357" s="19" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C357" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D357" s="5"/>
       <c r="E357" s="8"/>
-      <c r="F357" s="11"/>
+      <c r="F357" s="9"/>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="5" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B358" s="19" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D358" s="5"/>
       <c r="E358" s="8"/>
-      <c r="F358" s="11"/>
+      <c r="F358" s="9"/>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="5" t="n">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B359" s="19" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C359" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D359" s="5"/>
       <c r="E359" s="8"/>
-      <c r="F359" s="11"/>
+      <c r="F359" s="9"/>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="5" t="n">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B360" s="19" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C360" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D360" s="5"/>
       <c r="E360" s="8"/>
-      <c r="F360" s="11"/>
+      <c r="F360" s="9"/>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="5" t="n">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B361" s="19" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C361" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D361" s="5"/>
       <c r="E361" s="8"/>
-      <c r="F361" s="11"/>
+      <c r="F361" s="9"/>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="5" t="n">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B362" s="19" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C362" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D362" s="5"/>
       <c r="E362" s="8"/>
-      <c r="F362" s="11"/>
+      <c r="F362" s="9"/>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="5" t="n">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B363" s="19" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C363" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D363" s="5"/>
       <c r="E363" s="8"/>
-      <c r="F363" s="11"/>
+      <c r="F363" s="9"/>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="5" t="n">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B364" s="19" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C364" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D364" s="5"/>
       <c r="E364" s="8"/>
-      <c r="F364" s="11"/>
+      <c r="F364" s="9"/>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="5" t="n">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B365" s="19" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C365" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D365" s="5"/>
       <c r="E365" s="8"/>
-      <c r="F365" s="11"/>
+      <c r="F365" s="9"/>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="5" t="n">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B366" s="19" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C366" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D366" s="5"/>
       <c r="E366" s="8"/>
-      <c r="F366" s="11"/>
+      <c r="F366" s="9"/>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="5" t="n">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B367" s="19" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C367" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D367" s="5"/>
       <c r="E367" s="8"/>
-      <c r="F367" s="11"/>
+      <c r="F367" s="9"/>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="5" t="n">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B368" s="19" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C368" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D368" s="5"/>
       <c r="E368" s="8"/>
-      <c r="F368" s="11"/>
+      <c r="F368" s="9"/>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="5" t="n">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B369" s="19" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C369" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D369" s="5"/>
       <c r="E369" s="8"/>
-      <c r="F369" s="11"/>
+      <c r="F369" s="9"/>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="5" t="n">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B370" s="19" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C370" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D370" s="5"/>
       <c r="E370" s="8"/>
-      <c r="F370" s="11"/>
+      <c r="F370" s="9"/>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="5" t="n">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B371" s="19" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C371" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D371" s="5"/>
       <c r="E371" s="8"/>
-      <c r="F371" s="11"/>
+      <c r="F371" s="9"/>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="5" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B372" s="19" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C372" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D372" s="5"/>
       <c r="E372" s="8"/>
-      <c r="F372" s="11"/>
+      <c r="F372" s="9"/>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="5" t="n">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B373" s="19" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C373" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D373" s="5"/>
       <c r="E373" s="8"/>
-      <c r="F373" s="11"/>
+      <c r="F373" s="9"/>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="5" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B374" s="19" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C374" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D374" s="5"/>
       <c r="E374" s="8"/>
-      <c r="F374" s="11"/>
+      <c r="F374" s="9"/>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="5" t="n">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B375" s="19" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C375" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D375" s="5"/>
       <c r="E375" s="8"/>
-      <c r="F375" s="11"/>
+      <c r="F375" s="9"/>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="5" t="n">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B376" s="19" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C376" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D376" s="5"/>
       <c r="E376" s="8"/>
-      <c r="F376" s="11"/>
+      <c r="F376" s="9"/>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="5" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B377" s="19" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C377" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D377" s="5"/>
       <c r="E377" s="8"/>
-      <c r="F377" s="11"/>
+      <c r="F377" s="9"/>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="5" t="n">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B378" s="19" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C378" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D378" s="5"/>
       <c r="E378" s="8"/>
-      <c r="F378" s="11"/>
+      <c r="F378" s="9"/>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="5" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B379" s="19" t="s">
-        <v>385</v>
+        <v>19</v>
       </c>
       <c r="C379" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D379" s="5"/>
       <c r="E379" s="8"/>
-      <c r="F379" s="11"/>
+      <c r="F379" s="9"/>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="5" t="n">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B380" s="19" t="s">
-        <v>386</v>
+        <v>20</v>
       </c>
       <c r="C380" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D380" s="5"/>
       <c r="E380" s="8"/>
-      <c r="F380" s="11"/>
+      <c r="F380" s="9"/>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="5" t="n">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B381" s="19" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C381" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D381" s="5"/>
       <c r="E381" s="8"/>
-      <c r="F381" s="11"/>
+      <c r="F381" s="9"/>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="5" t="n">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B382" s="19" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C382" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D382" s="5"/>
       <c r="E382" s="8"/>
-      <c r="F382" s="11"/>
+      <c r="F382" s="9"/>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="5" t="n">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B383" s="19" t="s">
-        <v>389</v>
+        <v>23</v>
       </c>
       <c r="C383" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D383" s="5"/>
       <c r="E383" s="8"/>
-      <c r="F383" s="11"/>
+      <c r="F383" s="9"/>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="5" t="n">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B384" s="19" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C384" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D384" s="5"/>
       <c r="E384" s="8"/>
-      <c r="F384" s="11"/>
+      <c r="F384" s="9"/>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="5" t="n">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B385" s="19" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C385" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D385" s="5"/>
       <c r="E385" s="8"/>
-      <c r="F385" s="11"/>
+      <c r="F385" s="9"/>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="5" t="n">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B386" s="19" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C386" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D386" s="5"/>
       <c r="E386" s="8"/>
-      <c r="F386" s="11"/>
+      <c r="F386" s="9"/>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="5" t="n">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B387" s="19" t="s">
-        <v>23</v>
+        <v>394</v>
       </c>
       <c r="C387" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D387" s="5"/>
       <c r="E387" s="8"/>
-      <c r="F387" s="11"/>
+      <c r="F387" s="9"/>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="5" t="n">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B388" s="19" t="s">
-        <v>24</v>
+        <v>395</v>
       </c>
       <c r="C388" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D388" s="5"/>
       <c r="E388" s="8"/>
-      <c r="F388" s="11"/>
+      <c r="F388" s="9"/>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="5" t="n">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B389" s="19" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C389" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D389" s="5"/>
       <c r="E389" s="8"/>
-      <c r="F389" s="11"/>
+      <c r="F389" s="9"/>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="5" t="n">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B390" s="19" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C390" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D390" s="5"/>
       <c r="E390" s="8"/>
-      <c r="F390" s="11"/>
+      <c r="F390" s="9"/>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="5" t="n">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B391" s="19" t="s">
-        <v>27</v>
+        <v>398</v>
       </c>
       <c r="C391" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D391" s="5"/>
       <c r="E391" s="8"/>
-      <c r="F391" s="11"/>
+      <c r="F391" s="9"/>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="5" t="n">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B392" s="19" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C392" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D392" s="5"/>
       <c r="E392" s="8"/>
-      <c r="F392" s="11"/>
+      <c r="F392" s="9"/>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="5" t="n">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B393" s="19" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C393" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D393" s="5"/>
       <c r="E393" s="8"/>
-      <c r="F393" s="11"/>
+      <c r="F393" s="9"/>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="5" t="n">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B394" s="19" t="s">
-        <v>397</v>
+        <v>33</v>
       </c>
       <c r="C394" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D394" s="5"/>
       <c r="E394" s="8"/>
-      <c r="F394" s="11"/>
+      <c r="F394" s="9"/>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="5" t="n">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B395" s="19" t="s">
-        <v>398</v>
+        <v>34</v>
       </c>
       <c r="C395" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D395" s="5"/>
       <c r="E395" s="8"/>
-      <c r="F395" s="11"/>
+      <c r="F395" s="9"/>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="5" t="n">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B396" s="19" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C396" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D396" s="5"/>
       <c r="E396" s="8"/>
-      <c r="F396" s="11"/>
+      <c r="F396" s="9"/>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="5" t="n">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B397" s="19" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C397" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D397" s="5"/>
       <c r="E397" s="8"/>
-      <c r="F397" s="11"/>
+      <c r="F397" s="9"/>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="5" t="n">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B398" s="19" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C398" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D398" s="5"/>
       <c r="E398" s="8"/>
-      <c r="F398" s="11"/>
+      <c r="F398" s="9"/>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="5" t="n">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B399" s="19" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C399" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D399" s="5"/>
       <c r="E399" s="8"/>
-      <c r="F399" s="11"/>
+      <c r="F399" s="9"/>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="5" t="n">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="B400" s="19" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C400" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D400" s="5"/>
       <c r="E400" s="8"/>
-      <c r="F400" s="11"/>
+      <c r="F400" s="9"/>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="5" t="n">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B401" s="19" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C401" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D401" s="5"/>
       <c r="E401" s="8"/>
-      <c r="F401" s="11"/>
+      <c r="F401" s="9"/>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="5" t="n">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B402" s="19" t="s">
-        <v>37</v>
+        <v>407</v>
       </c>
       <c r="C402" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D402" s="5"/>
       <c r="E402" s="8"/>
-      <c r="F402" s="11"/>
+      <c r="F402" s="9"/>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="5" t="n">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B403" s="19" t="s">
-        <v>38</v>
+        <v>408</v>
       </c>
       <c r="C403" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D403" s="5"/>
       <c r="E403" s="8"/>
-      <c r="F403" s="11"/>
+      <c r="F403" s="9"/>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="5" t="n">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B404" s="19" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C404" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D404" s="5"/>
       <c r="E404" s="8"/>
-      <c r="F404" s="11"/>
+      <c r="F404" s="9"/>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="5" t="n">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="B405" s="19" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C405" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D405" s="5"/>
       <c r="E405" s="8"/>
-      <c r="F405" s="11"/>
+      <c r="F405" s="9"/>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="5" t="n">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B406" s="19" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C406" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D406" s="5"/>
       <c r="E406" s="8"/>
-      <c r="F406" s="11"/>
+      <c r="F406" s="9"/>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="5" t="n">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B407" s="19" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C407" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D407" s="5"/>
       <c r="E407" s="8"/>
-      <c r="F407" s="11"/>
+      <c r="F407" s="9"/>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="5" t="n">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="B408" s="19" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C408" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D408" s="5"/>
       <c r="E408" s="8"/>
-      <c r="F408" s="11"/>
+      <c r="F408" s="9"/>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="5" t="n">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B409" s="19" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C409" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D409" s="5"/>
       <c r="E409" s="8"/>
-      <c r="F409" s="11"/>
+      <c r="F409" s="9"/>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="5" t="n">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B410" s="19" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C410" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D410" s="5"/>
       <c r="E410" s="8"/>
-      <c r="F410" s="11"/>
+      <c r="F410" s="9"/>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="5" t="n">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B411" s="19" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C411" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D411" s="5"/>
       <c r="E411" s="8"/>
-      <c r="F411" s="11"/>
+      <c r="F411" s="9"/>
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="5" t="n">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B412" s="19" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C412" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D412" s="5"/>
       <c r="E412" s="8"/>
-      <c r="F412" s="11"/>
+      <c r="F412" s="9"/>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="5" t="n">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B413" s="19" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C413" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D413" s="5"/>
       <c r="E413" s="8"/>
-      <c r="F413" s="11"/>
+      <c r="F413" s="9"/>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="5" t="n">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B414" s="19" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C414" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D414" s="5"/>
       <c r="E414" s="8"/>
-      <c r="F414" s="11"/>
+      <c r="F414" s="9"/>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="5" t="n">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="B415" s="19" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C415" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D415" s="5"/>
       <c r="E415" s="8"/>
-      <c r="F415" s="11"/>
+      <c r="F415" s="9"/>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="5" t="n">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B416" s="19" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C416" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D416" s="5"/>
       <c r="E416" s="8"/>
-      <c r="F416" s="11"/>
+      <c r="F416" s="9"/>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="5" t="n">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B417" s="19" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C417" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D417" s="5"/>
       <c r="E417" s="8"/>
-      <c r="F417" s="11"/>
+      <c r="F417" s="9"/>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="5" t="n">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="B418" s="19" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C418" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D418" s="5"/>
       <c r="E418" s="8"/>
-      <c r="F418" s="11"/>
+      <c r="F418" s="9"/>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="5" t="n">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B419" s="19" t="s">
-        <v>420</v>
+        <v>57</v>
       </c>
       <c r="C419" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D419" s="5"/>
       <c r="E419" s="8"/>
-      <c r="F419" s="11"/>
+      <c r="F419" s="9"/>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="5" t="n">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B420" s="19" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C420" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D420" s="5"/>
       <c r="E420" s="8"/>
-      <c r="F420" s="11"/>
+      <c r="F420" s="9"/>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="5" t="n">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="B421" s="19" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C421" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D421" s="5"/>
       <c r="E421" s="8"/>
-      <c r="F421" s="11"/>
+      <c r="F421" s="9"/>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="5" t="n">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B422" s="19" t="s">
-        <v>423</v>
+        <v>60</v>
       </c>
       <c r="C422" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D422" s="5"/>
       <c r="E422" s="8"/>
-      <c r="F422" s="11"/>
+      <c r="F422" s="9"/>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="5" t="n">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B423" s="19" t="s">
-        <v>424</v>
+        <v>61</v>
       </c>
       <c r="C423" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D423" s="5"/>
       <c r="E423" s="8"/>
-      <c r="F423" s="11"/>
+      <c r="F423" s="9"/>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="5" t="n">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B424" s="19" t="s">
-        <v>425</v>
+        <v>62</v>
       </c>
       <c r="C424" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D424" s="5"/>
       <c r="E424" s="8"/>
-      <c r="F424" s="11"/>
+      <c r="F424" s="9"/>
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="5" t="n">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B425" s="19" t="s">
-        <v>426</v>
+        <v>63</v>
       </c>
       <c r="C425" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D425" s="5"/>
       <c r="E425" s="8"/>
-      <c r="F425" s="11"/>
+      <c r="F425" s="9"/>
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="5" t="n">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B426" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C426" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D426" s="5"/>
       <c r="E426" s="8"/>
-      <c r="F426" s="11"/>
+      <c r="F426" s="9"/>
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="5" t="n">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B427" s="19" t="s">
-        <v>61</v>
+        <v>427</v>
       </c>
       <c r="C427" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D427" s="5"/>
       <c r="E427" s="8"/>
-      <c r="F427" s="11"/>
+      <c r="F427" s="9"/>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="5" t="n">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B428" s="19" t="s">
         <v>428</v>
@@ -8085,11 +8087,11 @@
       </c>
       <c r="D428" s="5"/>
       <c r="E428" s="8"/>
-      <c r="F428" s="11"/>
+      <c r="F428" s="9"/>
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="5" t="n">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B429" s="19" t="s">
         <v>429</v>
@@ -8099,1956 +8101,1848 @@
       </c>
       <c r="D429" s="5"/>
       <c r="E429" s="8"/>
-      <c r="F429" s="11"/>
+      <c r="F429" s="9"/>
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="5" t="n">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B430" s="19" t="s">
-        <v>64</v>
+        <v>430</v>
       </c>
       <c r="C430" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D430" s="5"/>
       <c r="E430" s="8"/>
-      <c r="F430" s="11"/>
+      <c r="F430" s="9"/>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="5" t="n">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B431" s="19" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C431" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D431" s="5"/>
       <c r="E431" s="8"/>
-      <c r="F431" s="11"/>
+      <c r="F431" s="9"/>
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="5" t="n">
+        <v>439</v>
+      </c>
+      <c r="B432" s="19" t="s">
         <v>431</v>
-      </c>
-      <c r="B432" s="19" t="s">
-        <v>66</v>
       </c>
       <c r="C432" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D432" s="5"/>
       <c r="E432" s="8"/>
-      <c r="F432" s="11"/>
+      <c r="F432" s="9"/>
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="5" t="n">
+        <v>440</v>
+      </c>
+      <c r="B433" s="19" t="s">
         <v>432</v>
-      </c>
-      <c r="B433" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="C433" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D433" s="5"/>
       <c r="E433" s="8"/>
-      <c r="F433" s="11"/>
+      <c r="F433" s="9"/>
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="5" t="n">
+        <v>441</v>
+      </c>
+      <c r="B434" s="19" t="s">
         <v>433</v>
-      </c>
-      <c r="B434" s="19" t="s">
-        <v>430</v>
       </c>
       <c r="C434" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D434" s="5"/>
       <c r="E434" s="8"/>
-      <c r="F434" s="11"/>
+      <c r="F434" s="9"/>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="5" t="n">
+        <v>442</v>
+      </c>
+      <c r="B435" s="19" t="s">
         <v>434</v>
-      </c>
-      <c r="B435" s="19" t="s">
-        <v>431</v>
       </c>
       <c r="C435" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D435" s="5"/>
       <c r="E435" s="8"/>
-      <c r="F435" s="11"/>
+      <c r="F435" s="9"/>
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="5" t="n">
+        <v>443</v>
+      </c>
+      <c r="B436" s="19" t="s">
         <v>435</v>
-      </c>
-      <c r="B436" s="19" t="s">
-        <v>432</v>
       </c>
       <c r="C436" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D436" s="5"/>
       <c r="E436" s="8"/>
-      <c r="F436" s="11"/>
+      <c r="F436" s="9"/>
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="5" t="n">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B437" s="19" t="s">
-        <v>433</v>
+        <v>75</v>
       </c>
       <c r="C437" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D437" s="5"/>
       <c r="E437" s="8"/>
-      <c r="F437" s="11"/>
+      <c r="F437" s="9"/>
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="5" t="n">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="B438" s="19" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C438" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D438" s="5"/>
       <c r="E438" s="8"/>
-      <c r="F438" s="11"/>
+      <c r="F438" s="9"/>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="5" t="n">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="B439" s="19" t="s">
-        <v>73</v>
+        <v>437</v>
       </c>
       <c r="C439" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D439" s="5"/>
       <c r="E439" s="8"/>
-      <c r="F439" s="11"/>
+      <c r="F439" s="9"/>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="5" t="n">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B440" s="19" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C440" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D440" s="5"/>
       <c r="E440" s="8"/>
-      <c r="F440" s="11"/>
+      <c r="F440" s="9"/>
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="5" t="n">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B441" s="19" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C441" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D441" s="5"/>
       <c r="E441" s="8"/>
-      <c r="F441" s="11"/>
+      <c r="F441" s="9"/>
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="5" t="n">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="B442" s="19" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C442" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D442" s="5"/>
       <c r="E442" s="8"/>
-      <c r="F442" s="11"/>
+      <c r="F442" s="9"/>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="5" t="n">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="B443" s="19" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C443" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D443" s="5"/>
       <c r="E443" s="8"/>
-      <c r="F443" s="11"/>
+      <c r="F443" s="9"/>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="5" t="n">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="B444" s="19" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C444" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D444" s="5"/>
       <c r="E444" s="8"/>
-      <c r="F444" s="11"/>
+      <c r="F444" s="9"/>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="5" t="n">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B445" s="19" t="s">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="C445" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D445" s="5"/>
       <c r="E445" s="8"/>
-      <c r="F445" s="11"/>
+      <c r="F445" s="9"/>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="5" t="n">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B446" s="19" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C446" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D446" s="5"/>
       <c r="E446" s="8"/>
-      <c r="F446" s="11"/>
+      <c r="F446" s="9"/>
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="5" t="n">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B447" s="19" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C447" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D447" s="5"/>
       <c r="E447" s="8"/>
-      <c r="F447" s="11"/>
+      <c r="F447" s="9"/>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="5" t="n">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B448" s="19" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C448" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D448" s="5"/>
       <c r="E448" s="8"/>
-      <c r="F448" s="11"/>
+      <c r="F448" s="9"/>
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="5" t="n">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="B449" s="19" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C449" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D449" s="5"/>
       <c r="E449" s="8"/>
-      <c r="F449" s="11"/>
+      <c r="F449" s="9"/>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="5" t="n">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B450" s="19" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C450" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D450" s="5"/>
       <c r="E450" s="8"/>
-      <c r="F450" s="11"/>
+      <c r="F450" s="9"/>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="5" t="n">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="B451" s="19" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C451" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D451" s="5"/>
       <c r="E451" s="8"/>
-      <c r="F451" s="11"/>
+      <c r="F451" s="9"/>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="5" t="n">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B452" s="19" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C452" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D452" s="5"/>
       <c r="E452" s="8"/>
-      <c r="F452" s="11"/>
+      <c r="F452" s="9"/>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="5" t="n">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B453" s="19" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C453" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D453" s="5"/>
       <c r="E453" s="8"/>
-      <c r="F453" s="11"/>
+      <c r="F453" s="9"/>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="5" t="n">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="B454" s="19" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C454" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D454" s="5"/>
       <c r="E454" s="8"/>
-      <c r="F454" s="11"/>
+      <c r="F454" s="9"/>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="5" t="n">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B455" s="19" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C455" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D455" s="5"/>
       <c r="E455" s="8"/>
-      <c r="F455" s="11"/>
+      <c r="F455" s="9"/>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="5" t="n">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="B456" s="19" t="s">
-        <v>450</v>
+        <v>94</v>
       </c>
       <c r="C456" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D456" s="5"/>
       <c r="E456" s="8"/>
-      <c r="F456" s="11"/>
+      <c r="F456" s="9"/>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="5" t="n">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="B457" s="19" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C457" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D457" s="5"/>
       <c r="E457" s="8"/>
-      <c r="F457" s="11"/>
+      <c r="F457" s="9"/>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="5" t="n">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="B458" s="19" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C458" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D458" s="5"/>
       <c r="E458" s="8"/>
-      <c r="F458" s="11"/>
+      <c r="F458" s="9"/>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="5" t="n">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="B459" s="19" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C459" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D459" s="5"/>
       <c r="E459" s="8"/>
-      <c r="F459" s="11"/>
+      <c r="F459" s="9"/>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="5" t="n">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B460" s="19" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C460" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D460" s="5"/>
       <c r="E460" s="8"/>
-      <c r="F460" s="11"/>
+      <c r="F460" s="9"/>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="5" t="n">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="B461" s="19" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C461" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D461" s="5"/>
       <c r="E461" s="8"/>
-      <c r="F461" s="11"/>
+      <c r="F461" s="9"/>
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="5" t="n">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="B462" s="19" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C462" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D462" s="5"/>
       <c r="E462" s="8"/>
-      <c r="F462" s="11"/>
+      <c r="F462" s="9"/>
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="5" t="n">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="B463" s="19" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C463" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D463" s="5"/>
       <c r="E463" s="8"/>
-      <c r="F463" s="11"/>
+      <c r="F463" s="9"/>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="5" t="n">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="B464" s="19" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C464" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D464" s="5"/>
       <c r="E464" s="8"/>
-      <c r="F464" s="11"/>
+      <c r="F464" s="9"/>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="5" t="n">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B465" s="19" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C465" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D465" s="5"/>
       <c r="E465" s="8"/>
-      <c r="F465" s="11"/>
+      <c r="F465" s="9"/>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="5" t="n">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="B466" s="19" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C466" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D466" s="5"/>
       <c r="E466" s="8"/>
-      <c r="F466" s="11"/>
+      <c r="F466" s="9"/>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="5" t="n">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="B467" s="19" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C467" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D467" s="5"/>
       <c r="E467" s="8"/>
-      <c r="F467" s="11"/>
+      <c r="F467" s="9"/>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="5" t="n">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B468" s="19" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C468" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D468" s="5"/>
       <c r="E468" s="8"/>
-      <c r="F468" s="11"/>
+      <c r="F468" s="9"/>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="5" t="n">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B469" s="19" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C469" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D469" s="5"/>
       <c r="E469" s="8"/>
-      <c r="F469" s="11"/>
+      <c r="F469" s="9"/>
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="5" t="n">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="B470" s="19" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C470" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D470" s="5"/>
       <c r="E470" s="8"/>
-      <c r="F470" s="11"/>
+      <c r="F470" s="9"/>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="5" t="n">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="B471" s="19" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C471" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D471" s="5"/>
       <c r="E471" s="8"/>
-      <c r="F471" s="11"/>
+      <c r="F471" s="9"/>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="5" t="n">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="B472" s="19" t="s">
-        <v>106</v>
+        <v>468</v>
       </c>
       <c r="C472" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D472" s="5"/>
       <c r="E472" s="8"/>
-      <c r="F472" s="11"/>
+      <c r="F472" s="9"/>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="5" t="n">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B473" s="19" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C473" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D473" s="5"/>
       <c r="E473" s="8"/>
-      <c r="F473" s="11"/>
+      <c r="F473" s="9"/>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="5" t="n">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="B474" s="19" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C474" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D474" s="5"/>
       <c r="E474" s="8"/>
-      <c r="F474" s="11"/>
+      <c r="F474" s="9"/>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="5" t="n">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="B475" s="19" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C475" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D475" s="5"/>
       <c r="E475" s="8"/>
-      <c r="F475" s="11"/>
+      <c r="F475" s="9"/>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="5" t="n">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="B476" s="19" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C476" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D476" s="5"/>
       <c r="E476" s="8"/>
-      <c r="F476" s="11"/>
+      <c r="F476" s="9"/>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="5" t="n">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="B477" s="19" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C477" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D477" s="5"/>
       <c r="E477" s="8"/>
-      <c r="F477" s="11"/>
+      <c r="F477" s="9"/>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="5" t="n">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="B478" s="19" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C478" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D478" s="5"/>
       <c r="E478" s="8"/>
-      <c r="F478" s="11"/>
+      <c r="F478" s="9"/>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="5" t="n">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="B479" s="19" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C479" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D479" s="5"/>
       <c r="E479" s="8"/>
-      <c r="F479" s="11"/>
+      <c r="F479" s="9"/>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="5" t="n">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="B480" s="19" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C480" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D480" s="5"/>
       <c r="E480" s="8"/>
-      <c r="F480" s="11"/>
+      <c r="F480" s="9"/>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="5" t="n">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B481" s="19" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C481" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D481" s="5"/>
       <c r="E481" s="8"/>
-      <c r="F481" s="11"/>
+      <c r="F481" s="9"/>
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="5" t="n">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B482" s="19" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C482" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D482" s="5"/>
       <c r="E482" s="8"/>
-      <c r="F482" s="11"/>
+      <c r="F482" s="9"/>
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="5" t="n">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B483" s="19" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C483" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D483" s="5"/>
       <c r="E483" s="8"/>
-      <c r="F483" s="11"/>
+      <c r="F483" s="9"/>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="5" t="n">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B484" s="19" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C484" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D484" s="5"/>
       <c r="E484" s="8"/>
-      <c r="F484" s="11"/>
+      <c r="F484" s="9"/>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="5" t="n">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B485" s="19" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C485" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D485" s="5"/>
       <c r="E485" s="8"/>
-      <c r="F485" s="11"/>
+      <c r="F485" s="9"/>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="5" t="n">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="B486" s="19" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C486" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D486" s="5"/>
       <c r="E486" s="8"/>
-      <c r="F486" s="11"/>
+      <c r="F486" s="9"/>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="5" t="n">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="B487" s="19" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C487" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D487" s="5"/>
       <c r="E487" s="8"/>
-      <c r="F487" s="11"/>
+      <c r="F487" s="9"/>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="5" t="n">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="B488" s="19" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C488" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D488" s="5"/>
       <c r="E488" s="8"/>
-      <c r="F488" s="11"/>
+      <c r="F488" s="9"/>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="5" t="n">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="B489" s="19" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C489" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D489" s="5"/>
       <c r="E489" s="8"/>
-      <c r="F489" s="11"/>
+      <c r="F489" s="9"/>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="5" t="n">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="B490" s="19" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C490" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D490" s="5"/>
       <c r="E490" s="8"/>
-      <c r="F490" s="11"/>
+      <c r="F490" s="9"/>
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="5" t="n">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="B491" s="19" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C491" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D491" s="5"/>
       <c r="E491" s="8"/>
-      <c r="F491" s="11"/>
+      <c r="F491" s="9"/>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="5" t="n">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="B492" s="19" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C492" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D492" s="5"/>
       <c r="E492" s="8"/>
-      <c r="F492" s="11"/>
+      <c r="F492" s="9"/>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="5" t="n">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="B493" s="19" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C493" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D493" s="5"/>
       <c r="E493" s="8"/>
-      <c r="F493" s="11"/>
+      <c r="F493" s="9"/>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="5" t="n">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="B494" s="19" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C494" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D494" s="5"/>
-      <c r="E494" s="8"/>
-      <c r="F494" s="11"/>
+      <c r="E494" s="9"/>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="5" t="n">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="B495" s="19" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C495" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D495" s="5"/>
-      <c r="E495" s="8"/>
-      <c r="F495" s="11"/>
+      <c r="E495" s="9"/>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="5" t="n">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="B496" s="19" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C496" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D496" s="5"/>
-      <c r="E496" s="8"/>
-      <c r="F496" s="11"/>
+      <c r="E496" s="9"/>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="5" t="n">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="B497" s="19" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C497" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D497" s="5"/>
-      <c r="E497" s="8"/>
-      <c r="F497" s="11"/>
+      <c r="E497" s="9"/>
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="5" t="n">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="B498" s="19" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C498" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D498" s="5"/>
-      <c r="E498" s="8"/>
-      <c r="F498" s="11"/>
+      <c r="E498" s="9"/>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="5" t="n">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="B499" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C499" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D499" s="5"/>
-      <c r="E499" s="8"/>
-      <c r="F499" s="11"/>
+      <c r="E499" s="9"/>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="5" t="n">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="B500" s="19" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C500" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D500" s="5"/>
-      <c r="E500" s="8"/>
-      <c r="F500" s="11"/>
+      <c r="E500" s="9"/>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="5" t="n">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="B501" s="19" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C501" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D501" s="5"/>
-      <c r="E501" s="8"/>
-      <c r="F501" s="11"/>
+      <c r="E501" s="9"/>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="5" t="n">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="B502" s="19" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C502" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D502" s="5"/>
-      <c r="E502" s="11"/>
+      <c r="E502" s="9"/>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="5" t="n">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="B503" s="19" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C503" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D503" s="5"/>
-      <c r="E503" s="11"/>
+      <c r="E503" s="9"/>
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="5" t="n">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="B504" s="19" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C504" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D504" s="5"/>
-      <c r="E504" s="11"/>
+      <c r="E504" s="9"/>
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="5" t="n">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="B505" s="19" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C505" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D505" s="5"/>
-      <c r="E505" s="11"/>
+      <c r="E505" s="9"/>
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="5" t="n">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="B506" s="19" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C506" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D506" s="5"/>
-      <c r="E506" s="11"/>
+      <c r="E506" s="9"/>
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="5" t="n">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B507" s="19" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C507" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D507" s="5"/>
-      <c r="E507" s="11"/>
+      <c r="E507" s="9"/>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="5" t="n">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="B508" s="19" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C508" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D508" s="5"/>
-      <c r="E508" s="11"/>
+      <c r="E508" s="9"/>
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="5" t="n">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="B509" s="19" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C509" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D509" s="5"/>
-      <c r="E509" s="11"/>
+      <c r="E509" s="9"/>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="5" t="n">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B510" s="19" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C510" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D510" s="5"/>
-      <c r="E510" s="11"/>
+      <c r="E510" s="9"/>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="5" t="n">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="B511" s="19" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C511" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D511" s="5"/>
-      <c r="E511" s="11"/>
+      <c r="E511" s="9"/>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="5" t="n">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="B512" s="19" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C512" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D512" s="5"/>
-      <c r="E512" s="11"/>
+      <c r="E512" s="9"/>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="5" t="n">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="B513" s="19" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C513" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D513" s="5"/>
-      <c r="E513" s="11"/>
+      <c r="E513" s="9"/>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="5" t="n">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="B514" s="19" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C514" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D514" s="5"/>
-      <c r="E514" s="11"/>
+      <c r="E514" s="9"/>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="5" t="n">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="B515" s="19" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C515" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D515" s="5"/>
-      <c r="E515" s="11"/>
+      <c r="E515" s="9"/>
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="5" t="n">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="B516" s="19" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C516" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D516" s="5"/>
-      <c r="E516" s="11"/>
+      <c r="E516" s="9"/>
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="5" t="n">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="B517" s="19" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C517" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D517" s="5"/>
-      <c r="E517" s="11"/>
+      <c r="E517" s="9"/>
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="5" t="n">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B518" s="19" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C518" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D518" s="5"/>
-      <c r="E518" s="11"/>
+      <c r="E518" s="9"/>
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="5" t="n">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B519" s="19" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C519" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D519" s="5"/>
-      <c r="E519" s="11"/>
+      <c r="E519" s="9"/>
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="5" t="n">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B520" s="19" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C520" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D520" s="5"/>
-      <c r="E520" s="11"/>
+      <c r="E520" s="9"/>
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="5" t="n">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="B521" s="19" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C521" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D521" s="5"/>
-      <c r="E521" s="11"/>
+      <c r="E521" s="9"/>
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="5" t="n">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="B522" s="19" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C522" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D522" s="5"/>
-      <c r="E522" s="11"/>
+      <c r="E522" s="9"/>
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="5" t="n">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B523" s="19" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C523" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D523" s="5"/>
-      <c r="E523" s="11"/>
+      <c r="E523" s="9"/>
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="5" t="n">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="B524" s="19" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C524" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D524" s="5"/>
-      <c r="E524" s="11"/>
+      <c r="E524" s="9"/>
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="5" t="n">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="B525" s="19" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C525" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D525" s="5"/>
-      <c r="E525" s="11"/>
+      <c r="E525" s="9"/>
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="5" t="n">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B526" s="19" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C526" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D526" s="5"/>
-      <c r="E526" s="11"/>
+      <c r="E526" s="9"/>
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="5" t="n">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B527" s="19" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C527" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D527" s="5"/>
-      <c r="E527" s="11"/>
+      <c r="E527" s="9"/>
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="5" t="n">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="B528" s="19" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C528" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D528" s="5"/>
-      <c r="E528" s="11"/>
+      <c r="E528" s="9"/>
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="5" t="n">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="B529" s="19" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C529" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D529" s="5"/>
-      <c r="E529" s="11"/>
+      <c r="E529" s="9"/>
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="5" t="n">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="B530" s="19" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C530" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D530" s="5"/>
-      <c r="E530" s="11"/>
+      <c r="E530" s="9"/>
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="5" t="n">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="B531" s="19" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C531" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D531" s="5"/>
-      <c r="E531" s="11"/>
+      <c r="E531" s="9"/>
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="5" t="n">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="B532" s="19" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C532" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D532" s="5"/>
-      <c r="E532" s="11"/>
+      <c r="E532" s="9"/>
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="5" t="n">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="B533" s="19" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C533" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D533" s="5"/>
-      <c r="E533" s="11"/>
+      <c r="E533" s="9"/>
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="5" t="n">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="B534" s="19" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C534" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D534" s="5"/>
-      <c r="E534" s="11"/>
+      <c r="E534" s="9"/>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="5" t="n">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="B535" s="19" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C535" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D535" s="5"/>
-      <c r="E535" s="11"/>
+      <c r="E535" s="9"/>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="5" t="n">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="B536" s="19" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C536" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D536" s="5"/>
-      <c r="E536" s="11"/>
+      <c r="E536" s="9"/>
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="5" t="n">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="B537" s="19" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C537" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D537" s="5"/>
-      <c r="E537" s="11"/>
+      <c r="E537" s="9"/>
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="5" t="n">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="B538" s="19" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C538" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D538" s="5"/>
-      <c r="E538" s="11"/>
+      <c r="E538" s="9"/>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="5" t="n">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="B539" s="19" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C539" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D539" s="5"/>
-      <c r="E539" s="11"/>
+      <c r="E539" s="9"/>
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="5" t="n">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="B540" s="19" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C540" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D540" s="5"/>
-      <c r="E540" s="11"/>
+      <c r="E540" s="9"/>
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="5" t="n">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="B541" s="19" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C541" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D541" s="5"/>
-      <c r="E541" s="11"/>
+      <c r="E541" s="9"/>
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="5" t="n">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="B542" s="19" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C542" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D542" s="5"/>
-      <c r="E542" s="11"/>
+      <c r="E542" s="9"/>
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="5" t="n">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="B543" s="19" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C543" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D543" s="5"/>
-      <c r="E543" s="11"/>
+      <c r="E543" s="9"/>
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="5" t="n">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="B544" s="19" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C544" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D544" s="5"/>
-      <c r="E544" s="11"/>
+      <c r="E544" s="9"/>
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="5" t="n">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="B545" s="19" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C545" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D545" s="5"/>
-      <c r="E545" s="11"/>
+      <c r="E545" s="9"/>
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="5" t="n">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="B546" s="19" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C546" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D546" s="5"/>
-      <c r="E546" s="11"/>
+      <c r="E546" s="9"/>
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="5" t="n">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="B547" s="19" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C547" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D547" s="5"/>
-      <c r="E547" s="11"/>
+      <c r="E547" s="9"/>
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="5" t="n">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="B548" s="19" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C548" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D548" s="5"/>
-      <c r="E548" s="11"/>
+      <c r="E548" s="9"/>
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="5" t="n">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="B549" s="19" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C549" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D549" s="5"/>
-      <c r="E549" s="11"/>
+      <c r="E549" s="9"/>
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="5" t="n">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="B550" s="19" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C550" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D550" s="5"/>
-      <c r="E550" s="11"/>
+      <c r="E550" s="9"/>
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="5" t="n">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="B551" s="19" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C551" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D551" s="5"/>
-      <c r="E551" s="11"/>
+      <c r="E551" s="9"/>
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="5" t="n">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="B552" s="19" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C552" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D552" s="5"/>
-      <c r="E552" s="11"/>
+      <c r="E552" s="9"/>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="5" t="n">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="B553" s="19" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C553" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D553" s="5"/>
-      <c r="E553" s="11"/>
+      <c r="E553" s="9"/>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="5" t="n">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="B554" s="19" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C554" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D554" s="5"/>
-      <c r="E554" s="11"/>
+      <c r="E554" s="9"/>
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="5" t="n">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="B555" s="19" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C555" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D555" s="5"/>
-      <c r="E555" s="11"/>
+      <c r="E555" s="9"/>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="5" t="n">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="B556" s="19" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C556" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D556" s="5"/>
-      <c r="E556" s="11"/>
+      <c r="E556" s="9"/>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="5" t="n">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="B557" s="19" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C557" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D557" s="5"/>
-      <c r="E557" s="11"/>
+      <c r="E557" s="9"/>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="5" t="n">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="B558" s="19" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C558" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D558" s="5"/>
-      <c r="E558" s="11"/>
+      <c r="E558" s="9"/>
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="5" t="n">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="B559" s="19" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C559" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D559" s="5"/>
-      <c r="E559" s="11"/>
+      <c r="E559" s="9"/>
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="5" t="n">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="B560" s="19" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C560" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D560" s="5"/>
-      <c r="E560" s="11"/>
+      <c r="E560" s="9"/>
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="5" t="n">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="B561" s="19" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C561" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D561" s="5"/>
-      <c r="E561" s="11"/>
+      <c r="E561" s="9"/>
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="5" t="n">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="B562" s="19" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C562" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D562" s="5"/>
-      <c r="E562" s="11"/>
+      <c r="E562" s="9"/>
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="5" t="n">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="B563" s="19" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C563" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D563" s="5"/>
-      <c r="E563" s="11"/>
+      <c r="E563" s="9"/>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="5" t="n">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="B564" s="19" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C564" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D564" s="5"/>
-      <c r="E564" s="11"/>
+      <c r="E564" s="9"/>
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="5" t="n">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="B565" s="19" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C565" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D565" s="5"/>
-      <c r="E565" s="11"/>
-    </row>
-    <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="5" t="n">
-        <v>565</v>
-      </c>
-      <c r="B566" s="19" t="s">
-        <v>558</v>
-      </c>
-      <c r="C566" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D566" s="5"/>
-      <c r="E566" s="11"/>
-    </row>
-    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="5" t="n">
-        <v>566</v>
-      </c>
-      <c r="B567" s="19" t="s">
-        <v>559</v>
-      </c>
-      <c r="C567" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D567" s="5"/>
-      <c r="E567" s="11"/>
-    </row>
-    <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="5" t="n">
-        <v>567</v>
-      </c>
-      <c r="B568" s="19" t="s">
-        <v>560</v>
-      </c>
-      <c r="C568" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D568" s="5"/>
-      <c r="E568" s="11"/>
-    </row>
-    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="5" t="n">
-        <v>568</v>
-      </c>
-      <c r="B569" s="19" t="s">
-        <v>561</v>
-      </c>
-      <c r="C569" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D569" s="5"/>
-      <c r="E569" s="11"/>
-    </row>
-    <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="5" t="n">
-        <v>569</v>
-      </c>
-      <c r="B570" s="19" t="s">
-        <v>562</v>
-      </c>
-      <c r="C570" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D570" s="5"/>
-      <c r="E570" s="11"/>
-    </row>
-    <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="5" t="n">
-        <v>570</v>
-      </c>
-      <c r="B571" s="19" t="s">
-        <v>563</v>
-      </c>
-      <c r="C571" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D571" s="5"/>
-      <c r="E571" s="11"/>
-    </row>
-    <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="5" t="n">
-        <v>571</v>
-      </c>
-      <c r="B572" s="19" t="s">
-        <v>564</v>
-      </c>
-      <c r="C572" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D572" s="5"/>
-      <c r="E572" s="11"/>
-    </row>
-    <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="5" t="n">
-        <v>572</v>
-      </c>
-      <c r="B573" s="19" t="s">
-        <v>565</v>
-      </c>
-      <c r="C573" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D573" s="5"/>
-      <c r="E573" s="11"/>
-    </row>
+      <c r="E565" s="9"/>
+    </row>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="hoangdinhminhkhoi@grr.la"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/data/BinanceAccount.xlsx
+++ b/data/BinanceAccount.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="554">
   <si>
     <t xml:space="preserve">STT</t>
   </si>
@@ -59,39 +59,6 @@
   </si>
   <si>
     <t xml:space="preserve">True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">camamth@grr.la</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100707216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cambientho@grr.la</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100729928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cogiaothaohj@grr.la</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100737174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conmabenho@grr.la</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100733203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conmeoxauqua@grr.la</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conmodem1@grr.la</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conmua1994th@grr.la</t>
   </si>
   <si>
     <t xml:space="preserve">conongkutehi@grr.la</t>
@@ -1197,6 +1164,12 @@
     <t xml:space="preserve">conmabenko@grr.la</t>
   </si>
   <si>
+    <t xml:space="preserve">conmeoxauqua@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conmodem1@grr.la</t>
+  </si>
+  <si>
     <t xml:space="preserve">conmua1994tk@grr.la</t>
   </si>
   <si>
@@ -1714,12 +1687,6 @@
   </si>
   <si>
     <t xml:space="preserve">zjiqjimop@grr.la</t>
-  </si>
-  <si>
-    <t>kava1ys70jvnajkv88529ys6urjcyle3k2j9r24g6a7</t>
-  </si>
-  <si>
-    <t>100745946</t>
   </si>
   <si>
     <t>True</t>
@@ -2040,7 +2007,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2095,9 +2062,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>11</v>
@@ -2105,158 +2072,146 @@
       <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
-        <v>562</v>
-      </c>
-      <c r="E7" t="s">
-        <v>563</v>
-      </c>
+      <c r="D7"/>
+      <c r="E7"/>
       <c r="F7" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="n">
+        <v>23</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
-        <v>19</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>7</v>
@@ -2267,10 +2222,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>7</v>
@@ -2279,12 +2234,12 @@
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>7</v>
@@ -2295,10 +2250,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>7</v>
@@ -2307,14 +2262,14 @@
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="n">
-        <v>23</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="14" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="5"/>
@@ -2323,10 +2278,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>7</v>
@@ -2337,10 +2292,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>7</v>
@@ -2351,10 +2306,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>7</v>
@@ -2365,10 +2320,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>7</v>
@@ -2377,12 +2332,12 @@
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>7</v>
@@ -2393,10 +2348,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
-        <v>29</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>7</v>
@@ -2407,10 +2362,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>7</v>
@@ -2421,10 +2376,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>7</v>
@@ -2435,10 +2390,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>7</v>
@@ -2449,10 +2404,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>7</v>
@@ -2461,12 +2416,12 @@
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
-        <v>34</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>7</v>
@@ -2477,10 +2432,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>7</v>
@@ -2491,10 +2446,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>7</v>
@@ -2505,10 +2460,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>7</v>
@@ -2519,10 +2474,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>7</v>
@@ -2533,10 +2488,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>7</v>
@@ -2547,10 +2502,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
-        <v>40</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>7</v>
@@ -2559,12 +2514,12 @@
       <c r="E33" s="8"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
-        <v>41</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>7</v>
@@ -2575,10 +2530,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>7</v>
@@ -2589,10 +2544,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>7</v>
@@ -2603,10 +2558,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>7</v>
@@ -2617,10 +2572,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>7</v>
@@ -2631,10 +2586,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>7</v>
@@ -2645,10 +2600,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
-        <v>47</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>7</v>
@@ -2659,10 +2614,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>7</v>
@@ -2673,10 +2628,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>7</v>
@@ -2687,10 +2642,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>7</v>
@@ -2701,10 +2656,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>7</v>
@@ -2715,10 +2670,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="n">
-        <v>52</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>7</v>
@@ -2729,10 +2684,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>7</v>
@@ -2743,10 +2698,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>7</v>
@@ -2757,10 +2712,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>7</v>
@@ -2771,10 +2726,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>7</v>
@@ -2785,10 +2740,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>7</v>
@@ -2799,10 +2754,10 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="n">
-        <v>58</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>7</v>
@@ -2813,10 +2768,10 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="n">
-        <v>59</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>7</v>
@@ -2827,10 +2782,10 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>7</v>
@@ -2841,10 +2796,10 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>7</v>
@@ -2855,10 +2810,10 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>7</v>
@@ -2869,10 +2824,10 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>7</v>
@@ -2883,10 +2838,10 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>7</v>
@@ -2897,10 +2852,10 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="n">
-        <v>65</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>7</v>
@@ -2911,10 +2866,10 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>7</v>
@@ -2925,10 +2880,10 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>7</v>
@@ -2939,10 +2894,10 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>7</v>
@@ -2953,10 +2908,10 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="n">
-        <v>69</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>7</v>
@@ -2967,11 +2922,9 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="n">
-        <v>70</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>75</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B63" s="6"/>
       <c r="C63" s="7" t="s">
         <v>7</v>
       </c>
@@ -2981,10 +2934,10 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="n">
+        <v>78</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>7</v>
@@ -2995,10 +2948,10 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="n">
+        <v>79</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>7</v>
@@ -3009,10 +2962,10 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>7</v>
@@ -3023,10 +2976,10 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="n">
+        <v>81</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>7</v>
@@ -3037,10 +2990,10 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="n">
+        <v>82</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>7</v>
@@ -3051,10 +3004,10 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="n">
+        <v>83</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>7</v>
@@ -3065,9 +3018,9 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="n">
-        <v>77</v>
-      </c>
-      <c r="B70" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="B70" s="16"/>
       <c r="C70" s="7" t="s">
         <v>7</v>
       </c>
@@ -3077,10 +3030,10 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>7</v>
@@ -3091,10 +3044,10 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>7</v>
@@ -3105,10 +3058,10 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>7</v>
@@ -3119,10 +3072,10 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>7</v>
@@ -3133,10 +3086,10 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>7</v>
@@ -3147,10 +3100,10 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>7</v>
@@ -3161,9 +3114,11 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="n">
-        <v>84</v>
-      </c>
-      <c r="B77" s="16"/>
+        <v>91</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="C77" s="7" t="s">
         <v>7</v>
       </c>
@@ -3173,10 +3128,10 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>7</v>
@@ -3187,10 +3142,10 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>7</v>
@@ -3201,10 +3156,10 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>7</v>
@@ -3215,10 +3170,10 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>7</v>
@@ -3229,10 +3184,10 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>7</v>
@@ -3243,10 +3198,10 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>7</v>
@@ -3257,10 +3212,10 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>7</v>
@@ -3271,10 +3226,10 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>7</v>
@@ -3285,10 +3240,10 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="n">
-        <v>93</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>96</v>
+        <v>100</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>7</v>
@@ -3299,10 +3254,10 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="n">
-        <v>94</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>7</v>
@@ -3313,10 +3268,10 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="n">
-        <v>95</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>7</v>
@@ -3327,10 +3282,10 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>7</v>
@@ -3341,10 +3296,10 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="n">
-        <v>97</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>7</v>
@@ -3355,10 +3310,10 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="n">
-        <v>98</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>7</v>
@@ -3369,38 +3324,42 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="n">
-        <v>99</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D92" s="5"/>
+      <c r="D92" s="17" t="s">
+        <v>8</v>
+      </c>
       <c r="E92" s="8"/>
       <c r="F92" s="9"/>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>103</v>
+        <v>107</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="5"/>
+      <c r="D93" s="17" t="s">
+        <v>8</v>
+      </c>
       <c r="E93" s="8"/>
       <c r="F93" s="9"/>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="n">
-        <v>101</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>104</v>
+        <v>108</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>7</v>
@@ -3409,12 +3368,12 @@
       <c r="E94" s="8"/>
       <c r="F94" s="9"/>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="n">
-        <v>102</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>7</v>
@@ -3423,12 +3382,12 @@
       <c r="E95" s="8"/>
       <c r="F95" s="9"/>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="n">
-        <v>103</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>7</v>
@@ -3437,12 +3396,12 @@
       <c r="E96" s="8"/>
       <c r="F96" s="9"/>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="n">
-        <v>104</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>103</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>7</v>
@@ -3451,12 +3410,12 @@
       <c r="E97" s="8"/>
       <c r="F97" s="9"/>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="n">
-        <v>105</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>7</v>
@@ -3465,44 +3424,40 @@
       <c r="E98" s="8"/>
       <c r="F98" s="9"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="n">
-        <v>106</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D99" s="17" t="s">
-        <v>8</v>
-      </c>
+      <c r="D99" s="5"/>
       <c r="E99" s="8"/>
       <c r="F99" s="9"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="n">
-        <v>107</v>
-      </c>
-      <c r="B100" s="18" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D100" s="17" t="s">
-        <v>8</v>
-      </c>
+      <c r="D100" s="5"/>
       <c r="E100" s="8"/>
       <c r="F100" s="9"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>7</v>
@@ -3513,10 +3468,10 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="n">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>7</v>
@@ -3527,10 +3482,10 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>7</v>
@@ -3541,10 +3496,10 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>7</v>
@@ -3555,10 +3510,10 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="n">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>7</v>
@@ -3569,10 +3524,10 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>7</v>
@@ -3583,10 +3538,10 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>7</v>
@@ -3597,10 +3552,10 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>7</v>
@@ -3611,10 +3566,10 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>7</v>
@@ -3625,10 +3580,10 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>7</v>
@@ -3639,10 +3594,10 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="n">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>7</v>
@@ -3653,10 +3608,10 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="n">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>7</v>
@@ -3667,10 +3622,10 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="n">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>7</v>
@@ -3681,10 +3636,10 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>7</v>
@@ -3695,10 +3650,10 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>7</v>
@@ -3709,10 +3664,10 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="n">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>7</v>
@@ -3723,10 +3678,10 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="n">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>7</v>
@@ -3737,10 +3692,10 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="n">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>7</v>
@@ -3751,10 +3706,10 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>7</v>
@@ -3765,10 +3720,10 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>7</v>
@@ -3779,10 +3734,10 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>7</v>
@@ -3793,10 +3748,10 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="n">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>7</v>
@@ -3807,10 +3762,10 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="n">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>7</v>
@@ -3821,10 +3776,10 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="n">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>7</v>
@@ -3835,10 +3790,10 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="n">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>7</v>
@@ -3849,10 +3804,10 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="n">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>7</v>
@@ -3863,10 +3818,10 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="n">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>7</v>
@@ -3877,10 +3832,10 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="n">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>7</v>
@@ -3891,10 +3846,10 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>7</v>
@@ -3905,10 +3860,10 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>7</v>
@@ -3919,10 +3874,10 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="n">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>7</v>
@@ -3933,10 +3888,10 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="n">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>7</v>
@@ -3947,10 +3902,10 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>7</v>
@@ -3961,10 +3916,10 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="n">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>7</v>
@@ -3975,10 +3930,10 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="n">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>7</v>
@@ -3989,10 +3944,10 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="n">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>7</v>
@@ -4003,10 +3958,10 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="n">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>7</v>
@@ -4017,10 +3972,10 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>7</v>
@@ -4031,10 +3986,10 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>7</v>
@@ -4045,10 +4000,10 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="n">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>7</v>
@@ -4059,10 +4014,10 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="n">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>7</v>
@@ -4073,10 +4028,10 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="n">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>7</v>
@@ -4087,10 +4042,10 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="n">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>7</v>
@@ -4101,10 +4056,10 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="n">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>7</v>
@@ -4115,10 +4070,10 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>7</v>
@@ -4129,10 +4084,10 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="n">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>7</v>
@@ -4143,10 +4098,10 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>7</v>
@@ -4157,10 +4112,10 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="n">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>7</v>
@@ -4171,10 +4126,10 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>7</v>
@@ -4185,10 +4140,10 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="n">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>7</v>
@@ -4199,10 +4154,10 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="n">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>7</v>
@@ -4213,10 +4168,10 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="n">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>7</v>
@@ -4227,10 +4182,10 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="n">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>7</v>
@@ -4241,10 +4196,10 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="n">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>7</v>
@@ -4255,10 +4210,10 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="n">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>7</v>
@@ -4269,10 +4224,10 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="n">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>7</v>
@@ -4283,10 +4238,10 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="n">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>7</v>
@@ -4297,10 +4252,10 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="5" t="n">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>7</v>
@@ -4311,10 +4266,10 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="n">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>7</v>
@@ -4325,10 +4280,10 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="n">
-        <v>167</v>
-      </c>
-      <c r="B160" s="19" t="s">
-        <v>170</v>
+        <v>174</v>
+      </c>
+      <c r="B160" s="20" t="s">
+        <v>166</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>7</v>
@@ -4339,10 +4294,10 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="n">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>7</v>
@@ -4353,10 +4308,10 @@
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="n">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>7</v>
@@ -4367,10 +4322,10 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="n">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>7</v>
@@ -4381,10 +4336,10 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="n">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>7</v>
@@ -4395,10 +4350,10 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="n">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>7</v>
@@ -4409,10 +4364,10 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>7</v>
@@ -4423,10 +4378,10 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="n">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>7</v>
@@ -4437,10 +4392,10 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5" t="n">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>7</v>
@@ -4451,10 +4406,10 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="n">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>7</v>
@@ -4465,10 +4420,10 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="n">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>7</v>
@@ -4479,10 +4434,10 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="n">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>7</v>
@@ -4493,10 +4448,10 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>7</v>
@@ -4507,10 +4462,10 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="n">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>7</v>
@@ -4521,10 +4476,10 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="n">
-        <v>181</v>
-      </c>
-      <c r="B174" s="20" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="B174" s="19" t="s">
+        <v>180</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>7</v>
@@ -4535,10 +4490,10 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="n">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>7</v>
@@ -4549,10 +4504,10 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="n">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>7</v>
@@ -4563,10 +4518,10 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="n">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>7</v>
@@ -4577,10 +4532,10 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="n">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>7</v>
@@ -4591,10 +4546,10 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="n">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>7</v>
@@ -4605,10 +4560,10 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="n">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>7</v>
@@ -4619,10 +4574,10 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="n">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>7</v>
@@ -4633,10 +4588,10 @@
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="n">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>7</v>
@@ -4647,10 +4602,10 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="n">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>7</v>
@@ -4661,10 +4616,10 @@
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="n">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>7</v>
@@ -4675,10 +4630,10 @@
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="n">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>7</v>
@@ -4689,10 +4644,10 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="n">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>7</v>
@@ -4703,10 +4658,10 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="n">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>7</v>
@@ -4717,10 +4672,10 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="n">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>7</v>
@@ -4731,10 +4686,10 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="n">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>7</v>
@@ -4745,10 +4700,10 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="n">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>7</v>
@@ -4759,10 +4714,10 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="n">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>7</v>
@@ -4773,10 +4728,10 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="n">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>7</v>
@@ -4787,10 +4742,10 @@
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="n">
-        <v>200</v>
-      </c>
-      <c r="B193" s="19" t="s">
-        <v>203</v>
+        <v>207</v>
+      </c>
+      <c r="B193" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>7</v>
@@ -4801,10 +4756,10 @@
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="n">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>7</v>
@@ -4815,10 +4770,10 @@
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="n">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>7</v>
@@ -4829,10 +4784,10 @@
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="n">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>7</v>
@@ -4843,10 +4798,10 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5" t="n">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>7</v>
@@ -4857,10 +4812,10 @@
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>7</v>
@@ -4871,10 +4826,10 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5" t="n">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>7</v>
@@ -4885,10 +4840,10 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="n">
-        <v>207</v>
-      </c>
-      <c r="B200" s="21" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="B200" s="19" t="s">
+        <v>206</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>7</v>
@@ -4899,10 +4854,10 @@
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>7</v>
@@ -4913,10 +4868,10 @@
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="5" t="n">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>7</v>
@@ -4927,10 +4882,10 @@
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="n">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>7</v>
@@ -4941,10 +4896,10 @@
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="n">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>7</v>
@@ -4955,10 +4910,10 @@
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="5" t="n">
-        <v>212</v>
-      </c>
-      <c r="B205" s="19" t="s">
-        <v>215</v>
+        <v>219</v>
+      </c>
+      <c r="B205" s="21" t="s">
+        <v>211</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>7</v>
@@ -4969,10 +4924,10 @@
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="5" t="n">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B206" s="19" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>7</v>
@@ -4983,10 +4938,10 @@
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="5" t="n">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>7</v>
@@ -4997,10 +4952,10 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="5" t="n">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>7</v>
@@ -5011,10 +4966,10 @@
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="5" t="n">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>7</v>
@@ -5025,10 +4980,10 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="5" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>7</v>
@@ -5039,10 +4994,10 @@
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="n">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B211" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>7</v>
@@ -5053,10 +5008,10 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="5" t="n">
-        <v>219</v>
-      </c>
-      <c r="B212" s="21" t="s">
-        <v>222</v>
+        <v>226</v>
+      </c>
+      <c r="B212" s="19" t="s">
+        <v>218</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>7</v>
@@ -5067,10 +5022,10 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5" t="n">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B213" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>7</v>
@@ -5081,10 +5036,10 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="5" t="n">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B214" s="19" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>7</v>
@@ -5095,10 +5050,10 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="5" t="n">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>7</v>
@@ -5109,10 +5064,10 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="n">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>7</v>
@@ -5123,10 +5078,10 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="n">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B217" s="19" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>7</v>
@@ -5137,10 +5092,10 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="n">
-        <v>225</v>
-      </c>
-      <c r="B218" s="19" t="s">
-        <v>228</v>
+        <v>232</v>
+      </c>
+      <c r="B218" s="20" t="s">
+        <v>224</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>7</v>
@@ -5151,10 +5106,10 @@
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="5" t="n">
-        <v>226</v>
-      </c>
-      <c r="B219" s="19" t="s">
-        <v>229</v>
+        <v>233</v>
+      </c>
+      <c r="B219" s="22" t="s">
+        <v>225</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>7</v>
@@ -5165,10 +5120,10 @@
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5" t="n">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B220" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>7</v>
@@ -5179,10 +5134,10 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="n">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B221" s="19" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>7</v>
@@ -5193,10 +5148,10 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="5" t="n">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B222" s="19" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>7</v>
@@ -5207,10 +5162,10 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="5" t="n">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B223" s="19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>7</v>
@@ -5221,10 +5176,10 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="5" t="n">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B224" s="19" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>7</v>
@@ -5235,10 +5190,10 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="5" t="n">
-        <v>232</v>
-      </c>
-      <c r="B225" s="20" t="s">
-        <v>235</v>
+        <v>239</v>
+      </c>
+      <c r="B225" s="19" t="s">
+        <v>231</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>7</v>
@@ -5249,10 +5204,10 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="5" t="n">
-        <v>233</v>
-      </c>
-      <c r="B226" s="22" t="s">
-        <v>236</v>
+        <v>240</v>
+      </c>
+      <c r="B226" s="19" t="s">
+        <v>232</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>7</v>
@@ -5263,10 +5218,10 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="5" t="n">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B227" s="19" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>7</v>
@@ -5277,10 +5232,10 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="5" t="n">
-        <v>235</v>
-      </c>
-      <c r="B228" s="19" t="s">
-        <v>238</v>
+        <v>242</v>
+      </c>
+      <c r="B228" s="21" t="s">
+        <v>234</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>7</v>
@@ -5291,10 +5246,10 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="5" t="n">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B229" s="19" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>7</v>
@@ -5305,10 +5260,10 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5" t="n">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B230" s="19" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>7</v>
@@ -5319,10 +5274,10 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="5" t="n">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B231" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>7</v>
@@ -5333,10 +5288,10 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="5" t="n">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B232" s="19" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>7</v>
@@ -5347,10 +5302,10 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="5" t="n">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B233" s="19" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>7</v>
@@ -5361,10 +5316,10 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="5" t="n">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B234" s="19" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>7</v>
@@ -5375,10 +5330,10 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="5" t="n">
-        <v>242</v>
-      </c>
-      <c r="B235" s="21" t="s">
-        <v>245</v>
+        <v>249</v>
+      </c>
+      <c r="B235" s="19" t="s">
+        <v>241</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>7</v>
@@ -5389,10 +5344,10 @@
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="5" t="n">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B236" s="19" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>7</v>
@@ -5403,10 +5358,10 @@
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="5" t="n">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B237" s="19" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>7</v>
@@ -5417,10 +5372,10 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="5" t="n">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B238" s="19" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>7</v>
@@ -5431,10 +5386,10 @@
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="5" t="n">
-        <v>246</v>
-      </c>
-      <c r="B239" s="19" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="B239" s="23" t="s">
+        <v>245</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>7</v>
@@ -5445,10 +5400,10 @@
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="5" t="n">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B240" s="19" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>7</v>
@@ -5459,10 +5414,10 @@
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="5" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B241" s="19" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>7</v>
@@ -5473,10 +5428,10 @@
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="5" t="n">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B242" s="19" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>7</v>
@@ -5487,10 +5442,10 @@
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="5" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B243" s="19" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>7</v>
@@ -5501,10 +5456,10 @@
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="5" t="n">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B244" s="19" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>7</v>
@@ -5515,10 +5470,10 @@
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="5" t="n">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B245" s="19" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>7</v>
@@ -5529,10 +5484,10 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="5" t="n">
-        <v>253</v>
-      </c>
-      <c r="B246" s="23" t="s">
-        <v>256</v>
+        <v>260</v>
+      </c>
+      <c r="B246" s="19" t="s">
+        <v>252</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>7</v>
@@ -5543,10 +5498,10 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="5" t="n">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B247" s="19" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>7</v>
@@ -5557,10 +5512,10 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="5" t="n">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B248" s="19" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>7</v>
@@ -5571,10 +5526,10 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="5" t="n">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B249" s="19" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>7</v>
@@ -5585,10 +5540,10 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="5" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B250" s="19" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>7</v>
@@ -5599,10 +5554,10 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="5" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B251" s="19" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>7</v>
@@ -5613,10 +5568,10 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="5" t="n">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B252" s="19" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>7</v>
@@ -5627,10 +5582,10 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="5" t="n">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B253" s="19" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>7</v>
@@ -5641,10 +5596,10 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="5" t="n">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B254" s="19" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>7</v>
@@ -5655,10 +5610,10 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="5" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B255" s="19" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>7</v>
@@ -5669,10 +5624,10 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="5" t="n">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B256" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>7</v>
@@ -5683,10 +5638,10 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="5" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B257" s="19" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>7</v>
@@ -5697,10 +5652,10 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="5" t="n">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B258" s="19" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>7</v>
@@ -5711,10 +5666,10 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="5" t="n">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B259" s="19" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>7</v>
@@ -5725,10 +5680,10 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="5" t="n">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B260" s="19" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>7</v>
@@ -5739,10 +5694,10 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="5" t="n">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B261" s="19" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>7</v>
@@ -5753,10 +5708,10 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="5" t="n">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B262" s="19" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>7</v>
@@ -5767,10 +5722,10 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="5" t="n">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B263" s="19" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>7</v>
@@ -5781,10 +5736,10 @@
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="5" t="n">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B264" s="19" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>7</v>
@@ -5795,10 +5750,10 @@
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="5" t="n">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B265" s="19" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>7</v>
@@ -5809,10 +5764,10 @@
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="5" t="n">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B266" s="19" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>7</v>
@@ -5823,10 +5778,10 @@
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="5" t="n">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B267" s="19" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>7</v>
@@ -5837,10 +5792,10 @@
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="5" t="n">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B268" s="19" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>7</v>
@@ -5851,10 +5806,10 @@
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="5" t="n">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B269" s="19" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>7</v>
@@ -5865,10 +5820,10 @@
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="5" t="n">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B270" s="19" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>7</v>
@@ -5879,10 +5834,10 @@
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="5" t="n">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B271" s="19" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>7</v>
@@ -5893,10 +5848,10 @@
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="5" t="n">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B272" s="19" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>7</v>
@@ -5907,10 +5862,10 @@
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="5" t="n">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B273" s="19" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>7</v>
@@ -5921,10 +5876,10 @@
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="5" t="n">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B274" s="19" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>7</v>
@@ -5935,10 +5890,10 @@
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="5" t="n">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B275" s="19" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C275" s="7" t="s">
         <v>7</v>
@@ -5949,10 +5904,10 @@
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="5" t="n">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B276" s="19" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>7</v>
@@ -5963,10 +5918,10 @@
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="5" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B277" s="19" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>7</v>
@@ -5977,10 +5932,10 @@
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="5" t="n">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B278" s="19" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>7</v>
@@ -5991,10 +5946,10 @@
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="5" t="n">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B279" s="19" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>7</v>
@@ -6005,10 +5960,10 @@
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="5" t="n">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="B280" s="19" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>7</v>
@@ -6019,10 +5974,10 @@
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="5" t="n">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B281" s="19" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>7</v>
@@ -6033,10 +5988,10 @@
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="5" t="n">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B282" s="19" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>7</v>
@@ -6047,10 +6002,10 @@
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="5" t="n">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B283" s="19" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>7</v>
@@ -6061,10 +6016,10 @@
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="5" t="n">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B284" s="19" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>7</v>
@@ -6075,10 +6030,10 @@
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="5" t="n">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B285" s="19" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>7</v>
@@ -6089,10 +6044,10 @@
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="5" t="n">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B286" s="19" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>7</v>
@@ -6103,10 +6058,10 @@
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="5" t="n">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B287" s="19" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>7</v>
@@ -6117,10 +6072,10 @@
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="5" t="n">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B288" s="19" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>7</v>
@@ -6131,10 +6086,10 @@
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="5" t="n">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B289" s="19" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>7</v>
@@ -6145,10 +6100,10 @@
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="5" t="n">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B290" s="19" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>7</v>
@@ -6159,10 +6114,10 @@
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="5" t="n">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B291" s="19" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>7</v>
@@ -6173,10 +6128,10 @@
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="5" t="n">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B292" s="19" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>7</v>
@@ -6187,10 +6142,10 @@
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="5" t="n">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B293" s="19" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>7</v>
@@ -6201,10 +6156,10 @@
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="5" t="n">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="B294" s="19" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>7</v>
@@ -6215,10 +6170,10 @@
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="5" t="n">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B295" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C295" s="7" t="s">
         <v>7</v>
@@ -6229,10 +6184,10 @@
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="5" t="n">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B296" s="19" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>7</v>
@@ -6243,10 +6198,10 @@
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="5" t="n">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B297" s="19" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>7</v>
@@ -6257,10 +6212,10 @@
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="5" t="n">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B298" s="19" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>7</v>
@@ -6271,10 +6226,10 @@
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="5" t="n">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B299" s="19" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>7</v>
@@ -6285,10 +6240,10 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="5" t="n">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B300" s="19" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>7</v>
@@ -6299,10 +6254,10 @@
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="5" t="n">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B301" s="19" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>7</v>
@@ -6313,10 +6268,10 @@
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="5" t="n">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B302" s="19" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>7</v>
@@ -6327,10 +6282,10 @@
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="5" t="n">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B303" s="19" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>7</v>
@@ -6341,10 +6296,10 @@
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="5" t="n">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B304" s="19" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>7</v>
@@ -6355,10 +6310,10 @@
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="5" t="n">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B305" s="19" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>7</v>
@@ -6369,10 +6324,10 @@
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="5" t="n">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B306" s="19" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>7</v>
@@ -6383,10 +6338,10 @@
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="5" t="n">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B307" s="19" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>7</v>
@@ -6397,10 +6352,10 @@
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="5" t="n">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B308" s="19" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>7</v>
@@ -6411,10 +6366,10 @@
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="5" t="n">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B309" s="19" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>7</v>
@@ -6425,10 +6380,10 @@
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="5" t="n">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B310" s="19" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>7</v>
@@ -6439,10 +6394,10 @@
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="5" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B311" s="19" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>7</v>
@@ -6453,10 +6408,10 @@
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="5" t="n">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B312" s="19" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>7</v>
@@ -6467,10 +6422,10 @@
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="5" t="n">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="B313" s="19" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>7</v>
@@ -6481,10 +6436,10 @@
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="5" t="n">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B314" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>7</v>
@@ -6495,10 +6450,10 @@
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="5" t="n">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B315" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>7</v>
@@ -6509,10 +6464,10 @@
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="5" t="n">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B316" s="19" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>7</v>
@@ -6523,10 +6478,10 @@
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="5" t="n">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="B317" s="19" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>7</v>
@@ -6537,10 +6492,10 @@
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="5" t="n">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B318" s="19" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>7</v>
@@ -6551,10 +6506,10 @@
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="5" t="n">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B319" s="19" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>7</v>
@@ -6565,10 +6520,10 @@
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="5" t="n">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B320" s="19" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>7</v>
@@ -6579,10 +6534,10 @@
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="5" t="n">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B321" s="19" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>7</v>
@@ -6593,10 +6548,10 @@
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="5" t="n">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B322" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>7</v>
@@ -6607,10 +6562,10 @@
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="5" t="n">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B323" s="19" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>7</v>
@@ -6621,10 +6576,10 @@
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="5" t="n">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B324" s="19" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C324" s="7" t="s">
         <v>7</v>
@@ -6635,10 +6590,10 @@
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="5" t="n">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B325" s="19" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C325" s="7" t="s">
         <v>7</v>
@@ -6649,10 +6604,10 @@
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="5" t="n">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B326" s="19" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C326" s="7" t="s">
         <v>7</v>
@@ -6663,10 +6618,10 @@
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="5" t="n">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B327" s="19" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C327" s="7" t="s">
         <v>7</v>
@@ -6677,10 +6632,10 @@
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="5" t="n">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B328" s="19" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C328" s="7" t="s">
         <v>7</v>
@@ -6691,10 +6646,10 @@
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="5" t="n">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B329" s="19" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C329" s="7" t="s">
         <v>7</v>
@@ -6705,10 +6660,10 @@
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="5" t="n">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B330" s="19" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C330" s="7" t="s">
         <v>7</v>
@@ -6719,10 +6674,10 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="5" t="n">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B331" s="19" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>7</v>
@@ -6733,10 +6688,10 @@
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="5" t="n">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B332" s="19" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C332" s="7" t="s">
         <v>7</v>
@@ -6747,10 +6702,10 @@
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="5" t="n">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B333" s="19" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C333" s="7" t="s">
         <v>7</v>
@@ -6761,10 +6716,10 @@
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="5" t="n">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B334" s="19" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C334" s="7" t="s">
         <v>7</v>
@@ -6775,10 +6730,10 @@
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="5" t="n">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B335" s="19" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C335" s="7" t="s">
         <v>7</v>
@@ -6789,10 +6744,10 @@
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="5" t="n">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B336" s="19" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>7</v>
@@ -6803,10 +6758,10 @@
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="5" t="n">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B337" s="19" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>7</v>
@@ -6817,10 +6772,10 @@
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="5" t="n">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B338" s="19" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>7</v>
@@ -6831,10 +6786,10 @@
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="5" t="n">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B339" s="19" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C339" s="7" t="s">
         <v>7</v>
@@ -6845,10 +6800,10 @@
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="5" t="n">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B340" s="19" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>7</v>
@@ -6859,10 +6814,10 @@
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="5" t="n">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B341" s="19" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C341" s="7" t="s">
         <v>7</v>
@@ -6873,10 +6828,10 @@
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="5" t="n">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B342" s="19" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C342" s="7" t="s">
         <v>7</v>
@@ -6887,10 +6842,10 @@
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="5" t="n">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B343" s="19" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C343" s="7" t="s">
         <v>7</v>
@@ -6901,10 +6856,10 @@
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="5" t="n">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B344" s="19" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C344" s="7" t="s">
         <v>7</v>
@@ -6915,10 +6870,10 @@
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="5" t="n">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B345" s="19" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C345" s="7" t="s">
         <v>7</v>
@@ -6929,10 +6884,10 @@
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="5" t="n">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B346" s="19" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>7</v>
@@ -6943,10 +6898,10 @@
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="5" t="n">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B347" s="19" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>7</v>
@@ -6957,10 +6912,10 @@
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="5" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B348" s="19" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>7</v>
@@ -6971,10 +6926,10 @@
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="5" t="n">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B349" s="19" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>7</v>
@@ -6985,10 +6940,10 @@
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="5" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B350" s="19" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>7</v>
@@ -6999,10 +6954,10 @@
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="5" t="n">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B351" s="19" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C351" s="7" t="s">
         <v>7</v>
@@ -7013,10 +6968,10 @@
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="5" t="n">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B352" s="19" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C352" s="7" t="s">
         <v>7</v>
@@ -7027,10 +6982,10 @@
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="5" t="n">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B353" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C353" s="7" t="s">
         <v>7</v>
@@ -7041,10 +6996,10 @@
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="5" t="n">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B354" s="19" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C354" s="7" t="s">
         <v>7</v>
@@ -7055,10 +7010,10 @@
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="5" t="n">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B355" s="19" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C355" s="7" t="s">
         <v>7</v>
@@ -7069,10 +7024,10 @@
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="5" t="n">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B356" s="19" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C356" s="7" t="s">
         <v>7</v>
@@ -7083,10 +7038,10 @@
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="5" t="n">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="B357" s="19" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C357" s="7" t="s">
         <v>7</v>
@@ -7097,10 +7052,10 @@
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="5" t="n">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B358" s="19" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>7</v>
@@ -7111,10 +7066,10 @@
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="5" t="n">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B359" s="19" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C359" s="7" t="s">
         <v>7</v>
@@ -7125,10 +7080,10 @@
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="5" t="n">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B360" s="19" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C360" s="7" t="s">
         <v>7</v>
@@ -7139,10 +7094,10 @@
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="5" t="n">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B361" s="19" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C361" s="7" t="s">
         <v>7</v>
@@ -7153,10 +7108,10 @@
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="5" t="n">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B362" s="19" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C362" s="7" t="s">
         <v>7</v>
@@ -7167,10 +7122,10 @@
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="5" t="n">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B363" s="19" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C363" s="7" t="s">
         <v>7</v>
@@ -7181,10 +7136,10 @@
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="5" t="n">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B364" s="19" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C364" s="7" t="s">
         <v>7</v>
@@ -7195,10 +7150,10 @@
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="5" t="n">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B365" s="19" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C365" s="7" t="s">
         <v>7</v>
@@ -7209,10 +7164,10 @@
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="5" t="n">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B366" s="19" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C366" s="7" t="s">
         <v>7</v>
@@ -7223,10 +7178,10 @@
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="5" t="n">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="B367" s="19" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C367" s="7" t="s">
         <v>7</v>
@@ -7237,10 +7192,10 @@
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="5" t="n">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B368" s="19" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C368" s="7" t="s">
         <v>7</v>
@@ -7251,10 +7206,10 @@
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="5" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B369" s="19" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C369" s="7" t="s">
         <v>7</v>
@@ -7265,10 +7220,10 @@
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="5" t="n">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="B370" s="19" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C370" s="7" t="s">
         <v>7</v>
@@ -7279,10 +7234,10 @@
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="5" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B371" s="19" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C371" s="7" t="s">
         <v>7</v>
@@ -7293,10 +7248,10 @@
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="5" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B372" s="19" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C372" s="7" t="s">
         <v>7</v>
@@ -7307,10 +7262,10 @@
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="5" t="n">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="B373" s="19" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C373" s="7" t="s">
         <v>7</v>
@@ -7321,10 +7276,10 @@
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="5" t="n">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B374" s="19" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C374" s="7" t="s">
         <v>7</v>
@@ -7335,10 +7290,10 @@
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="5" t="n">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="B375" s="19" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C375" s="7" t="s">
         <v>7</v>
@@ -7349,10 +7304,10 @@
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="5" t="n">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="B376" s="19" t="s">
-        <v>386</v>
+        <v>12</v>
       </c>
       <c r="C376" s="7" t="s">
         <v>7</v>
@@ -7363,10 +7318,10 @@
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="5" t="n">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="B377" s="19" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C377" s="7" t="s">
         <v>7</v>
@@ -7377,10 +7332,10 @@
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="5" t="n">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B378" s="19" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C378" s="7" t="s">
         <v>7</v>
@@ -7391,10 +7346,10 @@
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="5" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B379" s="19" t="s">
-        <v>19</v>
+        <v>384</v>
       </c>
       <c r="C379" s="7" t="s">
         <v>7</v>
@@ -7405,10 +7360,10 @@
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="5" t="n">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B380" s="19" t="s">
-        <v>20</v>
+        <v>385</v>
       </c>
       <c r="C380" s="7" t="s">
         <v>7</v>
@@ -7419,10 +7374,10 @@
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="5" t="n">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B381" s="19" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C381" s="7" t="s">
         <v>7</v>
@@ -7433,10 +7388,10 @@
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="5" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B382" s="19" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C382" s="7" t="s">
         <v>7</v>
@@ -7447,10 +7402,10 @@
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="5" t="n">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B383" s="19" t="s">
-        <v>23</v>
+        <v>388</v>
       </c>
       <c r="C383" s="7" t="s">
         <v>7</v>
@@ -7461,10 +7416,10 @@
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="5" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B384" s="19" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C384" s="7" t="s">
         <v>7</v>
@@ -7475,10 +7430,10 @@
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="5" t="n">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B385" s="19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C385" s="7" t="s">
         <v>7</v>
@@ -7489,10 +7444,10 @@
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="5" t="n">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B386" s="19" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C386" s="7" t="s">
         <v>7</v>
@@ -7503,10 +7458,10 @@
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="5" t="n">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="B387" s="19" t="s">
-        <v>394</v>
+        <v>22</v>
       </c>
       <c r="C387" s="7" t="s">
         <v>7</v>
@@ -7517,10 +7472,10 @@
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="5" t="n">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B388" s="19" t="s">
-        <v>395</v>
+        <v>23</v>
       </c>
       <c r="C388" s="7" t="s">
         <v>7</v>
@@ -7531,10 +7486,10 @@
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="5" t="n">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B389" s="19" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C389" s="7" t="s">
         <v>7</v>
@@ -7545,10 +7500,10 @@
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="5" t="n">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="B390" s="19" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C390" s="7" t="s">
         <v>7</v>
@@ -7559,10 +7514,10 @@
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="5" t="n">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="B391" s="19" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C391" s="7" t="s">
         <v>7</v>
@@ -7573,10 +7528,10 @@
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="5" t="n">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="B392" s="19" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C392" s="7" t="s">
         <v>7</v>
@@ -7587,10 +7542,10 @@
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="5" t="n">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="B393" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C393" s="7" t="s">
         <v>7</v>
@@ -7601,10 +7556,10 @@
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="5" t="n">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="B394" s="19" t="s">
-        <v>33</v>
+        <v>397</v>
       </c>
       <c r="C394" s="7" t="s">
         <v>7</v>
@@ -7615,10 +7570,10 @@
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="5" t="n">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="B395" s="19" t="s">
-        <v>34</v>
+        <v>398</v>
       </c>
       <c r="C395" s="7" t="s">
         <v>7</v>
@@ -7629,10 +7584,10 @@
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="5" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="B396" s="19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C396" s="7" t="s">
         <v>7</v>
@@ -7643,10 +7598,10 @@
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="5" t="n">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B397" s="19" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C397" s="7" t="s">
         <v>7</v>
@@ -7657,10 +7612,10 @@
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="5" t="n">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="B398" s="19" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C398" s="7" t="s">
         <v>7</v>
@@ -7671,10 +7626,10 @@
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="5" t="n">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B399" s="19" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C399" s="7" t="s">
         <v>7</v>
@@ -7685,10 +7640,10 @@
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="5" t="n">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="B400" s="19" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C400" s="7" t="s">
         <v>7</v>
@@ -7699,10 +7654,10 @@
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="5" t="n">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="B401" s="19" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C401" s="7" t="s">
         <v>7</v>
@@ -7713,10 +7668,10 @@
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="5" t="n">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="B402" s="19" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C402" s="7" t="s">
         <v>7</v>
@@ -7727,10 +7682,10 @@
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="5" t="n">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B403" s="19" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C403" s="7" t="s">
         <v>7</v>
@@ -7741,10 +7696,10 @@
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="5" t="n">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="B404" s="19" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C404" s="7" t="s">
         <v>7</v>
@@ -7755,10 +7710,10 @@
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="5" t="n">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="B405" s="19" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C405" s="7" t="s">
         <v>7</v>
@@ -7769,10 +7724,10 @@
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="5" t="n">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B406" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C406" s="7" t="s">
         <v>7</v>
@@ -7783,10 +7738,10 @@
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="5" t="n">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="B407" s="19" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C407" s="7" t="s">
         <v>7</v>
@@ -7797,10 +7752,10 @@
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="5" t="n">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B408" s="19" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C408" s="7" t="s">
         <v>7</v>
@@ -7811,10 +7766,10 @@
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="5" t="n">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B409" s="19" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C409" s="7" t="s">
         <v>7</v>
@@ -7825,10 +7780,10 @@
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="5" t="n">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B410" s="19" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C410" s="7" t="s">
         <v>7</v>
@@ -7839,10 +7794,10 @@
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="5" t="n">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="B411" s="19" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C411" s="7" t="s">
         <v>7</v>
@@ -7853,10 +7808,10 @@
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="5" t="n">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="B412" s="19" t="s">
-        <v>417</v>
+        <v>46</v>
       </c>
       <c r="C412" s="7" t="s">
         <v>7</v>
@@ -7867,10 +7822,10 @@
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="5" t="n">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B413" s="19" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C413" s="7" t="s">
         <v>7</v>
@@ -7881,10 +7836,10 @@
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="5" t="n">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="B414" s="19" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C414" s="7" t="s">
         <v>7</v>
@@ -7895,10 +7850,10 @@
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="5" t="n">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B415" s="19" t="s">
-        <v>420</v>
+        <v>49</v>
       </c>
       <c r="C415" s="7" t="s">
         <v>7</v>
@@ -7909,10 +7864,10 @@
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="5" t="n">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="B416" s="19" t="s">
-        <v>421</v>
+        <v>50</v>
       </c>
       <c r="C416" s="7" t="s">
         <v>7</v>
@@ -7923,10 +7878,10 @@
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="5" t="n">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B417" s="19" t="s">
-        <v>422</v>
+        <v>51</v>
       </c>
       <c r="C417" s="7" t="s">
         <v>7</v>
@@ -7937,10 +7892,10 @@
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="5" t="n">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B418" s="19" t="s">
-        <v>423</v>
+        <v>52</v>
       </c>
       <c r="C418" s="7" t="s">
         <v>7</v>
@@ -7951,10 +7906,10 @@
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="5" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B419" s="19" t="s">
-        <v>57</v>
+        <v>417</v>
       </c>
       <c r="C419" s="7" t="s">
         <v>7</v>
@@ -7965,10 +7920,10 @@
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="5" t="n">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="B420" s="19" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C420" s="7" t="s">
         <v>7</v>
@@ -7979,10 +7934,10 @@
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="5" t="n">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B421" s="19" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C421" s="7" t="s">
         <v>7</v>
@@ -7993,10 +7948,10 @@
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="5" t="n">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B422" s="19" t="s">
-        <v>60</v>
+        <v>420</v>
       </c>
       <c r="C422" s="7" t="s">
         <v>7</v>
@@ -8007,10 +7962,10 @@
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="5" t="n">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="B423" s="19" t="s">
-        <v>61</v>
+        <v>421</v>
       </c>
       <c r="C423" s="7" t="s">
         <v>7</v>
@@ -8021,10 +7976,10 @@
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="5" t="n">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="B424" s="19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C424" s="7" t="s">
         <v>7</v>
@@ -8035,10 +7990,10 @@
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="5" t="n">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B425" s="19" t="s">
-        <v>63</v>
+        <v>422</v>
       </c>
       <c r="C425" s="7" t="s">
         <v>7</v>
@@ -8049,10 +8004,10 @@
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="5" t="n">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="B426" s="19" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C426" s="7" t="s">
         <v>7</v>
@@ -8063,10 +8018,10 @@
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="5" t="n">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="B427" s="19" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C427" s="7" t="s">
         <v>7</v>
@@ -8077,10 +8032,10 @@
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="5" t="n">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="B428" s="19" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C428" s="7" t="s">
         <v>7</v>
@@ -8091,10 +8046,10 @@
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="5" t="n">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="B429" s="19" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C429" s="7" t="s">
         <v>7</v>
@@ -8105,10 +8060,10 @@
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="5" t="n">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="B430" s="19" t="s">
-        <v>430</v>
+        <v>64</v>
       </c>
       <c r="C430" s="7" t="s">
         <v>7</v>
@@ -8119,10 +8074,10 @@
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="5" t="n">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="B431" s="19" t="s">
-        <v>69</v>
+        <v>427</v>
       </c>
       <c r="C431" s="7" t="s">
         <v>7</v>
@@ -8133,10 +8088,10 @@
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="5" t="n">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B432" s="19" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C432" s="7" t="s">
         <v>7</v>
@@ -8147,10 +8102,10 @@
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="5" t="n">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B433" s="19" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C433" s="7" t="s">
         <v>7</v>
@@ -8161,10 +8116,10 @@
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="5" t="n">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="B434" s="19" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C434" s="7" t="s">
         <v>7</v>
@@ -8175,10 +8130,10 @@
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="5" t="n">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="B435" s="19" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C435" s="7" t="s">
         <v>7</v>
@@ -8189,10 +8144,10 @@
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="5" t="n">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B436" s="19" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C436" s="7" t="s">
         <v>7</v>
@@ -8203,10 +8158,10 @@
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="5" t="n">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B437" s="19" t="s">
-        <v>75</v>
+        <v>433</v>
       </c>
       <c r="C437" s="7" t="s">
         <v>7</v>
@@ -8217,10 +8172,10 @@
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="5" t="n">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="B438" s="19" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C438" s="7" t="s">
         <v>7</v>
@@ -8231,10 +8186,10 @@
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="5" t="n">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="B439" s="19" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C439" s="7" t="s">
         <v>7</v>
@@ -8245,10 +8200,10 @@
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="5" t="n">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="B440" s="19" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C440" s="7" t="s">
         <v>7</v>
@@ -8259,10 +8214,10 @@
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="5" t="n">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B441" s="19" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C441" s="7" t="s">
         <v>7</v>
@@ -8273,10 +8228,10 @@
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="5" t="n">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="B442" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C442" s="7" t="s">
         <v>7</v>
@@ -8287,10 +8242,10 @@
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="5" t="n">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B443" s="19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C443" s="7" t="s">
         <v>7</v>
@@ -8301,10 +8256,10 @@
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="5" t="n">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B444" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C444" s="7" t="s">
         <v>7</v>
@@ -8315,10 +8270,10 @@
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="5" t="n">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B445" s="19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C445" s="7" t="s">
         <v>7</v>
@@ -8329,10 +8284,10 @@
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="5" t="n">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="B446" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C446" s="7" t="s">
         <v>7</v>
@@ -8343,10 +8298,10 @@
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="5" t="n">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B447" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C447" s="7" t="s">
         <v>7</v>
@@ -8357,10 +8312,10 @@
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="5" t="n">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B448" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C448" s="7" t="s">
         <v>7</v>
@@ -8371,10 +8326,10 @@
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="5" t="n">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="B449" s="19" t="s">
-        <v>447</v>
+        <v>83</v>
       </c>
       <c r="C449" s="7" t="s">
         <v>7</v>
@@ -8385,10 +8340,10 @@
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="5" t="n">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="B450" s="19" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C450" s="7" t="s">
         <v>7</v>
@@ -8399,10 +8354,10 @@
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="5" t="n">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="B451" s="19" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C451" s="7" t="s">
         <v>7</v>
@@ -8413,10 +8368,10 @@
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="5" t="n">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="B452" s="19" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C452" s="7" t="s">
         <v>7</v>
@@ -8427,10 +8382,10 @@
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="5" t="n">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="B453" s="19" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C453" s="7" t="s">
         <v>7</v>
@@ -8441,10 +8396,10 @@
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="5" t="n">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="B454" s="19" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C454" s="7" t="s">
         <v>7</v>
@@ -8455,10 +8410,10 @@
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="5" t="n">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="B455" s="19" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C455" s="7" t="s">
         <v>7</v>
@@ -8469,10 +8424,10 @@
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="5" t="n">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="B456" s="19" t="s">
-        <v>94</v>
+        <v>451</v>
       </c>
       <c r="C456" s="7" t="s">
         <v>7</v>
@@ -8483,10 +8438,10 @@
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="5" t="n">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="B457" s="19" t="s">
-        <v>454</v>
+        <v>91</v>
       </c>
       <c r="C457" s="7" t="s">
         <v>7</v>
@@ -8497,10 +8452,10 @@
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="5" t="n">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="B458" s="19" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C458" s="7" t="s">
         <v>7</v>
@@ -8511,10 +8466,10 @@
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="5" t="n">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="B459" s="19" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C459" s="7" t="s">
         <v>7</v>
@@ -8525,10 +8480,10 @@
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="5" t="n">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="B460" s="19" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C460" s="7" t="s">
         <v>7</v>
@@ -8539,10 +8494,10 @@
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="5" t="n">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="B461" s="19" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C461" s="7" t="s">
         <v>7</v>
@@ -8553,10 +8508,10 @@
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="5" t="n">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="B462" s="19" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C462" s="7" t="s">
         <v>7</v>
@@ -8567,10 +8522,10 @@
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="5" t="n">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="B463" s="19" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C463" s="7" t="s">
         <v>7</v>
@@ -8581,10 +8536,10 @@
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="5" t="n">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="B464" s="19" t="s">
-        <v>102</v>
+        <v>458</v>
       </c>
       <c r="C464" s="7" t="s">
         <v>7</v>
@@ -8595,10 +8550,10 @@
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="5" t="n">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="B465" s="19" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C465" s="7" t="s">
         <v>7</v>
@@ -8609,10 +8564,10 @@
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="5" t="n">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B466" s="19" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C466" s="7" t="s">
         <v>7</v>
@@ -8623,10 +8578,10 @@
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="5" t="n">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B467" s="19" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C467" s="7" t="s">
         <v>7</v>
@@ -8637,10 +8592,10 @@
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="5" t="n">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="B468" s="19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C468" s="7" t="s">
         <v>7</v>
@@ -8651,10 +8606,10 @@
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="5" t="n">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="B469" s="19" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C469" s="7" t="s">
         <v>7</v>
@@ -8665,10 +8620,10 @@
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="5" t="n">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="B470" s="19" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C470" s="7" t="s">
         <v>7</v>
@@ -8679,10 +8634,10 @@
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="5" t="n">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="B471" s="19" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C471" s="7" t="s">
         <v>7</v>
@@ -8693,10 +8648,10 @@
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="5" t="n">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="B472" s="19" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C472" s="7" t="s">
         <v>7</v>
@@ -8707,10 +8662,10 @@
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="5" t="n">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="B473" s="19" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C473" s="7" t="s">
         <v>7</v>
@@ -8721,10 +8676,10 @@
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="5" t="n">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="B474" s="19" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C474" s="7" t="s">
         <v>7</v>
@@ -8735,10 +8690,10 @@
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="5" t="n">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="B475" s="19" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C475" s="7" t="s">
         <v>7</v>
@@ -8749,10 +8704,10 @@
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="5" t="n">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="B476" s="19" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C476" s="7" t="s">
         <v>7</v>
@@ -8763,10 +8718,10 @@
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="5" t="n">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="B477" s="19" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C477" s="7" t="s">
         <v>7</v>
@@ -8777,10 +8732,10 @@
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="5" t="n">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="B478" s="19" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C478" s="7" t="s">
         <v>7</v>
@@ -8791,10 +8746,10 @@
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="5" t="n">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="B479" s="19" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C479" s="7" t="s">
         <v>7</v>
@@ -8805,10 +8760,10 @@
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="5" t="n">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="B480" s="19" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C480" s="7" t="s">
         <v>7</v>
@@ -8819,10 +8774,10 @@
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="5" t="n">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="B481" s="19" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C481" s="7" t="s">
         <v>7</v>
@@ -8833,10 +8788,10 @@
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="5" t="n">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="B482" s="19" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C482" s="7" t="s">
         <v>7</v>
@@ -8847,10 +8802,10 @@
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="5" t="n">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="B483" s="19" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C483" s="7" t="s">
         <v>7</v>
@@ -8861,10 +8816,10 @@
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="5" t="n">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="B484" s="19" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C484" s="7" t="s">
         <v>7</v>
@@ -8875,10 +8830,10 @@
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="5" t="n">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="B485" s="19" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C485" s="7" t="s">
         <v>7</v>
@@ -8889,10 +8844,10 @@
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="5" t="n">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="B486" s="19" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C486" s="7" t="s">
         <v>7</v>
@@ -8903,108 +8858,101 @@
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="5" t="n">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="B487" s="19" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C487" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D487" s="5"/>
-      <c r="E487" s="8"/>
-      <c r="F487" s="9"/>
+      <c r="E487" s="9"/>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="5" t="n">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="B488" s="19" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C488" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D488" s="5"/>
-      <c r="E488" s="8"/>
-      <c r="F488" s="9"/>
+      <c r="E488" s="9"/>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="5" t="n">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="B489" s="19" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C489" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D489" s="5"/>
-      <c r="E489" s="8"/>
-      <c r="F489" s="9"/>
+      <c r="E489" s="9"/>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="5" t="n">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B490" s="19" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C490" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D490" s="5"/>
-      <c r="E490" s="8"/>
-      <c r="F490" s="9"/>
+      <c r="E490" s="9"/>
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="5" t="n">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="B491" s="19" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C491" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D491" s="5"/>
-      <c r="E491" s="8"/>
-      <c r="F491" s="9"/>
+      <c r="E491" s="9"/>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="5" t="n">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="B492" s="19" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C492" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D492" s="5"/>
-      <c r="E492" s="8"/>
-      <c r="F492" s="9"/>
+      <c r="E492" s="9"/>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="5" t="n">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="B493" s="19" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C493" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D493" s="5"/>
-      <c r="E493" s="8"/>
-      <c r="F493" s="9"/>
+      <c r="E493" s="9"/>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="5" t="n">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="B494" s="19" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C494" s="7" t="s">
         <v>7</v>
@@ -9014,10 +8962,10 @@
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="5" t="n">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="B495" s="19" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C495" s="7" t="s">
         <v>7</v>
@@ -9027,10 +8975,10 @@
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="5" t="n">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="B496" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C496" s="7" t="s">
         <v>7</v>
@@ -9040,10 +8988,10 @@
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="5" t="n">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="B497" s="19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C497" s="7" t="s">
         <v>7</v>
@@ -9053,10 +9001,10 @@
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="5" t="n">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B498" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C498" s="7" t="s">
         <v>7</v>
@@ -9066,10 +9014,10 @@
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="5" t="n">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="B499" s="19" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C499" s="7" t="s">
         <v>7</v>
@@ -9079,10 +9027,10 @@
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="5" t="n">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="B500" s="19" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C500" s="7" t="s">
         <v>7</v>
@@ -9092,10 +9040,10 @@
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="5" t="n">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="B501" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C501" s="7" t="s">
         <v>7</v>
@@ -9105,10 +9053,10 @@
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="5" t="n">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B502" s="19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C502" s="7" t="s">
         <v>7</v>
@@ -9118,10 +9066,10 @@
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="5" t="n">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="B503" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C503" s="7" t="s">
         <v>7</v>
@@ -9131,10 +9079,10 @@
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="5" t="n">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="B504" s="19" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C504" s="7" t="s">
         <v>7</v>
@@ -9144,10 +9092,10 @@
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="5" t="n">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="B505" s="19" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C505" s="7" t="s">
         <v>7</v>
@@ -9157,10 +9105,10 @@
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="5" t="n">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="B506" s="19" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C506" s="7" t="s">
         <v>7</v>
@@ -9170,10 +9118,10 @@
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="5" t="n">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B507" s="19" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C507" s="7" t="s">
         <v>7</v>
@@ -9183,10 +9131,10 @@
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="5" t="n">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="B508" s="19" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C508" s="7" t="s">
         <v>7</v>
@@ -9196,10 +9144,10 @@
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="5" t="n">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="B509" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C509" s="7" t="s">
         <v>7</v>
@@ -9209,10 +9157,10 @@
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="5" t="n">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="B510" s="19" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C510" s="7" t="s">
         <v>7</v>
@@ -9222,10 +9170,10 @@
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="5" t="n">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="B511" s="19" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C511" s="7" t="s">
         <v>7</v>
@@ -9235,10 +9183,10 @@
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="5" t="n">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="B512" s="19" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C512" s="7" t="s">
         <v>7</v>
@@ -9248,10 +9196,10 @@
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="5" t="n">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="B513" s="19" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C513" s="7" t="s">
         <v>7</v>
@@ -9261,10 +9209,10 @@
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="5" t="n">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="B514" s="19" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C514" s="7" t="s">
         <v>7</v>
@@ -9274,10 +9222,10 @@
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="5" t="n">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="B515" s="19" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C515" s="7" t="s">
         <v>7</v>
@@ -9287,10 +9235,10 @@
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="5" t="n">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="B516" s="19" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C516" s="7" t="s">
         <v>7</v>
@@ -9300,10 +9248,10 @@
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="5" t="n">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="B517" s="19" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C517" s="7" t="s">
         <v>7</v>
@@ -9313,10 +9261,10 @@
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="5" t="n">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="B518" s="19" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C518" s="7" t="s">
         <v>7</v>
@@ -9326,10 +9274,10 @@
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="5" t="n">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="B519" s="19" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C519" s="7" t="s">
         <v>7</v>
@@ -9339,10 +9287,10 @@
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="5" t="n">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="B520" s="19" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C520" s="7" t="s">
         <v>7</v>
@@ -9352,10 +9300,10 @@
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="5" t="n">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="B521" s="19" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C521" s="7" t="s">
         <v>7</v>
@@ -9365,10 +9313,10 @@
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="5" t="n">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="B522" s="19" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C522" s="7" t="s">
         <v>7</v>
@@ -9378,10 +9326,10 @@
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="5" t="n">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="B523" s="19" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C523" s="7" t="s">
         <v>7</v>
@@ -9391,10 +9339,10 @@
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="5" t="n">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B524" s="19" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C524" s="7" t="s">
         <v>7</v>
@@ -9404,10 +9352,10 @@
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="5" t="n">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="B525" s="19" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C525" s="7" t="s">
         <v>7</v>
@@ -9417,10 +9365,10 @@
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="5" t="n">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="B526" s="19" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C526" s="7" t="s">
         <v>7</v>
@@ -9430,10 +9378,10 @@
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="5" t="n">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="B527" s="19" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C527" s="7" t="s">
         <v>7</v>
@@ -9443,10 +9391,10 @@
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="5" t="n">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="B528" s="19" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C528" s="7" t="s">
         <v>7</v>
@@ -9456,10 +9404,10 @@
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="5" t="n">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="B529" s="19" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C529" s="7" t="s">
         <v>7</v>
@@ -9469,10 +9417,10 @@
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="5" t="n">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="B530" s="19" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C530" s="7" t="s">
         <v>7</v>
@@ -9482,10 +9430,10 @@
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="5" t="n">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="B531" s="19" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C531" s="7" t="s">
         <v>7</v>
@@ -9495,10 +9443,10 @@
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="5" t="n">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="B532" s="19" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C532" s="7" t="s">
         <v>7</v>
@@ -9508,10 +9456,10 @@
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="5" t="n">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="B533" s="19" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C533" s="7" t="s">
         <v>7</v>
@@ -9521,10 +9469,10 @@
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="5" t="n">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="B534" s="19" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C534" s="7" t="s">
         <v>7</v>
@@ -9534,10 +9482,10 @@
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="5" t="n">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="B535" s="19" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C535" s="7" t="s">
         <v>7</v>
@@ -9547,10 +9495,10 @@
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="5" t="n">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="B536" s="19" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C536" s="7" t="s">
         <v>7</v>
@@ -9560,10 +9508,10 @@
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="5" t="n">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="B537" s="19" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C537" s="7" t="s">
         <v>7</v>
@@ -9573,10 +9521,10 @@
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="5" t="n">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="B538" s="19" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C538" s="7" t="s">
         <v>7</v>
@@ -9586,10 +9534,10 @@
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="5" t="n">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="B539" s="19" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C539" s="7" t="s">
         <v>7</v>
@@ -9599,10 +9547,10 @@
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="5" t="n">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="B540" s="19" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C540" s="7" t="s">
         <v>7</v>
@@ -9612,10 +9560,10 @@
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="5" t="n">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="B541" s="19" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C541" s="7" t="s">
         <v>7</v>
@@ -9625,10 +9573,10 @@
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="5" t="n">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="B542" s="19" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C542" s="7" t="s">
         <v>7</v>
@@ -9638,10 +9586,10 @@
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="5" t="n">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="B543" s="19" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C543" s="7" t="s">
         <v>7</v>
@@ -9651,10 +9599,10 @@
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="5" t="n">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="B544" s="19" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C544" s="7" t="s">
         <v>7</v>
@@ -9664,10 +9612,10 @@
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="5" t="n">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="B545" s="19" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C545" s="7" t="s">
         <v>7</v>
@@ -9677,10 +9625,10 @@
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="5" t="n">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="B546" s="19" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C546" s="7" t="s">
         <v>7</v>
@@ -9690,10 +9638,10 @@
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="5" t="n">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="B547" s="19" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C547" s="7" t="s">
         <v>7</v>
@@ -9703,10 +9651,10 @@
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="5" t="n">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="B548" s="19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C548" s="7" t="s">
         <v>7</v>
@@ -9716,10 +9664,10 @@
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="5" t="n">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="B549" s="19" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C549" s="7" t="s">
         <v>7</v>
@@ -9729,10 +9677,10 @@
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="5" t="n">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="B550" s="19" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C550" s="7" t="s">
         <v>7</v>
@@ -9742,10 +9690,10 @@
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="5" t="n">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="B551" s="19" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C551" s="7" t="s">
         <v>7</v>
@@ -9755,10 +9703,10 @@
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="5" t="n">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="B552" s="19" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C552" s="7" t="s">
         <v>7</v>
@@ -9768,10 +9716,10 @@
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="5" t="n">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="B553" s="19" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C553" s="7" t="s">
         <v>7</v>
@@ -9781,10 +9729,10 @@
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="5" t="n">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="B554" s="19" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C554" s="7" t="s">
         <v>7</v>
@@ -9794,10 +9742,10 @@
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="5" t="n">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="B555" s="19" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C555" s="7" t="s">
         <v>7</v>
@@ -9807,10 +9755,10 @@
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="5" t="n">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="B556" s="19" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C556" s="7" t="s">
         <v>7</v>
@@ -9820,10 +9768,10 @@
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="5" t="n">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="B557" s="19" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C557" s="7" t="s">
         <v>7</v>
@@ -9833,107 +9781,23 @@
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="5" t="n">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="B558" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C558" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D558" s="5"/>
       <c r="E558" s="9"/>
     </row>
-    <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="5" t="n">
-        <v>566</v>
-      </c>
-      <c r="B559" s="19" t="s">
-        <v>555</v>
-      </c>
-      <c r="C559" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D559" s="5"/>
-      <c r="E559" s="9"/>
-    </row>
-    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="5" t="n">
-        <v>567</v>
-      </c>
-      <c r="B560" s="19" t="s">
-        <v>556</v>
-      </c>
-      <c r="C560" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D560" s="5"/>
-      <c r="E560" s="9"/>
-    </row>
-    <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="5" t="n">
-        <v>568</v>
-      </c>
-      <c r="B561" s="19" t="s">
-        <v>557</v>
-      </c>
-      <c r="C561" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D561" s="5"/>
-      <c r="E561" s="9"/>
-    </row>
-    <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="5" t="n">
-        <v>569</v>
-      </c>
-      <c r="B562" s="19" t="s">
-        <v>558</v>
-      </c>
-      <c r="C562" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D562" s="5"/>
-      <c r="E562" s="9"/>
-    </row>
-    <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="5" t="n">
-        <v>570</v>
-      </c>
-      <c r="B563" s="19" t="s">
-        <v>559</v>
-      </c>
-      <c r="C563" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D563" s="5"/>
-      <c r="E563" s="9"/>
-    </row>
-    <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="5" t="n">
-        <v>571</v>
-      </c>
-      <c r="B564" s="19" t="s">
-        <v>560</v>
-      </c>
-      <c r="C564" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D564" s="5"/>
-      <c r="E564" s="9"/>
-    </row>
-    <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="5" t="n">
-        <v>572</v>
-      </c>
-      <c r="B565" s="19" t="s">
-        <v>561</v>
-      </c>
-      <c r="C565" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E565" s="9"/>
-    </row>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data/BinanceAccount.xlsx
+++ b/data/BinanceAccount.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="554">
   <si>
     <t xml:space="preserve">STT</t>
   </si>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">IsCreated</t>
   </si>
   <si>
-    <t xml:space="preserve">hoangdinhxuan1994th@grr.la</t>
+    <t xml:space="preserve">conongvangbay@grr.la</t>
   </si>
   <si>
     <t xml:space="preserve">$Hoangxuan68@$</t>
@@ -55,18 +55,12 @@
     <t xml:space="preserve">kava1ys70jvnajkv88529ys6urjcyle3k2j9r24g6a7</t>
   </si>
   <si>
-    <t xml:space="preserve">100366722</t>
+    <t xml:space="preserve">100766476</t>
   </si>
   <si>
     <t xml:space="preserve">True</t>
   </si>
   <si>
-    <t xml:space="preserve">conongkutehi@grr.la</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conongvangbay@grr.la</t>
-  </si>
-  <si>
     <t xml:space="preserve">cuccungharu@grr.la</t>
   </si>
   <si>
@@ -76,17 +70,16 @@
     <t xml:space="preserve">demroinguthoi@grr.la</t>
   </si>
   <si>
-    <t xml:space="preserve">dibienvuichoihi@grr.la</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xuanhoangbeta@grr.la
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">dungdochoem@grr.la</t>
   </si>
   <si>
+    <t xml:space="preserve">100839322</t>
+  </si>
+  <si>
     <t xml:space="preserve">dunghoivisaoanhyeuem08021994@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100846394</t>
   </si>
   <si>
     <t xml:space="preserve">gdhdjshuwiw@grr.la</t>
@@ -1690,6 +1683,12 @@
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>kava1ys70jvnajkv88529ys6urjcyle3k2j9r24g6a7</t>
+  </si>
+  <si>
+    <t>100862631</t>
   </si>
 </sst>
 </file>
@@ -1830,7 +1829,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1867,7 +1866,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1877,18 +1876,6 @@
     </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2007,7 +1994,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2042,9 +2029,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>6</v>
@@ -2058,128 +2045,143 @@
       <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3" t="s">
-        <v>553</v>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
-        <v>18</v>
-      </c>
-      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4" t="s">
-        <v>553</v>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
-        <v>19</v>
-      </c>
-      <c r="B5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="B6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6" t="s">
-        <v>553</v>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
-        <v>23</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>7</v>
@@ -2187,31 +2189,35 @@
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D11"/>
-      <c r="E11"/>
+      <c r="D11" t="s">
+        <v>552</v>
+      </c>
+      <c r="E11" t="s">
+        <v>553</v>
+      </c>
       <c r="F11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>7</v>
@@ -2222,10 +2228,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>7</v>
@@ -2234,12 +2240,12 @@
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>7</v>
@@ -2250,10 +2256,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
-        <v>29</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>7</v>
@@ -2264,10 +2270,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>7</v>
@@ -2278,10 +2284,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>7</v>
@@ -2292,10 +2298,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>7</v>
@@ -2306,10 +2312,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>7</v>
@@ -2320,10 +2326,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>7</v>
@@ -2334,10 +2340,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>7</v>
@@ -2348,10 +2354,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>7</v>
@@ -2360,12 +2366,12 @@
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
-        <v>37</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>7</v>
@@ -2376,10 +2382,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>7</v>
@@ -2390,10 +2396,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>7</v>
@@ -2404,10 +2410,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>7</v>
@@ -2416,12 +2422,12 @@
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
-        <v>41</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>7</v>
@@ -2432,10 +2438,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>7</v>
@@ -2446,10 +2452,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
-        <v>43</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>7</v>
@@ -2460,10 +2466,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>7</v>
@@ -2474,10 +2480,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>7</v>
@@ -2488,10 +2494,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>7</v>
@@ -2502,10 +2508,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
-        <v>47</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>7</v>
@@ -2516,10 +2522,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>7</v>
@@ -2530,10 +2536,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>7</v>
@@ -2544,10 +2550,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>7</v>
@@ -2558,10 +2564,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>7</v>
@@ -2572,10 +2578,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>7</v>
@@ -2586,10 +2592,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>7</v>
@@ -2600,10 +2606,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>7</v>
@@ -2614,10 +2620,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
-        <v>55</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>49</v>
+        <v>59</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>7</v>
@@ -2628,10 +2634,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>7</v>
@@ -2642,10 +2648,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>7</v>
@@ -2656,10 +2662,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>7</v>
@@ -2670,10 +2676,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="n">
-        <v>59</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>7</v>
@@ -2684,10 +2690,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>7</v>
@@ -2698,10 +2704,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="n">
-        <v>61</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>55</v>
+        <v>65</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>7</v>
@@ -2712,10 +2718,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>7</v>
@@ -2726,10 +2732,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>7</v>
@@ -2740,10 +2746,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>7</v>
@@ -2754,10 +2760,10 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="n">
-        <v>65</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>59</v>
+        <v>69</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>7</v>
@@ -2768,10 +2774,10 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>7</v>
@@ -2782,10 +2788,10 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>7</v>
@@ -2796,10 +2802,10 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>7</v>
@@ -2810,10 +2816,10 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>7</v>
@@ -2824,10 +2830,10 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>7</v>
@@ -2838,10 +2844,10 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>7</v>
@@ -2852,10 +2858,10 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="n">
-        <v>72</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>66</v>
+        <v>76</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>7</v>
@@ -2866,11 +2872,9 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="n">
-        <v>73</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B59" s="6"/>
       <c r="C59" s="7" t="s">
         <v>7</v>
       </c>
@@ -2880,10 +2884,10 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>7</v>
@@ -2894,10 +2898,10 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>7</v>
@@ -2908,10 +2912,10 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="n">
-        <v>76</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>70</v>
+        <v>80</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>7</v>
@@ -2922,9 +2926,11 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="n">
-        <v>77</v>
-      </c>
-      <c r="B63" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="C63" s="7" t="s">
         <v>7</v>
       </c>
@@ -2934,10 +2940,10 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>7</v>
@@ -2948,10 +2954,10 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>7</v>
@@ -2962,11 +2968,9 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="n">
-        <v>80</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>73</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B66" s="13"/>
       <c r="C66" s="7" t="s">
         <v>7</v>
       </c>
@@ -2976,10 +2980,10 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>7</v>
@@ -2990,10 +2994,10 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>7</v>
@@ -3004,10 +3008,10 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>7</v>
@@ -3018,9 +3022,11 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="n">
-        <v>84</v>
-      </c>
-      <c r="B70" s="16"/>
+        <v>88</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="C70" s="7" t="s">
         <v>7</v>
       </c>
@@ -3030,10 +3036,10 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>7</v>
@@ -3044,10 +3050,10 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>7</v>
@@ -3058,10 +3064,10 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>7</v>
@@ -3072,10 +3078,10 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>7</v>
@@ -3086,10 +3092,10 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>7</v>
@@ -3100,10 +3106,10 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>7</v>
@@ -3114,10 +3120,10 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>7</v>
@@ -3128,10 +3134,10 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>7</v>
@@ -3142,10 +3148,10 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>7</v>
@@ -3156,10 +3162,10 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>7</v>
@@ -3170,10 +3176,10 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>7</v>
@@ -3184,10 +3190,10 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>88</v>
+        <v>100</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>7</v>
@@ -3198,10 +3204,10 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="n">
-        <v>97</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>89</v>
+        <v>101</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>7</v>
@@ -3212,10 +3218,10 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="n">
-        <v>98</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>90</v>
+        <v>102</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>7</v>
@@ -3226,10 +3232,10 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="n">
-        <v>99</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>91</v>
+        <v>103</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>7</v>
@@ -3240,38 +3246,42 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D86" s="5"/>
+      <c r="D86" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="E86" s="8"/>
       <c r="F86" s="9"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="5"/>
+      <c r="D87" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="E87" s="8"/>
       <c r="F87" s="9"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>7</v>
@@ -3280,12 +3290,12 @@
       <c r="E88" s="8"/>
       <c r="F88" s="9"/>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="n">
-        <v>103</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>95</v>
+        <v>107</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>7</v>
@@ -3294,12 +3304,12 @@
       <c r="E89" s="8"/>
       <c r="F89" s="9"/>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="n">
-        <v>104</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>96</v>
+        <v>108</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>7</v>
@@ -3308,12 +3318,12 @@
       <c r="E90" s="8"/>
       <c r="F90" s="9"/>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="n">
-        <v>105</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>97</v>
+        <v>109</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>7</v>
@@ -3322,44 +3332,40 @@
       <c r="E91" s="8"/>
       <c r="F91" s="9"/>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="n">
-        <v>106</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>98</v>
+        <v>110</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D92" s="17" t="s">
-        <v>8</v>
-      </c>
+      <c r="D92" s="5"/>
       <c r="E92" s="8"/>
       <c r="F92" s="9"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="n">
-        <v>107</v>
-      </c>
-      <c r="B93" s="18" t="s">
-        <v>99</v>
+        <v>111</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="17" t="s">
-        <v>8</v>
-      </c>
+      <c r="D93" s="5"/>
       <c r="E93" s="8"/>
       <c r="F93" s="9"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="n">
-        <v>108</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>100</v>
+        <v>112</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>7</v>
@@ -3370,10 +3376,10 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="n">
-        <v>109</v>
-      </c>
-      <c r="B95" s="19" t="s">
-        <v>101</v>
+        <v>113</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>7</v>
@@ -3384,10 +3390,10 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="n">
-        <v>110</v>
-      </c>
-      <c r="B96" s="19" t="s">
-        <v>102</v>
+        <v>114</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>7</v>
@@ -3398,10 +3404,10 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="n">
-        <v>111</v>
-      </c>
-      <c r="B97" s="19" t="s">
-        <v>103</v>
+        <v>115</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>7</v>
@@ -3412,10 +3418,10 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="n">
-        <v>112</v>
-      </c>
-      <c r="B98" s="19" t="s">
-        <v>104</v>
+        <v>116</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>7</v>
@@ -3426,10 +3432,10 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="n">
-        <v>113</v>
-      </c>
-      <c r="B99" s="19" t="s">
-        <v>105</v>
+        <v>117</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>7</v>
@@ -3440,10 +3446,10 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="n">
-        <v>114</v>
-      </c>
-      <c r="B100" s="19" t="s">
-        <v>106</v>
+        <v>118</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>7</v>
@@ -3454,10 +3460,10 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="n">
-        <v>115</v>
-      </c>
-      <c r="B101" s="19" t="s">
-        <v>107</v>
+        <v>119</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>7</v>
@@ -3468,10 +3474,10 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="n">
-        <v>116</v>
-      </c>
-      <c r="B102" s="19" t="s">
-        <v>108</v>
+        <v>120</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>7</v>
@@ -3482,10 +3488,10 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="n">
-        <v>117</v>
-      </c>
-      <c r="B103" s="19" t="s">
-        <v>109</v>
+        <v>121</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>7</v>
@@ -3496,10 +3502,10 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="n">
-        <v>118</v>
-      </c>
-      <c r="B104" s="19" t="s">
-        <v>110</v>
+        <v>122</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>7</v>
@@ -3510,10 +3516,10 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="n">
-        <v>119</v>
-      </c>
-      <c r="B105" s="19" t="s">
-        <v>111</v>
+        <v>123</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>7</v>
@@ -3524,10 +3530,10 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="n">
-        <v>120</v>
-      </c>
-      <c r="B106" s="19" t="s">
-        <v>112</v>
+        <v>124</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>7</v>
@@ -3538,10 +3544,10 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="n">
-        <v>121</v>
-      </c>
-      <c r="B107" s="19" t="s">
-        <v>113</v>
+        <v>125</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>7</v>
@@ -3552,10 +3558,10 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="n">
-        <v>122</v>
-      </c>
-      <c r="B108" s="19" t="s">
-        <v>114</v>
+        <v>126</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>7</v>
@@ -3566,10 +3572,10 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="n">
-        <v>123</v>
-      </c>
-      <c r="B109" s="19" t="s">
-        <v>115</v>
+        <v>127</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>7</v>
@@ -3580,10 +3586,10 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="n">
-        <v>124</v>
-      </c>
-      <c r="B110" s="19" t="s">
-        <v>116</v>
+        <v>128</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>7</v>
@@ -3594,10 +3600,10 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="n">
-        <v>125</v>
-      </c>
-      <c r="B111" s="19" t="s">
-        <v>117</v>
+        <v>129</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>7</v>
@@ -3608,10 +3614,10 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="n">
-        <v>126</v>
-      </c>
-      <c r="B112" s="19" t="s">
-        <v>118</v>
+        <v>130</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>7</v>
@@ -3622,10 +3628,10 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="n">
-        <v>127</v>
-      </c>
-      <c r="B113" s="19" t="s">
-        <v>119</v>
+        <v>131</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>7</v>
@@ -3636,10 +3642,10 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="n">
-        <v>128</v>
-      </c>
-      <c r="B114" s="19" t="s">
-        <v>120</v>
+        <v>132</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>7</v>
@@ -3650,10 +3656,10 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="n">
-        <v>129</v>
-      </c>
-      <c r="B115" s="19" t="s">
-        <v>121</v>
+        <v>133</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>7</v>
@@ -3664,10 +3670,10 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="n">
-        <v>130</v>
-      </c>
-      <c r="B116" s="19" t="s">
-        <v>122</v>
+        <v>134</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>7</v>
@@ -3678,10 +3684,10 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="n">
-        <v>131</v>
-      </c>
-      <c r="B117" s="19" t="s">
-        <v>123</v>
+        <v>135</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>7</v>
@@ -3692,10 +3698,10 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="n">
-        <v>132</v>
-      </c>
-      <c r="B118" s="19" t="s">
-        <v>124</v>
+        <v>136</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>7</v>
@@ -3706,10 +3712,10 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="n">
-        <v>133</v>
-      </c>
-      <c r="B119" s="19" t="s">
-        <v>125</v>
+        <v>137</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>7</v>
@@ -3720,10 +3726,10 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="n">
-        <v>134</v>
-      </c>
-      <c r="B120" s="19" t="s">
-        <v>126</v>
+        <v>138</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>7</v>
@@ -3734,10 +3740,10 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="n">
-        <v>135</v>
-      </c>
-      <c r="B121" s="19" t="s">
-        <v>127</v>
+        <v>139</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>7</v>
@@ -3748,10 +3754,10 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="n">
-        <v>136</v>
-      </c>
-      <c r="B122" s="19" t="s">
-        <v>128</v>
+        <v>140</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>7</v>
@@ -3762,10 +3768,10 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="n">
-        <v>137</v>
-      </c>
-      <c r="B123" s="19" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>7</v>
@@ -3776,10 +3782,10 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="n">
-        <v>138</v>
-      </c>
-      <c r="B124" s="19" t="s">
-        <v>130</v>
+        <v>142</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>7</v>
@@ -3790,10 +3796,10 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="n">
-        <v>139</v>
-      </c>
-      <c r="B125" s="19" t="s">
-        <v>131</v>
+        <v>143</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>7</v>
@@ -3804,10 +3810,10 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="n">
-        <v>140</v>
-      </c>
-      <c r="B126" s="19" t="s">
-        <v>132</v>
+        <v>144</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>7</v>
@@ -3818,10 +3824,10 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="n">
-        <v>141</v>
-      </c>
-      <c r="B127" s="19" t="s">
-        <v>133</v>
+        <v>145</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>7</v>
@@ -3832,10 +3838,10 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="n">
-        <v>142</v>
-      </c>
-      <c r="B128" s="19" t="s">
-        <v>134</v>
+        <v>146</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>7</v>
@@ -3846,10 +3852,10 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="n">
-        <v>143</v>
-      </c>
-      <c r="B129" s="19" t="s">
-        <v>135</v>
+        <v>147</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>7</v>
@@ -3860,10 +3866,10 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="n">
-        <v>144</v>
-      </c>
-      <c r="B130" s="19" t="s">
-        <v>136</v>
+        <v>148</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>7</v>
@@ -3874,10 +3880,10 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="n">
-        <v>145</v>
-      </c>
-      <c r="B131" s="19" t="s">
-        <v>137</v>
+        <v>149</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>7</v>
@@ -3888,10 +3894,10 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="n">
-        <v>146</v>
-      </c>
-      <c r="B132" s="19" t="s">
-        <v>138</v>
+        <v>150</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>7</v>
@@ -3902,10 +3908,10 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="n">
-        <v>147</v>
-      </c>
-      <c r="B133" s="19" t="s">
-        <v>139</v>
+        <v>151</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>7</v>
@@ -3916,10 +3922,10 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="n">
-        <v>148</v>
-      </c>
-      <c r="B134" s="19" t="s">
-        <v>140</v>
+        <v>152</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>7</v>
@@ -3930,10 +3936,10 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="n">
-        <v>149</v>
-      </c>
-      <c r="B135" s="19" t="s">
-        <v>141</v>
+        <v>153</v>
+      </c>
+      <c r="B135" s="16" t="s">
+        <v>143</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>7</v>
@@ -3944,10 +3950,10 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="n">
-        <v>150</v>
-      </c>
-      <c r="B136" s="19" t="s">
-        <v>142</v>
+        <v>154</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>7</v>
@@ -3958,10 +3964,10 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="n">
-        <v>151</v>
-      </c>
-      <c r="B137" s="19" t="s">
-        <v>143</v>
+        <v>155</v>
+      </c>
+      <c r="B137" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>7</v>
@@ -3972,10 +3978,10 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="n">
-        <v>152</v>
-      </c>
-      <c r="B138" s="19" t="s">
-        <v>144</v>
+        <v>156</v>
+      </c>
+      <c r="B138" s="16" t="s">
+        <v>146</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>7</v>
@@ -3986,10 +3992,10 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="n">
-        <v>153</v>
-      </c>
-      <c r="B139" s="19" t="s">
-        <v>145</v>
+        <v>157</v>
+      </c>
+      <c r="B139" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>7</v>
@@ -4000,10 +4006,10 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="n">
-        <v>154</v>
-      </c>
-      <c r="B140" s="19" t="s">
-        <v>146</v>
+        <v>158</v>
+      </c>
+      <c r="B140" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>7</v>
@@ -4014,10 +4020,10 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="n">
-        <v>155</v>
-      </c>
-      <c r="B141" s="19" t="s">
-        <v>147</v>
+        <v>159</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>7</v>
@@ -4028,10 +4034,10 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="n">
-        <v>156</v>
-      </c>
-      <c r="B142" s="19" t="s">
-        <v>148</v>
+        <v>160</v>
+      </c>
+      <c r="B142" s="16" t="s">
+        <v>150</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>7</v>
@@ -4042,10 +4048,10 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="n">
-        <v>157</v>
-      </c>
-      <c r="B143" s="19" t="s">
-        <v>149</v>
+        <v>161</v>
+      </c>
+      <c r="B143" s="16" t="s">
+        <v>151</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>7</v>
@@ -4056,10 +4062,10 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="n">
-        <v>158</v>
-      </c>
-      <c r="B144" s="19" t="s">
-        <v>150</v>
+        <v>162</v>
+      </c>
+      <c r="B144" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>7</v>
@@ -4070,10 +4076,10 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="n">
-        <v>159</v>
-      </c>
-      <c r="B145" s="19" t="s">
-        <v>151</v>
+        <v>163</v>
+      </c>
+      <c r="B145" s="16" t="s">
+        <v>153</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>7</v>
@@ -4084,10 +4090,10 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="n">
-        <v>160</v>
-      </c>
-      <c r="B146" s="19" t="s">
-        <v>152</v>
+        <v>164</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>154</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>7</v>
@@ -4098,10 +4104,10 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="n">
-        <v>161</v>
-      </c>
-      <c r="B147" s="19" t="s">
-        <v>153</v>
+        <v>165</v>
+      </c>
+      <c r="B147" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>7</v>
@@ -4112,10 +4118,10 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="n">
-        <v>162</v>
-      </c>
-      <c r="B148" s="19" t="s">
-        <v>154</v>
+        <v>166</v>
+      </c>
+      <c r="B148" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>7</v>
@@ -4126,10 +4132,10 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="n">
-        <v>163</v>
-      </c>
-      <c r="B149" s="19" t="s">
-        <v>155</v>
+        <v>167</v>
+      </c>
+      <c r="B149" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>7</v>
@@ -4140,10 +4146,10 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="n">
-        <v>164</v>
-      </c>
-      <c r="B150" s="19" t="s">
-        <v>156</v>
+        <v>168</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>7</v>
@@ -4154,10 +4160,10 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="n">
-        <v>165</v>
-      </c>
-      <c r="B151" s="19" t="s">
-        <v>157</v>
+        <v>169</v>
+      </c>
+      <c r="B151" s="16" t="s">
+        <v>159</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>7</v>
@@ -4168,10 +4174,10 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="n">
-        <v>166</v>
-      </c>
-      <c r="B152" s="19" t="s">
-        <v>158</v>
+        <v>170</v>
+      </c>
+      <c r="B152" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>7</v>
@@ -4182,10 +4188,10 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="n">
-        <v>167</v>
-      </c>
-      <c r="B153" s="19" t="s">
-        <v>159</v>
+        <v>171</v>
+      </c>
+      <c r="B153" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>7</v>
@@ -4196,10 +4202,10 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="n">
-        <v>168</v>
-      </c>
-      <c r="B154" s="19" t="s">
-        <v>160</v>
+        <v>172</v>
+      </c>
+      <c r="B154" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>7</v>
@@ -4210,10 +4216,10 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="n">
-        <v>169</v>
-      </c>
-      <c r="B155" s="19" t="s">
-        <v>161</v>
+        <v>173</v>
+      </c>
+      <c r="B155" s="16" t="s">
+        <v>163</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>7</v>
@@ -4224,10 +4230,10 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="n">
-        <v>170</v>
-      </c>
-      <c r="B156" s="19" t="s">
-        <v>162</v>
+        <v>174</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>7</v>
@@ -4238,10 +4244,10 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="n">
-        <v>171</v>
-      </c>
-      <c r="B157" s="19" t="s">
-        <v>163</v>
+        <v>175</v>
+      </c>
+      <c r="B157" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>7</v>
@@ -4252,10 +4258,10 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="5" t="n">
-        <v>172</v>
-      </c>
-      <c r="B158" s="19" t="s">
-        <v>164</v>
+        <v>176</v>
+      </c>
+      <c r="B158" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>7</v>
@@ -4266,10 +4272,10 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="n">
-        <v>173</v>
-      </c>
-      <c r="B159" s="19" t="s">
-        <v>165</v>
+        <v>177</v>
+      </c>
+      <c r="B159" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>7</v>
@@ -4280,10 +4286,10 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="n">
-        <v>174</v>
-      </c>
-      <c r="B160" s="20" t="s">
-        <v>166</v>
+        <v>178</v>
+      </c>
+      <c r="B160" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>7</v>
@@ -4294,10 +4300,10 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="n">
-        <v>175</v>
-      </c>
-      <c r="B161" s="19" t="s">
-        <v>167</v>
+        <v>179</v>
+      </c>
+      <c r="B161" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>7</v>
@@ -4308,10 +4314,10 @@
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="n">
-        <v>176</v>
-      </c>
-      <c r="B162" s="19" t="s">
-        <v>168</v>
+        <v>180</v>
+      </c>
+      <c r="B162" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>7</v>
@@ -4322,10 +4328,10 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="n">
-        <v>177</v>
-      </c>
-      <c r="B163" s="19" t="s">
-        <v>169</v>
+        <v>181</v>
+      </c>
+      <c r="B163" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>7</v>
@@ -4336,10 +4342,10 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="n">
-        <v>178</v>
-      </c>
-      <c r="B164" s="19" t="s">
-        <v>170</v>
+        <v>182</v>
+      </c>
+      <c r="B164" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>7</v>
@@ -4350,10 +4356,10 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="n">
-        <v>179</v>
-      </c>
-      <c r="B165" s="19" t="s">
-        <v>171</v>
+        <v>183</v>
+      </c>
+      <c r="B165" s="16" t="s">
+        <v>173</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>7</v>
@@ -4364,10 +4370,10 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="n">
-        <v>180</v>
-      </c>
-      <c r="B166" s="19" t="s">
-        <v>172</v>
+        <v>184</v>
+      </c>
+      <c r="B166" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>7</v>
@@ -4378,10 +4384,10 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="n">
-        <v>181</v>
-      </c>
-      <c r="B167" s="20" t="s">
-        <v>173</v>
+        <v>185</v>
+      </c>
+      <c r="B167" s="16" t="s">
+        <v>175</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>7</v>
@@ -4392,10 +4398,10 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5" t="n">
-        <v>182</v>
-      </c>
-      <c r="B168" s="19" t="s">
-        <v>174</v>
+        <v>186</v>
+      </c>
+      <c r="B168" s="16" t="s">
+        <v>176</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>7</v>
@@ -4406,10 +4412,10 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="n">
-        <v>183</v>
-      </c>
-      <c r="B169" s="19" t="s">
-        <v>175</v>
+        <v>187</v>
+      </c>
+      <c r="B169" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>7</v>
@@ -4420,10 +4426,10 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="n">
-        <v>184</v>
-      </c>
-      <c r="B170" s="19" t="s">
-        <v>176</v>
+        <v>188</v>
+      </c>
+      <c r="B170" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>7</v>
@@ -4434,10 +4440,10 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="n">
-        <v>185</v>
-      </c>
-      <c r="B171" s="19" t="s">
-        <v>177</v>
+        <v>189</v>
+      </c>
+      <c r="B171" s="16" t="s">
+        <v>179</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>7</v>
@@ -4448,10 +4454,10 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="n">
-        <v>186</v>
-      </c>
-      <c r="B172" s="19" t="s">
-        <v>178</v>
+        <v>190</v>
+      </c>
+      <c r="B172" s="16" t="s">
+        <v>180</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>7</v>
@@ -4462,10 +4468,10 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="n">
-        <v>187</v>
-      </c>
-      <c r="B173" s="19" t="s">
-        <v>179</v>
+        <v>191</v>
+      </c>
+      <c r="B173" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>7</v>
@@ -4476,10 +4482,10 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="n">
-        <v>188</v>
-      </c>
-      <c r="B174" s="19" t="s">
-        <v>180</v>
+        <v>192</v>
+      </c>
+      <c r="B174" s="16" t="s">
+        <v>182</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>7</v>
@@ -4490,10 +4496,10 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="n">
-        <v>189</v>
-      </c>
-      <c r="B175" s="19" t="s">
-        <v>181</v>
+        <v>193</v>
+      </c>
+      <c r="B175" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>7</v>
@@ -4504,10 +4510,10 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="n">
-        <v>190</v>
-      </c>
-      <c r="B176" s="19" t="s">
-        <v>182</v>
+        <v>194</v>
+      </c>
+      <c r="B176" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>7</v>
@@ -4518,10 +4524,10 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="n">
-        <v>191</v>
-      </c>
-      <c r="B177" s="19" t="s">
-        <v>183</v>
+        <v>195</v>
+      </c>
+      <c r="B177" s="16" t="s">
+        <v>185</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>7</v>
@@ -4532,10 +4538,10 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="n">
-        <v>192</v>
-      </c>
-      <c r="B178" s="19" t="s">
-        <v>184</v>
+        <v>196</v>
+      </c>
+      <c r="B178" s="16" t="s">
+        <v>186</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>7</v>
@@ -4546,10 +4552,10 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="n">
-        <v>193</v>
-      </c>
-      <c r="B179" s="19" t="s">
-        <v>185</v>
+        <v>197</v>
+      </c>
+      <c r="B179" s="16" t="s">
+        <v>187</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>7</v>
@@ -4560,10 +4566,10 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="n">
-        <v>194</v>
-      </c>
-      <c r="B180" s="19" t="s">
-        <v>186</v>
+        <v>198</v>
+      </c>
+      <c r="B180" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>7</v>
@@ -4574,10 +4580,10 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="n">
-        <v>195</v>
-      </c>
-      <c r="B181" s="19" t="s">
-        <v>187</v>
+        <v>199</v>
+      </c>
+      <c r="B181" s="16" t="s">
+        <v>189</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>7</v>
@@ -4588,10 +4594,10 @@
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="n">
-        <v>196</v>
-      </c>
-      <c r="B182" s="19" t="s">
-        <v>188</v>
+        <v>200</v>
+      </c>
+      <c r="B182" s="16" t="s">
+        <v>190</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>7</v>
@@ -4602,10 +4608,10 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="n">
-        <v>197</v>
-      </c>
-      <c r="B183" s="19" t="s">
-        <v>189</v>
+        <v>201</v>
+      </c>
+      <c r="B183" s="16" t="s">
+        <v>191</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>7</v>
@@ -4616,10 +4622,10 @@
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="n">
-        <v>198</v>
-      </c>
-      <c r="B184" s="19" t="s">
-        <v>190</v>
+        <v>202</v>
+      </c>
+      <c r="B184" s="16" t="s">
+        <v>192</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>7</v>
@@ -4630,10 +4636,10 @@
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="n">
-        <v>199</v>
-      </c>
-      <c r="B185" s="19" t="s">
-        <v>191</v>
+        <v>203</v>
+      </c>
+      <c r="B185" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>7</v>
@@ -4644,10 +4650,10 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="n">
-        <v>200</v>
-      </c>
-      <c r="B186" s="19" t="s">
-        <v>192</v>
+        <v>204</v>
+      </c>
+      <c r="B186" s="16" t="s">
+        <v>194</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>7</v>
@@ -4658,10 +4664,10 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="n">
-        <v>201</v>
-      </c>
-      <c r="B187" s="19" t="s">
-        <v>193</v>
+        <v>205</v>
+      </c>
+      <c r="B187" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>7</v>
@@ -4672,10 +4678,10 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="n">
-        <v>202</v>
-      </c>
-      <c r="B188" s="19" t="s">
-        <v>194</v>
+        <v>206</v>
+      </c>
+      <c r="B188" s="16" t="s">
+        <v>196</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>7</v>
@@ -4686,10 +4692,10 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="n">
-        <v>203</v>
-      </c>
-      <c r="B189" s="19" t="s">
-        <v>195</v>
+        <v>207</v>
+      </c>
+      <c r="B189" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>7</v>
@@ -4700,10 +4706,10 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="n">
-        <v>204</v>
-      </c>
-      <c r="B190" s="19" t="s">
-        <v>196</v>
+        <v>208</v>
+      </c>
+      <c r="B190" s="16" t="s">
+        <v>198</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>7</v>
@@ -4714,10 +4720,10 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="n">
-        <v>205</v>
-      </c>
-      <c r="B191" s="19" t="s">
-        <v>197</v>
+        <v>209</v>
+      </c>
+      <c r="B191" s="16" t="s">
+        <v>199</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>7</v>
@@ -4728,10 +4734,10 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="n">
-        <v>206</v>
-      </c>
-      <c r="B192" s="19" t="s">
-        <v>198</v>
+        <v>210</v>
+      </c>
+      <c r="B192" s="16" t="s">
+        <v>200</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>7</v>
@@ -4742,10 +4748,10 @@
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="n">
-        <v>207</v>
-      </c>
-      <c r="B193" s="21" t="s">
-        <v>199</v>
+        <v>211</v>
+      </c>
+      <c r="B193" s="16" t="s">
+        <v>201</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>7</v>
@@ -4756,10 +4762,10 @@
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="n">
-        <v>208</v>
-      </c>
-      <c r="B194" s="19" t="s">
-        <v>200</v>
+        <v>212</v>
+      </c>
+      <c r="B194" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>7</v>
@@ -4770,10 +4776,10 @@
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="n">
-        <v>209</v>
-      </c>
-      <c r="B195" s="19" t="s">
-        <v>201</v>
+        <v>213</v>
+      </c>
+      <c r="B195" s="16" t="s">
+        <v>203</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>7</v>
@@ -4784,10 +4790,10 @@
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="n">
-        <v>210</v>
-      </c>
-      <c r="B196" s="19" t="s">
-        <v>202</v>
+        <v>214</v>
+      </c>
+      <c r="B196" s="16" t="s">
+        <v>204</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>7</v>
@@ -4798,10 +4804,10 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5" t="n">
-        <v>211</v>
-      </c>
-      <c r="B197" s="19" t="s">
-        <v>203</v>
+        <v>215</v>
+      </c>
+      <c r="B197" s="16" t="s">
+        <v>205</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>7</v>
@@ -4812,10 +4818,10 @@
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="n">
-        <v>212</v>
-      </c>
-      <c r="B198" s="19" t="s">
-        <v>204</v>
+        <v>216</v>
+      </c>
+      <c r="B198" s="16" t="s">
+        <v>206</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>7</v>
@@ -4826,10 +4832,10 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5" t="n">
-        <v>213</v>
-      </c>
-      <c r="B199" s="19" t="s">
-        <v>205</v>
+        <v>217</v>
+      </c>
+      <c r="B199" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>7</v>
@@ -4840,10 +4846,10 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="n">
-        <v>214</v>
-      </c>
-      <c r="B200" s="19" t="s">
-        <v>206</v>
+        <v>218</v>
+      </c>
+      <c r="B200" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>7</v>
@@ -4854,10 +4860,10 @@
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="n">
-        <v>215</v>
-      </c>
-      <c r="B201" s="19" t="s">
-        <v>207</v>
+        <v>219</v>
+      </c>
+      <c r="B201" s="18" t="s">
+        <v>209</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>7</v>
@@ -4868,10 +4874,10 @@
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="5" t="n">
-        <v>216</v>
-      </c>
-      <c r="B202" s="19" t="s">
-        <v>208</v>
+        <v>220</v>
+      </c>
+      <c r="B202" s="16" t="s">
+        <v>210</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>7</v>
@@ -4882,10 +4888,10 @@
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="n">
-        <v>217</v>
-      </c>
-      <c r="B203" s="19" t="s">
-        <v>209</v>
+        <v>221</v>
+      </c>
+      <c r="B203" s="16" t="s">
+        <v>211</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>7</v>
@@ -4896,10 +4902,10 @@
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="n">
-        <v>218</v>
-      </c>
-      <c r="B204" s="19" t="s">
-        <v>210</v>
+        <v>222</v>
+      </c>
+      <c r="B204" s="16" t="s">
+        <v>212</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>7</v>
@@ -4910,10 +4916,10 @@
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="5" t="n">
-        <v>219</v>
-      </c>
-      <c r="B205" s="21" t="s">
-        <v>211</v>
+        <v>223</v>
+      </c>
+      <c r="B205" s="16" t="s">
+        <v>213</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>7</v>
@@ -4924,10 +4930,10 @@
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="5" t="n">
-        <v>220</v>
-      </c>
-      <c r="B206" s="19" t="s">
-        <v>212</v>
+        <v>224</v>
+      </c>
+      <c r="B206" s="16" t="s">
+        <v>214</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>7</v>
@@ -4938,10 +4944,10 @@
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="5" t="n">
-        <v>221</v>
-      </c>
-      <c r="B207" s="19" t="s">
-        <v>213</v>
+        <v>225</v>
+      </c>
+      <c r="B207" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>7</v>
@@ -4952,10 +4958,10 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="5" t="n">
-        <v>222</v>
-      </c>
-      <c r="B208" s="19" t="s">
-        <v>214</v>
+        <v>226</v>
+      </c>
+      <c r="B208" s="16" t="s">
+        <v>216</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>7</v>
@@ -4966,10 +4972,10 @@
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="5" t="n">
-        <v>223</v>
-      </c>
-      <c r="B209" s="19" t="s">
-        <v>215</v>
+        <v>227</v>
+      </c>
+      <c r="B209" s="16" t="s">
+        <v>217</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>7</v>
@@ -4980,10 +4986,10 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="5" t="n">
-        <v>224</v>
-      </c>
-      <c r="B210" s="19" t="s">
-        <v>216</v>
+        <v>228</v>
+      </c>
+      <c r="B210" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>7</v>
@@ -4994,10 +5000,10 @@
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="n">
-        <v>225</v>
-      </c>
-      <c r="B211" s="19" t="s">
-        <v>217</v>
+        <v>229</v>
+      </c>
+      <c r="B211" s="16" t="s">
+        <v>219</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>7</v>
@@ -5008,10 +5014,10 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="5" t="n">
-        <v>226</v>
-      </c>
-      <c r="B212" s="19" t="s">
-        <v>218</v>
+        <v>230</v>
+      </c>
+      <c r="B212" s="16" t="s">
+        <v>220</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>7</v>
@@ -5022,10 +5028,10 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5" t="n">
-        <v>227</v>
-      </c>
-      <c r="B213" s="19" t="s">
-        <v>219</v>
+        <v>231</v>
+      </c>
+      <c r="B213" s="16" t="s">
+        <v>221</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>7</v>
@@ -5036,10 +5042,10 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="5" t="n">
-        <v>228</v>
-      </c>
-      <c r="B214" s="19" t="s">
-        <v>220</v>
+        <v>232</v>
+      </c>
+      <c r="B214" s="17" t="s">
+        <v>222</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>7</v>
@@ -5050,10 +5056,10 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="5" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>7</v>
@@ -5064,10 +5070,10 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="n">
-        <v>230</v>
-      </c>
-      <c r="B216" s="19" t="s">
-        <v>222</v>
+        <v>234</v>
+      </c>
+      <c r="B216" s="16" t="s">
+        <v>224</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>7</v>
@@ -5078,10 +5084,10 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="n">
-        <v>231</v>
-      </c>
-      <c r="B217" s="19" t="s">
-        <v>223</v>
+        <v>235</v>
+      </c>
+      <c r="B217" s="16" t="s">
+        <v>225</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>7</v>
@@ -5092,10 +5098,10 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="n">
-        <v>232</v>
-      </c>
-      <c r="B218" s="20" t="s">
-        <v>224</v>
+        <v>236</v>
+      </c>
+      <c r="B218" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>7</v>
@@ -5106,10 +5112,10 @@
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="5" t="n">
-        <v>233</v>
-      </c>
-      <c r="B219" s="22" t="s">
-        <v>225</v>
+        <v>237</v>
+      </c>
+      <c r="B219" s="16" t="s">
+        <v>227</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>7</v>
@@ -5120,10 +5126,10 @@
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5" t="n">
-        <v>234</v>
-      </c>
-      <c r="B220" s="19" t="s">
-        <v>226</v>
+        <v>238</v>
+      </c>
+      <c r="B220" s="16" t="s">
+        <v>228</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>7</v>
@@ -5134,10 +5140,10 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="n">
-        <v>235</v>
-      </c>
-      <c r="B221" s="19" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="B221" s="16" t="s">
+        <v>229</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>7</v>
@@ -5148,10 +5154,10 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="5" t="n">
-        <v>236</v>
-      </c>
-      <c r="B222" s="19" t="s">
-        <v>228</v>
+        <v>240</v>
+      </c>
+      <c r="B222" s="16" t="s">
+        <v>230</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>7</v>
@@ -5162,10 +5168,10 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="5" t="n">
-        <v>237</v>
-      </c>
-      <c r="B223" s="19" t="s">
-        <v>229</v>
+        <v>241</v>
+      </c>
+      <c r="B223" s="16" t="s">
+        <v>231</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>7</v>
@@ -5176,10 +5182,10 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="5" t="n">
-        <v>238</v>
-      </c>
-      <c r="B224" s="19" t="s">
-        <v>230</v>
+        <v>242</v>
+      </c>
+      <c r="B224" s="18" t="s">
+        <v>232</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>7</v>
@@ -5190,10 +5196,10 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="5" t="n">
-        <v>239</v>
-      </c>
-      <c r="B225" s="19" t="s">
-        <v>231</v>
+        <v>243</v>
+      </c>
+      <c r="B225" s="16" t="s">
+        <v>233</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>7</v>
@@ -5204,10 +5210,10 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="5" t="n">
-        <v>240</v>
-      </c>
-      <c r="B226" s="19" t="s">
-        <v>232</v>
+        <v>244</v>
+      </c>
+      <c r="B226" s="16" t="s">
+        <v>234</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>7</v>
@@ -5218,10 +5224,10 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="5" t="n">
-        <v>241</v>
-      </c>
-      <c r="B227" s="19" t="s">
-        <v>233</v>
+        <v>245</v>
+      </c>
+      <c r="B227" s="16" t="s">
+        <v>235</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>7</v>
@@ -5232,10 +5238,10 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="5" t="n">
-        <v>242</v>
-      </c>
-      <c r="B228" s="21" t="s">
-        <v>234</v>
+        <v>246</v>
+      </c>
+      <c r="B228" s="16" t="s">
+        <v>236</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>7</v>
@@ -5246,10 +5252,10 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="5" t="n">
-        <v>243</v>
-      </c>
-      <c r="B229" s="19" t="s">
-        <v>235</v>
+        <v>247</v>
+      </c>
+      <c r="B229" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>7</v>
@@ -5260,10 +5266,10 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5" t="n">
-        <v>244</v>
-      </c>
-      <c r="B230" s="19" t="s">
-        <v>236</v>
+        <v>248</v>
+      </c>
+      <c r="B230" s="16" t="s">
+        <v>238</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>7</v>
@@ -5274,10 +5280,10 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="5" t="n">
-        <v>245</v>
-      </c>
-      <c r="B231" s="19" t="s">
-        <v>237</v>
+        <v>249</v>
+      </c>
+      <c r="B231" s="16" t="s">
+        <v>239</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>7</v>
@@ -5288,10 +5294,10 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="5" t="n">
-        <v>246</v>
-      </c>
-      <c r="B232" s="19" t="s">
-        <v>238</v>
+        <v>250</v>
+      </c>
+      <c r="B232" s="16" t="s">
+        <v>240</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>7</v>
@@ -5302,10 +5308,10 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="5" t="n">
-        <v>247</v>
-      </c>
-      <c r="B233" s="19" t="s">
-        <v>239</v>
+        <v>251</v>
+      </c>
+      <c r="B233" s="16" t="s">
+        <v>241</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>7</v>
@@ -5316,10 +5322,10 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="5" t="n">
-        <v>248</v>
-      </c>
-      <c r="B234" s="19" t="s">
-        <v>240</v>
+        <v>252</v>
+      </c>
+      <c r="B234" s="16" t="s">
+        <v>242</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>7</v>
@@ -5330,10 +5336,10 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="5" t="n">
-        <v>249</v>
-      </c>
-      <c r="B235" s="19" t="s">
-        <v>241</v>
+        <v>253</v>
+      </c>
+      <c r="B235" s="20" t="s">
+        <v>243</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>7</v>
@@ -5344,10 +5350,10 @@
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="5" t="n">
-        <v>250</v>
-      </c>
-      <c r="B236" s="19" t="s">
-        <v>242</v>
+        <v>254</v>
+      </c>
+      <c r="B236" s="16" t="s">
+        <v>244</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>7</v>
@@ -5358,10 +5364,10 @@
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="5" t="n">
-        <v>251</v>
-      </c>
-      <c r="B237" s="19" t="s">
-        <v>243</v>
+        <v>255</v>
+      </c>
+      <c r="B237" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>7</v>
@@ -5372,10 +5378,10 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="5" t="n">
-        <v>252</v>
-      </c>
-      <c r="B238" s="19" t="s">
-        <v>244</v>
+        <v>256</v>
+      </c>
+      <c r="B238" s="16" t="s">
+        <v>246</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>7</v>
@@ -5386,10 +5392,10 @@
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="5" t="n">
-        <v>253</v>
-      </c>
-      <c r="B239" s="23" t="s">
-        <v>245</v>
+        <v>257</v>
+      </c>
+      <c r="B239" s="16" t="s">
+        <v>247</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>7</v>
@@ -5400,10 +5406,10 @@
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="5" t="n">
-        <v>254</v>
-      </c>
-      <c r="B240" s="19" t="s">
-        <v>246</v>
+        <v>258</v>
+      </c>
+      <c r="B240" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>7</v>
@@ -5414,10 +5420,10 @@
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="5" t="n">
-        <v>255</v>
-      </c>
-      <c r="B241" s="19" t="s">
-        <v>247</v>
+        <v>259</v>
+      </c>
+      <c r="B241" s="16" t="s">
+        <v>249</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>7</v>
@@ -5428,10 +5434,10 @@
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="5" t="n">
-        <v>256</v>
-      </c>
-      <c r="B242" s="19" t="s">
-        <v>248</v>
+        <v>260</v>
+      </c>
+      <c r="B242" s="16" t="s">
+        <v>250</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>7</v>
@@ -5442,10 +5448,10 @@
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="5" t="n">
-        <v>257</v>
-      </c>
-      <c r="B243" s="19" t="s">
-        <v>249</v>
+        <v>261</v>
+      </c>
+      <c r="B243" s="16" t="s">
+        <v>251</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>7</v>
@@ -5456,10 +5462,10 @@
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="5" t="n">
-        <v>258</v>
-      </c>
-      <c r="B244" s="19" t="s">
-        <v>250</v>
+        <v>262</v>
+      </c>
+      <c r="B244" s="16" t="s">
+        <v>252</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>7</v>
@@ -5470,10 +5476,10 @@
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="5" t="n">
-        <v>259</v>
-      </c>
-      <c r="B245" s="19" t="s">
-        <v>251</v>
+        <v>263</v>
+      </c>
+      <c r="B245" s="16" t="s">
+        <v>253</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>7</v>
@@ -5484,10 +5490,10 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="5" t="n">
-        <v>260</v>
-      </c>
-      <c r="B246" s="19" t="s">
-        <v>252</v>
+        <v>264</v>
+      </c>
+      <c r="B246" s="16" t="s">
+        <v>254</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>7</v>
@@ -5498,10 +5504,10 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="5" t="n">
-        <v>261</v>
-      </c>
-      <c r="B247" s="19" t="s">
-        <v>253</v>
+        <v>265</v>
+      </c>
+      <c r="B247" s="16" t="s">
+        <v>255</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>7</v>
@@ -5512,10 +5518,10 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="5" t="n">
-        <v>262</v>
-      </c>
-      <c r="B248" s="19" t="s">
-        <v>254</v>
+        <v>266</v>
+      </c>
+      <c r="B248" s="16" t="s">
+        <v>256</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>7</v>
@@ -5526,10 +5532,10 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="5" t="n">
-        <v>263</v>
-      </c>
-      <c r="B249" s="19" t="s">
-        <v>255</v>
+        <v>267</v>
+      </c>
+      <c r="B249" s="16" t="s">
+        <v>257</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>7</v>
@@ -5540,10 +5546,10 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="5" t="n">
-        <v>264</v>
-      </c>
-      <c r="B250" s="19" t="s">
-        <v>256</v>
+        <v>268</v>
+      </c>
+      <c r="B250" s="16" t="s">
+        <v>258</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>7</v>
@@ -5554,10 +5560,10 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="5" t="n">
-        <v>265</v>
-      </c>
-      <c r="B251" s="19" t="s">
-        <v>257</v>
+        <v>269</v>
+      </c>
+      <c r="B251" s="16" t="s">
+        <v>259</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>7</v>
@@ -5568,10 +5574,10 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="5" t="n">
-        <v>266</v>
-      </c>
-      <c r="B252" s="19" t="s">
-        <v>258</v>
+        <v>270</v>
+      </c>
+      <c r="B252" s="16" t="s">
+        <v>260</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>7</v>
@@ -5582,10 +5588,10 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="5" t="n">
-        <v>267</v>
-      </c>
-      <c r="B253" s="19" t="s">
-        <v>259</v>
+        <v>271</v>
+      </c>
+      <c r="B253" s="16" t="s">
+        <v>261</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>7</v>
@@ -5596,10 +5602,10 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="5" t="n">
-        <v>268</v>
-      </c>
-      <c r="B254" s="19" t="s">
-        <v>260</v>
+        <v>272</v>
+      </c>
+      <c r="B254" s="16" t="s">
+        <v>262</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>7</v>
@@ -5610,10 +5616,10 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="5" t="n">
-        <v>269</v>
-      </c>
-      <c r="B255" s="19" t="s">
-        <v>261</v>
+        <v>273</v>
+      </c>
+      <c r="B255" s="16" t="s">
+        <v>263</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>7</v>
@@ -5624,10 +5630,10 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="5" t="n">
-        <v>270</v>
-      </c>
-      <c r="B256" s="19" t="s">
-        <v>262</v>
+        <v>274</v>
+      </c>
+      <c r="B256" s="16" t="s">
+        <v>264</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>7</v>
@@ -5638,10 +5644,10 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="5" t="n">
-        <v>271</v>
-      </c>
-      <c r="B257" s="19" t="s">
-        <v>263</v>
+        <v>275</v>
+      </c>
+      <c r="B257" s="16" t="s">
+        <v>265</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>7</v>
@@ -5652,10 +5658,10 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="5" t="n">
-        <v>272</v>
-      </c>
-      <c r="B258" s="19" t="s">
-        <v>264</v>
+        <v>276</v>
+      </c>
+      <c r="B258" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>7</v>
@@ -5666,10 +5672,10 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="5" t="n">
-        <v>273</v>
-      </c>
-      <c r="B259" s="19" t="s">
-        <v>265</v>
+        <v>277</v>
+      </c>
+      <c r="B259" s="16" t="s">
+        <v>267</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>7</v>
@@ -5680,10 +5686,10 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="5" t="n">
-        <v>274</v>
-      </c>
-      <c r="B260" s="19" t="s">
-        <v>266</v>
+        <v>278</v>
+      </c>
+      <c r="B260" s="16" t="s">
+        <v>268</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>7</v>
@@ -5694,10 +5700,10 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="5" t="n">
-        <v>275</v>
-      </c>
-      <c r="B261" s="19" t="s">
-        <v>267</v>
+        <v>279</v>
+      </c>
+      <c r="B261" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>7</v>
@@ -5708,10 +5714,10 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="5" t="n">
-        <v>276</v>
-      </c>
-      <c r="B262" s="19" t="s">
-        <v>268</v>
+        <v>280</v>
+      </c>
+      <c r="B262" s="16" t="s">
+        <v>270</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>7</v>
@@ -5722,10 +5728,10 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="5" t="n">
-        <v>277</v>
-      </c>
-      <c r="B263" s="19" t="s">
-        <v>269</v>
+        <v>281</v>
+      </c>
+      <c r="B263" s="16" t="s">
+        <v>271</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>7</v>
@@ -5736,10 +5742,10 @@
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="5" t="n">
-        <v>278</v>
-      </c>
-      <c r="B264" s="19" t="s">
-        <v>270</v>
+        <v>282</v>
+      </c>
+      <c r="B264" s="16" t="s">
+        <v>272</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>7</v>
@@ -5750,10 +5756,10 @@
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="5" t="n">
-        <v>279</v>
-      </c>
-      <c r="B265" s="19" t="s">
-        <v>271</v>
+        <v>283</v>
+      </c>
+      <c r="B265" s="16" t="s">
+        <v>273</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>7</v>
@@ -5764,10 +5770,10 @@
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="5" t="n">
-        <v>280</v>
-      </c>
-      <c r="B266" s="19" t="s">
-        <v>272</v>
+        <v>284</v>
+      </c>
+      <c r="B266" s="16" t="s">
+        <v>274</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>7</v>
@@ -5778,10 +5784,10 @@
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="5" t="n">
-        <v>281</v>
-      </c>
-      <c r="B267" s="19" t="s">
-        <v>273</v>
+        <v>285</v>
+      </c>
+      <c r="B267" s="16" t="s">
+        <v>275</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>7</v>
@@ -5792,10 +5798,10 @@
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="5" t="n">
-        <v>282</v>
-      </c>
-      <c r="B268" s="19" t="s">
-        <v>274</v>
+        <v>286</v>
+      </c>
+      <c r="B268" s="16" t="s">
+        <v>276</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>7</v>
@@ -5806,10 +5812,10 @@
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="5" t="n">
-        <v>283</v>
-      </c>
-      <c r="B269" s="19" t="s">
-        <v>275</v>
+        <v>287</v>
+      </c>
+      <c r="B269" s="16" t="s">
+        <v>277</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>7</v>
@@ -5820,10 +5826,10 @@
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="5" t="n">
-        <v>284</v>
-      </c>
-      <c r="B270" s="19" t="s">
-        <v>276</v>
+        <v>288</v>
+      </c>
+      <c r="B270" s="16" t="s">
+        <v>278</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>7</v>
@@ -5834,10 +5840,10 @@
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="5" t="n">
-        <v>285</v>
-      </c>
-      <c r="B271" s="19" t="s">
-        <v>277</v>
+        <v>289</v>
+      </c>
+      <c r="B271" s="16" t="s">
+        <v>279</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>7</v>
@@ -5848,10 +5854,10 @@
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="5" t="n">
-        <v>286</v>
-      </c>
-      <c r="B272" s="19" t="s">
-        <v>278</v>
+        <v>290</v>
+      </c>
+      <c r="B272" s="16" t="s">
+        <v>280</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>7</v>
@@ -5862,10 +5868,10 @@
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="5" t="n">
-        <v>287</v>
-      </c>
-      <c r="B273" s="19" t="s">
-        <v>279</v>
+        <v>291</v>
+      </c>
+      <c r="B273" s="16" t="s">
+        <v>281</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>7</v>
@@ -5876,10 +5882,10 @@
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="5" t="n">
-        <v>288</v>
-      </c>
-      <c r="B274" s="19" t="s">
-        <v>280</v>
+        <v>292</v>
+      </c>
+      <c r="B274" s="16" t="s">
+        <v>282</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>7</v>
@@ -5890,10 +5896,10 @@
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="5" t="n">
-        <v>289</v>
-      </c>
-      <c r="B275" s="19" t="s">
-        <v>281</v>
+        <v>293</v>
+      </c>
+      <c r="B275" s="16" t="s">
+        <v>283</v>
       </c>
       <c r="C275" s="7" t="s">
         <v>7</v>
@@ -5904,10 +5910,10 @@
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="5" t="n">
-        <v>290</v>
-      </c>
-      <c r="B276" s="19" t="s">
-        <v>282</v>
+        <v>294</v>
+      </c>
+      <c r="B276" s="16" t="s">
+        <v>284</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>7</v>
@@ -5918,10 +5924,10 @@
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="5" t="n">
-        <v>291</v>
-      </c>
-      <c r="B277" s="19" t="s">
-        <v>283</v>
+        <v>295</v>
+      </c>
+      <c r="B277" s="16" t="s">
+        <v>285</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>7</v>
@@ -5932,10 +5938,10 @@
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="5" t="n">
-        <v>292</v>
-      </c>
-      <c r="B278" s="19" t="s">
-        <v>284</v>
+        <v>296</v>
+      </c>
+      <c r="B278" s="16" t="s">
+        <v>286</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>7</v>
@@ -5946,10 +5952,10 @@
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="5" t="n">
-        <v>293</v>
-      </c>
-      <c r="B279" s="19" t="s">
-        <v>285</v>
+        <v>297</v>
+      </c>
+      <c r="B279" s="16" t="s">
+        <v>287</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>7</v>
@@ -5960,10 +5966,10 @@
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="5" t="n">
-        <v>294</v>
-      </c>
-      <c r="B280" s="19" t="s">
-        <v>286</v>
+        <v>298</v>
+      </c>
+      <c r="B280" s="16" t="s">
+        <v>288</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>7</v>
@@ -5974,10 +5980,10 @@
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="5" t="n">
-        <v>295</v>
-      </c>
-      <c r="B281" s="19" t="s">
-        <v>287</v>
+        <v>299</v>
+      </c>
+      <c r="B281" s="16" t="s">
+        <v>289</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>7</v>
@@ -5988,10 +5994,10 @@
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="5" t="n">
-        <v>296</v>
-      </c>
-      <c r="B282" s="19" t="s">
-        <v>288</v>
+        <v>300</v>
+      </c>
+      <c r="B282" s="16" t="s">
+        <v>290</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>7</v>
@@ -6002,10 +6008,10 @@
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="5" t="n">
-        <v>297</v>
-      </c>
-      <c r="B283" s="19" t="s">
-        <v>289</v>
+        <v>301</v>
+      </c>
+      <c r="B283" s="16" t="s">
+        <v>291</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>7</v>
@@ -6016,10 +6022,10 @@
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="5" t="n">
-        <v>298</v>
-      </c>
-      <c r="B284" s="19" t="s">
-        <v>290</v>
+        <v>302</v>
+      </c>
+      <c r="B284" s="16" t="s">
+        <v>292</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>7</v>
@@ -6030,10 +6036,10 @@
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="5" t="n">
-        <v>299</v>
-      </c>
-      <c r="B285" s="19" t="s">
-        <v>291</v>
+        <v>303</v>
+      </c>
+      <c r="B285" s="16" t="s">
+        <v>293</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>7</v>
@@ -6044,10 +6050,10 @@
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="5" t="n">
-        <v>300</v>
-      </c>
-      <c r="B286" s="19" t="s">
-        <v>292</v>
+        <v>304</v>
+      </c>
+      <c r="B286" s="16" t="s">
+        <v>294</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>7</v>
@@ -6058,10 +6064,10 @@
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="5" t="n">
-        <v>301</v>
-      </c>
-      <c r="B287" s="19" t="s">
-        <v>293</v>
+        <v>305</v>
+      </c>
+      <c r="B287" s="16" t="s">
+        <v>295</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>7</v>
@@ -6072,10 +6078,10 @@
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="5" t="n">
-        <v>302</v>
-      </c>
-      <c r="B288" s="19" t="s">
-        <v>294</v>
+        <v>306</v>
+      </c>
+      <c r="B288" s="16" t="s">
+        <v>296</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>7</v>
@@ -6086,10 +6092,10 @@
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="5" t="n">
-        <v>303</v>
-      </c>
-      <c r="B289" s="19" t="s">
-        <v>295</v>
+        <v>307</v>
+      </c>
+      <c r="B289" s="16" t="s">
+        <v>297</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>7</v>
@@ -6100,10 +6106,10 @@
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="5" t="n">
-        <v>304</v>
-      </c>
-      <c r="B290" s="19" t="s">
-        <v>296</v>
+        <v>308</v>
+      </c>
+      <c r="B290" s="16" t="s">
+        <v>298</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>7</v>
@@ -6114,10 +6120,10 @@
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="5" t="n">
-        <v>305</v>
-      </c>
-      <c r="B291" s="19" t="s">
-        <v>297</v>
+        <v>309</v>
+      </c>
+      <c r="B291" s="16" t="s">
+        <v>299</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>7</v>
@@ -6128,10 +6134,10 @@
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="5" t="n">
-        <v>306</v>
-      </c>
-      <c r="B292" s="19" t="s">
-        <v>298</v>
+        <v>310</v>
+      </c>
+      <c r="B292" s="16" t="s">
+        <v>300</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>7</v>
@@ -6142,10 +6148,10 @@
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="5" t="n">
-        <v>307</v>
-      </c>
-      <c r="B293" s="19" t="s">
-        <v>299</v>
+        <v>311</v>
+      </c>
+      <c r="B293" s="16" t="s">
+        <v>301</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>7</v>
@@ -6156,10 +6162,10 @@
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="5" t="n">
-        <v>308</v>
-      </c>
-      <c r="B294" s="19" t="s">
-        <v>300</v>
+        <v>312</v>
+      </c>
+      <c r="B294" s="16" t="s">
+        <v>302</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>7</v>
@@ -6170,10 +6176,10 @@
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="5" t="n">
-        <v>309</v>
-      </c>
-      <c r="B295" s="19" t="s">
-        <v>301</v>
+        <v>313</v>
+      </c>
+      <c r="B295" s="16" t="s">
+        <v>303</v>
       </c>
       <c r="C295" s="7" t="s">
         <v>7</v>
@@ -6184,10 +6190,10 @@
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="5" t="n">
-        <v>310</v>
-      </c>
-      <c r="B296" s="19" t="s">
-        <v>302</v>
+        <v>314</v>
+      </c>
+      <c r="B296" s="16" t="s">
+        <v>304</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>7</v>
@@ -6198,10 +6204,10 @@
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="5" t="n">
-        <v>311</v>
-      </c>
-      <c r="B297" s="19" t="s">
-        <v>303</v>
+        <v>315</v>
+      </c>
+      <c r="B297" s="16" t="s">
+        <v>305</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>7</v>
@@ -6212,10 +6218,10 @@
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="5" t="n">
-        <v>312</v>
-      </c>
-      <c r="B298" s="19" t="s">
-        <v>304</v>
+        <v>316</v>
+      </c>
+      <c r="B298" s="16" t="s">
+        <v>306</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>7</v>
@@ -6226,10 +6232,10 @@
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="5" t="n">
-        <v>313</v>
-      </c>
-      <c r="B299" s="19" t="s">
-        <v>305</v>
+        <v>317</v>
+      </c>
+      <c r="B299" s="16" t="s">
+        <v>307</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>7</v>
@@ -6240,10 +6246,10 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="5" t="n">
-        <v>314</v>
-      </c>
-      <c r="B300" s="19" t="s">
-        <v>306</v>
+        <v>318</v>
+      </c>
+      <c r="B300" s="16" t="s">
+        <v>308</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>7</v>
@@ -6254,10 +6260,10 @@
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="5" t="n">
-        <v>315</v>
-      </c>
-      <c r="B301" s="19" t="s">
-        <v>307</v>
+        <v>319</v>
+      </c>
+      <c r="B301" s="16" t="s">
+        <v>309</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>7</v>
@@ -6268,10 +6274,10 @@
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="5" t="n">
-        <v>316</v>
-      </c>
-      <c r="B302" s="19" t="s">
-        <v>308</v>
+        <v>320</v>
+      </c>
+      <c r="B302" s="16" t="s">
+        <v>310</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>7</v>
@@ -6282,10 +6288,10 @@
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="5" t="n">
-        <v>317</v>
-      </c>
-      <c r="B303" s="19" t="s">
-        <v>309</v>
+        <v>321</v>
+      </c>
+      <c r="B303" s="16" t="s">
+        <v>311</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>7</v>
@@ -6296,10 +6302,10 @@
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="5" t="n">
-        <v>318</v>
-      </c>
-      <c r="B304" s="19" t="s">
-        <v>310</v>
+        <v>322</v>
+      </c>
+      <c r="B304" s="16" t="s">
+        <v>312</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>7</v>
@@ -6310,10 +6316,10 @@
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="5" t="n">
-        <v>319</v>
-      </c>
-      <c r="B305" s="19" t="s">
-        <v>311</v>
+        <v>323</v>
+      </c>
+      <c r="B305" s="16" t="s">
+        <v>313</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>7</v>
@@ -6324,10 +6330,10 @@
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="5" t="n">
-        <v>320</v>
-      </c>
-      <c r="B306" s="19" t="s">
-        <v>312</v>
+        <v>324</v>
+      </c>
+      <c r="B306" s="16" t="s">
+        <v>314</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>7</v>
@@ -6338,10 +6344,10 @@
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="5" t="n">
-        <v>321</v>
-      </c>
-      <c r="B307" s="19" t="s">
-        <v>313</v>
+        <v>325</v>
+      </c>
+      <c r="B307" s="16" t="s">
+        <v>315</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>7</v>
@@ -6352,10 +6358,10 @@
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="5" t="n">
-        <v>322</v>
-      </c>
-      <c r="B308" s="19" t="s">
-        <v>314</v>
+        <v>326</v>
+      </c>
+      <c r="B308" s="16" t="s">
+        <v>316</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>7</v>
@@ -6366,10 +6372,10 @@
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="5" t="n">
-        <v>323</v>
-      </c>
-      <c r="B309" s="19" t="s">
-        <v>315</v>
+        <v>327</v>
+      </c>
+      <c r="B309" s="16" t="s">
+        <v>317</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>7</v>
@@ -6380,10 +6386,10 @@
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="5" t="n">
-        <v>324</v>
-      </c>
-      <c r="B310" s="19" t="s">
-        <v>316</v>
+        <v>328</v>
+      </c>
+      <c r="B310" s="16" t="s">
+        <v>318</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>7</v>
@@ -6394,10 +6400,10 @@
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="5" t="n">
-        <v>325</v>
-      </c>
-      <c r="B311" s="19" t="s">
-        <v>317</v>
+        <v>329</v>
+      </c>
+      <c r="B311" s="16" t="s">
+        <v>319</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>7</v>
@@ -6408,10 +6414,10 @@
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="5" t="n">
-        <v>326</v>
-      </c>
-      <c r="B312" s="19" t="s">
-        <v>318</v>
+        <v>330</v>
+      </c>
+      <c r="B312" s="16" t="s">
+        <v>320</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>7</v>
@@ -6422,10 +6428,10 @@
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="5" t="n">
-        <v>327</v>
-      </c>
-      <c r="B313" s="19" t="s">
-        <v>319</v>
+        <v>331</v>
+      </c>
+      <c r="B313" s="16" t="s">
+        <v>321</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>7</v>
@@ -6436,10 +6442,10 @@
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="5" t="n">
-        <v>328</v>
-      </c>
-      <c r="B314" s="19" t="s">
-        <v>320</v>
+        <v>332</v>
+      </c>
+      <c r="B314" s="16" t="s">
+        <v>322</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>7</v>
@@ -6450,10 +6456,10 @@
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="5" t="n">
-        <v>329</v>
-      </c>
-      <c r="B315" s="19" t="s">
-        <v>321</v>
+        <v>333</v>
+      </c>
+      <c r="B315" s="16" t="s">
+        <v>323</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>7</v>
@@ -6464,10 +6470,10 @@
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="5" t="n">
-        <v>330</v>
-      </c>
-      <c r="B316" s="19" t="s">
-        <v>322</v>
+        <v>334</v>
+      </c>
+      <c r="B316" s="16" t="s">
+        <v>324</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>7</v>
@@ -6478,10 +6484,10 @@
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="5" t="n">
-        <v>331</v>
-      </c>
-      <c r="B317" s="19" t="s">
-        <v>323</v>
+        <v>335</v>
+      </c>
+      <c r="B317" s="16" t="s">
+        <v>325</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>7</v>
@@ -6492,10 +6498,10 @@
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="5" t="n">
-        <v>332</v>
-      </c>
-      <c r="B318" s="19" t="s">
-        <v>324</v>
+        <v>336</v>
+      </c>
+      <c r="B318" s="16" t="s">
+        <v>326</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>7</v>
@@ -6506,10 +6512,10 @@
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="5" t="n">
-        <v>333</v>
-      </c>
-      <c r="B319" s="19" t="s">
-        <v>325</v>
+        <v>337</v>
+      </c>
+      <c r="B319" s="16" t="s">
+        <v>327</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>7</v>
@@ -6520,10 +6526,10 @@
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="5" t="n">
-        <v>334</v>
-      </c>
-      <c r="B320" s="19" t="s">
-        <v>326</v>
+        <v>338</v>
+      </c>
+      <c r="B320" s="16" t="s">
+        <v>328</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>7</v>
@@ -6534,10 +6540,10 @@
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="5" t="n">
-        <v>335</v>
-      </c>
-      <c r="B321" s="19" t="s">
-        <v>327</v>
+        <v>339</v>
+      </c>
+      <c r="B321" s="16" t="s">
+        <v>329</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>7</v>
@@ -6548,10 +6554,10 @@
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="5" t="n">
-        <v>336</v>
-      </c>
-      <c r="B322" s="19" t="s">
-        <v>328</v>
+        <v>340</v>
+      </c>
+      <c r="B322" s="16" t="s">
+        <v>330</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>7</v>
@@ -6562,10 +6568,10 @@
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="5" t="n">
-        <v>337</v>
-      </c>
-      <c r="B323" s="19" t="s">
-        <v>329</v>
+        <v>341</v>
+      </c>
+      <c r="B323" s="16" t="s">
+        <v>331</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>7</v>
@@ -6576,10 +6582,10 @@
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="5" t="n">
-        <v>338</v>
-      </c>
-      <c r="B324" s="19" t="s">
-        <v>330</v>
+        <v>342</v>
+      </c>
+      <c r="B324" s="16" t="s">
+        <v>332</v>
       </c>
       <c r="C324" s="7" t="s">
         <v>7</v>
@@ -6590,10 +6596,10 @@
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="5" t="n">
-        <v>339</v>
-      </c>
-      <c r="B325" s="19" t="s">
-        <v>331</v>
+        <v>343</v>
+      </c>
+      <c r="B325" s="16" t="s">
+        <v>333</v>
       </c>
       <c r="C325" s="7" t="s">
         <v>7</v>
@@ -6604,10 +6610,10 @@
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="5" t="n">
-        <v>340</v>
-      </c>
-      <c r="B326" s="19" t="s">
-        <v>332</v>
+        <v>344</v>
+      </c>
+      <c r="B326" s="16" t="s">
+        <v>334</v>
       </c>
       <c r="C326" s="7" t="s">
         <v>7</v>
@@ -6618,10 +6624,10 @@
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="5" t="n">
-        <v>341</v>
-      </c>
-      <c r="B327" s="19" t="s">
-        <v>333</v>
+        <v>345</v>
+      </c>
+      <c r="B327" s="16" t="s">
+        <v>335</v>
       </c>
       <c r="C327" s="7" t="s">
         <v>7</v>
@@ -6632,10 +6638,10 @@
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="5" t="n">
-        <v>342</v>
-      </c>
-      <c r="B328" s="19" t="s">
-        <v>334</v>
+        <v>346</v>
+      </c>
+      <c r="B328" s="16" t="s">
+        <v>336</v>
       </c>
       <c r="C328" s="7" t="s">
         <v>7</v>
@@ -6646,10 +6652,10 @@
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="5" t="n">
-        <v>343</v>
-      </c>
-      <c r="B329" s="19" t="s">
-        <v>335</v>
+        <v>347</v>
+      </c>
+      <c r="B329" s="16" t="s">
+        <v>337</v>
       </c>
       <c r="C329" s="7" t="s">
         <v>7</v>
@@ -6660,10 +6666,10 @@
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="5" t="n">
-        <v>344</v>
-      </c>
-      <c r="B330" s="19" t="s">
-        <v>336</v>
+        <v>348</v>
+      </c>
+      <c r="B330" s="16" t="s">
+        <v>338</v>
       </c>
       <c r="C330" s="7" t="s">
         <v>7</v>
@@ -6674,10 +6680,10 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="5" t="n">
-        <v>345</v>
-      </c>
-      <c r="B331" s="19" t="s">
-        <v>337</v>
+        <v>349</v>
+      </c>
+      <c r="B331" s="16" t="s">
+        <v>339</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>7</v>
@@ -6688,10 +6694,10 @@
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="5" t="n">
-        <v>346</v>
-      </c>
-      <c r="B332" s="19" t="s">
-        <v>338</v>
+        <v>350</v>
+      </c>
+      <c r="B332" s="16" t="s">
+        <v>340</v>
       </c>
       <c r="C332" s="7" t="s">
         <v>7</v>
@@ -6702,10 +6708,10 @@
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="5" t="n">
-        <v>347</v>
-      </c>
-      <c r="B333" s="19" t="s">
-        <v>339</v>
+        <v>351</v>
+      </c>
+      <c r="B333" s="16" t="s">
+        <v>341</v>
       </c>
       <c r="C333" s="7" t="s">
         <v>7</v>
@@ -6716,10 +6722,10 @@
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="5" t="n">
-        <v>348</v>
-      </c>
-      <c r="B334" s="19" t="s">
-        <v>340</v>
+        <v>352</v>
+      </c>
+      <c r="B334" s="16" t="s">
+        <v>342</v>
       </c>
       <c r="C334" s="7" t="s">
         <v>7</v>
@@ -6730,10 +6736,10 @@
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="5" t="n">
-        <v>349</v>
-      </c>
-      <c r="B335" s="19" t="s">
-        <v>341</v>
+        <v>353</v>
+      </c>
+      <c r="B335" s="16" t="s">
+        <v>343</v>
       </c>
       <c r="C335" s="7" t="s">
         <v>7</v>
@@ -6744,10 +6750,10 @@
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="5" t="n">
-        <v>350</v>
-      </c>
-      <c r="B336" s="19" t="s">
-        <v>342</v>
+        <v>354</v>
+      </c>
+      <c r="B336" s="16" t="s">
+        <v>344</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>7</v>
@@ -6758,10 +6764,10 @@
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="5" t="n">
-        <v>351</v>
-      </c>
-      <c r="B337" s="19" t="s">
-        <v>343</v>
+        <v>355</v>
+      </c>
+      <c r="B337" s="16" t="s">
+        <v>345</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>7</v>
@@ -6772,10 +6778,10 @@
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="5" t="n">
-        <v>352</v>
-      </c>
-      <c r="B338" s="19" t="s">
-        <v>344</v>
+        <v>356</v>
+      </c>
+      <c r="B338" s="16" t="s">
+        <v>346</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>7</v>
@@ -6786,10 +6792,10 @@
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="5" t="n">
-        <v>353</v>
-      </c>
-      <c r="B339" s="19" t="s">
-        <v>345</v>
+        <v>357</v>
+      </c>
+      <c r="B339" s="16" t="s">
+        <v>347</v>
       </c>
       <c r="C339" s="7" t="s">
         <v>7</v>
@@ -6800,10 +6806,10 @@
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="5" t="n">
-        <v>354</v>
-      </c>
-      <c r="B340" s="19" t="s">
-        <v>346</v>
+        <v>358</v>
+      </c>
+      <c r="B340" s="16" t="s">
+        <v>348</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>7</v>
@@ -6814,10 +6820,10 @@
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="5" t="n">
-        <v>355</v>
-      </c>
-      <c r="B341" s="19" t="s">
-        <v>347</v>
+        <v>359</v>
+      </c>
+      <c r="B341" s="16" t="s">
+        <v>349</v>
       </c>
       <c r="C341" s="7" t="s">
         <v>7</v>
@@ -6828,10 +6834,10 @@
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="5" t="n">
-        <v>356</v>
-      </c>
-      <c r="B342" s="19" t="s">
-        <v>348</v>
+        <v>360</v>
+      </c>
+      <c r="B342" s="16" t="s">
+        <v>350</v>
       </c>
       <c r="C342" s="7" t="s">
         <v>7</v>
@@ -6842,10 +6848,10 @@
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="5" t="n">
-        <v>357</v>
-      </c>
-      <c r="B343" s="19" t="s">
-        <v>349</v>
+        <v>361</v>
+      </c>
+      <c r="B343" s="16" t="s">
+        <v>351</v>
       </c>
       <c r="C343" s="7" t="s">
         <v>7</v>
@@ -6856,10 +6862,10 @@
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="5" t="n">
-        <v>358</v>
-      </c>
-      <c r="B344" s="19" t="s">
-        <v>350</v>
+        <v>362</v>
+      </c>
+      <c r="B344" s="16" t="s">
+        <v>352</v>
       </c>
       <c r="C344" s="7" t="s">
         <v>7</v>
@@ -6870,10 +6876,10 @@
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="5" t="n">
-        <v>359</v>
-      </c>
-      <c r="B345" s="19" t="s">
-        <v>351</v>
+        <v>363</v>
+      </c>
+      <c r="B345" s="16" t="s">
+        <v>353</v>
       </c>
       <c r="C345" s="7" t="s">
         <v>7</v>
@@ -6884,10 +6890,10 @@
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="5" t="n">
-        <v>360</v>
-      </c>
-      <c r="B346" s="19" t="s">
-        <v>352</v>
+        <v>364</v>
+      </c>
+      <c r="B346" s="16" t="s">
+        <v>354</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>7</v>
@@ -6898,10 +6904,10 @@
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="5" t="n">
-        <v>361</v>
-      </c>
-      <c r="B347" s="19" t="s">
-        <v>353</v>
+        <v>365</v>
+      </c>
+      <c r="B347" s="16" t="s">
+        <v>355</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>7</v>
@@ -6912,10 +6918,10 @@
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="5" t="n">
-        <v>362</v>
-      </c>
-      <c r="B348" s="19" t="s">
-        <v>354</v>
+        <v>366</v>
+      </c>
+      <c r="B348" s="16" t="s">
+        <v>356</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>7</v>
@@ -6926,10 +6932,10 @@
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="5" t="n">
-        <v>363</v>
-      </c>
-      <c r="B349" s="19" t="s">
-        <v>355</v>
+        <v>367</v>
+      </c>
+      <c r="B349" s="16" t="s">
+        <v>357</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>7</v>
@@ -6940,10 +6946,10 @@
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="5" t="n">
-        <v>364</v>
-      </c>
-      <c r="B350" s="19" t="s">
-        <v>356</v>
+        <v>368</v>
+      </c>
+      <c r="B350" s="16" t="s">
+        <v>358</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>7</v>
@@ -6954,10 +6960,10 @@
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="5" t="n">
-        <v>365</v>
-      </c>
-      <c r="B351" s="19" t="s">
-        <v>357</v>
+        <v>369</v>
+      </c>
+      <c r="B351" s="16" t="s">
+        <v>359</v>
       </c>
       <c r="C351" s="7" t="s">
         <v>7</v>
@@ -6968,10 +6974,10 @@
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="5" t="n">
-        <v>366</v>
-      </c>
-      <c r="B352" s="19" t="s">
-        <v>358</v>
+        <v>370</v>
+      </c>
+      <c r="B352" s="16" t="s">
+        <v>360</v>
       </c>
       <c r="C352" s="7" t="s">
         <v>7</v>
@@ -6982,10 +6988,10 @@
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="5" t="n">
-        <v>367</v>
-      </c>
-      <c r="B353" s="19" t="s">
-        <v>359</v>
+        <v>371</v>
+      </c>
+      <c r="B353" s="16" t="s">
+        <v>361</v>
       </c>
       <c r="C353" s="7" t="s">
         <v>7</v>
@@ -6996,10 +7002,10 @@
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="5" t="n">
-        <v>368</v>
-      </c>
-      <c r="B354" s="19" t="s">
-        <v>360</v>
+        <v>372</v>
+      </c>
+      <c r="B354" s="16" t="s">
+        <v>362</v>
       </c>
       <c r="C354" s="7" t="s">
         <v>7</v>
@@ -7010,10 +7016,10 @@
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="5" t="n">
-        <v>369</v>
-      </c>
-      <c r="B355" s="19" t="s">
-        <v>361</v>
+        <v>373</v>
+      </c>
+      <c r="B355" s="16" t="s">
+        <v>363</v>
       </c>
       <c r="C355" s="7" t="s">
         <v>7</v>
@@ -7024,10 +7030,10 @@
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="5" t="n">
-        <v>370</v>
-      </c>
-      <c r="B356" s="19" t="s">
-        <v>362</v>
+        <v>374</v>
+      </c>
+      <c r="B356" s="16" t="s">
+        <v>364</v>
       </c>
       <c r="C356" s="7" t="s">
         <v>7</v>
@@ -7038,10 +7044,10 @@
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="5" t="n">
-        <v>371</v>
-      </c>
-      <c r="B357" s="19" t="s">
-        <v>363</v>
+        <v>375</v>
+      </c>
+      <c r="B357" s="16" t="s">
+        <v>365</v>
       </c>
       <c r="C357" s="7" t="s">
         <v>7</v>
@@ -7052,10 +7058,10 @@
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="5" t="n">
-        <v>372</v>
-      </c>
-      <c r="B358" s="19" t="s">
-        <v>364</v>
+        <v>376</v>
+      </c>
+      <c r="B358" s="16" t="s">
+        <v>366</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>7</v>
@@ -7066,10 +7072,10 @@
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="5" t="n">
-        <v>373</v>
-      </c>
-      <c r="B359" s="19" t="s">
-        <v>365</v>
+        <v>377</v>
+      </c>
+      <c r="B359" s="16" t="s">
+        <v>367</v>
       </c>
       <c r="C359" s="7" t="s">
         <v>7</v>
@@ -7080,10 +7086,10 @@
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="5" t="n">
-        <v>374</v>
-      </c>
-      <c r="B360" s="19" t="s">
-        <v>366</v>
+        <v>378</v>
+      </c>
+      <c r="B360" s="16" t="s">
+        <v>368</v>
       </c>
       <c r="C360" s="7" t="s">
         <v>7</v>
@@ -7094,10 +7100,10 @@
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="5" t="n">
-        <v>375</v>
-      </c>
-      <c r="B361" s="19" t="s">
-        <v>367</v>
+        <v>379</v>
+      </c>
+      <c r="B361" s="16" t="s">
+        <v>369</v>
       </c>
       <c r="C361" s="7" t="s">
         <v>7</v>
@@ -7108,10 +7114,10 @@
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="5" t="n">
-        <v>376</v>
-      </c>
-      <c r="B362" s="19" t="s">
-        <v>368</v>
+        <v>380</v>
+      </c>
+      <c r="B362" s="16" t="s">
+        <v>370</v>
       </c>
       <c r="C362" s="7" t="s">
         <v>7</v>
@@ -7122,10 +7128,10 @@
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="5" t="n">
-        <v>377</v>
-      </c>
-      <c r="B363" s="19" t="s">
-        <v>369</v>
+        <v>381</v>
+      </c>
+      <c r="B363" s="16" t="s">
+        <v>371</v>
       </c>
       <c r="C363" s="7" t="s">
         <v>7</v>
@@ -7136,10 +7142,10 @@
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="5" t="n">
-        <v>378</v>
-      </c>
-      <c r="B364" s="19" t="s">
-        <v>370</v>
+        <v>382</v>
+      </c>
+      <c r="B364" s="16" t="s">
+        <v>372</v>
       </c>
       <c r="C364" s="7" t="s">
         <v>7</v>
@@ -7150,10 +7156,10 @@
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="5" t="n">
-        <v>379</v>
-      </c>
-      <c r="B365" s="19" t="s">
-        <v>371</v>
+        <v>383</v>
+      </c>
+      <c r="B365" s="16" t="s">
+        <v>373</v>
       </c>
       <c r="C365" s="7" t="s">
         <v>7</v>
@@ -7164,10 +7170,10 @@
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="5" t="n">
-        <v>380</v>
-      </c>
-      <c r="B366" s="19" t="s">
-        <v>372</v>
+        <v>384</v>
+      </c>
+      <c r="B366" s="16" t="s">
+        <v>374</v>
       </c>
       <c r="C366" s="7" t="s">
         <v>7</v>
@@ -7178,10 +7184,10 @@
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="5" t="n">
-        <v>381</v>
-      </c>
-      <c r="B367" s="19" t="s">
-        <v>373</v>
+        <v>385</v>
+      </c>
+      <c r="B367" s="16" t="s">
+        <v>375</v>
       </c>
       <c r="C367" s="7" t="s">
         <v>7</v>
@@ -7192,10 +7198,10 @@
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="5" t="n">
-        <v>382</v>
-      </c>
-      <c r="B368" s="19" t="s">
-        <v>374</v>
+        <v>386</v>
+      </c>
+      <c r="B368" s="16" t="s">
+        <v>376</v>
       </c>
       <c r="C368" s="7" t="s">
         <v>7</v>
@@ -7206,10 +7212,10 @@
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="5" t="n">
-        <v>383</v>
-      </c>
-      <c r="B369" s="19" t="s">
-        <v>375</v>
+        <v>387</v>
+      </c>
+      <c r="B369" s="16" t="s">
+        <v>377</v>
       </c>
       <c r="C369" s="7" t="s">
         <v>7</v>
@@ -7220,10 +7226,10 @@
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="5" t="n">
-        <v>384</v>
-      </c>
-      <c r="B370" s="19" t="s">
-        <v>376</v>
+        <v>388</v>
+      </c>
+      <c r="B370" s="16" t="s">
+        <v>378</v>
       </c>
       <c r="C370" s="7" t="s">
         <v>7</v>
@@ -7234,10 +7240,10 @@
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="5" t="n">
-        <v>385</v>
-      </c>
-      <c r="B371" s="19" t="s">
-        <v>377</v>
+        <v>389</v>
+      </c>
+      <c r="B371" s="16" t="s">
+        <v>379</v>
       </c>
       <c r="C371" s="7" t="s">
         <v>7</v>
@@ -7248,10 +7254,10 @@
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="5" t="n">
-        <v>386</v>
-      </c>
-      <c r="B372" s="19" t="s">
-        <v>378</v>
+        <v>390</v>
+      </c>
+      <c r="B372" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="C372" s="7" t="s">
         <v>7</v>
@@ -7262,10 +7268,10 @@
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="5" t="n">
-        <v>387</v>
-      </c>
-      <c r="B373" s="19" t="s">
-        <v>379</v>
+        <v>391</v>
+      </c>
+      <c r="B373" s="16" t="s">
+        <v>380</v>
       </c>
       <c r="C373" s="7" t="s">
         <v>7</v>
@@ -7276,10 +7282,10 @@
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="5" t="n">
-        <v>388</v>
-      </c>
-      <c r="B374" s="19" t="s">
-        <v>380</v>
+        <v>392</v>
+      </c>
+      <c r="B374" s="16" t="s">
+        <v>381</v>
       </c>
       <c r="C374" s="7" t="s">
         <v>7</v>
@@ -7290,10 +7296,10 @@
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="5" t="n">
-        <v>389</v>
-      </c>
-      <c r="B375" s="19" t="s">
-        <v>381</v>
+        <v>393</v>
+      </c>
+      <c r="B375" s="16" t="s">
+        <v>382</v>
       </c>
       <c r="C375" s="7" t="s">
         <v>7</v>
@@ -7304,10 +7310,10 @@
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="5" t="n">
-        <v>390</v>
-      </c>
-      <c r="B376" s="19" t="s">
-        <v>12</v>
+        <v>394</v>
+      </c>
+      <c r="B376" s="16" t="s">
+        <v>383</v>
       </c>
       <c r="C376" s="7" t="s">
         <v>7</v>
@@ -7318,10 +7324,10 @@
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="5" t="n">
-        <v>391</v>
-      </c>
-      <c r="B377" s="19" t="s">
-        <v>382</v>
+        <v>395</v>
+      </c>
+      <c r="B377" s="16" t="s">
+        <v>384</v>
       </c>
       <c r="C377" s="7" t="s">
         <v>7</v>
@@ -7332,10 +7338,10 @@
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="5" t="n">
-        <v>392</v>
-      </c>
-      <c r="B378" s="19" t="s">
-        <v>383</v>
+        <v>396</v>
+      </c>
+      <c r="B378" s="16" t="s">
+        <v>385</v>
       </c>
       <c r="C378" s="7" t="s">
         <v>7</v>
@@ -7346,10 +7352,10 @@
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="5" t="n">
-        <v>393</v>
-      </c>
-      <c r="B379" s="19" t="s">
-        <v>384</v>
+        <v>397</v>
+      </c>
+      <c r="B379" s="16" t="s">
+        <v>386</v>
       </c>
       <c r="C379" s="7" t="s">
         <v>7</v>
@@ -7360,10 +7366,10 @@
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="5" t="n">
-        <v>394</v>
-      </c>
-      <c r="B380" s="19" t="s">
-        <v>385</v>
+        <v>398</v>
+      </c>
+      <c r="B380" s="16" t="s">
+        <v>387</v>
       </c>
       <c r="C380" s="7" t="s">
         <v>7</v>
@@ -7374,10 +7380,10 @@
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="5" t="n">
-        <v>395</v>
-      </c>
-      <c r="B381" s="19" t="s">
-        <v>386</v>
+        <v>399</v>
+      </c>
+      <c r="B381" s="16" t="s">
+        <v>388</v>
       </c>
       <c r="C381" s="7" t="s">
         <v>7</v>
@@ -7388,10 +7394,10 @@
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="5" t="n">
-        <v>396</v>
-      </c>
-      <c r="B382" s="19" t="s">
-        <v>387</v>
+        <v>400</v>
+      </c>
+      <c r="B382" s="16" t="s">
+        <v>389</v>
       </c>
       <c r="C382" s="7" t="s">
         <v>7</v>
@@ -7402,10 +7408,10 @@
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="5" t="n">
-        <v>397</v>
-      </c>
-      <c r="B383" s="19" t="s">
-        <v>388</v>
+        <v>401</v>
+      </c>
+      <c r="B383" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="C383" s="7" t="s">
         <v>7</v>
@@ -7416,10 +7422,10 @@
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="5" t="n">
-        <v>398</v>
-      </c>
-      <c r="B384" s="19" t="s">
-        <v>389</v>
+        <v>402</v>
+      </c>
+      <c r="B384" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="C384" s="7" t="s">
         <v>7</v>
@@ -7430,9 +7436,9 @@
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="5" t="n">
-        <v>399</v>
-      </c>
-      <c r="B385" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="B385" s="16" t="s">
         <v>390</v>
       </c>
       <c r="C385" s="7" t="s">
@@ -7444,9 +7450,9 @@
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="5" t="n">
-        <v>400</v>
-      </c>
-      <c r="B386" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="B386" s="16" t="s">
         <v>391</v>
       </c>
       <c r="C386" s="7" t="s">
@@ -7458,10 +7464,10 @@
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="5" t="n">
-        <v>401</v>
-      </c>
-      <c r="B387" s="19" t="s">
-        <v>22</v>
+        <v>405</v>
+      </c>
+      <c r="B387" s="16" t="s">
+        <v>392</v>
       </c>
       <c r="C387" s="7" t="s">
         <v>7</v>
@@ -7472,10 +7478,10 @@
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="5" t="n">
-        <v>402</v>
-      </c>
-      <c r="B388" s="19" t="s">
-        <v>23</v>
+        <v>406</v>
+      </c>
+      <c r="B388" s="16" t="s">
+        <v>393</v>
       </c>
       <c r="C388" s="7" t="s">
         <v>7</v>
@@ -7486,10 +7492,10 @@
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="5" t="n">
-        <v>403</v>
-      </c>
-      <c r="B389" s="19" t="s">
-        <v>392</v>
+        <v>407</v>
+      </c>
+      <c r="B389" s="16" t="s">
+        <v>394</v>
       </c>
       <c r="C389" s="7" t="s">
         <v>7</v>
@@ -7500,10 +7506,10 @@
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="5" t="n">
-        <v>404</v>
-      </c>
-      <c r="B390" s="19" t="s">
-        <v>393</v>
+        <v>408</v>
+      </c>
+      <c r="B390" s="16" t="s">
+        <v>395</v>
       </c>
       <c r="C390" s="7" t="s">
         <v>7</v>
@@ -7514,10 +7520,10 @@
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="5" t="n">
-        <v>405</v>
-      </c>
-      <c r="B391" s="19" t="s">
-        <v>394</v>
+        <v>409</v>
+      </c>
+      <c r="B391" s="16" t="s">
+        <v>396</v>
       </c>
       <c r="C391" s="7" t="s">
         <v>7</v>
@@ -7528,10 +7534,10 @@
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="5" t="n">
-        <v>406</v>
-      </c>
-      <c r="B392" s="19" t="s">
-        <v>395</v>
+        <v>410</v>
+      </c>
+      <c r="B392" s="16" t="s">
+        <v>397</v>
       </c>
       <c r="C392" s="7" t="s">
         <v>7</v>
@@ -7542,10 +7548,10 @@
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="5" t="n">
-        <v>407</v>
-      </c>
-      <c r="B393" s="19" t="s">
-        <v>396</v>
+        <v>411</v>
+      </c>
+      <c r="B393" s="16" t="s">
+        <v>398</v>
       </c>
       <c r="C393" s="7" t="s">
         <v>7</v>
@@ -7556,10 +7562,10 @@
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="5" t="n">
-        <v>408</v>
-      </c>
-      <c r="B394" s="19" t="s">
-        <v>397</v>
+        <v>412</v>
+      </c>
+      <c r="B394" s="16" t="s">
+        <v>399</v>
       </c>
       <c r="C394" s="7" t="s">
         <v>7</v>
@@ -7570,10 +7576,10 @@
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="5" t="n">
-        <v>409</v>
-      </c>
-      <c r="B395" s="19" t="s">
-        <v>398</v>
+        <v>413</v>
+      </c>
+      <c r="B395" s="16" t="s">
+        <v>400</v>
       </c>
       <c r="C395" s="7" t="s">
         <v>7</v>
@@ -7584,10 +7590,10 @@
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="5" t="n">
-        <v>410</v>
-      </c>
-      <c r="B396" s="19" t="s">
-        <v>399</v>
+        <v>414</v>
+      </c>
+      <c r="B396" s="16" t="s">
+        <v>401</v>
       </c>
       <c r="C396" s="7" t="s">
         <v>7</v>
@@ -7598,10 +7604,10 @@
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="5" t="n">
-        <v>411</v>
-      </c>
-      <c r="B397" s="19" t="s">
-        <v>400</v>
+        <v>415</v>
+      </c>
+      <c r="B397" s="16" t="s">
+        <v>402</v>
       </c>
       <c r="C397" s="7" t="s">
         <v>7</v>
@@ -7612,10 +7618,10 @@
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="5" t="n">
-        <v>412</v>
-      </c>
-      <c r="B398" s="19" t="s">
-        <v>401</v>
+        <v>416</v>
+      </c>
+      <c r="B398" s="16" t="s">
+        <v>403</v>
       </c>
       <c r="C398" s="7" t="s">
         <v>7</v>
@@ -7626,10 +7632,10 @@
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="5" t="n">
-        <v>413</v>
-      </c>
-      <c r="B399" s="19" t="s">
-        <v>402</v>
+        <v>417</v>
+      </c>
+      <c r="B399" s="16" t="s">
+        <v>404</v>
       </c>
       <c r="C399" s="7" t="s">
         <v>7</v>
@@ -7640,10 +7646,10 @@
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="5" t="n">
-        <v>414</v>
-      </c>
-      <c r="B400" s="19" t="s">
-        <v>403</v>
+        <v>418</v>
+      </c>
+      <c r="B400" s="16" t="s">
+        <v>405</v>
       </c>
       <c r="C400" s="7" t="s">
         <v>7</v>
@@ -7654,10 +7660,10 @@
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="5" t="n">
-        <v>415</v>
-      </c>
-      <c r="B401" s="19" t="s">
-        <v>404</v>
+        <v>419</v>
+      </c>
+      <c r="B401" s="16" t="s">
+        <v>406</v>
       </c>
       <c r="C401" s="7" t="s">
         <v>7</v>
@@ -7668,10 +7674,10 @@
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="5" t="n">
-        <v>416</v>
-      </c>
-      <c r="B402" s="19" t="s">
-        <v>405</v>
+        <v>420</v>
+      </c>
+      <c r="B402" s="16" t="s">
+        <v>407</v>
       </c>
       <c r="C402" s="7" t="s">
         <v>7</v>
@@ -7682,10 +7688,10 @@
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="5" t="n">
-        <v>417</v>
-      </c>
-      <c r="B403" s="19" t="s">
-        <v>406</v>
+        <v>421</v>
+      </c>
+      <c r="B403" s="16" t="s">
+        <v>408</v>
       </c>
       <c r="C403" s="7" t="s">
         <v>7</v>
@@ -7696,10 +7702,10 @@
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="5" t="n">
-        <v>418</v>
-      </c>
-      <c r="B404" s="19" t="s">
-        <v>407</v>
+        <v>422</v>
+      </c>
+      <c r="B404" s="16" t="s">
+        <v>409</v>
       </c>
       <c r="C404" s="7" t="s">
         <v>7</v>
@@ -7710,10 +7716,10 @@
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="5" t="n">
-        <v>419</v>
-      </c>
-      <c r="B405" s="19" t="s">
-        <v>408</v>
+        <v>423</v>
+      </c>
+      <c r="B405" s="16" t="s">
+        <v>410</v>
       </c>
       <c r="C405" s="7" t="s">
         <v>7</v>
@@ -7724,10 +7730,10 @@
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="5" t="n">
-        <v>420</v>
-      </c>
-      <c r="B406" s="19" t="s">
-        <v>409</v>
+        <v>424</v>
+      </c>
+      <c r="B406" s="16" t="s">
+        <v>411</v>
       </c>
       <c r="C406" s="7" t="s">
         <v>7</v>
@@ -7738,10 +7744,10 @@
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="5" t="n">
-        <v>421</v>
-      </c>
-      <c r="B407" s="19" t="s">
-        <v>410</v>
+        <v>425</v>
+      </c>
+      <c r="B407" s="16" t="s">
+        <v>412</v>
       </c>
       <c r="C407" s="7" t="s">
         <v>7</v>
@@ -7752,10 +7758,10 @@
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="5" t="n">
-        <v>422</v>
-      </c>
-      <c r="B408" s="19" t="s">
-        <v>411</v>
+        <v>426</v>
+      </c>
+      <c r="B408" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="C408" s="7" t="s">
         <v>7</v>
@@ -7766,10 +7772,10 @@
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="5" t="n">
-        <v>423</v>
-      </c>
-      <c r="B409" s="19" t="s">
-        <v>412</v>
+        <v>427</v>
+      </c>
+      <c r="B409" s="16" t="s">
+        <v>413</v>
       </c>
       <c r="C409" s="7" t="s">
         <v>7</v>
@@ -7780,10 +7786,10 @@
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="5" t="n">
-        <v>424</v>
-      </c>
-      <c r="B410" s="19" t="s">
-        <v>413</v>
+        <v>428</v>
+      </c>
+      <c r="B410" s="16" t="s">
+        <v>414</v>
       </c>
       <c r="C410" s="7" t="s">
         <v>7</v>
@@ -7794,10 +7800,10 @@
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="5" t="n">
-        <v>425</v>
-      </c>
-      <c r="B411" s="19" t="s">
-        <v>414</v>
+        <v>429</v>
+      </c>
+      <c r="B411" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="C411" s="7" t="s">
         <v>7</v>
@@ -7808,10 +7814,10 @@
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="5" t="n">
-        <v>426</v>
-      </c>
-      <c r="B412" s="19" t="s">
-        <v>46</v>
+        <v>430</v>
+      </c>
+      <c r="B412" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="C412" s="7" t="s">
         <v>7</v>
@@ -7822,10 +7828,10 @@
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="5" t="n">
-        <v>427</v>
-      </c>
-      <c r="B413" s="19" t="s">
-        <v>415</v>
+        <v>431</v>
+      </c>
+      <c r="B413" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="C413" s="7" t="s">
         <v>7</v>
@@ -7836,10 +7842,10 @@
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="5" t="n">
-        <v>428</v>
-      </c>
-      <c r="B414" s="19" t="s">
-        <v>416</v>
+        <v>432</v>
+      </c>
+      <c r="B414" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="C414" s="7" t="s">
         <v>7</v>
@@ -7850,10 +7856,10 @@
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="5" t="n">
-        <v>429</v>
-      </c>
-      <c r="B415" s="19" t="s">
-        <v>49</v>
+        <v>433</v>
+      </c>
+      <c r="B415" s="16" t="s">
+        <v>415</v>
       </c>
       <c r="C415" s="7" t="s">
         <v>7</v>
@@ -7864,10 +7870,10 @@
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="5" t="n">
-        <v>430</v>
-      </c>
-      <c r="B416" s="19" t="s">
-        <v>50</v>
+        <v>434</v>
+      </c>
+      <c r="B416" s="16" t="s">
+        <v>416</v>
       </c>
       <c r="C416" s="7" t="s">
         <v>7</v>
@@ -7878,10 +7884,10 @@
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="5" t="n">
-        <v>431</v>
-      </c>
-      <c r="B417" s="19" t="s">
-        <v>51</v>
+        <v>435</v>
+      </c>
+      <c r="B417" s="16" t="s">
+        <v>417</v>
       </c>
       <c r="C417" s="7" t="s">
         <v>7</v>
@@ -7892,10 +7898,10 @@
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="5" t="n">
-        <v>432</v>
-      </c>
-      <c r="B418" s="19" t="s">
-        <v>52</v>
+        <v>436</v>
+      </c>
+      <c r="B418" s="16" t="s">
+        <v>418</v>
       </c>
       <c r="C418" s="7" t="s">
         <v>7</v>
@@ -7906,10 +7912,10 @@
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="5" t="n">
-        <v>433</v>
-      </c>
-      <c r="B419" s="19" t="s">
-        <v>417</v>
+        <v>437</v>
+      </c>
+      <c r="B419" s="16" t="s">
+        <v>419</v>
       </c>
       <c r="C419" s="7" t="s">
         <v>7</v>
@@ -7920,10 +7926,10 @@
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="5" t="n">
-        <v>434</v>
-      </c>
-      <c r="B420" s="19" t="s">
-        <v>418</v>
+        <v>438</v>
+      </c>
+      <c r="B420" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="C420" s="7" t="s">
         <v>7</v>
@@ -7934,10 +7940,10 @@
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="5" t="n">
-        <v>435</v>
-      </c>
-      <c r="B421" s="19" t="s">
-        <v>419</v>
+        <v>439</v>
+      </c>
+      <c r="B421" s="16" t="s">
+        <v>420</v>
       </c>
       <c r="C421" s="7" t="s">
         <v>7</v>
@@ -7948,10 +7954,10 @@
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="5" t="n">
-        <v>436</v>
-      </c>
-      <c r="B422" s="19" t="s">
-        <v>420</v>
+        <v>440</v>
+      </c>
+      <c r="B422" s="16" t="s">
+        <v>421</v>
       </c>
       <c r="C422" s="7" t="s">
         <v>7</v>
@@ -7962,10 +7968,10 @@
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="5" t="n">
-        <v>437</v>
-      </c>
-      <c r="B423" s="19" t="s">
-        <v>421</v>
+        <v>441</v>
+      </c>
+      <c r="B423" s="16" t="s">
+        <v>422</v>
       </c>
       <c r="C423" s="7" t="s">
         <v>7</v>
@@ -7976,10 +7982,10 @@
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="5" t="n">
-        <v>438</v>
-      </c>
-      <c r="B424" s="19" t="s">
-        <v>58</v>
+        <v>442</v>
+      </c>
+      <c r="B424" s="16" t="s">
+        <v>423</v>
       </c>
       <c r="C424" s="7" t="s">
         <v>7</v>
@@ -7990,10 +7996,10 @@
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="5" t="n">
-        <v>439</v>
-      </c>
-      <c r="B425" s="19" t="s">
-        <v>422</v>
+        <v>443</v>
+      </c>
+      <c r="B425" s="16" t="s">
+        <v>424</v>
       </c>
       <c r="C425" s="7" t="s">
         <v>7</v>
@@ -8004,10 +8010,10 @@
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="5" t="n">
-        <v>440</v>
-      </c>
-      <c r="B426" s="19" t="s">
-        <v>423</v>
+        <v>444</v>
+      </c>
+      <c r="B426" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="C426" s="7" t="s">
         <v>7</v>
@@ -8018,10 +8024,10 @@
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="5" t="n">
-        <v>441</v>
-      </c>
-      <c r="B427" s="19" t="s">
-        <v>424</v>
+        <v>445</v>
+      </c>
+      <c r="B427" s="16" t="s">
+        <v>425</v>
       </c>
       <c r="C427" s="7" t="s">
         <v>7</v>
@@ -8032,10 +8038,10 @@
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="5" t="n">
-        <v>442</v>
-      </c>
-      <c r="B428" s="19" t="s">
-        <v>425</v>
+        <v>446</v>
+      </c>
+      <c r="B428" s="16" t="s">
+        <v>426</v>
       </c>
       <c r="C428" s="7" t="s">
         <v>7</v>
@@ -8046,10 +8052,10 @@
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="5" t="n">
-        <v>443</v>
-      </c>
-      <c r="B429" s="19" t="s">
-        <v>426</v>
+        <v>447</v>
+      </c>
+      <c r="B429" s="16" t="s">
+        <v>427</v>
       </c>
       <c r="C429" s="7" t="s">
         <v>7</v>
@@ -8060,10 +8066,10 @@
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="5" t="n">
-        <v>444</v>
-      </c>
-      <c r="B430" s="19" t="s">
-        <v>64</v>
+        <v>448</v>
+      </c>
+      <c r="B430" s="16" t="s">
+        <v>428</v>
       </c>
       <c r="C430" s="7" t="s">
         <v>7</v>
@@ -8074,10 +8080,10 @@
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="5" t="n">
-        <v>445</v>
-      </c>
-      <c r="B431" s="19" t="s">
-        <v>427</v>
+        <v>449</v>
+      </c>
+      <c r="B431" s="16" t="s">
+        <v>429</v>
       </c>
       <c r="C431" s="7" t="s">
         <v>7</v>
@@ -8088,10 +8094,10 @@
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="5" t="n">
-        <v>446</v>
-      </c>
-      <c r="B432" s="19" t="s">
-        <v>428</v>
+        <v>450</v>
+      </c>
+      <c r="B432" s="16" t="s">
+        <v>430</v>
       </c>
       <c r="C432" s="7" t="s">
         <v>7</v>
@@ -8102,10 +8108,10 @@
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="5" t="n">
-        <v>447</v>
-      </c>
-      <c r="B433" s="19" t="s">
-        <v>429</v>
+        <v>451</v>
+      </c>
+      <c r="B433" s="16" t="s">
+        <v>431</v>
       </c>
       <c r="C433" s="7" t="s">
         <v>7</v>
@@ -8116,10 +8122,10 @@
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="5" t="n">
-        <v>448</v>
-      </c>
-      <c r="B434" s="19" t="s">
-        <v>430</v>
+        <v>452</v>
+      </c>
+      <c r="B434" s="16" t="s">
+        <v>432</v>
       </c>
       <c r="C434" s="7" t="s">
         <v>7</v>
@@ -8130,10 +8136,10 @@
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="5" t="n">
-        <v>449</v>
-      </c>
-      <c r="B435" s="19" t="s">
-        <v>431</v>
+        <v>453</v>
+      </c>
+      <c r="B435" s="16" t="s">
+        <v>433</v>
       </c>
       <c r="C435" s="7" t="s">
         <v>7</v>
@@ -8144,10 +8150,10 @@
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="5" t="n">
-        <v>450</v>
-      </c>
-      <c r="B436" s="19" t="s">
-        <v>432</v>
+        <v>454</v>
+      </c>
+      <c r="B436" s="16" t="s">
+        <v>434</v>
       </c>
       <c r="C436" s="7" t="s">
         <v>7</v>
@@ -8158,10 +8164,10 @@
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="5" t="n">
-        <v>451</v>
-      </c>
-      <c r="B437" s="19" t="s">
-        <v>433</v>
+        <v>455</v>
+      </c>
+      <c r="B437" s="16" t="s">
+        <v>435</v>
       </c>
       <c r="C437" s="7" t="s">
         <v>7</v>
@@ -8172,10 +8178,10 @@
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="5" t="n">
-        <v>452</v>
-      </c>
-      <c r="B438" s="19" t="s">
-        <v>434</v>
+        <v>456</v>
+      </c>
+      <c r="B438" s="16" t="s">
+        <v>436</v>
       </c>
       <c r="C438" s="7" t="s">
         <v>7</v>
@@ -8186,10 +8192,10 @@
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="5" t="n">
-        <v>453</v>
-      </c>
-      <c r="B439" s="19" t="s">
-        <v>435</v>
+        <v>457</v>
+      </c>
+      <c r="B439" s="16" t="s">
+        <v>437</v>
       </c>
       <c r="C439" s="7" t="s">
         <v>7</v>
@@ -8200,10 +8206,10 @@
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="5" t="n">
-        <v>454</v>
-      </c>
-      <c r="B440" s="19" t="s">
-        <v>436</v>
+        <v>458</v>
+      </c>
+      <c r="B440" s="16" t="s">
+        <v>438</v>
       </c>
       <c r="C440" s="7" t="s">
         <v>7</v>
@@ -8214,10 +8220,10 @@
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="5" t="n">
-        <v>455</v>
-      </c>
-      <c r="B441" s="19" t="s">
-        <v>437</v>
+        <v>459</v>
+      </c>
+      <c r="B441" s="16" t="s">
+        <v>439</v>
       </c>
       <c r="C441" s="7" t="s">
         <v>7</v>
@@ -8228,10 +8234,10 @@
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="5" t="n">
-        <v>456</v>
-      </c>
-      <c r="B442" s="19" t="s">
-        <v>438</v>
+        <v>460</v>
+      </c>
+      <c r="B442" s="16" t="s">
+        <v>440</v>
       </c>
       <c r="C442" s="7" t="s">
         <v>7</v>
@@ -8242,10 +8248,10 @@
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="5" t="n">
-        <v>457</v>
-      </c>
-      <c r="B443" s="19" t="s">
-        <v>439</v>
+        <v>461</v>
+      </c>
+      <c r="B443" s="16" t="s">
+        <v>441</v>
       </c>
       <c r="C443" s="7" t="s">
         <v>7</v>
@@ -8256,10 +8262,10 @@
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="5" t="n">
-        <v>458</v>
-      </c>
-      <c r="B444" s="19" t="s">
-        <v>440</v>
+        <v>462</v>
+      </c>
+      <c r="B444" s="16" t="s">
+        <v>442</v>
       </c>
       <c r="C444" s="7" t="s">
         <v>7</v>
@@ -8270,10 +8276,10 @@
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="5" t="n">
-        <v>459</v>
-      </c>
-      <c r="B445" s="19" t="s">
-        <v>441</v>
+        <v>463</v>
+      </c>
+      <c r="B445" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="C445" s="7" t="s">
         <v>7</v>
@@ -8284,10 +8290,10 @@
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="5" t="n">
-        <v>460</v>
-      </c>
-      <c r="B446" s="19" t="s">
-        <v>442</v>
+        <v>464</v>
+      </c>
+      <c r="B446" s="16" t="s">
+        <v>443</v>
       </c>
       <c r="C446" s="7" t="s">
         <v>7</v>
@@ -8298,10 +8304,10 @@
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="5" t="n">
-        <v>461</v>
-      </c>
-      <c r="B447" s="19" t="s">
-        <v>443</v>
+        <v>465</v>
+      </c>
+      <c r="B447" s="16" t="s">
+        <v>444</v>
       </c>
       <c r="C447" s="7" t="s">
         <v>7</v>
@@ -8312,10 +8318,10 @@
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="5" t="n">
-        <v>462</v>
-      </c>
-      <c r="B448" s="19" t="s">
-        <v>444</v>
+        <v>466</v>
+      </c>
+      <c r="B448" s="16" t="s">
+        <v>445</v>
       </c>
       <c r="C448" s="7" t="s">
         <v>7</v>
@@ -8326,10 +8332,10 @@
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="5" t="n">
-        <v>463</v>
-      </c>
-      <c r="B449" s="19" t="s">
-        <v>83</v>
+        <v>467</v>
+      </c>
+      <c r="B449" s="16" t="s">
+        <v>446</v>
       </c>
       <c r="C449" s="7" t="s">
         <v>7</v>
@@ -8340,10 +8346,10 @@
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="5" t="n">
-        <v>464</v>
-      </c>
-      <c r="B450" s="19" t="s">
-        <v>445</v>
+        <v>468</v>
+      </c>
+      <c r="B450" s="16" t="s">
+        <v>447</v>
       </c>
       <c r="C450" s="7" t="s">
         <v>7</v>
@@ -8354,10 +8360,10 @@
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="5" t="n">
-        <v>465</v>
-      </c>
-      <c r="B451" s="19" t="s">
-        <v>446</v>
+        <v>469</v>
+      </c>
+      <c r="B451" s="16" t="s">
+        <v>448</v>
       </c>
       <c r="C451" s="7" t="s">
         <v>7</v>
@@ -8368,10 +8374,10 @@
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="5" t="n">
-        <v>466</v>
-      </c>
-      <c r="B452" s="19" t="s">
-        <v>447</v>
+        <v>470</v>
+      </c>
+      <c r="B452" s="16" t="s">
+        <v>449</v>
       </c>
       <c r="C452" s="7" t="s">
         <v>7</v>
@@ -8382,10 +8388,10 @@
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="5" t="n">
-        <v>467</v>
-      </c>
-      <c r="B453" s="19" t="s">
-        <v>448</v>
+        <v>471</v>
+      </c>
+      <c r="B453" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="C453" s="7" t="s">
         <v>7</v>
@@ -8396,10 +8402,10 @@
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="5" t="n">
-        <v>468</v>
-      </c>
-      <c r="B454" s="19" t="s">
-        <v>449</v>
+        <v>472</v>
+      </c>
+      <c r="B454" s="16" t="s">
+        <v>450</v>
       </c>
       <c r="C454" s="7" t="s">
         <v>7</v>
@@ -8410,10 +8416,10 @@
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="5" t="n">
-        <v>469</v>
-      </c>
-      <c r="B455" s="19" t="s">
-        <v>450</v>
+        <v>473</v>
+      </c>
+      <c r="B455" s="16" t="s">
+        <v>451</v>
       </c>
       <c r="C455" s="7" t="s">
         <v>7</v>
@@ -8424,10 +8430,10 @@
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="5" t="n">
-        <v>470</v>
-      </c>
-      <c r="B456" s="19" t="s">
-        <v>451</v>
+        <v>474</v>
+      </c>
+      <c r="B456" s="16" t="s">
+        <v>452</v>
       </c>
       <c r="C456" s="7" t="s">
         <v>7</v>
@@ -8438,10 +8444,10 @@
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="5" t="n">
-        <v>471</v>
-      </c>
-      <c r="B457" s="19" t="s">
-        <v>91</v>
+        <v>475</v>
+      </c>
+      <c r="B457" s="16" t="s">
+        <v>453</v>
       </c>
       <c r="C457" s="7" t="s">
         <v>7</v>
@@ -8452,10 +8458,10 @@
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="5" t="n">
-        <v>472</v>
-      </c>
-      <c r="B458" s="19" t="s">
-        <v>452</v>
+        <v>476</v>
+      </c>
+      <c r="B458" s="16" t="s">
+        <v>454</v>
       </c>
       <c r="C458" s="7" t="s">
         <v>7</v>
@@ -8466,10 +8472,10 @@
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="5" t="n">
-        <v>473</v>
-      </c>
-      <c r="B459" s="19" t="s">
-        <v>453</v>
+        <v>477</v>
+      </c>
+      <c r="B459" s="16" t="s">
+        <v>455</v>
       </c>
       <c r="C459" s="7" t="s">
         <v>7</v>
@@ -8480,10 +8486,10 @@
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="5" t="n">
-        <v>474</v>
-      </c>
-      <c r="B460" s="19" t="s">
-        <v>454</v>
+        <v>478</v>
+      </c>
+      <c r="B460" s="16" t="s">
+        <v>456</v>
       </c>
       <c r="C460" s="7" t="s">
         <v>7</v>
@@ -8494,10 +8500,10 @@
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="5" t="n">
-        <v>475</v>
-      </c>
-      <c r="B461" s="19" t="s">
-        <v>455</v>
+        <v>479</v>
+      </c>
+      <c r="B461" s="16" t="s">
+        <v>457</v>
       </c>
       <c r="C461" s="7" t="s">
         <v>7</v>
@@ -8508,10 +8514,10 @@
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="5" t="n">
-        <v>476</v>
-      </c>
-      <c r="B462" s="19" t="s">
-        <v>456</v>
+        <v>480</v>
+      </c>
+      <c r="B462" s="16" t="s">
+        <v>458</v>
       </c>
       <c r="C462" s="7" t="s">
         <v>7</v>
@@ -8522,10 +8528,10 @@
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="5" t="n">
-        <v>477</v>
-      </c>
-      <c r="B463" s="19" t="s">
-        <v>457</v>
+        <v>481</v>
+      </c>
+      <c r="B463" s="16" t="s">
+        <v>459</v>
       </c>
       <c r="C463" s="7" t="s">
         <v>7</v>
@@ -8536,10 +8542,10 @@
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="5" t="n">
-        <v>478</v>
-      </c>
-      <c r="B464" s="19" t="s">
-        <v>458</v>
+        <v>482</v>
+      </c>
+      <c r="B464" s="16" t="s">
+        <v>460</v>
       </c>
       <c r="C464" s="7" t="s">
         <v>7</v>
@@ -8550,10 +8556,10 @@
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="5" t="n">
-        <v>479</v>
-      </c>
-      <c r="B465" s="19" t="s">
-        <v>459</v>
+        <v>483</v>
+      </c>
+      <c r="B465" s="16" t="s">
+        <v>461</v>
       </c>
       <c r="C465" s="7" t="s">
         <v>7</v>
@@ -8564,10 +8570,10 @@
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="5" t="n">
-        <v>480</v>
-      </c>
-      <c r="B466" s="19" t="s">
-        <v>460</v>
+        <v>484</v>
+      </c>
+      <c r="B466" s="16" t="s">
+        <v>462</v>
       </c>
       <c r="C466" s="7" t="s">
         <v>7</v>
@@ -8578,10 +8584,10 @@
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="5" t="n">
-        <v>481</v>
-      </c>
-      <c r="B467" s="19" t="s">
-        <v>461</v>
+        <v>485</v>
+      </c>
+      <c r="B467" s="16" t="s">
+        <v>463</v>
       </c>
       <c r="C467" s="7" t="s">
         <v>7</v>
@@ -8592,10 +8598,10 @@
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="5" t="n">
-        <v>482</v>
-      </c>
-      <c r="B468" s="19" t="s">
-        <v>462</v>
+        <v>486</v>
+      </c>
+      <c r="B468" s="16" t="s">
+        <v>464</v>
       </c>
       <c r="C468" s="7" t="s">
         <v>7</v>
@@ -8606,10 +8612,10 @@
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="5" t="n">
-        <v>483</v>
-      </c>
-      <c r="B469" s="19" t="s">
-        <v>463</v>
+        <v>487</v>
+      </c>
+      <c r="B469" s="16" t="s">
+        <v>465</v>
       </c>
       <c r="C469" s="7" t="s">
         <v>7</v>
@@ -8620,10 +8626,10 @@
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="5" t="n">
-        <v>484</v>
-      </c>
-      <c r="B470" s="19" t="s">
-        <v>464</v>
+        <v>488</v>
+      </c>
+      <c r="B470" s="16" t="s">
+        <v>466</v>
       </c>
       <c r="C470" s="7" t="s">
         <v>7</v>
@@ -8634,10 +8640,10 @@
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="5" t="n">
-        <v>485</v>
-      </c>
-      <c r="B471" s="19" t="s">
-        <v>465</v>
+        <v>489</v>
+      </c>
+      <c r="B471" s="16" t="s">
+        <v>467</v>
       </c>
       <c r="C471" s="7" t="s">
         <v>7</v>
@@ -8648,10 +8654,10 @@
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="5" t="n">
-        <v>486</v>
-      </c>
-      <c r="B472" s="19" t="s">
-        <v>466</v>
+        <v>490</v>
+      </c>
+      <c r="B472" s="16" t="s">
+        <v>468</v>
       </c>
       <c r="C472" s="7" t="s">
         <v>7</v>
@@ -8662,10 +8668,10 @@
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="5" t="n">
-        <v>487</v>
-      </c>
-      <c r="B473" s="19" t="s">
-        <v>467</v>
+        <v>491</v>
+      </c>
+      <c r="B473" s="16" t="s">
+        <v>469</v>
       </c>
       <c r="C473" s="7" t="s">
         <v>7</v>
@@ -8676,10 +8682,10 @@
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="5" t="n">
-        <v>488</v>
-      </c>
-      <c r="B474" s="19" t="s">
-        <v>468</v>
+        <v>492</v>
+      </c>
+      <c r="B474" s="16" t="s">
+        <v>470</v>
       </c>
       <c r="C474" s="7" t="s">
         <v>7</v>
@@ -8690,10 +8696,10 @@
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="5" t="n">
-        <v>489</v>
-      </c>
-      <c r="B475" s="19" t="s">
-        <v>469</v>
+        <v>493</v>
+      </c>
+      <c r="B475" s="16" t="s">
+        <v>471</v>
       </c>
       <c r="C475" s="7" t="s">
         <v>7</v>
@@ -8704,10 +8710,10 @@
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="5" t="n">
-        <v>490</v>
-      </c>
-      <c r="B476" s="19" t="s">
-        <v>470</v>
+        <v>494</v>
+      </c>
+      <c r="B476" s="16" t="s">
+        <v>472</v>
       </c>
       <c r="C476" s="7" t="s">
         <v>7</v>
@@ -8718,10 +8724,10 @@
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="5" t="n">
-        <v>491</v>
-      </c>
-      <c r="B477" s="19" t="s">
-        <v>471</v>
+        <v>495</v>
+      </c>
+      <c r="B477" s="16" t="s">
+        <v>473</v>
       </c>
       <c r="C477" s="7" t="s">
         <v>7</v>
@@ -8732,10 +8738,10 @@
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="5" t="n">
-        <v>492</v>
-      </c>
-      <c r="B478" s="19" t="s">
-        <v>472</v>
+        <v>496</v>
+      </c>
+      <c r="B478" s="16" t="s">
+        <v>474</v>
       </c>
       <c r="C478" s="7" t="s">
         <v>7</v>
@@ -8746,10 +8752,10 @@
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="5" t="n">
-        <v>493</v>
-      </c>
-      <c r="B479" s="19" t="s">
-        <v>473</v>
+        <v>497</v>
+      </c>
+      <c r="B479" s="16" t="s">
+        <v>475</v>
       </c>
       <c r="C479" s="7" t="s">
         <v>7</v>
@@ -8760,10 +8766,10 @@
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="5" t="n">
-        <v>494</v>
-      </c>
-      <c r="B480" s="19" t="s">
-        <v>474</v>
+        <v>498</v>
+      </c>
+      <c r="B480" s="16" t="s">
+        <v>476</v>
       </c>
       <c r="C480" s="7" t="s">
         <v>7</v>
@@ -8774,10 +8780,10 @@
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="5" t="n">
-        <v>495</v>
-      </c>
-      <c r="B481" s="19" t="s">
-        <v>475</v>
+        <v>499</v>
+      </c>
+      <c r="B481" s="16" t="s">
+        <v>477</v>
       </c>
       <c r="C481" s="7" t="s">
         <v>7</v>
@@ -8788,10 +8794,10 @@
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="5" t="n">
-        <v>496</v>
-      </c>
-      <c r="B482" s="19" t="s">
-        <v>476</v>
+        <v>500</v>
+      </c>
+      <c r="B482" s="16" t="s">
+        <v>478</v>
       </c>
       <c r="C482" s="7" t="s">
         <v>7</v>
@@ -8802,66 +8808,62 @@
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="5" t="n">
-        <v>497</v>
-      </c>
-      <c r="B483" s="19" t="s">
-        <v>477</v>
+        <v>501</v>
+      </c>
+      <c r="B483" s="16" t="s">
+        <v>479</v>
       </c>
       <c r="C483" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D483" s="5"/>
-      <c r="E483" s="8"/>
-      <c r="F483" s="9"/>
+      <c r="E483" s="9"/>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="5" t="n">
-        <v>498</v>
-      </c>
-      <c r="B484" s="19" t="s">
-        <v>478</v>
+        <v>502</v>
+      </c>
+      <c r="B484" s="16" t="s">
+        <v>480</v>
       </c>
       <c r="C484" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D484" s="5"/>
-      <c r="E484" s="8"/>
-      <c r="F484" s="9"/>
+      <c r="E484" s="9"/>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="5" t="n">
-        <v>499</v>
-      </c>
-      <c r="B485" s="19" t="s">
-        <v>479</v>
+        <v>503</v>
+      </c>
+      <c r="B485" s="16" t="s">
+        <v>481</v>
       </c>
       <c r="C485" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D485" s="5"/>
-      <c r="E485" s="8"/>
-      <c r="F485" s="9"/>
+      <c r="E485" s="9"/>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="5" t="n">
-        <v>500</v>
-      </c>
-      <c r="B486" s="19" t="s">
-        <v>480</v>
+        <v>504</v>
+      </c>
+      <c r="B486" s="16" t="s">
+        <v>482</v>
       </c>
       <c r="C486" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D486" s="5"/>
-      <c r="E486" s="8"/>
-      <c r="F486" s="9"/>
+      <c r="E486" s="9"/>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="5" t="n">
-        <v>501</v>
-      </c>
-      <c r="B487" s="19" t="s">
-        <v>481</v>
+        <v>505</v>
+      </c>
+      <c r="B487" s="16" t="s">
+        <v>483</v>
       </c>
       <c r="C487" s="7" t="s">
         <v>7</v>
@@ -8871,10 +8873,10 @@
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="5" t="n">
-        <v>502</v>
-      </c>
-      <c r="B488" s="19" t="s">
-        <v>482</v>
+        <v>506</v>
+      </c>
+      <c r="B488" s="16" t="s">
+        <v>484</v>
       </c>
       <c r="C488" s="7" t="s">
         <v>7</v>
@@ -8884,10 +8886,10 @@
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="5" t="n">
-        <v>503</v>
-      </c>
-      <c r="B489" s="19" t="s">
-        <v>483</v>
+        <v>507</v>
+      </c>
+      <c r="B489" s="16" t="s">
+        <v>485</v>
       </c>
       <c r="C489" s="7" t="s">
         <v>7</v>
@@ -8897,10 +8899,10 @@
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="5" t="n">
-        <v>504</v>
-      </c>
-      <c r="B490" s="19" t="s">
-        <v>484</v>
+        <v>508</v>
+      </c>
+      <c r="B490" s="16" t="s">
+        <v>486</v>
       </c>
       <c r="C490" s="7" t="s">
         <v>7</v>
@@ -8910,10 +8912,10 @@
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="5" t="n">
-        <v>505</v>
-      </c>
-      <c r="B491" s="19" t="s">
-        <v>485</v>
+        <v>509</v>
+      </c>
+      <c r="B491" s="16" t="s">
+        <v>487</v>
       </c>
       <c r="C491" s="7" t="s">
         <v>7</v>
@@ -8923,10 +8925,10 @@
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="5" t="n">
-        <v>506</v>
-      </c>
-      <c r="B492" s="19" t="s">
-        <v>486</v>
+        <v>510</v>
+      </c>
+      <c r="B492" s="16" t="s">
+        <v>488</v>
       </c>
       <c r="C492" s="7" t="s">
         <v>7</v>
@@ -8936,10 +8938,10 @@
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="5" t="n">
-        <v>507</v>
-      </c>
-      <c r="B493" s="19" t="s">
-        <v>487</v>
+        <v>511</v>
+      </c>
+      <c r="B493" s="16" t="s">
+        <v>489</v>
       </c>
       <c r="C493" s="7" t="s">
         <v>7</v>
@@ -8949,10 +8951,10 @@
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="5" t="n">
-        <v>508</v>
-      </c>
-      <c r="B494" s="19" t="s">
-        <v>488</v>
+        <v>512</v>
+      </c>
+      <c r="B494" s="16" t="s">
+        <v>490</v>
       </c>
       <c r="C494" s="7" t="s">
         <v>7</v>
@@ -8962,10 +8964,10 @@
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="5" t="n">
-        <v>509</v>
-      </c>
-      <c r="B495" s="19" t="s">
-        <v>489</v>
+        <v>513</v>
+      </c>
+      <c r="B495" s="16" t="s">
+        <v>491</v>
       </c>
       <c r="C495" s="7" t="s">
         <v>7</v>
@@ -8975,10 +8977,10 @@
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="5" t="n">
-        <v>510</v>
-      </c>
-      <c r="B496" s="19" t="s">
-        <v>490</v>
+        <v>514</v>
+      </c>
+      <c r="B496" s="16" t="s">
+        <v>492</v>
       </c>
       <c r="C496" s="7" t="s">
         <v>7</v>
@@ -8988,10 +8990,10 @@
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="5" t="n">
-        <v>511</v>
-      </c>
-      <c r="B497" s="19" t="s">
-        <v>491</v>
+        <v>515</v>
+      </c>
+      <c r="B497" s="16" t="s">
+        <v>493</v>
       </c>
       <c r="C497" s="7" t="s">
         <v>7</v>
@@ -9001,10 +9003,10 @@
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="5" t="n">
-        <v>512</v>
-      </c>
-      <c r="B498" s="19" t="s">
-        <v>492</v>
+        <v>516</v>
+      </c>
+      <c r="B498" s="16" t="s">
+        <v>494</v>
       </c>
       <c r="C498" s="7" t="s">
         <v>7</v>
@@ -9014,10 +9016,10 @@
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="5" t="n">
-        <v>513</v>
-      </c>
-      <c r="B499" s="19" t="s">
-        <v>493</v>
+        <v>517</v>
+      </c>
+      <c r="B499" s="16" t="s">
+        <v>495</v>
       </c>
       <c r="C499" s="7" t="s">
         <v>7</v>
@@ -9027,10 +9029,10 @@
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="5" t="n">
-        <v>514</v>
-      </c>
-      <c r="B500" s="19" t="s">
-        <v>494</v>
+        <v>518</v>
+      </c>
+      <c r="B500" s="16" t="s">
+        <v>496</v>
       </c>
       <c r="C500" s="7" t="s">
         <v>7</v>
@@ -9040,10 +9042,10 @@
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="5" t="n">
-        <v>515</v>
-      </c>
-      <c r="B501" s="19" t="s">
-        <v>495</v>
+        <v>519</v>
+      </c>
+      <c r="B501" s="16" t="s">
+        <v>497</v>
       </c>
       <c r="C501" s="7" t="s">
         <v>7</v>
@@ -9053,10 +9055,10 @@
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="5" t="n">
-        <v>516</v>
-      </c>
-      <c r="B502" s="19" t="s">
-        <v>496</v>
+        <v>520</v>
+      </c>
+      <c r="B502" s="16" t="s">
+        <v>498</v>
       </c>
       <c r="C502" s="7" t="s">
         <v>7</v>
@@ -9066,10 +9068,10 @@
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="5" t="n">
-        <v>517</v>
-      </c>
-      <c r="B503" s="19" t="s">
-        <v>497</v>
+        <v>521</v>
+      </c>
+      <c r="B503" s="16" t="s">
+        <v>499</v>
       </c>
       <c r="C503" s="7" t="s">
         <v>7</v>
@@ -9079,10 +9081,10 @@
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="5" t="n">
-        <v>518</v>
-      </c>
-      <c r="B504" s="19" t="s">
-        <v>498</v>
+        <v>522</v>
+      </c>
+      <c r="B504" s="16" t="s">
+        <v>500</v>
       </c>
       <c r="C504" s="7" t="s">
         <v>7</v>
@@ -9092,10 +9094,10 @@
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="5" t="n">
-        <v>519</v>
-      </c>
-      <c r="B505" s="19" t="s">
-        <v>499</v>
+        <v>523</v>
+      </c>
+      <c r="B505" s="16" t="s">
+        <v>501</v>
       </c>
       <c r="C505" s="7" t="s">
         <v>7</v>
@@ -9105,10 +9107,10 @@
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="5" t="n">
-        <v>520</v>
-      </c>
-      <c r="B506" s="19" t="s">
-        <v>500</v>
+        <v>524</v>
+      </c>
+      <c r="B506" s="16" t="s">
+        <v>502</v>
       </c>
       <c r="C506" s="7" t="s">
         <v>7</v>
@@ -9118,10 +9120,10 @@
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="5" t="n">
-        <v>521</v>
-      </c>
-      <c r="B507" s="19" t="s">
-        <v>501</v>
+        <v>525</v>
+      </c>
+      <c r="B507" s="16" t="s">
+        <v>503</v>
       </c>
       <c r="C507" s="7" t="s">
         <v>7</v>
@@ -9131,10 +9133,10 @@
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="5" t="n">
-        <v>522</v>
-      </c>
-      <c r="B508" s="19" t="s">
-        <v>502</v>
+        <v>526</v>
+      </c>
+      <c r="B508" s="16" t="s">
+        <v>504</v>
       </c>
       <c r="C508" s="7" t="s">
         <v>7</v>
@@ -9144,10 +9146,10 @@
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="5" t="n">
-        <v>523</v>
-      </c>
-      <c r="B509" s="19" t="s">
-        <v>503</v>
+        <v>527</v>
+      </c>
+      <c r="B509" s="16" t="s">
+        <v>505</v>
       </c>
       <c r="C509" s="7" t="s">
         <v>7</v>
@@ -9157,10 +9159,10 @@
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="5" t="n">
-        <v>524</v>
-      </c>
-      <c r="B510" s="19" t="s">
-        <v>504</v>
+        <v>528</v>
+      </c>
+      <c r="B510" s="16" t="s">
+        <v>506</v>
       </c>
       <c r="C510" s="7" t="s">
         <v>7</v>
@@ -9170,10 +9172,10 @@
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="5" t="n">
-        <v>525</v>
-      </c>
-      <c r="B511" s="19" t="s">
-        <v>505</v>
+        <v>529</v>
+      </c>
+      <c r="B511" s="16" t="s">
+        <v>507</v>
       </c>
       <c r="C511" s="7" t="s">
         <v>7</v>
@@ -9183,10 +9185,10 @@
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="5" t="n">
-        <v>526</v>
-      </c>
-      <c r="B512" s="19" t="s">
-        <v>506</v>
+        <v>530</v>
+      </c>
+      <c r="B512" s="16" t="s">
+        <v>508</v>
       </c>
       <c r="C512" s="7" t="s">
         <v>7</v>
@@ -9196,10 +9198,10 @@
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="5" t="n">
-        <v>527</v>
-      </c>
-      <c r="B513" s="19" t="s">
-        <v>507</v>
+        <v>531</v>
+      </c>
+      <c r="B513" s="16" t="s">
+        <v>509</v>
       </c>
       <c r="C513" s="7" t="s">
         <v>7</v>
@@ -9209,10 +9211,10 @@
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="5" t="n">
-        <v>528</v>
-      </c>
-      <c r="B514" s="19" t="s">
-        <v>508</v>
+        <v>532</v>
+      </c>
+      <c r="B514" s="16" t="s">
+        <v>510</v>
       </c>
       <c r="C514" s="7" t="s">
         <v>7</v>
@@ -9222,10 +9224,10 @@
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="5" t="n">
-        <v>529</v>
-      </c>
-      <c r="B515" s="19" t="s">
-        <v>509</v>
+        <v>533</v>
+      </c>
+      <c r="B515" s="16" t="s">
+        <v>511</v>
       </c>
       <c r="C515" s="7" t="s">
         <v>7</v>
@@ -9235,10 +9237,10 @@
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="5" t="n">
-        <v>530</v>
-      </c>
-      <c r="B516" s="19" t="s">
-        <v>510</v>
+        <v>534</v>
+      </c>
+      <c r="B516" s="16" t="s">
+        <v>512</v>
       </c>
       <c r="C516" s="7" t="s">
         <v>7</v>
@@ -9248,10 +9250,10 @@
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="5" t="n">
-        <v>531</v>
-      </c>
-      <c r="B517" s="19" t="s">
-        <v>511</v>
+        <v>535</v>
+      </c>
+      <c r="B517" s="16" t="s">
+        <v>513</v>
       </c>
       <c r="C517" s="7" t="s">
         <v>7</v>
@@ -9261,10 +9263,10 @@
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="5" t="n">
-        <v>532</v>
-      </c>
-      <c r="B518" s="19" t="s">
-        <v>512</v>
+        <v>536</v>
+      </c>
+      <c r="B518" s="16" t="s">
+        <v>514</v>
       </c>
       <c r="C518" s="7" t="s">
         <v>7</v>
@@ -9274,10 +9276,10 @@
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="5" t="n">
-        <v>533</v>
-      </c>
-      <c r="B519" s="19" t="s">
-        <v>513</v>
+        <v>537</v>
+      </c>
+      <c r="B519" s="16" t="s">
+        <v>515</v>
       </c>
       <c r="C519" s="7" t="s">
         <v>7</v>
@@ -9287,10 +9289,10 @@
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="5" t="n">
-        <v>534</v>
-      </c>
-      <c r="B520" s="19" t="s">
-        <v>514</v>
+        <v>538</v>
+      </c>
+      <c r="B520" s="16" t="s">
+        <v>516</v>
       </c>
       <c r="C520" s="7" t="s">
         <v>7</v>
@@ -9300,10 +9302,10 @@
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="5" t="n">
-        <v>535</v>
-      </c>
-      <c r="B521" s="19" t="s">
-        <v>515</v>
+        <v>539</v>
+      </c>
+      <c r="B521" s="16" t="s">
+        <v>517</v>
       </c>
       <c r="C521" s="7" t="s">
         <v>7</v>
@@ -9313,10 +9315,10 @@
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="5" t="n">
-        <v>536</v>
-      </c>
-      <c r="B522" s="19" t="s">
-        <v>516</v>
+        <v>540</v>
+      </c>
+      <c r="B522" s="16" t="s">
+        <v>518</v>
       </c>
       <c r="C522" s="7" t="s">
         <v>7</v>
@@ -9326,10 +9328,10 @@
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="5" t="n">
-        <v>537</v>
-      </c>
-      <c r="B523" s="19" t="s">
-        <v>517</v>
+        <v>541</v>
+      </c>
+      <c r="B523" s="16" t="s">
+        <v>519</v>
       </c>
       <c r="C523" s="7" t="s">
         <v>7</v>
@@ -9339,10 +9341,10 @@
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="5" t="n">
-        <v>538</v>
-      </c>
-      <c r="B524" s="19" t="s">
-        <v>518</v>
+        <v>542</v>
+      </c>
+      <c r="B524" s="16" t="s">
+        <v>520</v>
       </c>
       <c r="C524" s="7" t="s">
         <v>7</v>
@@ -9352,10 +9354,10 @@
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="5" t="n">
-        <v>539</v>
-      </c>
-      <c r="B525" s="19" t="s">
-        <v>519</v>
+        <v>543</v>
+      </c>
+      <c r="B525" s="16" t="s">
+        <v>521</v>
       </c>
       <c r="C525" s="7" t="s">
         <v>7</v>
@@ -9365,10 +9367,10 @@
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="5" t="n">
-        <v>540</v>
-      </c>
-      <c r="B526" s="19" t="s">
-        <v>520</v>
+        <v>544</v>
+      </c>
+      <c r="B526" s="16" t="s">
+        <v>522</v>
       </c>
       <c r="C526" s="7" t="s">
         <v>7</v>
@@ -9378,10 +9380,10 @@
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="5" t="n">
-        <v>541</v>
-      </c>
-      <c r="B527" s="19" t="s">
-        <v>521</v>
+        <v>545</v>
+      </c>
+      <c r="B527" s="16" t="s">
+        <v>523</v>
       </c>
       <c r="C527" s="7" t="s">
         <v>7</v>
@@ -9391,10 +9393,10 @@
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="5" t="n">
-        <v>542</v>
-      </c>
-      <c r="B528" s="19" t="s">
-        <v>522</v>
+        <v>546</v>
+      </c>
+      <c r="B528" s="16" t="s">
+        <v>524</v>
       </c>
       <c r="C528" s="7" t="s">
         <v>7</v>
@@ -9404,10 +9406,10 @@
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="5" t="n">
-        <v>543</v>
-      </c>
-      <c r="B529" s="19" t="s">
-        <v>523</v>
+        <v>547</v>
+      </c>
+      <c r="B529" s="16" t="s">
+        <v>525</v>
       </c>
       <c r="C529" s="7" t="s">
         <v>7</v>
@@ -9417,10 +9419,10 @@
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="5" t="n">
-        <v>544</v>
-      </c>
-      <c r="B530" s="19" t="s">
-        <v>524</v>
+        <v>548</v>
+      </c>
+      <c r="B530" s="16" t="s">
+        <v>526</v>
       </c>
       <c r="C530" s="7" t="s">
         <v>7</v>
@@ -9430,10 +9432,10 @@
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="5" t="n">
-        <v>545</v>
-      </c>
-      <c r="B531" s="19" t="s">
-        <v>525</v>
+        <v>549</v>
+      </c>
+      <c r="B531" s="16" t="s">
+        <v>527</v>
       </c>
       <c r="C531" s="7" t="s">
         <v>7</v>
@@ -9443,10 +9445,10 @@
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="5" t="n">
-        <v>546</v>
-      </c>
-      <c r="B532" s="19" t="s">
-        <v>526</v>
+        <v>550</v>
+      </c>
+      <c r="B532" s="16" t="s">
+        <v>528</v>
       </c>
       <c r="C532" s="7" t="s">
         <v>7</v>
@@ -9456,10 +9458,10 @@
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="5" t="n">
-        <v>547</v>
-      </c>
-      <c r="B533" s="19" t="s">
-        <v>527</v>
+        <v>551</v>
+      </c>
+      <c r="B533" s="16" t="s">
+        <v>529</v>
       </c>
       <c r="C533" s="7" t="s">
         <v>7</v>
@@ -9469,10 +9471,10 @@
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="5" t="n">
-        <v>548</v>
-      </c>
-      <c r="B534" s="19" t="s">
-        <v>528</v>
+        <v>552</v>
+      </c>
+      <c r="B534" s="16" t="s">
+        <v>530</v>
       </c>
       <c r="C534" s="7" t="s">
         <v>7</v>
@@ -9482,10 +9484,10 @@
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="5" t="n">
-        <v>549</v>
-      </c>
-      <c r="B535" s="19" t="s">
-        <v>529</v>
+        <v>553</v>
+      </c>
+      <c r="B535" s="16" t="s">
+        <v>531</v>
       </c>
       <c r="C535" s="7" t="s">
         <v>7</v>
@@ -9495,10 +9497,10 @@
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="5" t="n">
-        <v>550</v>
-      </c>
-      <c r="B536" s="19" t="s">
-        <v>530</v>
+        <v>554</v>
+      </c>
+      <c r="B536" s="16" t="s">
+        <v>532</v>
       </c>
       <c r="C536" s="7" t="s">
         <v>7</v>
@@ -9508,10 +9510,10 @@
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="5" t="n">
-        <v>551</v>
-      </c>
-      <c r="B537" s="19" t="s">
-        <v>531</v>
+        <v>555</v>
+      </c>
+      <c r="B537" s="16" t="s">
+        <v>533</v>
       </c>
       <c r="C537" s="7" t="s">
         <v>7</v>
@@ -9521,10 +9523,10 @@
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="5" t="n">
-        <v>552</v>
-      </c>
-      <c r="B538" s="19" t="s">
-        <v>532</v>
+        <v>556</v>
+      </c>
+      <c r="B538" s="16" t="s">
+        <v>534</v>
       </c>
       <c r="C538" s="7" t="s">
         <v>7</v>
@@ -9534,10 +9536,10 @@
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="5" t="n">
-        <v>553</v>
-      </c>
-      <c r="B539" s="19" t="s">
-        <v>533</v>
+        <v>557</v>
+      </c>
+      <c r="B539" s="16" t="s">
+        <v>535</v>
       </c>
       <c r="C539" s="7" t="s">
         <v>7</v>
@@ -9547,10 +9549,10 @@
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="5" t="n">
-        <v>554</v>
-      </c>
-      <c r="B540" s="19" t="s">
-        <v>534</v>
+        <v>558</v>
+      </c>
+      <c r="B540" s="16" t="s">
+        <v>536</v>
       </c>
       <c r="C540" s="7" t="s">
         <v>7</v>
@@ -9560,10 +9562,10 @@
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="5" t="n">
-        <v>555</v>
-      </c>
-      <c r="B541" s="19" t="s">
-        <v>535</v>
+        <v>559</v>
+      </c>
+      <c r="B541" s="16" t="s">
+        <v>537</v>
       </c>
       <c r="C541" s="7" t="s">
         <v>7</v>
@@ -9573,10 +9575,10 @@
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="5" t="n">
-        <v>556</v>
-      </c>
-      <c r="B542" s="19" t="s">
-        <v>536</v>
+        <v>560</v>
+      </c>
+      <c r="B542" s="16" t="s">
+        <v>538</v>
       </c>
       <c r="C542" s="7" t="s">
         <v>7</v>
@@ -9586,10 +9588,10 @@
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="5" t="n">
-        <v>557</v>
-      </c>
-      <c r="B543" s="19" t="s">
-        <v>537</v>
+        <v>561</v>
+      </c>
+      <c r="B543" s="16" t="s">
+        <v>539</v>
       </c>
       <c r="C543" s="7" t="s">
         <v>7</v>
@@ -9599,10 +9601,10 @@
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="5" t="n">
-        <v>558</v>
-      </c>
-      <c r="B544" s="19" t="s">
-        <v>538</v>
+        <v>562</v>
+      </c>
+      <c r="B544" s="16" t="s">
+        <v>540</v>
       </c>
       <c r="C544" s="7" t="s">
         <v>7</v>
@@ -9612,10 +9614,10 @@
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="5" t="n">
-        <v>559</v>
-      </c>
-      <c r="B545" s="19" t="s">
-        <v>539</v>
+        <v>563</v>
+      </c>
+      <c r="B545" s="16" t="s">
+        <v>541</v>
       </c>
       <c r="C545" s="7" t="s">
         <v>7</v>
@@ -9625,10 +9627,10 @@
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="5" t="n">
-        <v>560</v>
-      </c>
-      <c r="B546" s="19" t="s">
-        <v>540</v>
+        <v>564</v>
+      </c>
+      <c r="B546" s="16" t="s">
+        <v>542</v>
       </c>
       <c r="C546" s="7" t="s">
         <v>7</v>
@@ -9638,10 +9640,10 @@
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="5" t="n">
-        <v>561</v>
-      </c>
-      <c r="B547" s="19" t="s">
-        <v>541</v>
+        <v>565</v>
+      </c>
+      <c r="B547" s="16" t="s">
+        <v>543</v>
       </c>
       <c r="C547" s="7" t="s">
         <v>7</v>
@@ -9651,10 +9653,10 @@
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="5" t="n">
-        <v>562</v>
-      </c>
-      <c r="B548" s="19" t="s">
-        <v>542</v>
+        <v>566</v>
+      </c>
+      <c r="B548" s="16" t="s">
+        <v>544</v>
       </c>
       <c r="C548" s="7" t="s">
         <v>7</v>
@@ -9664,10 +9666,10 @@
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="5" t="n">
-        <v>563</v>
-      </c>
-      <c r="B549" s="19" t="s">
-        <v>543</v>
+        <v>567</v>
+      </c>
+      <c r="B549" s="16" t="s">
+        <v>545</v>
       </c>
       <c r="C549" s="7" t="s">
         <v>7</v>
@@ -9677,10 +9679,10 @@
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="5" t="n">
-        <v>564</v>
-      </c>
-      <c r="B550" s="19" t="s">
-        <v>544</v>
+        <v>568</v>
+      </c>
+      <c r="B550" s="16" t="s">
+        <v>546</v>
       </c>
       <c r="C550" s="7" t="s">
         <v>7</v>
@@ -9690,10 +9692,10 @@
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="5" t="n">
-        <v>565</v>
-      </c>
-      <c r="B551" s="19" t="s">
-        <v>545</v>
+        <v>569</v>
+      </c>
+      <c r="B551" s="16" t="s">
+        <v>547</v>
       </c>
       <c r="C551" s="7" t="s">
         <v>7</v>
@@ -9703,107 +9705,40 @@
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="5" t="n">
-        <v>566</v>
-      </c>
-      <c r="B552" s="19" t="s">
-        <v>546</v>
+        <v>570</v>
+      </c>
+      <c r="B552" s="16" t="s">
+        <v>548</v>
       </c>
       <c r="C552" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D552" s="5"/>
       <c r="E552" s="9"/>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="5" t="n">
-        <v>567</v>
-      </c>
-      <c r="B553" s="19" t="s">
-        <v>547</v>
+        <v>571</v>
+      </c>
+      <c r="B553" s="16" t="s">
+        <v>549</v>
       </c>
       <c r="C553" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D553" s="5"/>
       <c r="E553" s="9"/>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="5" t="n">
-        <v>568</v>
-      </c>
-      <c r="B554" s="19" t="s">
-        <v>548</v>
+        <v>572</v>
+      </c>
+      <c r="B554" s="16" t="s">
+        <v>550</v>
       </c>
       <c r="C554" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D554" s="5"/>
       <c r="E554" s="9"/>
     </row>
-    <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="5" t="n">
-        <v>569</v>
-      </c>
-      <c r="B555" s="19" t="s">
-        <v>549</v>
-      </c>
-      <c r="C555" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D555" s="5"/>
-      <c r="E555" s="9"/>
-    </row>
-    <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="5" t="n">
-        <v>570</v>
-      </c>
-      <c r="B556" s="19" t="s">
-        <v>550</v>
-      </c>
-      <c r="C556" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D556" s="5"/>
-      <c r="E556" s="9"/>
-    </row>
-    <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="5" t="n">
-        <v>571</v>
-      </c>
-      <c r="B557" s="19" t="s">
-        <v>551</v>
-      </c>
-      <c r="C557" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D557" s="5"/>
-      <c r="E557" s="9"/>
-    </row>
-    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="5" t="n">
-        <v>572</v>
-      </c>
-      <c r="B558" s="19" t="s">
-        <v>552</v>
-      </c>
-      <c r="C558" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E558" s="9"/>
-    </row>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/data/BinanceAccount.xlsx
+++ b/data/BinanceAccount.xlsx
@@ -26,12 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="841">
-  <si>
-    <t xml:space="preserve">STT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="887">
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acc Binance/CoinMarket</t>
   </si>
   <si>
     <t xml:space="preserve">Pass</t>
@@ -43,7 +43,10 @@
     <t xml:space="preserve">KAVA MEMO</t>
   </si>
   <si>
-    <t xml:space="preserve">IsCreated</t>
+    <t xml:space="preserve">Binance Created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coincap Created</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -112,84 +115,234 @@
     <t xml:space="preserve">7</t>
   </si>
   <si>
+    <t xml:space="preserve">cris1600334946159@grr.la</t>
+  </si>
+  <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
+    <t xml:space="preserve">cris1600342927006@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101030841</t>
+  </si>
+  <si>
     <t xml:space="preserve">9</t>
   </si>
   <si>
+    <t xml:space="preserve">cris1600343000237@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101029844</t>
+  </si>
+  <si>
     <t xml:space="preserve">10</t>
   </si>
   <si>
+    <t xml:space="preserve">cris1600343065665@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101027114</t>
+  </si>
+  <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
+    <t xml:space="preserve">qlfjqxh1600344321953@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101013860</t>
+  </si>
+  <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
+    <t xml:space="preserve">ofcss1600344427388@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101049693</t>
+  </si>
+  <si>
     <t xml:space="preserve">13</t>
   </si>
   <si>
+    <t xml:space="preserve">xjkcr1600344482040@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101045238</t>
+  </si>
+  <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
+    <t xml:space="preserve">ygavq1600344556705@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101052172</t>
+  </si>
+  <si>
     <t xml:space="preserve">15</t>
   </si>
   <si>
+    <t xml:space="preserve">khvgy1600344614280@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101038172</t>
+  </si>
+  <si>
     <t xml:space="preserve">16</t>
   </si>
   <si>
+    <t xml:space="preserve">cppvk1600347354052@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101078250</t>
+  </si>
+  <si>
     <t xml:space="preserve">17</t>
   </si>
   <si>
+    <t xml:space="preserve">yeale1600347479806@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101081832</t>
+  </si>
+  <si>
     <t xml:space="preserve">18</t>
   </si>
   <si>
+    <t xml:space="preserve">vfzyn1600347553953@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101080573</t>
+  </si>
+  <si>
     <t xml:space="preserve">19</t>
   </si>
   <si>
+    <t xml:space="preserve">oreod1600347609285@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101077927</t>
+  </si>
+  <si>
     <t xml:space="preserve">20</t>
   </si>
   <si>
+    <t xml:space="preserve">xbrrx1600347703793@grr.la</t>
+  </si>
+  <si>
     <t xml:space="preserve">21</t>
   </si>
   <si>
+    <t xml:space="preserve">delgh1600347856400@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101046484</t>
+  </si>
+  <si>
     <t xml:space="preserve">22</t>
   </si>
   <si>
+    <t xml:space="preserve">uodmo1600347979716@grr.la</t>
+  </si>
+  <si>
     <t xml:space="preserve">23</t>
   </si>
   <si>
+    <t xml:space="preserve">dhrkv1600347985912@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101062371</t>
+  </si>
+  <si>
     <t xml:space="preserve">24</t>
   </si>
   <si>
+    <t xml:space="preserve">wnnzo1600348255431@grr.la</t>
+  </si>
+  <si>
     <t xml:space="preserve">25</t>
   </si>
   <si>
+    <t xml:space="preserve">mkluw1600348274023@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101083052</t>
+  </si>
+  <si>
     <t xml:space="preserve">26</t>
   </si>
   <si>
+    <t xml:space="preserve">uzyqv1600348336330@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101086477</t>
+  </si>
+  <si>
     <t xml:space="preserve">27</t>
   </si>
   <si>
+    <t xml:space="preserve">oggic1600348449361@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101078019</t>
+  </si>
+  <si>
     <t xml:space="preserve">28</t>
   </si>
   <si>
+    <t xml:space="preserve">abqqu1600348529787@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101082999</t>
+  </si>
+  <si>
     <t xml:space="preserve">29</t>
   </si>
   <si>
+    <t xml:space="preserve">mkabo1600348585469@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101079973</t>
+  </si>
+  <si>
     <t xml:space="preserve">30</t>
   </si>
   <si>
+    <t xml:space="preserve">hzmla1600348641219@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101085775</t>
+  </si>
+  <si>
     <t xml:space="preserve">31</t>
   </si>
   <si>
+    <t xml:space="preserve">qtfyn1600348695610@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101079293</t>
+  </si>
+  <si>
     <t xml:space="preserve">32</t>
   </si>
   <si>
+    <t xml:space="preserve">cris1600356826736@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101173173</t>
+  </si>
+  <si>
     <t xml:space="preserve">33</t>
   </si>
   <si>
+    <t xml:space="preserve">zebir1600357107868@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101160534</t>
+  </si>
+  <si>
     <t xml:space="preserve">34</t>
   </si>
   <si>
@@ -2534,21 +2687,6 @@
   </si>
   <si>
     <t xml:space="preserve">815</t>
-  </si>
-  <si>
-    <t>cris1600334946159@grr.la</t>
-  </si>
-  <si>
-    <t>$Hoangxuan68@$</t>
-  </si>
-  <si>
-    <t>kava1ys70jvnajkv88529ys6urjcyle3k2j9r24g6a7</t>
-  </si>
-  <si>
-    <t>100909078</t>
-  </si>
-  <si>
-    <t>True</t>
   </si>
 </sst>
 </file>
@@ -2559,7 +2697,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2583,8 +2721,17 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
       <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -2596,12 +2743,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCE4E5"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2664,11 +2817,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2680,7 +2833,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2697,6 +2850,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFBCE4E5"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2707,20 +2920,21 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="4.55" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="24.47" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="43.11" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="10.83" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="8.09" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="1022" customWidth="true" hidden="false" style="1" width="8.53" collapsed="true" outlineLevel="0"/>
-    <col min="1023" max="1025" customWidth="true" hidden="false" style="2" width="8.53" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="43.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="8" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="2" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2742,443 +2956,706 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
-        <v>836</v>
-      </c>
-      <c r="C8" t="s">
-        <v>837</v>
-      </c>
-      <c r="D8" t="s">
-        <v>838</v>
-      </c>
-      <c r="E8" t="s">
-        <v>839</v>
-      </c>
-      <c r="F8" t="s">
-        <v>840</v>
+      <c r="F8" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+        <v>51</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+        <v>71</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+        <v>76</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+        <v>78</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+        <v>84</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -3189,7 +3666,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -3200,7 +3677,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -3211,7 +3688,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -3222,7 +3699,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -3233,7 +3710,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -3244,7 +3721,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -3255,7 +3732,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -3266,7 +3743,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -3277,7 +3754,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -3288,7 +3765,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -3299,7 +3776,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3310,7 +3787,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -3321,7 +3798,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3332,7 +3809,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -3343,7 +3820,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -3354,7 +3831,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -3365,7 +3842,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -3376,7 +3853,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -3387,7 +3864,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -3398,7 +3875,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -3409,7 +3886,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -3420,7 +3897,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -3431,7 +3908,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -3442,7 +3919,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -3453,7 +3930,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -3464,7 +3941,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -3475,7 +3952,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -3486,7 +3963,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -3497,7 +3974,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -3508,7 +3985,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -3519,7 +3996,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -3530,7 +4007,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -3541,7 +4018,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -3552,7 +4029,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -3563,7 +4040,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -3574,7 +4051,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -3585,7 +4062,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -3596,7 +4073,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -3607,7 +4084,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -3618,7 +4095,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -3629,7 +4106,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -3640,7 +4117,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -3651,7 +4128,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -3662,7 +4139,7 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -3673,7 +4150,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -3684,7 +4161,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -3695,7 +4172,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -3706,7 +4183,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -3717,7 +4194,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -3728,7 +4205,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -3739,7 +4216,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -3750,7 +4227,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -3761,7 +4238,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -3772,7 +4249,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -3783,7 +4260,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -3794,7 +4271,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -3805,7 +4282,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -3816,7 +4293,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -3827,7 +4304,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -3838,7 +4315,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -3849,7 +4326,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -3860,7 +4337,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -3871,7 +4348,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -3882,7 +4359,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -3893,7 +4370,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -3904,7 +4381,7 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -3915,7 +4392,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -3926,7 +4403,7 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -3937,7 +4414,7 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -3948,7 +4425,7 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -3959,7 +4436,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -3970,7 +4447,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -3981,7 +4458,7 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -3992,7 +4469,7 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -4003,7 +4480,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -4014,7 +4491,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -4025,7 +4502,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -4036,7 +4513,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -4047,7 +4524,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -4058,7 +4535,7 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -4069,7 +4546,7 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -4080,7 +4557,7 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -4091,7 +4568,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -4102,7 +4579,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -4113,7 +4590,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -4124,7 +4601,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -4135,7 +4612,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -4146,7 +4623,7 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -4157,7 +4634,7 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -4168,7 +4645,7 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -4179,7 +4656,7 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -4190,7 +4667,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -4201,7 +4678,7 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -4212,7 +4689,7 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -4223,7 +4700,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -4234,7 +4711,7 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -4245,7 +4722,7 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -4256,7 +4733,7 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -4267,7 +4744,7 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -4278,7 +4755,7 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -4289,7 +4766,7 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -4300,7 +4777,7 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -4311,7 +4788,7 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -4322,7 +4799,7 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -4333,7 +4810,7 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -4344,7 +4821,7 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -4355,7 +4832,7 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -4366,7 +4843,7 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -4377,7 +4854,7 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -4388,7 +4865,7 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -4399,7 +4876,7 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -4410,7 +4887,7 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -4421,7 +4898,7 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -4432,7 +4909,7 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -4443,7 +4920,7 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -4454,7 +4931,7 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -4465,7 +4942,7 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -4476,7 +4953,7 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -4487,7 +4964,7 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -4498,7 +4975,7 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -4509,7 +4986,7 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -4520,7 +4997,7 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -4531,7 +5008,7 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="5" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -4542,7 +5019,7 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -4553,7 +5030,7 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -4564,7 +5041,7 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -4575,7 +5052,7 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -4586,7 +5063,7 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -4597,7 +5074,7 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -4608,7 +5085,7 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -4619,7 +5096,7 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -4630,7 +5107,7 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -4641,7 +5118,7 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -4652,7 +5129,7 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -4663,7 +5140,7 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -4674,7 +5151,7 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -4685,7 +5162,7 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -4696,7 +5173,7 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -4707,7 +5184,7 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -4718,7 +5195,7 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -4729,7 +5206,7 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -4740,7 +5217,7 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -4751,7 +5228,7 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -4762,7 +5239,7 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -4773,7 +5250,7 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -4784,7 +5261,7 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -4795,7 +5272,7 @@
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -4806,7 +5283,7 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -4817,7 +5294,7 @@
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -4828,7 +5305,7 @@
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -4839,7 +5316,7 @@
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -4850,7 +5327,7 @@
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -4861,7 +5338,7 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -4872,7 +5349,7 @@
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -4883,7 +5360,7 @@
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -4894,7 +5371,7 @@
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -4905,7 +5382,7 @@
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -4916,7 +5393,7 @@
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -4927,7 +5404,7 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -4938,7 +5415,7 @@
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -4949,7 +5426,7 @@
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -4960,7 +5437,7 @@
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -4971,7 +5448,7 @@
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -4982,7 +5459,7 @@
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -4993,7 +5470,7 @@
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -5004,7 +5481,7 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="s">
-        <v>220</v>
+        <v>271</v>
       </c>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -5015,7 +5492,7 @@
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="5" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
@@ -5026,7 +5503,7 @@
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
@@ -5037,7 +5514,7 @@
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
@@ -5048,7 +5525,7 @@
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="5" t="s">
-        <v>224</v>
+        <v>275</v>
       </c>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
@@ -5059,7 +5536,7 @@
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="5" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
@@ -5070,7 +5547,7 @@
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="5" t="s">
-        <v>226</v>
+        <v>277</v>
       </c>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
@@ -5081,7 +5558,7 @@
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="5" t="s">
-        <v>227</v>
+        <v>278</v>
       </c>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
@@ -5092,7 +5569,7 @@
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="5" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
@@ -5103,7 +5580,7 @@
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="5" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
@@ -5114,7 +5591,7 @@
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
@@ -5125,7 +5602,7 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="5" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
@@ -5136,7 +5613,7 @@
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
@@ -5147,7 +5624,7 @@
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="5" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
@@ -5158,7 +5635,7 @@
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="5" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
@@ -5169,7 +5646,7 @@
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="s">
-        <v>235</v>
+        <v>286</v>
       </c>
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
@@ -5180,7 +5657,7 @@
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="s">
-        <v>236</v>
+        <v>287</v>
       </c>
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
@@ -5191,7 +5668,7 @@
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
@@ -5202,7 +5679,7 @@
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="5" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
@@ -5213,7 +5690,7 @@
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
@@ -5224,7 +5701,7 @@
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
@@ -5235,7 +5712,7 @@
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="5" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="B222" s="8"/>
       <c r="C222" s="8"/>
@@ -5246,7 +5723,7 @@
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="5" t="s">
-        <v>242</v>
+        <v>293</v>
       </c>
       <c r="B223" s="8"/>
       <c r="C223" s="8"/>
@@ -5257,7 +5734,7 @@
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="5" t="s">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="B224" s="8"/>
       <c r="C224" s="8"/>
@@ -5268,7 +5745,7 @@
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="5" t="s">
-        <v>244</v>
+        <v>295</v>
       </c>
       <c r="B225" s="8"/>
       <c r="C225" s="8"/>
@@ -5279,7 +5756,7 @@
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="5" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="B226" s="8"/>
       <c r="C226" s="8"/>
@@ -5290,7 +5767,7 @@
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="5" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
@@ -5301,7 +5778,7 @@
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="5" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
@@ -5312,7 +5789,7 @@
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="5" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
       <c r="B229" s="8"/>
       <c r="C229" s="8"/>
@@ -5323,7 +5800,7 @@
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5" t="s">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="B230" s="8"/>
       <c r="C230" s="8"/>
@@ -5334,7 +5811,7 @@
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="5" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="B231" s="8"/>
       <c r="C231" s="8"/>
@@ -5345,7 +5822,7 @@
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="5" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="B232" s="8"/>
       <c r="C232" s="8"/>
@@ -5356,7 +5833,7 @@
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="5" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="B233" s="8"/>
       <c r="C233" s="8"/>
@@ -5367,7 +5844,7 @@
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="5" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="B234" s="8"/>
       <c r="C234" s="8"/>
@@ -5378,7 +5855,7 @@
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="5" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="B235" s="8"/>
       <c r="C235" s="8"/>
@@ -5389,7 +5866,7 @@
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="5" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="B236" s="8"/>
       <c r="C236" s="8"/>
@@ -5400,7 +5877,7 @@
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="5" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="B237" s="8"/>
       <c r="C237" s="8"/>
@@ -5411,7 +5888,7 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="5" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="B238" s="8"/>
       <c r="C238" s="8"/>
@@ -5422,7 +5899,7 @@
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="5" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="B239" s="8"/>
       <c r="C239" s="8"/>
@@ -5433,7 +5910,7 @@
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="5" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="B240" s="8"/>
       <c r="C240" s="8"/>
@@ -5444,7 +5921,7 @@
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="5" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="B241" s="8"/>
       <c r="C241" s="8"/>
@@ -5455,7 +5932,7 @@
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="5" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="B242" s="8"/>
       <c r="C242" s="8"/>
@@ -5466,7 +5943,7 @@
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="5" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="B243" s="8"/>
       <c r="C243" s="8"/>
@@ -5477,7 +5954,7 @@
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="5" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="B244" s="8"/>
       <c r="C244" s="8"/>
@@ -5488,7 +5965,7 @@
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="5" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="B245" s="8"/>
       <c r="C245" s="8"/>
@@ -5499,7 +5976,7 @@
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="5" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="B246" s="8"/>
       <c r="C246" s="8"/>
@@ -5510,7 +5987,7 @@
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="5" t="s">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="B247" s="8"/>
       <c r="C247" s="8"/>
@@ -5521,7 +5998,7 @@
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="5" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="B248" s="8"/>
       <c r="C248" s="8"/>
@@ -5532,7 +6009,7 @@
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="5" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="B249" s="8"/>
       <c r="C249" s="8"/>
@@ -5543,7 +6020,7 @@
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="5" t="s">
-        <v>269</v>
+        <v>320</v>
       </c>
       <c r="B250" s="8"/>
       <c r="C250" s="8"/>
@@ -5554,7 +6031,7 @@
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="5" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="B251" s="8"/>
       <c r="C251" s="8"/>
@@ -5565,7 +6042,7 @@
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="5" t="s">
-        <v>271</v>
+        <v>322</v>
       </c>
       <c r="B252" s="8"/>
       <c r="C252" s="8"/>
@@ -5576,7 +6053,7 @@
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="5" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
       <c r="B253" s="8"/>
       <c r="C253" s="8"/>
@@ -5587,7 +6064,7 @@
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="5" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
       <c r="B254" s="8"/>
       <c r="C254" s="8"/>
@@ -5598,7 +6075,7 @@
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="5" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="B255" s="8"/>
       <c r="C255" s="8"/>
@@ -5609,7 +6086,7 @@
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="5" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="B256" s="8"/>
       <c r="C256" s="8"/>
@@ -5620,7 +6097,7 @@
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="5" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
       <c r="B257" s="8"/>
       <c r="C257" s="8"/>
@@ -5631,7 +6108,7 @@
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="5" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="B258" s="8"/>
       <c r="C258" s="8"/>
@@ -5642,7 +6119,7 @@
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="5" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
       <c r="B259" s="8"/>
       <c r="C259" s="8"/>
@@ -5653,7 +6130,7 @@
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="5" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
       <c r="B260" s="8"/>
       <c r="C260" s="8"/>
@@ -5664,7 +6141,7 @@
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="5" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
       <c r="B261" s="8"/>
       <c r="C261" s="8"/>
@@ -5675,7 +6152,7 @@
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="5" t="s">
-        <v>281</v>
+        <v>332</v>
       </c>
       <c r="B262" s="8"/>
       <c r="C262" s="8"/>
@@ -5686,7 +6163,7 @@
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="5" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="B263" s="8"/>
       <c r="C263" s="8"/>
@@ -5697,7 +6174,7 @@
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="5" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="B264" s="8"/>
       <c r="C264" s="8"/>
@@ -5708,7 +6185,7 @@
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="5" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
       <c r="B265" s="8"/>
       <c r="C265" s="8"/>
@@ -5719,7 +6196,7 @@
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="5" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="B266" s="8"/>
       <c r="C266" s="8"/>
@@ -5730,7 +6207,7 @@
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="5" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="B267" s="8"/>
       <c r="C267" s="8"/>
@@ -5741,7 +6218,7 @@
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="5" t="s">
-        <v>287</v>
+        <v>338</v>
       </c>
       <c r="B268" s="8"/>
       <c r="C268" s="8"/>
@@ -5752,7 +6229,7 @@
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="5" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
       <c r="B269" s="8"/>
       <c r="C269" s="8"/>
@@ -5763,7 +6240,7 @@
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="5" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="B270" s="8"/>
       <c r="C270" s="8"/>
@@ -5774,7 +6251,7 @@
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="5" t="s">
-        <v>290</v>
+        <v>341</v>
       </c>
       <c r="B271" s="8"/>
       <c r="C271" s="8"/>
@@ -5785,7 +6262,7 @@
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="5" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
       <c r="B272" s="8"/>
       <c r="C272" s="8"/>
@@ -5796,7 +6273,7 @@
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="5" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="B273" s="8"/>
       <c r="C273" s="8"/>
@@ -5807,7 +6284,7 @@
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="5" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="B274" s="8"/>
       <c r="C274" s="8"/>
@@ -5818,7 +6295,7 @@
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="5" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
       <c r="B275" s="8"/>
       <c r="C275" s="8"/>
@@ -5829,7 +6306,7 @@
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="5" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="B276" s="8"/>
       <c r="C276" s="8"/>
@@ -5840,7 +6317,7 @@
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="5" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="B277" s="8"/>
       <c r="C277" s="8"/>
@@ -5851,7 +6328,7 @@
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="5" t="s">
-        <v>297</v>
+        <v>348</v>
       </c>
       <c r="B278" s="8"/>
       <c r="C278" s="8"/>
@@ -5862,7 +6339,7 @@
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="5" t="s">
-        <v>298</v>
+        <v>349</v>
       </c>
       <c r="B279" s="8"/>
       <c r="C279" s="8"/>
@@ -5873,7 +6350,7 @@
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="5" t="s">
-        <v>299</v>
+        <v>350</v>
       </c>
       <c r="B280" s="8"/>
       <c r="C280" s="8"/>
@@ -5884,7 +6361,7 @@
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="5" t="s">
-        <v>300</v>
+        <v>351</v>
       </c>
       <c r="B281" s="8"/>
       <c r="C281" s="8"/>
@@ -5895,7 +6372,7 @@
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="5" t="s">
-        <v>301</v>
+        <v>352</v>
       </c>
       <c r="B282" s="8"/>
       <c r="C282" s="8"/>
@@ -5906,7 +6383,7 @@
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="5" t="s">
-        <v>302</v>
+        <v>353</v>
       </c>
       <c r="B283" s="8"/>
       <c r="C283" s="8"/>
@@ -5917,7 +6394,7 @@
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="5" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="B284" s="8"/>
       <c r="C284" s="8"/>
@@ -5928,7 +6405,7 @@
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="5" t="s">
-        <v>304</v>
+        <v>355</v>
       </c>
       <c r="B285" s="8"/>
       <c r="C285" s="8"/>
@@ -5939,7 +6416,7 @@
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="5" t="s">
-        <v>305</v>
+        <v>356</v>
       </c>
       <c r="B286" s="8"/>
       <c r="C286" s="8"/>
@@ -5950,7 +6427,7 @@
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="5" t="s">
-        <v>306</v>
+        <v>357</v>
       </c>
       <c r="B287" s="8"/>
       <c r="C287" s="8"/>
@@ -5961,7 +6438,7 @@
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="5" t="s">
-        <v>307</v>
+        <v>358</v>
       </c>
       <c r="B288" s="8"/>
       <c r="C288" s="8"/>
@@ -5972,7 +6449,7 @@
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="5" t="s">
-        <v>308</v>
+        <v>359</v>
       </c>
       <c r="B289" s="8"/>
       <c r="C289" s="8"/>
@@ -5983,7 +6460,7 @@
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="5" t="s">
-        <v>309</v>
+        <v>360</v>
       </c>
       <c r="B290" s="8"/>
       <c r="C290" s="8"/>
@@ -5994,7 +6471,7 @@
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="5" t="s">
-        <v>310</v>
+        <v>361</v>
       </c>
       <c r="B291" s="8"/>
       <c r="C291" s="8"/>
@@ -6005,7 +6482,7 @@
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="5" t="s">
-        <v>311</v>
+        <v>362</v>
       </c>
       <c r="B292" s="8"/>
       <c r="C292" s="8"/>
@@ -6016,7 +6493,7 @@
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="5" t="s">
-        <v>312</v>
+        <v>363</v>
       </c>
       <c r="B293" s="8"/>
       <c r="C293" s="8"/>
@@ -6027,7 +6504,7 @@
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="5" t="s">
-        <v>313</v>
+        <v>364</v>
       </c>
       <c r="B294" s="8"/>
       <c r="C294" s="8"/>
@@ -6038,7 +6515,7 @@
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="5" t="s">
-        <v>314</v>
+        <v>365</v>
       </c>
       <c r="B295" s="8"/>
       <c r="C295" s="8"/>
@@ -6049,7 +6526,7 @@
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="5" t="s">
-        <v>315</v>
+        <v>366</v>
       </c>
       <c r="B296" s="8"/>
       <c r="C296" s="8"/>
@@ -6060,7 +6537,7 @@
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="5" t="s">
-        <v>316</v>
+        <v>367</v>
       </c>
       <c r="B297" s="8"/>
       <c r="C297" s="8"/>
@@ -6071,7 +6548,7 @@
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="5" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
       <c r="B298" s="8"/>
       <c r="C298" s="8"/>
@@ -6082,7 +6559,7 @@
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="5" t="s">
-        <v>318</v>
+        <v>369</v>
       </c>
       <c r="B299" s="8"/>
       <c r="C299" s="8"/>
@@ -6093,7 +6570,7 @@
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="5" t="s">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="B300" s="8"/>
       <c r="C300" s="8"/>
@@ -6104,7 +6581,7 @@
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="5" t="s">
-        <v>320</v>
+        <v>371</v>
       </c>
       <c r="B301" s="8"/>
       <c r="C301" s="8"/>
@@ -6115,7 +6592,7 @@
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="5" t="s">
-        <v>321</v>
+        <v>372</v>
       </c>
       <c r="B302" s="8"/>
       <c r="C302" s="8"/>
@@ -6126,7 +6603,7 @@
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="5" t="s">
-        <v>322</v>
+        <v>373</v>
       </c>
       <c r="B303" s="8"/>
       <c r="C303" s="8"/>
@@ -6137,7 +6614,7 @@
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="5" t="s">
-        <v>323</v>
+        <v>374</v>
       </c>
       <c r="B304" s="8"/>
       <c r="C304" s="8"/>
@@ -6148,7 +6625,7 @@
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="5" t="s">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="B305" s="8"/>
       <c r="C305" s="8"/>
@@ -6159,7 +6636,7 @@
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="5" t="s">
-        <v>325</v>
+        <v>376</v>
       </c>
       <c r="B306" s="8"/>
       <c r="C306" s="8"/>
@@ -6170,7 +6647,7 @@
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="5" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="B307" s="8"/>
       <c r="C307" s="8"/>
@@ -6181,7 +6658,7 @@
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="5" t="s">
-        <v>327</v>
+        <v>378</v>
       </c>
       <c r="B308" s="8"/>
       <c r="C308" s="8"/>
@@ -6192,7 +6669,7 @@
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="5" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="B309" s="8"/>
       <c r="C309" s="8"/>
@@ -6203,7 +6680,7 @@
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="5" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="B310" s="8"/>
       <c r="C310" s="8"/>
@@ -6214,7 +6691,7 @@
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="5" t="s">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="B311" s="8"/>
       <c r="C311" s="8"/>
@@ -6225,7 +6702,7 @@
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="5" t="s">
-        <v>331</v>
+        <v>382</v>
       </c>
       <c r="B312" s="8"/>
       <c r="C312" s="8"/>
@@ -6236,7 +6713,7 @@
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="5" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="B313" s="8"/>
       <c r="C313" s="8"/>
@@ -6247,7 +6724,7 @@
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="5" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="B314" s="8"/>
       <c r="C314" s="8"/>
@@ -6258,7 +6735,7 @@
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="5" t="s">
-        <v>334</v>
+        <v>385</v>
       </c>
       <c r="B315" s="8"/>
       <c r="C315" s="8"/>
@@ -6269,7 +6746,7 @@
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="5" t="s">
-        <v>335</v>
+        <v>386</v>
       </c>
       <c r="B316" s="8"/>
       <c r="C316" s="8"/>
@@ -6280,7 +6757,7 @@
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="5" t="s">
-        <v>336</v>
+        <v>387</v>
       </c>
       <c r="B317" s="8"/>
       <c r="C317" s="8"/>
@@ -6291,7 +6768,7 @@
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="5" t="s">
-        <v>337</v>
+        <v>388</v>
       </c>
       <c r="B318" s="8"/>
       <c r="C318" s="8"/>
@@ -6302,7 +6779,7 @@
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="5" t="s">
-        <v>338</v>
+        <v>389</v>
       </c>
       <c r="B319" s="8"/>
       <c r="C319" s="8"/>
@@ -6313,7 +6790,7 @@
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="5" t="s">
-        <v>339</v>
+        <v>390</v>
       </c>
       <c r="B320" s="8"/>
       <c r="C320" s="8"/>
@@ -6324,7 +6801,7 @@
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="5" t="s">
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="B321" s="8"/>
       <c r="C321" s="8"/>
@@ -6335,7 +6812,7 @@
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="5" t="s">
-        <v>341</v>
+        <v>392</v>
       </c>
       <c r="B322" s="8"/>
       <c r="C322" s="8"/>
@@ -6346,7 +6823,7 @@
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="5" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
       <c r="B323" s="8"/>
       <c r="C323" s="8"/>
@@ -6357,7 +6834,7 @@
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="5" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
       <c r="B324" s="8"/>
       <c r="C324" s="8"/>
@@ -6368,7 +6845,7 @@
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="5" t="s">
-        <v>344</v>
+        <v>395</v>
       </c>
       <c r="B325" s="8"/>
       <c r="C325" s="8"/>
@@ -6379,7 +6856,7 @@
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="5" t="s">
-        <v>345</v>
+        <v>396</v>
       </c>
       <c r="B326" s="8"/>
       <c r="C326" s="8"/>
@@ -6390,7 +6867,7 @@
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="5" t="s">
-        <v>346</v>
+        <v>397</v>
       </c>
       <c r="B327" s="8"/>
       <c r="C327" s="8"/>
@@ -6401,7 +6878,7 @@
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="5" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="B328" s="8"/>
       <c r="C328" s="8"/>
@@ -6412,7 +6889,7 @@
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="5" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="B329" s="8"/>
       <c r="C329" s="8"/>
@@ -6423,7 +6900,7 @@
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="5" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="B330" s="8"/>
       <c r="C330" s="8"/>
@@ -6434,7 +6911,7 @@
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="5" t="s">
-        <v>350</v>
+        <v>401</v>
       </c>
       <c r="B331" s="8"/>
       <c r="C331" s="8"/>
@@ -6445,7 +6922,7 @@
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="5" t="s">
-        <v>351</v>
+        <v>402</v>
       </c>
       <c r="B332" s="8"/>
       <c r="C332" s="8"/>
@@ -6456,7 +6933,7 @@
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="5" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
       <c r="B333" s="8"/>
       <c r="C333" s="8"/>
@@ -6467,7 +6944,7 @@
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="5" t="s">
-        <v>353</v>
+        <v>404</v>
       </c>
       <c r="B334" s="8"/>
       <c r="C334" s="8"/>
@@ -6478,7 +6955,7 @@
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="5" t="s">
-        <v>354</v>
+        <v>405</v>
       </c>
       <c r="B335" s="8"/>
       <c r="C335" s="8"/>
@@ -6489,7 +6966,7 @@
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="5" t="s">
-        <v>355</v>
+        <v>406</v>
       </c>
       <c r="B336" s="8"/>
       <c r="C336" s="8"/>
@@ -6500,7 +6977,7 @@
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="5" t="s">
-        <v>356</v>
+        <v>407</v>
       </c>
       <c r="B337" s="8"/>
       <c r="C337" s="8"/>
@@ -6511,7 +6988,7 @@
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="5" t="s">
-        <v>357</v>
+        <v>408</v>
       </c>
       <c r="B338" s="8"/>
       <c r="C338" s="8"/>
@@ -6522,7 +6999,7 @@
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="5" t="s">
-        <v>358</v>
+        <v>409</v>
       </c>
       <c r="B339" s="8"/>
       <c r="C339" s="8"/>
@@ -6533,7 +7010,7 @@
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="5" t="s">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="B340" s="8"/>
       <c r="C340" s="8"/>
@@ -6544,7 +7021,7 @@
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="5" t="s">
-        <v>360</v>
+        <v>411</v>
       </c>
       <c r="B341" s="8"/>
       <c r="C341" s="8"/>
@@ -6555,7 +7032,7 @@
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="5" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="B342" s="8"/>
       <c r="C342" s="8"/>
@@ -6566,7 +7043,7 @@
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="5" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
       <c r="B343" s="8"/>
       <c r="C343" s="8"/>
@@ -6577,7 +7054,7 @@
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="5" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="B344" s="8"/>
       <c r="C344" s="8"/>
@@ -6588,7 +7065,7 @@
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="5" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
       <c r="B345" s="8"/>
       <c r="C345" s="8"/>
@@ -6599,7 +7076,7 @@
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="5" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="B346" s="8"/>
       <c r="C346" s="8"/>
@@ -6610,7 +7087,7 @@
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="5" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
       <c r="B347" s="8"/>
       <c r="C347" s="8"/>
@@ -6621,7 +7098,7 @@
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="5" t="s">
-        <v>367</v>
+        <v>418</v>
       </c>
       <c r="B348" s="8"/>
       <c r="C348" s="8"/>
@@ -6632,7 +7109,7 @@
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="5" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="B349" s="8"/>
       <c r="C349" s="8"/>
@@ -6643,7 +7120,7 @@
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="5" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
       <c r="B350" s="8"/>
       <c r="C350" s="8"/>
@@ -6654,7 +7131,7 @@
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="5" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="B351" s="8"/>
       <c r="C351" s="8"/>
@@ -6665,7 +7142,7 @@
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="5" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="B352" s="8"/>
       <c r="C352" s="8"/>
@@ -6676,7 +7153,7 @@
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="5" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="B353" s="8"/>
       <c r="C353" s="8"/>
@@ -6687,7 +7164,7 @@
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="5" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="B354" s="8"/>
       <c r="C354" s="8"/>
@@ -6698,7 +7175,7 @@
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="5" t="s">
-        <v>374</v>
+        <v>425</v>
       </c>
       <c r="B355" s="8"/>
       <c r="C355" s="8"/>
@@ -6709,7 +7186,7 @@
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="5" t="s">
-        <v>375</v>
+        <v>426</v>
       </c>
       <c r="B356" s="8"/>
       <c r="C356" s="8"/>
@@ -6720,7 +7197,7 @@
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="5" t="s">
-        <v>376</v>
+        <v>427</v>
       </c>
       <c r="B357" s="8"/>
       <c r="C357" s="8"/>
@@ -6731,7 +7208,7 @@
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="5" t="s">
-        <v>377</v>
+        <v>428</v>
       </c>
       <c r="B358" s="8"/>
       <c r="C358" s="8"/>
@@ -6742,7 +7219,7 @@
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="5" t="s">
-        <v>378</v>
+        <v>429</v>
       </c>
       <c r="B359" s="8"/>
       <c r="C359" s="8"/>
@@ -6753,7 +7230,7 @@
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="5" t="s">
-        <v>379</v>
+        <v>430</v>
       </c>
       <c r="B360" s="8"/>
       <c r="C360" s="8"/>
@@ -6764,7 +7241,7 @@
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="5" t="s">
-        <v>380</v>
+        <v>431</v>
       </c>
       <c r="B361" s="8"/>
       <c r="C361" s="8"/>
@@ -6775,7 +7252,7 @@
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="5" t="s">
-        <v>381</v>
+        <v>432</v>
       </c>
       <c r="B362" s="8"/>
       <c r="C362" s="8"/>
@@ -6786,7 +7263,7 @@
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="5" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="B363" s="8"/>
       <c r="C363" s="8"/>
@@ -6797,7 +7274,7 @@
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="5" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="B364" s="8"/>
       <c r="C364" s="8"/>
@@ -6808,7 +7285,7 @@
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="5" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="B365" s="8"/>
       <c r="C365" s="8"/>
@@ -6819,7 +7296,7 @@
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="5" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="B366" s="8"/>
       <c r="C366" s="8"/>
@@ -6830,7 +7307,7 @@
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="5" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
       <c r="B367" s="8"/>
       <c r="C367" s="8"/>
@@ -6841,7 +7318,7 @@
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="5" t="s">
-        <v>387</v>
+        <v>438</v>
       </c>
       <c r="B368" s="8"/>
       <c r="C368" s="8"/>
@@ -6852,7 +7329,7 @@
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="5" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="B369" s="8"/>
       <c r="C369" s="8"/>
@@ -6863,7 +7340,7 @@
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="5" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
       <c r="B370" s="8"/>
       <c r="C370" s="8"/>
@@ -6874,7 +7351,7 @@
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="5" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="B371" s="8"/>
       <c r="C371" s="8"/>
@@ -6885,7 +7362,7 @@
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="5" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="B372" s="8"/>
       <c r="C372" s="8"/>
@@ -6896,7 +7373,7 @@
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="5" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="B373" s="8"/>
       <c r="C373" s="8"/>
@@ -6907,7 +7384,7 @@
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="5" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="B374" s="8"/>
       <c r="C374" s="8"/>
@@ -6918,7 +7395,7 @@
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="5" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="B375" s="8"/>
       <c r="C375" s="8"/>
@@ -6929,7 +7406,7 @@
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="5" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="B376" s="8"/>
       <c r="C376" s="8"/>
@@ -6940,7 +7417,7 @@
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="5" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="B377" s="8"/>
       <c r="C377" s="8"/>
@@ -6951,7 +7428,7 @@
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="5" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="B378" s="8"/>
       <c r="C378" s="8"/>
@@ -6962,7 +7439,7 @@
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="5" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="B379" s="8"/>
       <c r="C379" s="8"/>
@@ -6973,7 +7450,7 @@
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="5" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="B380" s="8"/>
       <c r="C380" s="8"/>
@@ -6984,7 +7461,7 @@
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="5" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="B381" s="8"/>
       <c r="C381" s="8"/>
@@ -6995,7 +7472,7 @@
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="5" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="B382" s="8"/>
       <c r="C382" s="8"/>
@@ -7006,7 +7483,7 @@
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="5" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="B383" s="8"/>
       <c r="C383" s="8"/>
@@ -7017,7 +7494,7 @@
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="5" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="B384" s="8"/>
       <c r="C384" s="8"/>
@@ -7028,7 +7505,7 @@
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="5" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="B385" s="8"/>
       <c r="C385" s="8"/>
@@ -7039,7 +7516,7 @@
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="5" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="B386" s="8"/>
       <c r="C386" s="8"/>
@@ -7050,7 +7527,7 @@
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="5" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="B387" s="8"/>
       <c r="C387" s="8"/>
@@ -7061,7 +7538,7 @@
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="5" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="B388" s="8"/>
       <c r="C388" s="8"/>
@@ -7072,7 +7549,7 @@
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="5" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="B389" s="8"/>
       <c r="C389" s="8"/>
@@ -7083,7 +7560,7 @@
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="5" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="B390" s="8"/>
       <c r="C390" s="8"/>
@@ -7094,7 +7571,7 @@
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="5" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="B391" s="8"/>
       <c r="C391" s="8"/>
@@ -7105,7 +7582,7 @@
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="5" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="B392" s="8"/>
       <c r="C392" s="8"/>
@@ -7116,7 +7593,7 @@
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="5" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="B393" s="8"/>
       <c r="C393" s="8"/>
@@ -7127,7 +7604,7 @@
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="5" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="B394" s="8"/>
       <c r="C394" s="8"/>
@@ -7138,7 +7615,7 @@
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="5" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="B395" s="8"/>
       <c r="C395" s="8"/>
@@ -7149,7 +7626,7 @@
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="5" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="B396" s="8"/>
       <c r="C396" s="8"/>
@@ -7160,7 +7637,7 @@
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="5" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="B397" s="8"/>
       <c r="C397" s="8"/>
@@ -7171,7 +7648,7 @@
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="5" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="B398" s="8"/>
       <c r="C398" s="8"/>
@@ -7182,7 +7659,7 @@
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="5" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="B399" s="8"/>
       <c r="C399" s="8"/>
@@ -7193,7 +7670,7 @@
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="5" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="B400" s="8"/>
       <c r="C400" s="8"/>
@@ -7204,7 +7681,7 @@
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="5" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="B401" s="8"/>
       <c r="C401" s="8"/>
@@ -7215,7 +7692,7 @@
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="5" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="B402" s="8"/>
       <c r="C402" s="8"/>
@@ -7226,7 +7703,7 @@
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="5" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="B403" s="8"/>
       <c r="C403" s="8"/>
@@ -7237,7 +7714,7 @@
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="5" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="B404" s="8"/>
       <c r="C404" s="8"/>
@@ -7248,7 +7725,7 @@
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="5" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="B405" s="8"/>
       <c r="C405" s="8"/>
@@ -7259,7 +7736,7 @@
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="5" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="B406" s="8"/>
       <c r="C406" s="8"/>
@@ -7270,7 +7747,7 @@
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="5" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="B407" s="8"/>
       <c r="C407" s="8"/>
@@ -7281,7 +7758,7 @@
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="5" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="B408" s="8"/>
       <c r="C408" s="8"/>
@@ -7292,7 +7769,7 @@
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="5" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="B409" s="8"/>
       <c r="C409" s="8"/>
@@ -7303,7 +7780,7 @@
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="5" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="B410" s="8"/>
       <c r="C410" s="8"/>
@@ -7314,7 +7791,7 @@
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="5" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="B411" s="8"/>
       <c r="C411" s="8"/>
@@ -7325,7 +7802,7 @@
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="5" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="B412" s="8"/>
       <c r="C412" s="8"/>
@@ -7336,7 +7813,7 @@
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="5" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="B413" s="8"/>
       <c r="C413" s="8"/>
@@ -7347,7 +7824,7 @@
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="5" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="B414" s="8"/>
       <c r="C414" s="8"/>
@@ -7358,7 +7835,7 @@
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="5" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="B415" s="8"/>
       <c r="C415" s="8"/>
@@ -7369,7 +7846,7 @@
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="5" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="B416" s="8"/>
       <c r="C416" s="8"/>
@@ -7380,7 +7857,7 @@
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="5" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="B417" s="8"/>
       <c r="C417" s="8"/>
@@ -7391,7 +7868,7 @@
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="5" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="B418" s="8"/>
       <c r="C418" s="8"/>
@@ -7402,7 +7879,7 @@
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="5" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="B419" s="8"/>
       <c r="C419" s="8"/>
@@ -7413,7 +7890,7 @@
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="5" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="B420" s="8"/>
       <c r="C420" s="8"/>
@@ -7424,7 +7901,7 @@
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="5" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="B421" s="8"/>
       <c r="C421" s="8"/>
@@ -7435,7 +7912,7 @@
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="5" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="B422" s="8"/>
       <c r="C422" s="8"/>
@@ -7446,7 +7923,7 @@
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="5" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="B423" s="8"/>
       <c r="C423" s="8"/>
@@ -7457,7 +7934,7 @@
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="5" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="B424" s="8"/>
       <c r="C424" s="8"/>
@@ -7468,7 +7945,7 @@
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="5" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
       <c r="B425" s="8"/>
       <c r="C425" s="8"/>
@@ -7479,7 +7956,7 @@
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="5" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="B426" s="8"/>
       <c r="C426" s="8"/>
@@ -7490,7 +7967,7 @@
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="5" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="B427" s="8"/>
       <c r="C427" s="8"/>
@@ -7501,7 +7978,7 @@
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="5" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="B428" s="8"/>
       <c r="C428" s="8"/>
@@ -7512,7 +7989,7 @@
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="5" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="B429" s="8"/>
       <c r="C429" s="8"/>
@@ -7523,7 +8000,7 @@
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="5" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="B430" s="8"/>
       <c r="C430" s="8"/>
@@ -7534,7 +8011,7 @@
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="5" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="B431" s="8"/>
       <c r="C431" s="8"/>
@@ -7545,7 +8022,7 @@
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="5" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="B432" s="8"/>
       <c r="C432" s="8"/>
@@ -7556,7 +8033,7 @@
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="5" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="B433" s="8"/>
       <c r="C433" s="8"/>
@@ -7567,7 +8044,7 @@
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="5" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="B434" s="8"/>
       <c r="C434" s="8"/>
@@ -7578,7 +8055,7 @@
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="5" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="B435" s="8"/>
       <c r="C435" s="8"/>
@@ -7589,7 +8066,7 @@
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="5" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="B436" s="8"/>
       <c r="C436" s="8"/>
@@ -7600,7 +8077,7 @@
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="5" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="B437" s="8"/>
       <c r="C437" s="8"/>
@@ -7611,7 +8088,7 @@
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="5" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="B438" s="8"/>
       <c r="C438" s="8"/>
@@ -7622,7 +8099,7 @@
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="5" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="B439" s="8"/>
       <c r="C439" s="8"/>
@@ -7633,7 +8110,7 @@
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="5" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="B440" s="8"/>
       <c r="C440" s="8"/>
@@ -7644,7 +8121,7 @@
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="5" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="B441" s="8"/>
       <c r="C441" s="8"/>
@@ -7655,7 +8132,7 @@
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="5" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="B442" s="8"/>
       <c r="C442" s="8"/>
@@ -7666,7 +8143,7 @@
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="5" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="B443" s="8"/>
       <c r="C443" s="8"/>
@@ -7677,7 +8154,7 @@
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="5" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="B444" s="8"/>
       <c r="C444" s="8"/>
@@ -7688,7 +8165,7 @@
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="5" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="B445" s="8"/>
       <c r="C445" s="8"/>
@@ -7699,7 +8176,7 @@
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="5" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="B446" s="8"/>
       <c r="C446" s="8"/>
@@ -7710,7 +8187,7 @@
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="5" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="B447" s="8"/>
       <c r="C447" s="8"/>
@@ -7721,7 +8198,7 @@
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="5" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="B448" s="8"/>
       <c r="C448" s="8"/>
@@ -7732,7 +8209,7 @@
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="5" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="B449" s="8"/>
       <c r="C449" s="8"/>
@@ -7743,7 +8220,7 @@
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="5" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="B450" s="8"/>
       <c r="C450" s="8"/>
@@ -7754,7 +8231,7 @@
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="5" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="B451" s="8"/>
       <c r="C451" s="8"/>
@@ -7765,7 +8242,7 @@
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="5" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
       <c r="B452" s="8"/>
       <c r="C452" s="8"/>
@@ -7776,7 +8253,7 @@
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="5" t="s">
-        <v>472</v>
+        <v>523</v>
       </c>
       <c r="B453" s="8"/>
       <c r="C453" s="8"/>
@@ -7787,7 +8264,7 @@
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="5" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="B454" s="8"/>
       <c r="C454" s="8"/>
@@ -7798,7 +8275,7 @@
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="5" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="B455" s="8"/>
       <c r="C455" s="8"/>
@@ -7809,7 +8286,7 @@
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="5" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="B456" s="8"/>
       <c r="C456" s="8"/>
@@ -7820,7 +8297,7 @@
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="5" t="s">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="B457" s="8"/>
       <c r="C457" s="8"/>
@@ -7831,7 +8308,7 @@
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="5" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
       <c r="B458" s="8"/>
       <c r="C458" s="8"/>
@@ -7842,7 +8319,7 @@
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="5" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
       <c r="B459" s="8"/>
       <c r="C459" s="8"/>
@@ -7853,7 +8330,7 @@
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="5" t="s">
-        <v>479</v>
+        <v>530</v>
       </c>
       <c r="B460" s="8"/>
       <c r="C460" s="8"/>
@@ -7864,7 +8341,7 @@
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="5" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="B461" s="8"/>
       <c r="C461" s="8"/>
@@ -7875,7 +8352,7 @@
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="5" t="s">
-        <v>481</v>
+        <v>532</v>
       </c>
       <c r="B462" s="8"/>
       <c r="C462" s="8"/>
@@ -7886,7 +8363,7 @@
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="5" t="s">
-        <v>482</v>
+        <v>533</v>
       </c>
       <c r="B463" s="8"/>
       <c r="C463" s="8"/>
@@ -7897,7 +8374,7 @@
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="5" t="s">
-        <v>483</v>
+        <v>534</v>
       </c>
       <c r="B464" s="8"/>
       <c r="C464" s="8"/>
@@ -7908,7 +8385,7 @@
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="5" t="s">
-        <v>484</v>
+        <v>535</v>
       </c>
       <c r="B465" s="8"/>
       <c r="C465" s="8"/>
@@ -7919,7 +8396,7 @@
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="5" t="s">
-        <v>485</v>
+        <v>536</v>
       </c>
       <c r="B466" s="8"/>
       <c r="C466" s="8"/>
@@ -7930,7 +8407,7 @@
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="5" t="s">
-        <v>486</v>
+        <v>537</v>
       </c>
       <c r="B467" s="8"/>
       <c r="C467" s="8"/>
@@ -7941,7 +8418,7 @@
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="5" t="s">
-        <v>487</v>
+        <v>538</v>
       </c>
       <c r="B468" s="8"/>
       <c r="C468" s="8"/>
@@ -7952,7 +8429,7 @@
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="5" t="s">
-        <v>488</v>
+        <v>539</v>
       </c>
       <c r="B469" s="8"/>
       <c r="C469" s="8"/>
@@ -7963,7 +8440,7 @@
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="5" t="s">
-        <v>489</v>
+        <v>540</v>
       </c>
       <c r="B470" s="8"/>
       <c r="C470" s="8"/>
@@ -7974,7 +8451,7 @@
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="5" t="s">
-        <v>490</v>
+        <v>541</v>
       </c>
       <c r="B471" s="8"/>
       <c r="C471" s="8"/>
@@ -7985,7 +8462,7 @@
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="5" t="s">
-        <v>491</v>
+        <v>542</v>
       </c>
       <c r="B472" s="8"/>
       <c r="C472" s="8"/>
@@ -7996,7 +8473,7 @@
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="5" t="s">
-        <v>492</v>
+        <v>543</v>
       </c>
       <c r="B473" s="8"/>
       <c r="C473" s="8"/>
@@ -8007,7 +8484,7 @@
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="5" t="s">
-        <v>493</v>
+        <v>544</v>
       </c>
       <c r="B474" s="8"/>
       <c r="C474" s="8"/>
@@ -8018,7 +8495,7 @@
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="5" t="s">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="B475" s="8"/>
       <c r="C475" s="8"/>
@@ -8029,7 +8506,7 @@
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="5" t="s">
-        <v>495</v>
+        <v>546</v>
       </c>
       <c r="B476" s="8"/>
       <c r="C476" s="8"/>
@@ -8040,7 +8517,7 @@
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="5" t="s">
-        <v>496</v>
+        <v>547</v>
       </c>
       <c r="B477" s="8"/>
       <c r="C477" s="8"/>
@@ -8051,7 +8528,7 @@
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="5" t="s">
-        <v>497</v>
+        <v>548</v>
       </c>
       <c r="B478" s="8"/>
       <c r="C478" s="8"/>
@@ -8062,7 +8539,7 @@
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="5" t="s">
-        <v>498</v>
+        <v>549</v>
       </c>
       <c r="B479" s="8"/>
       <c r="C479" s="8"/>
@@ -8073,7 +8550,7 @@
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="5" t="s">
-        <v>499</v>
+        <v>550</v>
       </c>
       <c r="B480" s="8"/>
       <c r="C480" s="8"/>
@@ -8084,7 +8561,7 @@
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="5" t="s">
-        <v>500</v>
+        <v>551</v>
       </c>
       <c r="B481" s="8"/>
       <c r="C481" s="8"/>
@@ -8095,7 +8572,7 @@
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="5" t="s">
-        <v>501</v>
+        <v>552</v>
       </c>
       <c r="B482" s="8"/>
       <c r="C482" s="8"/>
@@ -8106,7 +8583,7 @@
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="5" t="s">
-        <v>502</v>
+        <v>553</v>
       </c>
       <c r="B483" s="8"/>
       <c r="C483" s="8"/>
@@ -8117,7 +8594,7 @@
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="5" t="s">
-        <v>503</v>
+        <v>554</v>
       </c>
       <c r="B484" s="8"/>
       <c r="C484" s="8"/>
@@ -8128,7 +8605,7 @@
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="5" t="s">
-        <v>504</v>
+        <v>555</v>
       </c>
       <c r="B485" s="8"/>
       <c r="C485" s="8"/>
@@ -8139,7 +8616,7 @@
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="5" t="s">
-        <v>505</v>
+        <v>556</v>
       </c>
       <c r="B486" s="8"/>
       <c r="C486" s="8"/>
@@ -8150,7 +8627,7 @@
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="5" t="s">
-        <v>506</v>
+        <v>557</v>
       </c>
       <c r="B487" s="8"/>
       <c r="C487" s="8"/>
@@ -8161,7 +8638,7 @@
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="5" t="s">
-        <v>507</v>
+        <v>558</v>
       </c>
       <c r="B488" s="8"/>
       <c r="C488" s="8"/>
@@ -8172,7 +8649,7 @@
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="5" t="s">
-        <v>508</v>
+        <v>559</v>
       </c>
       <c r="B489" s="8"/>
       <c r="C489" s="8"/>
@@ -8183,7 +8660,7 @@
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="5" t="s">
-        <v>509</v>
+        <v>560</v>
       </c>
       <c r="B490" s="8"/>
       <c r="C490" s="8"/>
@@ -8194,7 +8671,7 @@
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="5" t="s">
-        <v>510</v>
+        <v>561</v>
       </c>
       <c r="B491" s="8"/>
       <c r="C491" s="8"/>
@@ -8205,7 +8682,7 @@
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="5" t="s">
-        <v>511</v>
+        <v>562</v>
       </c>
       <c r="B492" s="8"/>
       <c r="C492" s="8"/>
@@ -8216,7 +8693,7 @@
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="5" t="s">
-        <v>512</v>
+        <v>563</v>
       </c>
       <c r="B493" s="8"/>
       <c r="C493" s="8"/>
@@ -8227,7 +8704,7 @@
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="5" t="s">
-        <v>513</v>
+        <v>564</v>
       </c>
       <c r="B494" s="8"/>
       <c r="C494" s="8"/>
@@ -8238,7 +8715,7 @@
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="5" t="s">
-        <v>514</v>
+        <v>565</v>
       </c>
       <c r="B495" s="8"/>
       <c r="C495" s="8"/>
@@ -8249,7 +8726,7 @@
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="5" t="s">
-        <v>515</v>
+        <v>566</v>
       </c>
       <c r="B496" s="8"/>
       <c r="C496" s="8"/>
@@ -8260,7 +8737,7 @@
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="5" t="s">
-        <v>516</v>
+        <v>567</v>
       </c>
       <c r="B497" s="8"/>
       <c r="C497" s="8"/>
@@ -8271,7 +8748,7 @@
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="5" t="s">
-        <v>517</v>
+        <v>568</v>
       </c>
       <c r="B498" s="8"/>
       <c r="C498" s="8"/>
@@ -8282,7 +8759,7 @@
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="5" t="s">
-        <v>518</v>
+        <v>569</v>
       </c>
       <c r="B499" s="8"/>
       <c r="C499" s="8"/>
@@ -8293,7 +8770,7 @@
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="5" t="s">
-        <v>519</v>
+        <v>570</v>
       </c>
       <c r="B500" s="8"/>
       <c r="C500" s="8"/>
@@ -8304,7 +8781,7 @@
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="5" t="s">
-        <v>520</v>
+        <v>571</v>
       </c>
       <c r="B501" s="8"/>
       <c r="C501" s="8"/>
@@ -8315,7 +8792,7 @@
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="5" t="s">
-        <v>521</v>
+        <v>572</v>
       </c>
       <c r="B502" s="8"/>
       <c r="C502" s="8"/>
@@ -8326,7 +8803,7 @@
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="5" t="s">
-        <v>522</v>
+        <v>573</v>
       </c>
       <c r="B503" s="8"/>
       <c r="C503" s="8"/>
@@ -8337,7 +8814,7 @@
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="5" t="s">
-        <v>523</v>
+        <v>574</v>
       </c>
       <c r="B504" s="8"/>
       <c r="C504" s="8"/>
@@ -8348,7 +8825,7 @@
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="5" t="s">
-        <v>524</v>
+        <v>575</v>
       </c>
       <c r="B505" s="8"/>
       <c r="C505" s="8"/>
@@ -8359,7 +8836,7 @@
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="5" t="s">
-        <v>525</v>
+        <v>576</v>
       </c>
       <c r="B506" s="8"/>
       <c r="C506" s="8"/>
@@ -8370,7 +8847,7 @@
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="5" t="s">
-        <v>526</v>
+        <v>577</v>
       </c>
       <c r="B507" s="8"/>
       <c r="C507" s="8"/>
@@ -8381,7 +8858,7 @@
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="5" t="s">
-        <v>527</v>
+        <v>578</v>
       </c>
       <c r="B508" s="8"/>
       <c r="C508" s="8"/>
@@ -8392,7 +8869,7 @@
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="5" t="s">
-        <v>528</v>
+        <v>579</v>
       </c>
       <c r="B509" s="8"/>
       <c r="C509" s="8"/>
@@ -8403,7 +8880,7 @@
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="5" t="s">
-        <v>529</v>
+        <v>580</v>
       </c>
       <c r="B510" s="8"/>
       <c r="C510" s="8"/>
@@ -8414,7 +8891,7 @@
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="5" t="s">
-        <v>530</v>
+        <v>581</v>
       </c>
       <c r="B511" s="8"/>
       <c r="C511" s="8"/>
@@ -8425,7 +8902,7 @@
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="5" t="s">
-        <v>531</v>
+        <v>582</v>
       </c>
       <c r="B512" s="8"/>
       <c r="C512" s="8"/>
@@ -8436,7 +8913,7 @@
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="5" t="s">
-        <v>532</v>
+        <v>583</v>
       </c>
       <c r="B513" s="8"/>
       <c r="C513" s="8"/>
@@ -8447,7 +8924,7 @@
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="5" t="s">
-        <v>533</v>
+        <v>584</v>
       </c>
       <c r="B514" s="8"/>
       <c r="C514" s="8"/>
@@ -8458,7 +8935,7 @@
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="5" t="s">
-        <v>534</v>
+        <v>585</v>
       </c>
       <c r="B515" s="8"/>
       <c r="C515" s="8"/>
@@ -8469,7 +8946,7 @@
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="5" t="s">
-        <v>535</v>
+        <v>586</v>
       </c>
       <c r="B516" s="8"/>
       <c r="C516" s="8"/>
@@ -8480,7 +8957,7 @@
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="5" t="s">
-        <v>536</v>
+        <v>587</v>
       </c>
       <c r="B517" s="8"/>
       <c r="C517" s="8"/>
@@ -8491,7 +8968,7 @@
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="5" t="s">
-        <v>537</v>
+        <v>588</v>
       </c>
       <c r="B518" s="8"/>
       <c r="C518" s="8"/>
@@ -8502,7 +8979,7 @@
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="5" t="s">
-        <v>538</v>
+        <v>589</v>
       </c>
       <c r="B519" s="8"/>
       <c r="C519" s="8"/>
@@ -8513,7 +8990,7 @@
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="5" t="s">
-        <v>539</v>
+        <v>590</v>
       </c>
       <c r="B520" s="8"/>
       <c r="C520" s="8"/>
@@ -8524,7 +9001,7 @@
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="5" t="s">
-        <v>540</v>
+        <v>591</v>
       </c>
       <c r="B521" s="8"/>
       <c r="C521" s="8"/>
@@ -8535,7 +9012,7 @@
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="5" t="s">
-        <v>541</v>
+        <v>592</v>
       </c>
       <c r="B522" s="8"/>
       <c r="C522" s="8"/>
@@ -8546,7 +9023,7 @@
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="5" t="s">
-        <v>542</v>
+        <v>593</v>
       </c>
       <c r="B523" s="8"/>
       <c r="C523" s="8"/>
@@ -8557,7 +9034,7 @@
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="5" t="s">
-        <v>543</v>
+        <v>594</v>
       </c>
       <c r="B524" s="8"/>
       <c r="C524" s="8"/>
@@ -8568,7 +9045,7 @@
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="5" t="s">
-        <v>544</v>
+        <v>595</v>
       </c>
       <c r="B525" s="8"/>
       <c r="C525" s="8"/>
@@ -8579,7 +9056,7 @@
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="5" t="s">
-        <v>545</v>
+        <v>596</v>
       </c>
       <c r="B526" s="8"/>
       <c r="C526" s="8"/>
@@ -8590,7 +9067,7 @@
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="5" t="s">
-        <v>546</v>
+        <v>597</v>
       </c>
       <c r="B527" s="8"/>
       <c r="C527" s="8"/>
@@ -8601,7 +9078,7 @@
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="5" t="s">
-        <v>547</v>
+        <v>598</v>
       </c>
       <c r="B528" s="8"/>
       <c r="C528" s="8"/>
@@ -8612,7 +9089,7 @@
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="5" t="s">
-        <v>548</v>
+        <v>599</v>
       </c>
       <c r="B529" s="8"/>
       <c r="C529" s="8"/>
@@ -8623,7 +9100,7 @@
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="5" t="s">
-        <v>549</v>
+        <v>600</v>
       </c>
       <c r="B530" s="8"/>
       <c r="C530" s="8"/>
@@ -8634,7 +9111,7 @@
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="5" t="s">
-        <v>550</v>
+        <v>601</v>
       </c>
       <c r="B531" s="8"/>
       <c r="C531" s="8"/>
@@ -8645,7 +9122,7 @@
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="5" t="s">
-        <v>551</v>
+        <v>602</v>
       </c>
       <c r="B532" s="8"/>
       <c r="C532" s="8"/>
@@ -8656,7 +9133,7 @@
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="5" t="s">
-        <v>552</v>
+        <v>603</v>
       </c>
       <c r="B533" s="8"/>
       <c r="C533" s="8"/>
@@ -8667,7 +9144,7 @@
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="5" t="s">
-        <v>553</v>
+        <v>604</v>
       </c>
       <c r="B534" s="8"/>
       <c r="C534" s="8"/>
@@ -8678,7 +9155,7 @@
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="5" t="s">
-        <v>554</v>
+        <v>605</v>
       </c>
       <c r="B535" s="8"/>
       <c r="C535" s="8"/>
@@ -8689,7 +9166,7 @@
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="5" t="s">
-        <v>555</v>
+        <v>606</v>
       </c>
       <c r="B536" s="8"/>
       <c r="C536" s="8"/>
@@ -8700,7 +9177,7 @@
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="5" t="s">
-        <v>556</v>
+        <v>607</v>
       </c>
       <c r="B537" s="8"/>
       <c r="C537" s="8"/>
@@ -8711,7 +9188,7 @@
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="5" t="s">
-        <v>557</v>
+        <v>608</v>
       </c>
       <c r="B538" s="8"/>
       <c r="C538" s="8"/>
@@ -8722,7 +9199,7 @@
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="5" t="s">
-        <v>558</v>
+        <v>609</v>
       </c>
       <c r="B539" s="8"/>
       <c r="C539" s="8"/>
@@ -8733,7 +9210,7 @@
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="5" t="s">
-        <v>559</v>
+        <v>610</v>
       </c>
       <c r="B540" s="8"/>
       <c r="C540" s="8"/>
@@ -8744,7 +9221,7 @@
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="5" t="s">
-        <v>560</v>
+        <v>611</v>
       </c>
       <c r="B541" s="8"/>
       <c r="C541" s="8"/>
@@ -8755,7 +9232,7 @@
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="5" t="s">
-        <v>561</v>
+        <v>612</v>
       </c>
       <c r="B542" s="8"/>
       <c r="C542" s="8"/>
@@ -8766,7 +9243,7 @@
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="5" t="s">
-        <v>562</v>
+        <v>613</v>
       </c>
       <c r="B543" s="8"/>
       <c r="C543" s="8"/>
@@ -8777,7 +9254,7 @@
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="5" t="s">
-        <v>563</v>
+        <v>614</v>
       </c>
       <c r="B544" s="8"/>
       <c r="C544" s="8"/>
@@ -8788,7 +9265,7 @@
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="5" t="s">
-        <v>564</v>
+        <v>615</v>
       </c>
       <c r="B545" s="8"/>
       <c r="C545" s="8"/>
@@ -8799,7 +9276,7 @@
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="5" t="s">
-        <v>565</v>
+        <v>616</v>
       </c>
       <c r="B546" s="8"/>
       <c r="C546" s="8"/>
@@ -8810,7 +9287,7 @@
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="5" t="s">
-        <v>566</v>
+        <v>617</v>
       </c>
       <c r="B547" s="8"/>
       <c r="C547" s="8"/>
@@ -8821,7 +9298,7 @@
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="5" t="s">
-        <v>567</v>
+        <v>618</v>
       </c>
       <c r="B548" s="8"/>
       <c r="C548" s="8"/>
@@ -8832,7 +9309,7 @@
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="5" t="s">
-        <v>568</v>
+        <v>619</v>
       </c>
       <c r="B549" s="8"/>
       <c r="C549" s="8"/>
@@ -8843,7 +9320,7 @@
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="5" t="s">
-        <v>569</v>
+        <v>620</v>
       </c>
       <c r="B550" s="8"/>
       <c r="C550" s="8"/>
@@ -8854,7 +9331,7 @@
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="5" t="s">
-        <v>570</v>
+        <v>621</v>
       </c>
       <c r="B551" s="8"/>
       <c r="C551" s="8"/>
@@ -8865,7 +9342,7 @@
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="5" t="s">
-        <v>571</v>
+        <v>622</v>
       </c>
       <c r="B552" s="8"/>
       <c r="C552" s="8"/>
@@ -8876,7 +9353,7 @@
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="5" t="s">
-        <v>572</v>
+        <v>623</v>
       </c>
       <c r="B553" s="8"/>
       <c r="C553" s="8"/>
@@ -8887,7 +9364,7 @@
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="5" t="s">
-        <v>573</v>
+        <v>624</v>
       </c>
       <c r="B554" s="8"/>
       <c r="C554" s="8"/>
@@ -8898,7 +9375,7 @@
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="5" t="s">
-        <v>574</v>
+        <v>625</v>
       </c>
       <c r="B555" s="8"/>
       <c r="C555" s="8"/>
@@ -8909,7 +9386,7 @@
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="5" t="s">
-        <v>575</v>
+        <v>626</v>
       </c>
       <c r="B556" s="8"/>
       <c r="C556" s="8"/>
@@ -8920,7 +9397,7 @@
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="5" t="s">
-        <v>576</v>
+        <v>627</v>
       </c>
       <c r="B557" s="8"/>
       <c r="C557" s="8"/>
@@ -8931,7 +9408,7 @@
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="5" t="s">
-        <v>577</v>
+        <v>628</v>
       </c>
       <c r="B558" s="8"/>
       <c r="C558" s="8"/>
@@ -8942,7 +9419,7 @@
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="5" t="s">
-        <v>578</v>
+        <v>629</v>
       </c>
       <c r="B559" s="8"/>
       <c r="C559" s="8"/>
@@ -8953,7 +9430,7 @@
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="5" t="s">
-        <v>579</v>
+        <v>630</v>
       </c>
       <c r="B560" s="8"/>
       <c r="C560" s="8"/>
@@ -8964,7 +9441,7 @@
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="5" t="s">
-        <v>580</v>
+        <v>631</v>
       </c>
       <c r="B561" s="8"/>
       <c r="C561" s="8"/>
@@ -8975,7 +9452,7 @@
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="5" t="s">
-        <v>581</v>
+        <v>632</v>
       </c>
       <c r="B562" s="8"/>
       <c r="C562" s="8"/>
@@ -8986,7 +9463,7 @@
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="5" t="s">
-        <v>582</v>
+        <v>633</v>
       </c>
       <c r="B563" s="8"/>
       <c r="C563" s="8"/>
@@ -8997,7 +9474,7 @@
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="5" t="s">
-        <v>583</v>
+        <v>634</v>
       </c>
       <c r="B564" s="8"/>
       <c r="C564" s="8"/>
@@ -9008,7 +9485,7 @@
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="5" t="s">
-        <v>584</v>
+        <v>635</v>
       </c>
       <c r="B565" s="8"/>
       <c r="C565" s="8"/>
@@ -9019,7 +9496,7 @@
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="5" t="s">
-        <v>585</v>
+        <v>636</v>
       </c>
       <c r="B566" s="8"/>
       <c r="C566" s="8"/>
@@ -9030,7 +9507,7 @@
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="5" t="s">
-        <v>586</v>
+        <v>637</v>
       </c>
       <c r="B567" s="8"/>
       <c r="C567" s="8"/>
@@ -9041,7 +9518,7 @@
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="5" t="s">
-        <v>587</v>
+        <v>638</v>
       </c>
       <c r="B568" s="8"/>
       <c r="C568" s="8"/>
@@ -9052,7 +9529,7 @@
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="5" t="s">
-        <v>588</v>
+        <v>639</v>
       </c>
       <c r="B569" s="8"/>
       <c r="C569" s="8"/>
@@ -9063,7 +9540,7 @@
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="5" t="s">
-        <v>589</v>
+        <v>640</v>
       </c>
       <c r="B570" s="8"/>
       <c r="C570" s="8"/>
@@ -9074,7 +9551,7 @@
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="5" t="s">
-        <v>590</v>
+        <v>641</v>
       </c>
       <c r="B571" s="8"/>
       <c r="C571" s="8"/>
@@ -9085,7 +9562,7 @@
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="5" t="s">
-        <v>591</v>
+        <v>642</v>
       </c>
       <c r="B572" s="8"/>
       <c r="C572" s="8"/>
@@ -9096,7 +9573,7 @@
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="5" t="s">
-        <v>592</v>
+        <v>643</v>
       </c>
       <c r="B573" s="8"/>
       <c r="C573" s="8"/>
@@ -9107,7 +9584,7 @@
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="5" t="s">
-        <v>593</v>
+        <v>644</v>
       </c>
       <c r="B574" s="8"/>
       <c r="C574" s="8"/>
@@ -9118,7 +9595,7 @@
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="5" t="s">
-        <v>594</v>
+        <v>645</v>
       </c>
       <c r="B575" s="8"/>
       <c r="C575" s="8"/>
@@ -9129,7 +9606,7 @@
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="5" t="s">
-        <v>595</v>
+        <v>646</v>
       </c>
       <c r="B576" s="8"/>
       <c r="C576" s="8"/>
@@ -9140,7 +9617,7 @@
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="5" t="s">
-        <v>596</v>
+        <v>647</v>
       </c>
       <c r="B577" s="8"/>
       <c r="C577" s="8"/>
@@ -9151,7 +9628,7 @@
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="5" t="s">
-        <v>597</v>
+        <v>648</v>
       </c>
       <c r="B578" s="8"/>
       <c r="C578" s="8"/>
@@ -9162,7 +9639,7 @@
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="5" t="s">
-        <v>598</v>
+        <v>649</v>
       </c>
       <c r="B579" s="8"/>
       <c r="C579" s="8"/>
@@ -9173,7 +9650,7 @@
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="5" t="s">
-        <v>599</v>
+        <v>650</v>
       </c>
       <c r="B580" s="8"/>
       <c r="C580" s="8"/>
@@ -9184,7 +9661,7 @@
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="5" t="s">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="B581" s="8"/>
       <c r="C581" s="8"/>
@@ -9195,7 +9672,7 @@
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="5" t="s">
-        <v>601</v>
+        <v>652</v>
       </c>
       <c r="B582" s="8"/>
       <c r="C582" s="8"/>
@@ -9206,7 +9683,7 @@
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="5" t="s">
-        <v>602</v>
+        <v>653</v>
       </c>
       <c r="B583" s="8"/>
       <c r="C583" s="8"/>
@@ -9217,7 +9694,7 @@
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="5" t="s">
-        <v>603</v>
+        <v>654</v>
       </c>
       <c r="B584" s="8"/>
       <c r="C584" s="8"/>
@@ -9228,7 +9705,7 @@
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="5" t="s">
-        <v>604</v>
+        <v>655</v>
       </c>
       <c r="B585" s="8"/>
       <c r="C585" s="8"/>
@@ -9239,7 +9716,7 @@
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="5" t="s">
-        <v>605</v>
+        <v>656</v>
       </c>
       <c r="B586" s="8"/>
       <c r="C586" s="8"/>
@@ -9250,7 +9727,7 @@
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="5" t="s">
-        <v>606</v>
+        <v>657</v>
       </c>
       <c r="B587" s="8"/>
       <c r="C587" s="8"/>
@@ -9261,7 +9738,7 @@
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="5" t="s">
-        <v>607</v>
+        <v>658</v>
       </c>
       <c r="B588" s="8"/>
       <c r="C588" s="8"/>
@@ -9272,7 +9749,7 @@
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="5" t="s">
-        <v>608</v>
+        <v>659</v>
       </c>
       <c r="B589" s="8"/>
       <c r="C589" s="8"/>
@@ -9283,7 +9760,7 @@
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="5" t="s">
-        <v>609</v>
+        <v>660</v>
       </c>
       <c r="B590" s="8"/>
       <c r="C590" s="8"/>
@@ -9294,7 +9771,7 @@
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="5" t="s">
-        <v>610</v>
+        <v>661</v>
       </c>
       <c r="B591" s="8"/>
       <c r="C591" s="8"/>
@@ -9305,7 +9782,7 @@
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="5" t="s">
-        <v>611</v>
+        <v>662</v>
       </c>
       <c r="B592" s="8"/>
       <c r="C592" s="8"/>
@@ -9316,7 +9793,7 @@
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="5" t="s">
-        <v>612</v>
+        <v>663</v>
       </c>
       <c r="B593" s="8"/>
       <c r="C593" s="8"/>
@@ -9327,7 +9804,7 @@
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="5" t="s">
-        <v>613</v>
+        <v>664</v>
       </c>
       <c r="B594" s="8"/>
       <c r="C594" s="8"/>
@@ -9338,7 +9815,7 @@
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="5" t="s">
-        <v>614</v>
+        <v>665</v>
       </c>
       <c r="B595" s="8"/>
       <c r="C595" s="8"/>
@@ -9349,7 +9826,7 @@
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="5" t="s">
-        <v>615</v>
+        <v>666</v>
       </c>
       <c r="B596" s="8"/>
       <c r="C596" s="8"/>
@@ -9360,7 +9837,7 @@
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="5" t="s">
-        <v>616</v>
+        <v>667</v>
       </c>
       <c r="B597" s="8"/>
       <c r="C597" s="8"/>
@@ -9371,7 +9848,7 @@
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="5" t="s">
-        <v>617</v>
+        <v>668</v>
       </c>
       <c r="B598" s="8"/>
       <c r="C598" s="8"/>
@@ -9382,7 +9859,7 @@
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="5" t="s">
-        <v>618</v>
+        <v>669</v>
       </c>
       <c r="B599" s="8"/>
       <c r="C599" s="8"/>
@@ -9393,7 +9870,7 @@
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="5" t="s">
-        <v>619</v>
+        <v>670</v>
       </c>
       <c r="B600" s="8"/>
       <c r="C600" s="8"/>
@@ -9404,7 +9881,7 @@
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="5" t="s">
-        <v>620</v>
+        <v>671</v>
       </c>
       <c r="B601" s="8"/>
       <c r="C601" s="8"/>
@@ -9415,7 +9892,7 @@
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="5" t="s">
-        <v>621</v>
+        <v>672</v>
       </c>
       <c r="B602" s="8"/>
       <c r="C602" s="8"/>
@@ -9426,7 +9903,7 @@
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="5" t="s">
-        <v>622</v>
+        <v>673</v>
       </c>
       <c r="B603" s="8"/>
       <c r="C603" s="8"/>
@@ -9437,7 +9914,7 @@
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="5" t="s">
-        <v>623</v>
+        <v>674</v>
       </c>
       <c r="B604" s="8"/>
       <c r="C604" s="8"/>
@@ -9448,7 +9925,7 @@
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="5" t="s">
-        <v>624</v>
+        <v>675</v>
       </c>
       <c r="B605" s="8"/>
       <c r="C605" s="8"/>
@@ -9459,7 +9936,7 @@
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="5" t="s">
-        <v>625</v>
+        <v>676</v>
       </c>
       <c r="B606" s="8"/>
       <c r="C606" s="8"/>
@@ -9470,7 +9947,7 @@
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="5" t="s">
-        <v>626</v>
+        <v>677</v>
       </c>
       <c r="B607" s="8"/>
       <c r="C607" s="8"/>
@@ -9481,7 +9958,7 @@
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="5" t="s">
-        <v>627</v>
+        <v>678</v>
       </c>
       <c r="B608" s="8"/>
       <c r="C608" s="8"/>
@@ -9492,7 +9969,7 @@
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="5" t="s">
-        <v>628</v>
+        <v>679</v>
       </c>
       <c r="B609" s="8"/>
       <c r="C609" s="8"/>
@@ -9503,7 +9980,7 @@
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="5" t="s">
-        <v>629</v>
+        <v>680</v>
       </c>
       <c r="B610" s="8"/>
       <c r="C610" s="8"/>
@@ -9514,7 +9991,7 @@
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="5" t="s">
-        <v>630</v>
+        <v>681</v>
       </c>
       <c r="B611" s="8"/>
       <c r="C611" s="8"/>
@@ -9525,7 +10002,7 @@
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="5" t="s">
-        <v>631</v>
+        <v>682</v>
       </c>
       <c r="B612" s="8"/>
       <c r="C612" s="8"/>
@@ -9536,7 +10013,7 @@
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="5" t="s">
-        <v>632</v>
+        <v>683</v>
       </c>
       <c r="B613" s="8"/>
       <c r="C613" s="8"/>
@@ -9547,7 +10024,7 @@
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="5" t="s">
-        <v>633</v>
+        <v>684</v>
       </c>
       <c r="B614" s="8"/>
       <c r="C614" s="8"/>
@@ -9558,7 +10035,7 @@
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="5" t="s">
-        <v>634</v>
+        <v>685</v>
       </c>
       <c r="B615" s="8"/>
       <c r="C615" s="8"/>
@@ -9569,7 +10046,7 @@
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="5" t="s">
-        <v>635</v>
+        <v>686</v>
       </c>
       <c r="B616" s="8"/>
       <c r="C616" s="8"/>
@@ -9580,7 +10057,7 @@
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="5" t="s">
-        <v>636</v>
+        <v>687</v>
       </c>
       <c r="B617" s="8"/>
       <c r="C617" s="8"/>
@@ -9591,7 +10068,7 @@
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="5" t="s">
-        <v>637</v>
+        <v>688</v>
       </c>
       <c r="B618" s="8"/>
       <c r="C618" s="8"/>
@@ -9602,7 +10079,7 @@
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="5" t="s">
-        <v>638</v>
+        <v>689</v>
       </c>
       <c r="B619" s="8"/>
       <c r="C619" s="8"/>
@@ -9613,7 +10090,7 @@
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="5" t="s">
-        <v>639</v>
+        <v>690</v>
       </c>
       <c r="B620" s="8"/>
       <c r="C620" s="8"/>
@@ -9624,7 +10101,7 @@
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="5" t="s">
-        <v>640</v>
+        <v>691</v>
       </c>
       <c r="B621" s="8"/>
       <c r="C621" s="8"/>
@@ -9635,7 +10112,7 @@
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="5" t="s">
-        <v>641</v>
+        <v>692</v>
       </c>
       <c r="B622" s="8"/>
       <c r="C622" s="8"/>
@@ -9646,7 +10123,7 @@
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="5" t="s">
-        <v>642</v>
+        <v>693</v>
       </c>
       <c r="B623" s="8"/>
       <c r="C623" s="8"/>
@@ -9657,7 +10134,7 @@
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="5" t="s">
-        <v>643</v>
+        <v>694</v>
       </c>
       <c r="B624" s="8"/>
       <c r="C624" s="8"/>
@@ -9668,7 +10145,7 @@
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="5" t="s">
-        <v>644</v>
+        <v>695</v>
       </c>
       <c r="B625" s="8"/>
       <c r="C625" s="8"/>
@@ -9679,7 +10156,7 @@
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="5" t="s">
-        <v>645</v>
+        <v>696</v>
       </c>
       <c r="B626" s="8"/>
       <c r="C626" s="8"/>
@@ -9690,7 +10167,7 @@
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="5" t="s">
-        <v>646</v>
+        <v>697</v>
       </c>
       <c r="B627" s="8"/>
       <c r="C627" s="8"/>
@@ -9701,7 +10178,7 @@
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="5" t="s">
-        <v>647</v>
+        <v>698</v>
       </c>
       <c r="B628" s="8"/>
       <c r="C628" s="8"/>
@@ -9712,7 +10189,7 @@
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="5" t="s">
-        <v>648</v>
+        <v>699</v>
       </c>
       <c r="B629" s="8"/>
       <c r="C629" s="8"/>
@@ -9723,7 +10200,7 @@
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="5" t="s">
-        <v>649</v>
+        <v>700</v>
       </c>
       <c r="B630" s="8"/>
       <c r="C630" s="8"/>
@@ -9734,7 +10211,7 @@
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="5" t="s">
-        <v>650</v>
+        <v>701</v>
       </c>
       <c r="B631" s="8"/>
       <c r="C631" s="8"/>
@@ -9745,7 +10222,7 @@
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="5" t="s">
-        <v>651</v>
+        <v>702</v>
       </c>
       <c r="B632" s="8"/>
       <c r="C632" s="8"/>
@@ -9756,7 +10233,7 @@
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="5" t="s">
-        <v>652</v>
+        <v>703</v>
       </c>
       <c r="B633" s="8"/>
       <c r="C633" s="8"/>
@@ -9767,7 +10244,7 @@
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="5" t="s">
-        <v>653</v>
+        <v>704</v>
       </c>
       <c r="B634" s="8"/>
       <c r="C634" s="8"/>
@@ -9778,7 +10255,7 @@
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="5" t="s">
-        <v>654</v>
+        <v>705</v>
       </c>
       <c r="B635" s="8"/>
       <c r="C635" s="8"/>
@@ -9789,7 +10266,7 @@
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="5" t="s">
-        <v>655</v>
+        <v>706</v>
       </c>
       <c r="B636" s="8"/>
       <c r="C636" s="8"/>
@@ -9800,7 +10277,7 @@
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="5" t="s">
-        <v>656</v>
+        <v>707</v>
       </c>
       <c r="B637" s="8"/>
       <c r="C637" s="8"/>
@@ -9811,7 +10288,7 @@
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="5" t="s">
-        <v>657</v>
+        <v>708</v>
       </c>
       <c r="B638" s="8"/>
       <c r="C638" s="8"/>
@@ -9822,7 +10299,7 @@
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="5" t="s">
-        <v>658</v>
+        <v>709</v>
       </c>
       <c r="B639" s="8"/>
       <c r="C639" s="8"/>
@@ -9833,7 +10310,7 @@
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="5" t="s">
-        <v>659</v>
+        <v>710</v>
       </c>
       <c r="B640" s="8"/>
       <c r="C640" s="8"/>
@@ -9844,7 +10321,7 @@
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="5" t="s">
-        <v>660</v>
+        <v>711</v>
       </c>
       <c r="B641" s="8"/>
       <c r="C641" s="8"/>
@@ -9855,7 +10332,7 @@
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="5" t="s">
-        <v>661</v>
+        <v>712</v>
       </c>
       <c r="B642" s="8"/>
       <c r="C642" s="8"/>
@@ -9866,7 +10343,7 @@
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="5" t="s">
-        <v>662</v>
+        <v>713</v>
       </c>
       <c r="B643" s="8"/>
       <c r="C643" s="8"/>
@@ -9877,7 +10354,7 @@
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="5" t="s">
-        <v>663</v>
+        <v>714</v>
       </c>
       <c r="B644" s="8"/>
       <c r="C644" s="8"/>
@@ -9888,7 +10365,7 @@
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="5" t="s">
-        <v>664</v>
+        <v>715</v>
       </c>
       <c r="B645" s="8"/>
       <c r="C645" s="8"/>
@@ -9899,7 +10376,7 @@
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="5" t="s">
-        <v>665</v>
+        <v>716</v>
       </c>
       <c r="B646" s="8"/>
       <c r="C646" s="8"/>
@@ -9910,7 +10387,7 @@
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="5" t="s">
-        <v>666</v>
+        <v>717</v>
       </c>
       <c r="B647" s="8"/>
       <c r="C647" s="8"/>
@@ -9921,7 +10398,7 @@
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="5" t="s">
-        <v>667</v>
+        <v>718</v>
       </c>
       <c r="B648" s="8"/>
       <c r="C648" s="8"/>
@@ -9932,7 +10409,7 @@
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="5" t="s">
-        <v>668</v>
+        <v>719</v>
       </c>
       <c r="B649" s="8"/>
       <c r="C649" s="8"/>
@@ -9943,7 +10420,7 @@
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="5" t="s">
-        <v>669</v>
+        <v>720</v>
       </c>
       <c r="B650" s="8"/>
       <c r="C650" s="8"/>
@@ -9954,7 +10431,7 @@
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="5" t="s">
-        <v>670</v>
+        <v>721</v>
       </c>
       <c r="B651" s="8"/>
       <c r="C651" s="8"/>
@@ -9965,7 +10442,7 @@
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="5" t="s">
-        <v>671</v>
+        <v>722</v>
       </c>
       <c r="B652" s="8"/>
       <c r="C652" s="8"/>
@@ -9976,7 +10453,7 @@
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="5" t="s">
-        <v>672</v>
+        <v>723</v>
       </c>
       <c r="B653" s="8"/>
       <c r="C653" s="8"/>
@@ -9987,7 +10464,7 @@
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="5" t="s">
-        <v>673</v>
+        <v>724</v>
       </c>
       <c r="B654" s="8"/>
       <c r="C654" s="8"/>
@@ -9998,7 +10475,7 @@
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="5" t="s">
-        <v>674</v>
+        <v>725</v>
       </c>
       <c r="B655" s="8"/>
       <c r="C655" s="8"/>
@@ -10009,7 +10486,7 @@
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="5" t="s">
-        <v>675</v>
+        <v>726</v>
       </c>
       <c r="B656" s="8"/>
       <c r="C656" s="8"/>
@@ -10020,7 +10497,7 @@
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="5" t="s">
-        <v>676</v>
+        <v>727</v>
       </c>
       <c r="B657" s="8"/>
       <c r="C657" s="8"/>
@@ -10031,7 +10508,7 @@
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="5" t="s">
-        <v>677</v>
+        <v>728</v>
       </c>
       <c r="B658" s="8"/>
       <c r="C658" s="8"/>
@@ -10042,7 +10519,7 @@
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="5" t="s">
-        <v>678</v>
+        <v>729</v>
       </c>
       <c r="B659" s="8"/>
       <c r="C659" s="8"/>
@@ -10053,7 +10530,7 @@
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="5" t="s">
-        <v>679</v>
+        <v>730</v>
       </c>
       <c r="B660" s="8"/>
       <c r="C660" s="8"/>
@@ -10064,7 +10541,7 @@
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="5" t="s">
-        <v>680</v>
+        <v>731</v>
       </c>
       <c r="B661" s="8"/>
       <c r="C661" s="8"/>
@@ -10075,7 +10552,7 @@
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="5" t="s">
-        <v>681</v>
+        <v>732</v>
       </c>
       <c r="B662" s="8"/>
       <c r="C662" s="8"/>
@@ -10086,7 +10563,7 @@
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="5" t="s">
-        <v>682</v>
+        <v>733</v>
       </c>
       <c r="B663" s="8"/>
       <c r="C663" s="8"/>
@@ -10097,7 +10574,7 @@
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="5" t="s">
-        <v>683</v>
+        <v>734</v>
       </c>
       <c r="B664" s="8"/>
       <c r="C664" s="8"/>
@@ -10108,7 +10585,7 @@
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="5" t="s">
-        <v>684</v>
+        <v>735</v>
       </c>
       <c r="B665" s="8"/>
       <c r="C665" s="8"/>
@@ -10119,7 +10596,7 @@
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="5" t="s">
-        <v>685</v>
+        <v>736</v>
       </c>
       <c r="B666" s="8"/>
       <c r="C666" s="8"/>
@@ -10130,7 +10607,7 @@
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="5" t="s">
-        <v>686</v>
+        <v>737</v>
       </c>
       <c r="B667" s="8"/>
       <c r="C667" s="8"/>
@@ -10141,7 +10618,7 @@
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="5" t="s">
-        <v>687</v>
+        <v>738</v>
       </c>
       <c r="B668" s="8"/>
       <c r="C668" s="8"/>
@@ -10152,7 +10629,7 @@
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="5" t="s">
-        <v>688</v>
+        <v>739</v>
       </c>
       <c r="B669" s="8"/>
       <c r="C669" s="8"/>
@@ -10163,7 +10640,7 @@
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="5" t="s">
-        <v>689</v>
+        <v>740</v>
       </c>
       <c r="B670" s="8"/>
       <c r="C670" s="8"/>
@@ -10174,7 +10651,7 @@
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="5" t="s">
-        <v>690</v>
+        <v>741</v>
       </c>
       <c r="B671" s="8"/>
       <c r="C671" s="8"/>
@@ -10185,7 +10662,7 @@
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="5" t="s">
-        <v>691</v>
+        <v>742</v>
       </c>
       <c r="B672" s="8"/>
       <c r="C672" s="8"/>
@@ -10196,7 +10673,7 @@
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="5" t="s">
-        <v>692</v>
+        <v>743</v>
       </c>
       <c r="B673" s="8"/>
       <c r="C673" s="8"/>
@@ -10207,7 +10684,7 @@
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="5" t="s">
-        <v>693</v>
+        <v>744</v>
       </c>
       <c r="B674" s="8"/>
       <c r="C674" s="8"/>
@@ -10218,7 +10695,7 @@
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="5" t="s">
-        <v>694</v>
+        <v>745</v>
       </c>
       <c r="B675" s="8"/>
       <c r="C675" s="8"/>
@@ -10229,7 +10706,7 @@
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="5" t="s">
-        <v>695</v>
+        <v>746</v>
       </c>
       <c r="B676" s="8"/>
       <c r="C676" s="8"/>
@@ -10240,7 +10717,7 @@
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="5" t="s">
-        <v>696</v>
+        <v>747</v>
       </c>
       <c r="B677" s="8"/>
       <c r="C677" s="8"/>
@@ -10251,7 +10728,7 @@
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="5" t="s">
-        <v>697</v>
+        <v>748</v>
       </c>
       <c r="B678" s="8"/>
       <c r="C678" s="8"/>
@@ -10262,7 +10739,7 @@
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="5" t="s">
-        <v>698</v>
+        <v>749</v>
       </c>
       <c r="B679" s="8"/>
       <c r="C679" s="8"/>
@@ -10273,7 +10750,7 @@
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="5" t="s">
-        <v>699</v>
+        <v>750</v>
       </c>
       <c r="B680" s="8"/>
       <c r="C680" s="8"/>
@@ -10284,7 +10761,7 @@
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="5" t="s">
-        <v>700</v>
+        <v>751</v>
       </c>
       <c r="B681" s="8"/>
       <c r="C681" s="8"/>
@@ -10295,7 +10772,7 @@
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="5" t="s">
-        <v>701</v>
+        <v>752</v>
       </c>
       <c r="B682" s="8"/>
       <c r="C682" s="8"/>
@@ -10306,7 +10783,7 @@
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="5" t="s">
-        <v>702</v>
+        <v>753</v>
       </c>
       <c r="B683" s="8"/>
       <c r="C683" s="8"/>
@@ -10317,7 +10794,7 @@
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="5" t="s">
-        <v>703</v>
+        <v>754</v>
       </c>
       <c r="B684" s="8"/>
       <c r="C684" s="8"/>
@@ -10328,7 +10805,7 @@
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="5" t="s">
-        <v>704</v>
+        <v>755</v>
       </c>
       <c r="B685" s="8"/>
       <c r="C685" s="8"/>
@@ -10339,7 +10816,7 @@
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="5" t="s">
-        <v>705</v>
+        <v>756</v>
       </c>
       <c r="B686" s="8"/>
       <c r="C686" s="8"/>
@@ -10350,7 +10827,7 @@
     </row>
     <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="5" t="s">
-        <v>706</v>
+        <v>757</v>
       </c>
       <c r="B687" s="8"/>
       <c r="C687" s="8"/>
@@ -10361,7 +10838,7 @@
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="5" t="s">
-        <v>707</v>
+        <v>758</v>
       </c>
       <c r="B688" s="8"/>
       <c r="C688" s="8"/>
@@ -10372,7 +10849,7 @@
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="5" t="s">
-        <v>708</v>
+        <v>759</v>
       </c>
       <c r="B689" s="8"/>
       <c r="C689" s="8"/>
@@ -10383,7 +10860,7 @@
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="5" t="s">
-        <v>709</v>
+        <v>760</v>
       </c>
       <c r="B690" s="8"/>
       <c r="C690" s="8"/>
@@ -10394,7 +10871,7 @@
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="5" t="s">
-        <v>710</v>
+        <v>761</v>
       </c>
       <c r="B691" s="8"/>
       <c r="C691" s="8"/>
@@ -10405,7 +10882,7 @@
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="5" t="s">
-        <v>711</v>
+        <v>762</v>
       </c>
       <c r="B692" s="8"/>
       <c r="C692" s="8"/>
@@ -10416,7 +10893,7 @@
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="5" t="s">
-        <v>712</v>
+        <v>763</v>
       </c>
       <c r="B693" s="8"/>
       <c r="C693" s="8"/>
@@ -10427,7 +10904,7 @@
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="5" t="s">
-        <v>713</v>
+        <v>764</v>
       </c>
       <c r="B694" s="8"/>
       <c r="C694" s="8"/>
@@ -10438,7 +10915,7 @@
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="5" t="s">
-        <v>714</v>
+        <v>765</v>
       </c>
       <c r="B695" s="8"/>
       <c r="C695" s="8"/>
@@ -10449,7 +10926,7 @@
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="5" t="s">
-        <v>715</v>
+        <v>766</v>
       </c>
       <c r="B696" s="8"/>
       <c r="C696" s="8"/>
@@ -10460,7 +10937,7 @@
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="5" t="s">
-        <v>716</v>
+        <v>767</v>
       </c>
       <c r="B697" s="8"/>
       <c r="C697" s="8"/>
@@ -10471,7 +10948,7 @@
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="5" t="s">
-        <v>717</v>
+        <v>768</v>
       </c>
       <c r="B698" s="8"/>
       <c r="C698" s="8"/>
@@ -10482,7 +10959,7 @@
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="5" t="s">
-        <v>718</v>
+        <v>769</v>
       </c>
       <c r="B699" s="8"/>
       <c r="C699" s="8"/>
@@ -10493,7 +10970,7 @@
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="5" t="s">
-        <v>719</v>
+        <v>770</v>
       </c>
       <c r="B700" s="8"/>
       <c r="C700" s="8"/>
@@ -10504,7 +10981,7 @@
     </row>
     <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="5" t="s">
-        <v>720</v>
+        <v>771</v>
       </c>
       <c r="B701" s="8"/>
       <c r="C701" s="8"/>
@@ -10515,7 +10992,7 @@
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="5" t="s">
-        <v>721</v>
+        <v>772</v>
       </c>
       <c r="B702" s="8"/>
       <c r="C702" s="8"/>
@@ -10526,7 +11003,7 @@
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="5" t="s">
-        <v>722</v>
+        <v>773</v>
       </c>
       <c r="B703" s="8"/>
       <c r="C703" s="8"/>
@@ -10537,7 +11014,7 @@
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="5" t="s">
-        <v>723</v>
+        <v>774</v>
       </c>
       <c r="B704" s="8"/>
       <c r="C704" s="8"/>
@@ -10548,7 +11025,7 @@
     </row>
     <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="5" t="s">
-        <v>724</v>
+        <v>775</v>
       </c>
       <c r="B705" s="8"/>
       <c r="C705" s="8"/>
@@ -10559,7 +11036,7 @@
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="5" t="s">
-        <v>725</v>
+        <v>776</v>
       </c>
       <c r="B706" s="8"/>
       <c r="C706" s="8"/>
@@ -10570,7 +11047,7 @@
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="5" t="s">
-        <v>726</v>
+        <v>777</v>
       </c>
       <c r="B707" s="8"/>
       <c r="C707" s="8"/>
@@ -10581,7 +11058,7 @@
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="5" t="s">
-        <v>727</v>
+        <v>778</v>
       </c>
       <c r="B708" s="8"/>
       <c r="C708" s="8"/>
@@ -10592,7 +11069,7 @@
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="5" t="s">
-        <v>728</v>
+        <v>779</v>
       </c>
       <c r="B709" s="8"/>
       <c r="C709" s="8"/>
@@ -10603,7 +11080,7 @@
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="5" t="s">
-        <v>729</v>
+        <v>780</v>
       </c>
       <c r="B710" s="8"/>
       <c r="C710" s="8"/>
@@ -10614,7 +11091,7 @@
     </row>
     <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="5" t="s">
-        <v>730</v>
+        <v>781</v>
       </c>
       <c r="B711" s="8"/>
       <c r="C711" s="8"/>
@@ -10625,7 +11102,7 @@
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="5" t="s">
-        <v>731</v>
+        <v>782</v>
       </c>
       <c r="B712" s="8"/>
       <c r="C712" s="8"/>
@@ -10636,7 +11113,7 @@
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="5" t="s">
-        <v>732</v>
+        <v>783</v>
       </c>
       <c r="B713" s="8"/>
       <c r="C713" s="8"/>
@@ -10647,7 +11124,7 @@
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="5" t="s">
-        <v>733</v>
+        <v>784</v>
       </c>
       <c r="B714" s="8"/>
       <c r="C714" s="8"/>
@@ -10658,7 +11135,7 @@
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="5" t="s">
-        <v>734</v>
+        <v>785</v>
       </c>
       <c r="B715" s="8"/>
       <c r="C715" s="8"/>
@@ -10669,7 +11146,7 @@
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="5" t="s">
-        <v>735</v>
+        <v>786</v>
       </c>
       <c r="B716" s="8"/>
       <c r="C716" s="8"/>
@@ -10680,7 +11157,7 @@
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="5" t="s">
-        <v>736</v>
+        <v>787</v>
       </c>
       <c r="B717" s="8"/>
       <c r="C717" s="8"/>
@@ -10691,7 +11168,7 @@
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="5" t="s">
-        <v>737</v>
+        <v>788</v>
       </c>
       <c r="B718" s="8"/>
       <c r="C718" s="8"/>
@@ -10702,7 +11179,7 @@
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="5" t="s">
-        <v>738</v>
+        <v>789</v>
       </c>
       <c r="B719" s="8"/>
       <c r="C719" s="8"/>
@@ -10713,7 +11190,7 @@
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="5" t="s">
-        <v>739</v>
+        <v>790</v>
       </c>
       <c r="B720" s="8"/>
       <c r="C720" s="8"/>
@@ -10724,7 +11201,7 @@
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="5" t="s">
-        <v>740</v>
+        <v>791</v>
       </c>
       <c r="B721" s="8"/>
       <c r="C721" s="8"/>
@@ -10735,7 +11212,7 @@
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="5" t="s">
-        <v>741</v>
+        <v>792</v>
       </c>
       <c r="B722" s="8"/>
       <c r="C722" s="8"/>
@@ -10746,7 +11223,7 @@
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="5" t="s">
-        <v>742</v>
+        <v>793</v>
       </c>
       <c r="B723" s="8"/>
       <c r="C723" s="8"/>
@@ -10757,7 +11234,7 @@
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="5" t="s">
-        <v>743</v>
+        <v>794</v>
       </c>
       <c r="B724" s="8"/>
       <c r="C724" s="8"/>
@@ -10768,7 +11245,7 @@
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="5" t="s">
-        <v>744</v>
+        <v>795</v>
       </c>
       <c r="B725" s="8"/>
       <c r="C725" s="8"/>
@@ -10779,7 +11256,7 @@
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="5" t="s">
-        <v>745</v>
+        <v>796</v>
       </c>
       <c r="B726" s="8"/>
       <c r="C726" s="8"/>
@@ -10790,7 +11267,7 @@
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="5" t="s">
-        <v>746</v>
+        <v>797</v>
       </c>
       <c r="B727" s="8"/>
       <c r="C727" s="8"/>
@@ -10801,7 +11278,7 @@
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="5" t="s">
-        <v>747</v>
+        <v>798</v>
       </c>
       <c r="B728" s="8"/>
       <c r="C728" s="8"/>
@@ -10812,7 +11289,7 @@
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="5" t="s">
-        <v>748</v>
+        <v>799</v>
       </c>
       <c r="B729" s="8"/>
       <c r="C729" s="8"/>
@@ -10823,7 +11300,7 @@
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="5" t="s">
-        <v>749</v>
+        <v>800</v>
       </c>
       <c r="B730" s="8"/>
       <c r="C730" s="8"/>
@@ -10834,7 +11311,7 @@
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="5" t="s">
-        <v>750</v>
+        <v>801</v>
       </c>
       <c r="B731" s="8"/>
       <c r="C731" s="8"/>
@@ -10845,7 +11322,7 @@
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="5" t="s">
-        <v>751</v>
+        <v>802</v>
       </c>
       <c r="B732" s="8"/>
       <c r="C732" s="8"/>
@@ -10856,7 +11333,7 @@
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="5" t="s">
-        <v>752</v>
+        <v>803</v>
       </c>
       <c r="B733" s="8"/>
       <c r="C733" s="8"/>
@@ -10867,7 +11344,7 @@
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="5" t="s">
-        <v>753</v>
+        <v>804</v>
       </c>
       <c r="B734" s="8"/>
       <c r="C734" s="8"/>
@@ -10878,7 +11355,7 @@
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="5" t="s">
-        <v>754</v>
+        <v>805</v>
       </c>
       <c r="B735" s="8"/>
       <c r="C735" s="8"/>
@@ -10889,7 +11366,7 @@
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="5" t="s">
-        <v>755</v>
+        <v>806</v>
       </c>
       <c r="B736" s="8"/>
       <c r="C736" s="8"/>
@@ -10900,7 +11377,7 @@
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="5" t="s">
-        <v>756</v>
+        <v>807</v>
       </c>
       <c r="B737" s="8"/>
       <c r="C737" s="8"/>
@@ -10911,7 +11388,7 @@
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="5" t="s">
-        <v>757</v>
+        <v>808</v>
       </c>
       <c r="B738" s="8"/>
       <c r="C738" s="8"/>
@@ -10922,7 +11399,7 @@
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="5" t="s">
-        <v>758</v>
+        <v>809</v>
       </c>
       <c r="B739" s="8"/>
       <c r="C739" s="8"/>
@@ -10933,7 +11410,7 @@
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="5" t="s">
-        <v>759</v>
+        <v>810</v>
       </c>
       <c r="B740" s="8"/>
       <c r="C740" s="8"/>
@@ -10944,7 +11421,7 @@
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="5" t="s">
-        <v>760</v>
+        <v>811</v>
       </c>
       <c r="B741" s="8"/>
       <c r="C741" s="8"/>
@@ -10955,7 +11432,7 @@
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="5" t="s">
-        <v>761</v>
+        <v>812</v>
       </c>
       <c r="B742" s="8"/>
       <c r="C742" s="8"/>
@@ -10966,7 +11443,7 @@
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="5" t="s">
-        <v>762</v>
+        <v>813</v>
       </c>
       <c r="B743" s="8"/>
       <c r="C743" s="8"/>
@@ -10977,7 +11454,7 @@
     </row>
     <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="5" t="s">
-        <v>763</v>
+        <v>814</v>
       </c>
       <c r="B744" s="8"/>
       <c r="C744" s="8"/>
@@ -10988,7 +11465,7 @@
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="5" t="s">
-        <v>764</v>
+        <v>815</v>
       </c>
       <c r="B745" s="8"/>
       <c r="C745" s="8"/>
@@ -10999,7 +11476,7 @@
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="5" t="s">
-        <v>765</v>
+        <v>816</v>
       </c>
       <c r="B746" s="8"/>
       <c r="C746" s="8"/>
@@ -11010,7 +11487,7 @@
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="5" t="s">
-        <v>766</v>
+        <v>817</v>
       </c>
       <c r="B747" s="8"/>
       <c r="C747" s="8"/>
@@ -11021,7 +11498,7 @@
     </row>
     <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="5" t="s">
-        <v>767</v>
+        <v>818</v>
       </c>
       <c r="B748" s="8"/>
       <c r="C748" s="8"/>
@@ -11032,7 +11509,7 @@
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="5" t="s">
-        <v>768</v>
+        <v>819</v>
       </c>
       <c r="B749" s="8"/>
       <c r="C749" s="8"/>
@@ -11043,7 +11520,7 @@
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="5" t="s">
-        <v>769</v>
+        <v>820</v>
       </c>
       <c r="B750" s="8"/>
       <c r="C750" s="8"/>
@@ -11054,7 +11531,7 @@
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="5" t="s">
-        <v>770</v>
+        <v>821</v>
       </c>
       <c r="B751" s="8"/>
       <c r="C751" s="8"/>
@@ -11065,7 +11542,7 @@
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="5" t="s">
-        <v>771</v>
+        <v>822</v>
       </c>
       <c r="B752" s="8"/>
       <c r="C752" s="8"/>
@@ -11076,7 +11553,7 @@
     </row>
     <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="5" t="s">
-        <v>772</v>
+        <v>823</v>
       </c>
       <c r="B753" s="8"/>
       <c r="C753" s="8"/>
@@ -11087,7 +11564,7 @@
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="5" t="s">
-        <v>773</v>
+        <v>824</v>
       </c>
       <c r="B754" s="8"/>
       <c r="C754" s="8"/>
@@ -11098,7 +11575,7 @@
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="5" t="s">
-        <v>774</v>
+        <v>825</v>
       </c>
       <c r="B755" s="8"/>
       <c r="C755" s="8"/>
@@ -11109,7 +11586,7 @@
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="5" t="s">
-        <v>775</v>
+        <v>826</v>
       </c>
       <c r="B756" s="8"/>
       <c r="C756" s="8"/>
@@ -11120,7 +11597,7 @@
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="5" t="s">
-        <v>776</v>
+        <v>827</v>
       </c>
       <c r="B757" s="8"/>
       <c r="C757" s="8"/>
@@ -11131,7 +11608,7 @@
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="5" t="s">
-        <v>777</v>
+        <v>828</v>
       </c>
       <c r="B758" s="8"/>
       <c r="C758" s="8"/>
@@ -11142,7 +11619,7 @@
     </row>
     <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="5" t="s">
-        <v>778</v>
+        <v>829</v>
       </c>
       <c r="B759" s="8"/>
       <c r="C759" s="8"/>
@@ -11153,7 +11630,7 @@
     </row>
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="5" t="s">
-        <v>779</v>
+        <v>830</v>
       </c>
       <c r="B760" s="8"/>
       <c r="C760" s="8"/>
@@ -11164,7 +11641,7 @@
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="5" t="s">
-        <v>780</v>
+        <v>831</v>
       </c>
       <c r="B761" s="8"/>
       <c r="C761" s="8"/>
@@ -11175,7 +11652,7 @@
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="5" t="s">
-        <v>781</v>
+        <v>832</v>
       </c>
       <c r="B762" s="8"/>
       <c r="C762" s="8"/>
@@ -11186,7 +11663,7 @@
     </row>
     <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="5" t="s">
-        <v>782</v>
+        <v>833</v>
       </c>
       <c r="B763" s="8"/>
       <c r="C763" s="8"/>
@@ -11197,7 +11674,7 @@
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="5" t="s">
-        <v>783</v>
+        <v>834</v>
       </c>
       <c r="B764" s="8"/>
       <c r="C764" s="8"/>
@@ -11208,7 +11685,7 @@
     </row>
     <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="5" t="s">
-        <v>784</v>
+        <v>835</v>
       </c>
       <c r="B765" s="8"/>
       <c r="C765" s="8"/>
@@ -11219,7 +11696,7 @@
     </row>
     <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="5" t="s">
-        <v>785</v>
+        <v>836</v>
       </c>
       <c r="B766" s="8"/>
       <c r="C766" s="8"/>
@@ -11230,7 +11707,7 @@
     </row>
     <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="5" t="s">
-        <v>786</v>
+        <v>837</v>
       </c>
       <c r="B767" s="8"/>
       <c r="C767" s="8"/>
@@ -11241,7 +11718,7 @@
     </row>
     <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="5" t="s">
-        <v>787</v>
+        <v>838</v>
       </c>
       <c r="B768" s="8"/>
       <c r="C768" s="8"/>
@@ -11252,7 +11729,7 @@
     </row>
     <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="5" t="s">
-        <v>788</v>
+        <v>839</v>
       </c>
       <c r="B769" s="8"/>
       <c r="C769" s="8"/>
@@ -11263,7 +11740,7 @@
     </row>
     <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="5" t="s">
-        <v>789</v>
+        <v>840</v>
       </c>
       <c r="B770" s="8"/>
       <c r="C770" s="8"/>
@@ -11274,7 +11751,7 @@
     </row>
     <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="5" t="s">
-        <v>790</v>
+        <v>841</v>
       </c>
       <c r="B771" s="8"/>
       <c r="C771" s="8"/>
@@ -11285,7 +11762,7 @@
     </row>
     <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="5" t="s">
-        <v>791</v>
+        <v>842</v>
       </c>
       <c r="B772" s="8"/>
       <c r="C772" s="8"/>
@@ -11296,7 +11773,7 @@
     </row>
     <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="5" t="s">
-        <v>792</v>
+        <v>843</v>
       </c>
       <c r="B773" s="8"/>
       <c r="C773" s="8"/>
@@ -11307,7 +11784,7 @@
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="5" t="s">
-        <v>793</v>
+        <v>844</v>
       </c>
       <c r="B774" s="8"/>
       <c r="C774" s="8"/>
@@ -11318,7 +11795,7 @@
     </row>
     <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="5" t="s">
-        <v>794</v>
+        <v>845</v>
       </c>
       <c r="B775" s="8"/>
       <c r="C775" s="8"/>
@@ -11329,7 +11806,7 @@
     </row>
     <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="5" t="s">
-        <v>795</v>
+        <v>846</v>
       </c>
       <c r="B776" s="8"/>
       <c r="C776" s="8"/>
@@ -11340,7 +11817,7 @@
     </row>
     <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="5" t="s">
-        <v>796</v>
+        <v>847</v>
       </c>
       <c r="B777" s="8"/>
       <c r="C777" s="8"/>
@@ -11351,7 +11828,7 @@
     </row>
     <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="5" t="s">
-        <v>797</v>
+        <v>848</v>
       </c>
       <c r="B778" s="8"/>
       <c r="C778" s="8"/>
@@ -11362,7 +11839,7 @@
     </row>
     <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="5" t="s">
-        <v>798</v>
+        <v>849</v>
       </c>
       <c r="B779" s="8"/>
       <c r="C779" s="8"/>
@@ -11373,7 +11850,7 @@
     </row>
     <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="5" t="s">
-        <v>799</v>
+        <v>850</v>
       </c>
       <c r="B780" s="8"/>
       <c r="C780" s="8"/>
@@ -11384,7 +11861,7 @@
     </row>
     <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="5" t="s">
-        <v>800</v>
+        <v>851</v>
       </c>
       <c r="B781" s="8"/>
       <c r="C781" s="8"/>
@@ -11395,7 +11872,7 @@
     </row>
     <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="5" t="s">
-        <v>801</v>
+        <v>852</v>
       </c>
       <c r="B782" s="8"/>
       <c r="C782" s="8"/>
@@ -11406,7 +11883,7 @@
     </row>
     <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="5" t="s">
-        <v>802</v>
+        <v>853</v>
       </c>
       <c r="B783" s="8"/>
       <c r="C783" s="8"/>
@@ -11417,7 +11894,7 @@
     </row>
     <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="5" t="s">
-        <v>803</v>
+        <v>854</v>
       </c>
       <c r="B784" s="8"/>
       <c r="C784" s="8"/>
@@ -11428,7 +11905,7 @@
     </row>
     <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="5" t="s">
-        <v>804</v>
+        <v>855</v>
       </c>
       <c r="B785" s="8"/>
       <c r="C785" s="8"/>
@@ -11439,7 +11916,7 @@
     </row>
     <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="5" t="s">
-        <v>805</v>
+        <v>856</v>
       </c>
       <c r="B786" s="8"/>
       <c r="C786" s="8"/>
@@ -11450,7 +11927,7 @@
     </row>
     <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="5" t="s">
-        <v>806</v>
+        <v>857</v>
       </c>
       <c r="B787" s="8"/>
       <c r="C787" s="8"/>
@@ -11461,7 +11938,7 @@
     </row>
     <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="5" t="s">
-        <v>807</v>
+        <v>858</v>
       </c>
       <c r="B788" s="8"/>
       <c r="C788" s="8"/>
@@ -11472,7 +11949,7 @@
     </row>
     <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="5" t="s">
-        <v>808</v>
+        <v>859</v>
       </c>
       <c r="B789" s="8"/>
       <c r="C789" s="8"/>
@@ -11483,7 +11960,7 @@
     </row>
     <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="5" t="s">
-        <v>809</v>
+        <v>860</v>
       </c>
       <c r="B790" s="8"/>
       <c r="C790" s="8"/>
@@ -11494,7 +11971,7 @@
     </row>
     <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="5" t="s">
-        <v>810</v>
+        <v>861</v>
       </c>
       <c r="B791" s="8"/>
       <c r="C791" s="8"/>
@@ -11505,7 +11982,7 @@
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="5" t="s">
-        <v>811</v>
+        <v>862</v>
       </c>
       <c r="B792" s="8"/>
       <c r="C792" s="8"/>
@@ -11516,7 +11993,7 @@
     </row>
     <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="5" t="s">
-        <v>812</v>
+        <v>863</v>
       </c>
       <c r="B793" s="8"/>
       <c r="C793" s="8"/>
@@ -11527,7 +12004,7 @@
     </row>
     <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="5" t="s">
-        <v>813</v>
+        <v>864</v>
       </c>
       <c r="B794" s="8"/>
       <c r="C794" s="8"/>
@@ -11538,7 +12015,7 @@
     </row>
     <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="5" t="s">
-        <v>814</v>
+        <v>865</v>
       </c>
       <c r="B795" s="8"/>
       <c r="C795" s="8"/>
@@ -11549,7 +12026,7 @@
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="5" t="s">
-        <v>815</v>
+        <v>866</v>
       </c>
       <c r="B796" s="8"/>
       <c r="C796" s="8"/>
@@ -11560,7 +12037,7 @@
     </row>
     <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="5" t="s">
-        <v>816</v>
+        <v>867</v>
       </c>
       <c r="B797" s="8"/>
       <c r="C797" s="8"/>
@@ -11571,7 +12048,7 @@
     </row>
     <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="5" t="s">
-        <v>817</v>
+        <v>868</v>
       </c>
       <c r="B798" s="8"/>
       <c r="C798" s="8"/>
@@ -11582,7 +12059,7 @@
     </row>
     <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="5" t="s">
-        <v>818</v>
+        <v>869</v>
       </c>
       <c r="B799" s="8"/>
       <c r="C799" s="8"/>
@@ -11593,7 +12070,7 @@
     </row>
     <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="5" t="s">
-        <v>819</v>
+        <v>870</v>
       </c>
       <c r="B800" s="8"/>
       <c r="C800" s="8"/>
@@ -11604,7 +12081,7 @@
     </row>
     <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="5" t="s">
-        <v>820</v>
+        <v>871</v>
       </c>
       <c r="B801" s="8"/>
       <c r="C801" s="8"/>
@@ -11615,7 +12092,7 @@
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="5" t="s">
-        <v>821</v>
+        <v>872</v>
       </c>
       <c r="B802" s="8"/>
       <c r="C802" s="8"/>
@@ -11626,7 +12103,7 @@
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="5" t="s">
-        <v>822</v>
+        <v>873</v>
       </c>
       <c r="B803" s="8"/>
       <c r="C803" s="8"/>
@@ -11637,7 +12114,7 @@
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="5" t="s">
-        <v>823</v>
+        <v>874</v>
       </c>
       <c r="B804" s="8"/>
       <c r="C804" s="8"/>
@@ -11648,7 +12125,7 @@
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="5" t="s">
-        <v>824</v>
+        <v>875</v>
       </c>
       <c r="B805" s="8"/>
       <c r="C805" s="8"/>
@@ -11659,7 +12136,7 @@
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="5" t="s">
-        <v>825</v>
+        <v>876</v>
       </c>
       <c r="B806" s="8"/>
       <c r="C806" s="8"/>
@@ -11670,7 +12147,7 @@
     </row>
     <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="5" t="s">
-        <v>826</v>
+        <v>877</v>
       </c>
       <c r="B807" s="8"/>
       <c r="C807" s="8"/>
@@ -11681,7 +12158,7 @@
     </row>
     <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="5" t="s">
-        <v>827</v>
+        <v>878</v>
       </c>
       <c r="B808" s="8"/>
       <c r="C808" s="8"/>
@@ -11692,7 +12169,7 @@
     </row>
     <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="5" t="s">
-        <v>828</v>
+        <v>879</v>
       </c>
       <c r="B809" s="8"/>
       <c r="C809" s="8"/>
@@ -11703,7 +12180,7 @@
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="5" t="s">
-        <v>829</v>
+        <v>880</v>
       </c>
       <c r="B810" s="8"/>
       <c r="C810" s="8"/>
@@ -11714,7 +12191,7 @@
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="5" t="s">
-        <v>830</v>
+        <v>881</v>
       </c>
       <c r="B811" s="8"/>
       <c r="C811" s="8"/>
@@ -11725,7 +12202,7 @@
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="5" t="s">
-        <v>831</v>
+        <v>882</v>
       </c>
       <c r="B812" s="8"/>
       <c r="C812" s="8"/>
@@ -11736,7 +12213,7 @@
     </row>
     <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="5" t="s">
-        <v>832</v>
+        <v>883</v>
       </c>
       <c r="B813" s="8"/>
       <c r="C813" s="8"/>
@@ -11747,7 +12224,7 @@
     </row>
     <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="5" t="s">
-        <v>833</v>
+        <v>884</v>
       </c>
       <c r="B814" s="8"/>
       <c r="C814" s="8"/>
@@ -11758,7 +12235,7 @@
     </row>
     <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="5" t="s">
-        <v>834</v>
+        <v>885</v>
       </c>
       <c r="B815" s="8"/>
       <c r="C815" s="8"/>
@@ -11769,7 +12246,7 @@
     </row>
     <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="5" t="s">
-        <v>835</v>
+        <v>886</v>
       </c>
       <c r="B816" s="8"/>
       <c r="C816" s="8"/>

--- a/data/BinanceAccount.xlsx
+++ b/data/BinanceAccount.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="893">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -346,7 +346,10 @@
     <t xml:space="preserve">34</t>
   </si>
   <si>
-    <t xml:space="preserve">35</t>
+    <t xml:space="preserve">nsspk1600357353827@grr.la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101180184</t>
   </si>
   <si>
     <t xml:space="preserve">36</t>
@@ -2687,6 +2690,21 @@
   </si>
   <si>
     <t xml:space="preserve">815</t>
+  </si>
+  <si>
+    <t>skxls1600357742597@grr.la</t>
+  </si>
+  <si>
+    <t>$Hoangxuan68@$</t>
+  </si>
+  <si>
+    <t>kava1ys70jvnajkv88529ys6urjcyle3k2j9r24g6a7</t>
+  </si>
+  <si>
+    <t>101183395</t>
+  </si>
+  <si>
+    <t>True</t>
   </si>
 </sst>
 </file>
@@ -2920,21 +2938,21 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="43.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="8" style="1" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="2" width="8.53"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="3.74" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="27.23" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="17.42" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="43.11" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="10.83" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="13.67" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="16.57" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="1022" customWidth="true" hidden="false" style="1" width="8.53" collapsed="true" outlineLevel="0"/>
+    <col min="1023" max="1025" customWidth="true" hidden="false" style="2" width="8.53" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3065,7 +3083,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -3657,27 +3675,47 @@
       <c r="A35" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="B35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="B36" t="s">
+        <v>888</v>
+      </c>
+      <c r="C36" t="s">
+        <v>889</v>
+      </c>
+      <c r="D36" t="s">
+        <v>890</v>
+      </c>
+      <c r="E36" t="s">
+        <v>891</v>
+      </c>
+      <c r="F36" t="s">
+        <v>892</v>
+      </c>
       <c r="G36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -3688,7 +3726,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -3699,7 +3737,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -3710,7 +3748,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -3721,7 +3759,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -3732,7 +3770,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -3743,7 +3781,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -3754,7 +3792,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -3765,7 +3803,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -3776,7 +3814,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3787,7 +3825,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -3798,7 +3836,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3809,7 +3847,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -3820,7 +3858,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -3831,7 +3869,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -3842,7 +3880,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -3853,7 +3891,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -3864,7 +3902,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -3875,7 +3913,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -3886,7 +3924,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -3897,7 +3935,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -3908,7 +3946,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -3919,7 +3957,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -3930,7 +3968,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -3941,7 +3979,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -3952,7 +3990,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -3963,7 +4001,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -3974,7 +4012,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -3985,7 +4023,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -3996,7 +4034,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -4007,7 +4045,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -4018,7 +4056,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -4029,7 +4067,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -4040,7 +4078,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -4051,7 +4089,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -4062,7 +4100,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -4073,7 +4111,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -4084,7 +4122,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -4095,7 +4133,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -4106,7 +4144,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -4117,7 +4155,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -4128,7 +4166,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -4139,7 +4177,7 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -4150,7 +4188,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -4161,7 +4199,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -4172,7 +4210,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -4183,7 +4221,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -4194,7 +4232,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -4205,7 +4243,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -4216,7 +4254,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -4227,7 +4265,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -4238,7 +4276,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -4249,7 +4287,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -4260,7 +4298,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -4271,7 +4309,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -4282,7 +4320,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -4293,7 +4331,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -4304,7 +4342,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -4315,7 +4353,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -4326,7 +4364,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -4337,7 +4375,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -4348,7 +4386,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -4359,7 +4397,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -4370,7 +4408,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -4381,7 +4419,7 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -4392,7 +4430,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -4403,7 +4441,7 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -4414,7 +4452,7 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -4425,7 +4463,7 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -4436,7 +4474,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -4447,7 +4485,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -4458,7 +4496,7 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -4469,7 +4507,7 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -4480,7 +4518,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -4491,7 +4529,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -4502,7 +4540,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -4513,7 +4551,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -4524,7 +4562,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -4535,7 +4573,7 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -4546,7 +4584,7 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -4557,7 +4595,7 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -4568,7 +4606,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -4579,7 +4617,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -4590,7 +4628,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -4601,7 +4639,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -4612,7 +4650,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -4623,7 +4661,7 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -4634,7 +4672,7 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -4645,7 +4683,7 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -4656,7 +4694,7 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -4667,7 +4705,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -4678,7 +4716,7 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -4689,7 +4727,7 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -4700,7 +4738,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -4711,7 +4749,7 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -4722,7 +4760,7 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -4733,7 +4771,7 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -4744,7 +4782,7 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -4755,7 +4793,7 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -4766,7 +4804,7 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -4777,7 +4815,7 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -4788,7 +4826,7 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -4799,7 +4837,7 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -4810,7 +4848,7 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -4821,7 +4859,7 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -4832,7 +4870,7 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -4843,7 +4881,7 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -4854,7 +4892,7 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -4865,7 +4903,7 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -4876,7 +4914,7 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -4887,7 +4925,7 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -4898,7 +4936,7 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -4909,7 +4947,7 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -4920,7 +4958,7 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -4931,7 +4969,7 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -4942,7 +4980,7 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -4953,7 +4991,7 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -4964,7 +5002,7 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -4975,7 +5013,7 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -4986,7 +5024,7 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -4997,7 +5035,7 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -5008,7 +5046,7 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -5019,7 +5057,7 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -5030,7 +5068,7 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -5041,7 +5079,7 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -5052,7 +5090,7 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -5063,7 +5101,7 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -5074,7 +5112,7 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -5085,7 +5123,7 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -5096,7 +5134,7 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -5107,7 +5145,7 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -5118,7 +5156,7 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -5129,7 +5167,7 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -5140,7 +5178,7 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -5151,7 +5189,7 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -5162,7 +5200,7 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -5173,7 +5211,7 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -5184,7 +5222,7 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -5195,7 +5233,7 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -5206,7 +5244,7 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -5217,7 +5255,7 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -5228,7 +5266,7 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -5239,7 +5277,7 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -5250,7 +5288,7 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -5261,7 +5299,7 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -5272,7 +5310,7 @@
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -5283,7 +5321,7 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -5294,7 +5332,7 @@
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -5305,7 +5343,7 @@
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -5316,7 +5354,7 @@
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -5327,7 +5365,7 @@
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -5338,7 +5376,7 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -5349,7 +5387,7 @@
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -5360,7 +5398,7 @@
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -5371,7 +5409,7 @@
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -5382,7 +5420,7 @@
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -5393,7 +5431,7 @@
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -5404,7 +5442,7 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -5415,7 +5453,7 @@
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -5426,7 +5464,7 @@
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -5437,7 +5475,7 @@
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -5448,7 +5486,7 @@
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -5459,7 +5497,7 @@
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -5470,7 +5508,7 @@
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -5481,7 +5519,7 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -5492,7 +5530,7 @@
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
@@ -5503,7 +5541,7 @@
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
@@ -5514,7 +5552,7 @@
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
@@ -5525,7 +5563,7 @@
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
@@ -5536,7 +5574,7 @@
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
@@ -5547,7 +5585,7 @@
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
@@ -5558,7 +5596,7 @@
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
@@ -5569,7 +5607,7 @@
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
@@ -5580,7 +5618,7 @@
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
@@ -5591,7 +5629,7 @@
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
@@ -5602,7 +5640,7 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
@@ -5613,7 +5651,7 @@
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
@@ -5624,7 +5662,7 @@
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
@@ -5635,7 +5673,7 @@
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
@@ -5646,7 +5684,7 @@
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
@@ -5657,7 +5695,7 @@
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
@@ -5668,7 +5706,7 @@
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
@@ -5679,7 +5717,7 @@
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
@@ -5690,7 +5728,7 @@
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
@@ -5701,7 +5739,7 @@
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
@@ -5712,7 +5750,7 @@
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B222" s="8"/>
       <c r="C222" s="8"/>
@@ -5723,7 +5761,7 @@
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B223" s="8"/>
       <c r="C223" s="8"/>
@@ -5734,7 +5772,7 @@
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B224" s="8"/>
       <c r="C224" s="8"/>
@@ -5745,7 +5783,7 @@
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="5" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B225" s="8"/>
       <c r="C225" s="8"/>
@@ -5756,7 +5794,7 @@
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B226" s="8"/>
       <c r="C226" s="8"/>
@@ -5767,7 +5805,7 @@
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
@@ -5778,7 +5816,7 @@
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
@@ -5789,7 +5827,7 @@
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B229" s="8"/>
       <c r="C229" s="8"/>
@@ -5800,7 +5838,7 @@
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B230" s="8"/>
       <c r="C230" s="8"/>
@@ -5811,7 +5849,7 @@
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B231" s="8"/>
       <c r="C231" s="8"/>
@@ -5822,7 +5860,7 @@
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B232" s="8"/>
       <c r="C232" s="8"/>
@@ -5833,7 +5871,7 @@
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B233" s="8"/>
       <c r="C233" s="8"/>
@@ -5844,7 +5882,7 @@
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B234" s="8"/>
       <c r="C234" s="8"/>
@@ -5855,7 +5893,7 @@
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B235" s="8"/>
       <c r="C235" s="8"/>
@@ -5866,7 +5904,7 @@
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B236" s="8"/>
       <c r="C236" s="8"/>
@@ -5877,7 +5915,7 @@
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B237" s="8"/>
       <c r="C237" s="8"/>
@@ -5888,7 +5926,7 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B238" s="8"/>
       <c r="C238" s="8"/>
@@ -5899,7 +5937,7 @@
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B239" s="8"/>
       <c r="C239" s="8"/>
@@ -5910,7 +5948,7 @@
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B240" s="8"/>
       <c r="C240" s="8"/>
@@ -5921,7 +5959,7 @@
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B241" s="8"/>
       <c r="C241" s="8"/>
@@ -5932,7 +5970,7 @@
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B242" s="8"/>
       <c r="C242" s="8"/>
@@ -5943,7 +5981,7 @@
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B243" s="8"/>
       <c r="C243" s="8"/>
@@ -5954,7 +5992,7 @@
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B244" s="8"/>
       <c r="C244" s="8"/>
@@ -5965,7 +6003,7 @@
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B245" s="8"/>
       <c r="C245" s="8"/>
@@ -5976,7 +6014,7 @@
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B246" s="8"/>
       <c r="C246" s="8"/>
@@ -5987,7 +6025,7 @@
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B247" s="8"/>
       <c r="C247" s="8"/>
@@ -5998,7 +6036,7 @@
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B248" s="8"/>
       <c r="C248" s="8"/>
@@ -6009,7 +6047,7 @@
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B249" s="8"/>
       <c r="C249" s="8"/>
@@ -6020,7 +6058,7 @@
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B250" s="8"/>
       <c r="C250" s="8"/>
@@ -6031,7 +6069,7 @@
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B251" s="8"/>
       <c r="C251" s="8"/>
@@ -6042,7 +6080,7 @@
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B252" s="8"/>
       <c r="C252" s="8"/>
@@ -6053,7 +6091,7 @@
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B253" s="8"/>
       <c r="C253" s="8"/>
@@ -6064,7 +6102,7 @@
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B254" s="8"/>
       <c r="C254" s="8"/>
@@ -6075,7 +6113,7 @@
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B255" s="8"/>
       <c r="C255" s="8"/>
@@ -6086,7 +6124,7 @@
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B256" s="8"/>
       <c r="C256" s="8"/>
@@ -6097,7 +6135,7 @@
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B257" s="8"/>
       <c r="C257" s="8"/>
@@ -6108,7 +6146,7 @@
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B258" s="8"/>
       <c r="C258" s="8"/>
@@ -6119,7 +6157,7 @@
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B259" s="8"/>
       <c r="C259" s="8"/>
@@ -6130,7 +6168,7 @@
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B260" s="8"/>
       <c r="C260" s="8"/>
@@ -6141,7 +6179,7 @@
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B261" s="8"/>
       <c r="C261" s="8"/>
@@ -6152,7 +6190,7 @@
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B262" s="8"/>
       <c r="C262" s="8"/>
@@ -6163,7 +6201,7 @@
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B263" s="8"/>
       <c r="C263" s="8"/>
@@ -6174,7 +6212,7 @@
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B264" s="8"/>
       <c r="C264" s="8"/>
@@ -6185,7 +6223,7 @@
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B265" s="8"/>
       <c r="C265" s="8"/>
@@ -6196,7 +6234,7 @@
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B266" s="8"/>
       <c r="C266" s="8"/>
@@ -6207,7 +6245,7 @@
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B267" s="8"/>
       <c r="C267" s="8"/>
@@ -6218,7 +6256,7 @@
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B268" s="8"/>
       <c r="C268" s="8"/>
@@ -6229,7 +6267,7 @@
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B269" s="8"/>
       <c r="C269" s="8"/>
@@ -6240,7 +6278,7 @@
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B270" s="8"/>
       <c r="C270" s="8"/>
@@ -6251,7 +6289,7 @@
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B271" s="8"/>
       <c r="C271" s="8"/>
@@ -6262,7 +6300,7 @@
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B272" s="8"/>
       <c r="C272" s="8"/>
@@ -6273,7 +6311,7 @@
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B273" s="8"/>
       <c r="C273" s="8"/>
@@ -6284,7 +6322,7 @@
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B274" s="8"/>
       <c r="C274" s="8"/>
@@ -6295,7 +6333,7 @@
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B275" s="8"/>
       <c r="C275" s="8"/>
@@ -6306,7 +6344,7 @@
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B276" s="8"/>
       <c r="C276" s="8"/>
@@ -6317,7 +6355,7 @@
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B277" s="8"/>
       <c r="C277" s="8"/>
@@ -6328,7 +6366,7 @@
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B278" s="8"/>
       <c r="C278" s="8"/>
@@ -6339,7 +6377,7 @@
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B279" s="8"/>
       <c r="C279" s="8"/>
@@ -6350,7 +6388,7 @@
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B280" s="8"/>
       <c r="C280" s="8"/>
@@ -6361,7 +6399,7 @@
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="5" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B281" s="8"/>
       <c r="C281" s="8"/>
@@ -6372,7 +6410,7 @@
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B282" s="8"/>
       <c r="C282" s="8"/>
@@ -6383,7 +6421,7 @@
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B283" s="8"/>
       <c r="C283" s="8"/>
@@ -6394,7 +6432,7 @@
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B284" s="8"/>
       <c r="C284" s="8"/>
@@ -6405,7 +6443,7 @@
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B285" s="8"/>
       <c r="C285" s="8"/>
@@ -6416,7 +6454,7 @@
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B286" s="8"/>
       <c r="C286" s="8"/>
@@ -6427,7 +6465,7 @@
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="5" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B287" s="8"/>
       <c r="C287" s="8"/>
@@ -6438,7 +6476,7 @@
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B288" s="8"/>
       <c r="C288" s="8"/>
@@ -6449,7 +6487,7 @@
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B289" s="8"/>
       <c r="C289" s="8"/>
@@ -6460,7 +6498,7 @@
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B290" s="8"/>
       <c r="C290" s="8"/>
@@ -6471,7 +6509,7 @@
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="5" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B291" s="8"/>
       <c r="C291" s="8"/>
@@ -6482,7 +6520,7 @@
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B292" s="8"/>
       <c r="C292" s="8"/>
@@ -6493,7 +6531,7 @@
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B293" s="8"/>
       <c r="C293" s="8"/>
@@ -6504,7 +6542,7 @@
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B294" s="8"/>
       <c r="C294" s="8"/>
@@ -6515,7 +6553,7 @@
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="5" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B295" s="8"/>
       <c r="C295" s="8"/>
@@ -6526,7 +6564,7 @@
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="5" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B296" s="8"/>
       <c r="C296" s="8"/>
@@ -6537,7 +6575,7 @@
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B297" s="8"/>
       <c r="C297" s="8"/>
@@ -6548,7 +6586,7 @@
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B298" s="8"/>
       <c r="C298" s="8"/>
@@ -6559,7 +6597,7 @@
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="5" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B299" s="8"/>
       <c r="C299" s="8"/>
@@ -6570,7 +6608,7 @@
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B300" s="8"/>
       <c r="C300" s="8"/>
@@ -6581,7 +6619,7 @@
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="5" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B301" s="8"/>
       <c r="C301" s="8"/>
@@ -6592,7 +6630,7 @@
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="5" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B302" s="8"/>
       <c r="C302" s="8"/>
@@ -6603,7 +6641,7 @@
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B303" s="8"/>
       <c r="C303" s="8"/>
@@ -6614,7 +6652,7 @@
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B304" s="8"/>
       <c r="C304" s="8"/>
@@ -6625,7 +6663,7 @@
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="5" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B305" s="8"/>
       <c r="C305" s="8"/>
@@ -6636,7 +6674,7 @@
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="5" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B306" s="8"/>
       <c r="C306" s="8"/>
@@ -6647,7 +6685,7 @@
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="5" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B307" s="8"/>
       <c r="C307" s="8"/>
@@ -6658,7 +6696,7 @@
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B308" s="8"/>
       <c r="C308" s="8"/>
@@ -6669,7 +6707,7 @@
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="5" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B309" s="8"/>
       <c r="C309" s="8"/>
@@ -6680,7 +6718,7 @@
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B310" s="8"/>
       <c r="C310" s="8"/>
@@ -6691,7 +6729,7 @@
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B311" s="8"/>
       <c r="C311" s="8"/>
@@ -6702,7 +6740,7 @@
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="5" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B312" s="8"/>
       <c r="C312" s="8"/>
@@ -6713,7 +6751,7 @@
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="5" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B313" s="8"/>
       <c r="C313" s="8"/>
@@ -6724,7 +6762,7 @@
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="5" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B314" s="8"/>
       <c r="C314" s="8"/>
@@ -6735,7 +6773,7 @@
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="5" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B315" s="8"/>
       <c r="C315" s="8"/>
@@ -6746,7 +6784,7 @@
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B316" s="8"/>
       <c r="C316" s="8"/>
@@ -6757,7 +6795,7 @@
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="5" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B317" s="8"/>
       <c r="C317" s="8"/>
@@ -6768,7 +6806,7 @@
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="5" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B318" s="8"/>
       <c r="C318" s="8"/>
@@ -6779,7 +6817,7 @@
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="5" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B319" s="8"/>
       <c r="C319" s="8"/>
@@ -6790,7 +6828,7 @@
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="5" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B320" s="8"/>
       <c r="C320" s="8"/>
@@ -6801,7 +6839,7 @@
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B321" s="8"/>
       <c r="C321" s="8"/>
@@ -6812,7 +6850,7 @@
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="5" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B322" s="8"/>
       <c r="C322" s="8"/>
@@ -6823,7 +6861,7 @@
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="5" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B323" s="8"/>
       <c r="C323" s="8"/>
@@ -6834,7 +6872,7 @@
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B324" s="8"/>
       <c r="C324" s="8"/>
@@ -6845,7 +6883,7 @@
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B325" s="8"/>
       <c r="C325" s="8"/>
@@ -6856,7 +6894,7 @@
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B326" s="8"/>
       <c r="C326" s="8"/>
@@ -6867,7 +6905,7 @@
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B327" s="8"/>
       <c r="C327" s="8"/>
@@ -6878,7 +6916,7 @@
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="5" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B328" s="8"/>
       <c r="C328" s="8"/>
@@ -6889,7 +6927,7 @@
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="5" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B329" s="8"/>
       <c r="C329" s="8"/>
@@ -6900,7 +6938,7 @@
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B330" s="8"/>
       <c r="C330" s="8"/>
@@ -6911,7 +6949,7 @@
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B331" s="8"/>
       <c r="C331" s="8"/>
@@ -6922,7 +6960,7 @@
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="5" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B332" s="8"/>
       <c r="C332" s="8"/>
@@ -6933,7 +6971,7 @@
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="5" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B333" s="8"/>
       <c r="C333" s="8"/>
@@ -6944,7 +6982,7 @@
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="5" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B334" s="8"/>
       <c r="C334" s="8"/>
@@ -6955,7 +6993,7 @@
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B335" s="8"/>
       <c r="C335" s="8"/>
@@ -6966,7 +7004,7 @@
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="5" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B336" s="8"/>
       <c r="C336" s="8"/>
@@ -6977,7 +7015,7 @@
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="5" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B337" s="8"/>
       <c r="C337" s="8"/>
@@ -6988,7 +7026,7 @@
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B338" s="8"/>
       <c r="C338" s="8"/>
@@ -6999,7 +7037,7 @@
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B339" s="8"/>
       <c r="C339" s="8"/>
@@ -7010,7 +7048,7 @@
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="5" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B340" s="8"/>
       <c r="C340" s="8"/>
@@ -7021,7 +7059,7 @@
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="5" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B341" s="8"/>
       <c r="C341" s="8"/>
@@ -7032,7 +7070,7 @@
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="5" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B342" s="8"/>
       <c r="C342" s="8"/>
@@ -7043,7 +7081,7 @@
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="5" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B343" s="8"/>
       <c r="C343" s="8"/>
@@ -7054,7 +7092,7 @@
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="5" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B344" s="8"/>
       <c r="C344" s="8"/>
@@ -7065,7 +7103,7 @@
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="5" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B345" s="8"/>
       <c r="C345" s="8"/>
@@ -7076,7 +7114,7 @@
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="5" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B346" s="8"/>
       <c r="C346" s="8"/>
@@ -7087,7 +7125,7 @@
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="5" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B347" s="8"/>
       <c r="C347" s="8"/>
@@ -7098,7 +7136,7 @@
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="5" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B348" s="8"/>
       <c r="C348" s="8"/>
@@ -7109,7 +7147,7 @@
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="5" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B349" s="8"/>
       <c r="C349" s="8"/>
@@ -7120,7 +7158,7 @@
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B350" s="8"/>
       <c r="C350" s="8"/>
@@ -7131,7 +7169,7 @@
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="5" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B351" s="8"/>
       <c r="C351" s="8"/>
@@ -7142,7 +7180,7 @@
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="5" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B352" s="8"/>
       <c r="C352" s="8"/>
@@ -7153,7 +7191,7 @@
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="5" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B353" s="8"/>
       <c r="C353" s="8"/>
@@ -7164,7 +7202,7 @@
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="5" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B354" s="8"/>
       <c r="C354" s="8"/>
@@ -7175,7 +7213,7 @@
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="5" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B355" s="8"/>
       <c r="C355" s="8"/>
@@ -7186,7 +7224,7 @@
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="5" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B356" s="8"/>
       <c r="C356" s="8"/>
@@ -7197,7 +7235,7 @@
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="5" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B357" s="8"/>
       <c r="C357" s="8"/>
@@ -7208,7 +7246,7 @@
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="5" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B358" s="8"/>
       <c r="C358" s="8"/>
@@ -7219,7 +7257,7 @@
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="5" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B359" s="8"/>
       <c r="C359" s="8"/>
@@ -7230,7 +7268,7 @@
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="5" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B360" s="8"/>
       <c r="C360" s="8"/>
@@ -7241,7 +7279,7 @@
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B361" s="8"/>
       <c r="C361" s="8"/>
@@ -7252,7 +7290,7 @@
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="5" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B362" s="8"/>
       <c r="C362" s="8"/>
@@ -7263,7 +7301,7 @@
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="5" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B363" s="8"/>
       <c r="C363" s="8"/>
@@ -7274,7 +7312,7 @@
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="5" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B364" s="8"/>
       <c r="C364" s="8"/>
@@ -7285,7 +7323,7 @@
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="5" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B365" s="8"/>
       <c r="C365" s="8"/>
@@ -7296,7 +7334,7 @@
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="5" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B366" s="8"/>
       <c r="C366" s="8"/>
@@ -7307,7 +7345,7 @@
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B367" s="8"/>
       <c r="C367" s="8"/>
@@ -7318,7 +7356,7 @@
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="5" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B368" s="8"/>
       <c r="C368" s="8"/>
@@ -7329,7 +7367,7 @@
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="5" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B369" s="8"/>
       <c r="C369" s="8"/>
@@ -7340,7 +7378,7 @@
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="5" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B370" s="8"/>
       <c r="C370" s="8"/>
@@ -7351,7 +7389,7 @@
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="5" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B371" s="8"/>
       <c r="C371" s="8"/>
@@ -7362,7 +7400,7 @@
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="5" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B372" s="8"/>
       <c r="C372" s="8"/>
@@ -7373,7 +7411,7 @@
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="5" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B373" s="8"/>
       <c r="C373" s="8"/>
@@ -7384,7 +7422,7 @@
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="5" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B374" s="8"/>
       <c r="C374" s="8"/>
@@ -7395,7 +7433,7 @@
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="5" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B375" s="8"/>
       <c r="C375" s="8"/>
@@ -7406,7 +7444,7 @@
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B376" s="8"/>
       <c r="C376" s="8"/>
@@ -7417,7 +7455,7 @@
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="5" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B377" s="8"/>
       <c r="C377" s="8"/>
@@ -7428,7 +7466,7 @@
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="5" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B378" s="8"/>
       <c r="C378" s="8"/>
@@ -7439,7 +7477,7 @@
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="5" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B379" s="8"/>
       <c r="C379" s="8"/>
@@ -7450,7 +7488,7 @@
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B380" s="8"/>
       <c r="C380" s="8"/>
@@ -7461,7 +7499,7 @@
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B381" s="8"/>
       <c r="C381" s="8"/>
@@ -7472,7 +7510,7 @@
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B382" s="8"/>
       <c r="C382" s="8"/>
@@ -7483,7 +7521,7 @@
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="5" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B383" s="8"/>
       <c r="C383" s="8"/>
@@ -7494,7 +7532,7 @@
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="5" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B384" s="8"/>
       <c r="C384" s="8"/>
@@ -7505,7 +7543,7 @@
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="5" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B385" s="8"/>
       <c r="C385" s="8"/>
@@ -7516,7 +7554,7 @@
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="5" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B386" s="8"/>
       <c r="C386" s="8"/>
@@ -7527,7 +7565,7 @@
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="5" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B387" s="8"/>
       <c r="C387" s="8"/>
@@ -7538,7 +7576,7 @@
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B388" s="8"/>
       <c r="C388" s="8"/>
@@ -7549,7 +7587,7 @@
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="5" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B389" s="8"/>
       <c r="C389" s="8"/>
@@ -7560,7 +7598,7 @@
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B390" s="8"/>
       <c r="C390" s="8"/>
@@ -7571,7 +7609,7 @@
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B391" s="8"/>
       <c r="C391" s="8"/>
@@ -7582,7 +7620,7 @@
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="5" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B392" s="8"/>
       <c r="C392" s="8"/>
@@ -7593,7 +7631,7 @@
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="5" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B393" s="8"/>
       <c r="C393" s="8"/>
@@ -7604,7 +7642,7 @@
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="5" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B394" s="8"/>
       <c r="C394" s="8"/>
@@ -7615,7 +7653,7 @@
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="5" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B395" s="8"/>
       <c r="C395" s="8"/>
@@ -7626,7 +7664,7 @@
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="5" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B396" s="8"/>
       <c r="C396" s="8"/>
@@ -7637,7 +7675,7 @@
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="5" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B397" s="8"/>
       <c r="C397" s="8"/>
@@ -7648,7 +7686,7 @@
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B398" s="8"/>
       <c r="C398" s="8"/>
@@ -7659,7 +7697,7 @@
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="5" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B399" s="8"/>
       <c r="C399" s="8"/>
@@ -7670,7 +7708,7 @@
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B400" s="8"/>
       <c r="C400" s="8"/>
@@ -7681,7 +7719,7 @@
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B401" s="8"/>
       <c r="C401" s="8"/>
@@ -7692,7 +7730,7 @@
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="5" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B402" s="8"/>
       <c r="C402" s="8"/>
@@ -7703,7 +7741,7 @@
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="5" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B403" s="8"/>
       <c r="C403" s="8"/>
@@ -7714,7 +7752,7 @@
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="5" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B404" s="8"/>
       <c r="C404" s="8"/>
@@ -7725,7 +7763,7 @@
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="5" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B405" s="8"/>
       <c r="C405" s="8"/>
@@ -7736,7 +7774,7 @@
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B406" s="8"/>
       <c r="C406" s="8"/>
@@ -7747,7 +7785,7 @@
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="5" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B407" s="8"/>
       <c r="C407" s="8"/>
@@ -7758,7 +7796,7 @@
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="5" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B408" s="8"/>
       <c r="C408" s="8"/>
@@ -7769,7 +7807,7 @@
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="5" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B409" s="8"/>
       <c r="C409" s="8"/>
@@ -7780,7 +7818,7 @@
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="5" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B410" s="8"/>
       <c r="C410" s="8"/>
@@ -7791,7 +7829,7 @@
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="5" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B411" s="8"/>
       <c r="C411" s="8"/>
@@ -7802,7 +7840,7 @@
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="5" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B412" s="8"/>
       <c r="C412" s="8"/>
@@ -7813,7 +7851,7 @@
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="5" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B413" s="8"/>
       <c r="C413" s="8"/>
@@ -7824,7 +7862,7 @@
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="5" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B414" s="8"/>
       <c r="C414" s="8"/>
@@ -7835,7 +7873,7 @@
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="5" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B415" s="8"/>
       <c r="C415" s="8"/>
@@ -7846,7 +7884,7 @@
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="5" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B416" s="8"/>
       <c r="C416" s="8"/>
@@ -7857,7 +7895,7 @@
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="5" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B417" s="8"/>
       <c r="C417" s="8"/>
@@ -7868,7 +7906,7 @@
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="5" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B418" s="8"/>
       <c r="C418" s="8"/>
@@ -7879,7 +7917,7 @@
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="5" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B419" s="8"/>
       <c r="C419" s="8"/>
@@ -7890,7 +7928,7 @@
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="5" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B420" s="8"/>
       <c r="C420" s="8"/>
@@ -7901,7 +7939,7 @@
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B421" s="8"/>
       <c r="C421" s="8"/>
@@ -7912,7 +7950,7 @@
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="5" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B422" s="8"/>
       <c r="C422" s="8"/>
@@ -7923,7 +7961,7 @@
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="5" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B423" s="8"/>
       <c r="C423" s="8"/>
@@ -7934,7 +7972,7 @@
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="5" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B424" s="8"/>
       <c r="C424" s="8"/>
@@ -7945,7 +7983,7 @@
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="5" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B425" s="8"/>
       <c r="C425" s="8"/>
@@ -7956,7 +7994,7 @@
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="5" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B426" s="8"/>
       <c r="C426" s="8"/>
@@ -7967,7 +8005,7 @@
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="5" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B427" s="8"/>
       <c r="C427" s="8"/>
@@ -7978,7 +8016,7 @@
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="5" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B428" s="8"/>
       <c r="C428" s="8"/>
@@ -7989,7 +8027,7 @@
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="5" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B429" s="8"/>
       <c r="C429" s="8"/>
@@ -8000,7 +8038,7 @@
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="5" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B430" s="8"/>
       <c r="C430" s="8"/>
@@ -8011,7 +8049,7 @@
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="5" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B431" s="8"/>
       <c r="C431" s="8"/>
@@ -8022,7 +8060,7 @@
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="5" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B432" s="8"/>
       <c r="C432" s="8"/>
@@ -8033,7 +8071,7 @@
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="5" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B433" s="8"/>
       <c r="C433" s="8"/>
@@ -8044,7 +8082,7 @@
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B434" s="8"/>
       <c r="C434" s="8"/>
@@ -8055,7 +8093,7 @@
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="5" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B435" s="8"/>
       <c r="C435" s="8"/>
@@ -8066,7 +8104,7 @@
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="5" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B436" s="8"/>
       <c r="C436" s="8"/>
@@ -8077,7 +8115,7 @@
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="5" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B437" s="8"/>
       <c r="C437" s="8"/>
@@ -8088,7 +8126,7 @@
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="5" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B438" s="8"/>
       <c r="C438" s="8"/>
@@ -8099,7 +8137,7 @@
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="5" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B439" s="8"/>
       <c r="C439" s="8"/>
@@ -8110,7 +8148,7 @@
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="5" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B440" s="8"/>
       <c r="C440" s="8"/>
@@ -8121,7 +8159,7 @@
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="5" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B441" s="8"/>
       <c r="C441" s="8"/>
@@ -8132,7 +8170,7 @@
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="5" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B442" s="8"/>
       <c r="C442" s="8"/>
@@ -8143,7 +8181,7 @@
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="5" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B443" s="8"/>
       <c r="C443" s="8"/>
@@ -8154,7 +8192,7 @@
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B444" s="8"/>
       <c r="C444" s="8"/>
@@ -8165,7 +8203,7 @@
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="5" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B445" s="8"/>
       <c r="C445" s="8"/>
@@ -8176,7 +8214,7 @@
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="5" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B446" s="8"/>
       <c r="C446" s="8"/>
@@ -8187,7 +8225,7 @@
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="5" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B447" s="8"/>
       <c r="C447" s="8"/>
@@ -8198,7 +8236,7 @@
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="5" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B448" s="8"/>
       <c r="C448" s="8"/>
@@ -8209,7 +8247,7 @@
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="5" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B449" s="8"/>
       <c r="C449" s="8"/>
@@ -8220,7 +8258,7 @@
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="5" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B450" s="8"/>
       <c r="C450" s="8"/>
@@ -8231,7 +8269,7 @@
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="5" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B451" s="8"/>
       <c r="C451" s="8"/>
@@ -8242,7 +8280,7 @@
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="5" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B452" s="8"/>
       <c r="C452" s="8"/>
@@ -8253,7 +8291,7 @@
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="5" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B453" s="8"/>
       <c r="C453" s="8"/>
@@ -8264,7 +8302,7 @@
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="5" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B454" s="8"/>
       <c r="C454" s="8"/>
@@ -8275,7 +8313,7 @@
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="5" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B455" s="8"/>
       <c r="C455" s="8"/>
@@ -8286,7 +8324,7 @@
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="5" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B456" s="8"/>
       <c r="C456" s="8"/>
@@ -8297,7 +8335,7 @@
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="5" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B457" s="8"/>
       <c r="C457" s="8"/>
@@ -8308,7 +8346,7 @@
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="5" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B458" s="8"/>
       <c r="C458" s="8"/>
@@ -8319,7 +8357,7 @@
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="5" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B459" s="8"/>
       <c r="C459" s="8"/>
@@ -8330,7 +8368,7 @@
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B460" s="8"/>
       <c r="C460" s="8"/>
@@ -8341,7 +8379,7 @@
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="5" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B461" s="8"/>
       <c r="C461" s="8"/>
@@ -8352,7 +8390,7 @@
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="5" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B462" s="8"/>
       <c r="C462" s="8"/>
@@ -8363,7 +8401,7 @@
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B463" s="8"/>
       <c r="C463" s="8"/>
@@ -8374,7 +8412,7 @@
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="5" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B464" s="8"/>
       <c r="C464" s="8"/>
@@ -8385,7 +8423,7 @@
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="5" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B465" s="8"/>
       <c r="C465" s="8"/>
@@ -8396,7 +8434,7 @@
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="5" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B466" s="8"/>
       <c r="C466" s="8"/>
@@ -8407,7 +8445,7 @@
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="5" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B467" s="8"/>
       <c r="C467" s="8"/>
@@ -8418,7 +8456,7 @@
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="5" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B468" s="8"/>
       <c r="C468" s="8"/>
@@ -8429,7 +8467,7 @@
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="5" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B469" s="8"/>
       <c r="C469" s="8"/>
@@ -8440,7 +8478,7 @@
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="5" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B470" s="8"/>
       <c r="C470" s="8"/>
@@ -8451,7 +8489,7 @@
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B471" s="8"/>
       <c r="C471" s="8"/>
@@ -8462,7 +8500,7 @@
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="5" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B472" s="8"/>
       <c r="C472" s="8"/>
@@ -8473,7 +8511,7 @@
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="5" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B473" s="8"/>
       <c r="C473" s="8"/>
@@ -8484,7 +8522,7 @@
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="5" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B474" s="8"/>
       <c r="C474" s="8"/>
@@ -8495,7 +8533,7 @@
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="5" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B475" s="8"/>
       <c r="C475" s="8"/>
@@ -8506,7 +8544,7 @@
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="5" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B476" s="8"/>
       <c r="C476" s="8"/>
@@ -8517,7 +8555,7 @@
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="5" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B477" s="8"/>
       <c r="C477" s="8"/>
@@ -8528,7 +8566,7 @@
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="5" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B478" s="8"/>
       <c r="C478" s="8"/>
@@ -8539,7 +8577,7 @@
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="5" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B479" s="8"/>
       <c r="C479" s="8"/>
@@ -8550,7 +8588,7 @@
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="5" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B480" s="8"/>
       <c r="C480" s="8"/>
@@ -8561,7 +8599,7 @@
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="5" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B481" s="8"/>
       <c r="C481" s="8"/>
@@ -8572,7 +8610,7 @@
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="5" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B482" s="8"/>
       <c r="C482" s="8"/>
@@ -8583,7 +8621,7 @@
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B483" s="8"/>
       <c r="C483" s="8"/>
@@ -8594,7 +8632,7 @@
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="5" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B484" s="8"/>
       <c r="C484" s="8"/>
@@ -8605,7 +8643,7 @@
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="5" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B485" s="8"/>
       <c r="C485" s="8"/>
@@ -8616,7 +8654,7 @@
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="5" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B486" s="8"/>
       <c r="C486" s="8"/>
@@ -8627,7 +8665,7 @@
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="5" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B487" s="8"/>
       <c r="C487" s="8"/>
@@ -8638,7 +8676,7 @@
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="5" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B488" s="8"/>
       <c r="C488" s="8"/>
@@ -8649,7 +8687,7 @@
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="5" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B489" s="8"/>
       <c r="C489" s="8"/>
@@ -8660,7 +8698,7 @@
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="5" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B490" s="8"/>
       <c r="C490" s="8"/>
@@ -8671,7 +8709,7 @@
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="5" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B491" s="8"/>
       <c r="C491" s="8"/>
@@ -8682,7 +8720,7 @@
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="5" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B492" s="8"/>
       <c r="C492" s="8"/>
@@ -8693,7 +8731,7 @@
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="5" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B493" s="8"/>
       <c r="C493" s="8"/>
@@ -8704,7 +8742,7 @@
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="5" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B494" s="8"/>
       <c r="C494" s="8"/>
@@ -8715,7 +8753,7 @@
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B495" s="8"/>
       <c r="C495" s="8"/>
@@ -8726,7 +8764,7 @@
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="5" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B496" s="8"/>
       <c r="C496" s="8"/>
@@ -8737,7 +8775,7 @@
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="5" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B497" s="8"/>
       <c r="C497" s="8"/>
@@ -8748,7 +8786,7 @@
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="5" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B498" s="8"/>
       <c r="C498" s="8"/>
@@ -8759,7 +8797,7 @@
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="5" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B499" s="8"/>
       <c r="C499" s="8"/>
@@ -8770,7 +8808,7 @@
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="5" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B500" s="8"/>
       <c r="C500" s="8"/>
@@ -8781,7 +8819,7 @@
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="5" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B501" s="8"/>
       <c r="C501" s="8"/>
@@ -8792,7 +8830,7 @@
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="5" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B502" s="8"/>
       <c r="C502" s="8"/>
@@ -8803,7 +8841,7 @@
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="5" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B503" s="8"/>
       <c r="C503" s="8"/>
@@ -8814,7 +8852,7 @@
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="5" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B504" s="8"/>
       <c r="C504" s="8"/>
@@ -8825,7 +8863,7 @@
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="5" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B505" s="8"/>
       <c r="C505" s="8"/>
@@ -8836,7 +8874,7 @@
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="5" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B506" s="8"/>
       <c r="C506" s="8"/>
@@ -8847,7 +8885,7 @@
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="5" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B507" s="8"/>
       <c r="C507" s="8"/>
@@ -8858,7 +8896,7 @@
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="5" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B508" s="8"/>
       <c r="C508" s="8"/>
@@ -8869,7 +8907,7 @@
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="5" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B509" s="8"/>
       <c r="C509" s="8"/>
@@ -8880,7 +8918,7 @@
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="5" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B510" s="8"/>
       <c r="C510" s="8"/>
@@ -8891,7 +8929,7 @@
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="5" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B511" s="8"/>
       <c r="C511" s="8"/>
@@ -8902,7 +8940,7 @@
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="5" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B512" s="8"/>
       <c r="C512" s="8"/>
@@ -8913,7 +8951,7 @@
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="5" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B513" s="8"/>
       <c r="C513" s="8"/>
@@ -8924,7 +8962,7 @@
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="5" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B514" s="8"/>
       <c r="C514" s="8"/>
@@ -8935,7 +8973,7 @@
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="5" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B515" s="8"/>
       <c r="C515" s="8"/>
@@ -8946,7 +8984,7 @@
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="5" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B516" s="8"/>
       <c r="C516" s="8"/>
@@ -8957,7 +8995,7 @@
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="5" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B517" s="8"/>
       <c r="C517" s="8"/>
@@ -8968,7 +9006,7 @@
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="5" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B518" s="8"/>
       <c r="C518" s="8"/>
@@ -8979,7 +9017,7 @@
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="5" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B519" s="8"/>
       <c r="C519" s="8"/>
@@ -8990,7 +9028,7 @@
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="5" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B520" s="8"/>
       <c r="C520" s="8"/>
@@ -9001,7 +9039,7 @@
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="5" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B521" s="8"/>
       <c r="C521" s="8"/>
@@ -9012,7 +9050,7 @@
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="5" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B522" s="8"/>
       <c r="C522" s="8"/>
@@ -9023,7 +9061,7 @@
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="5" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B523" s="8"/>
       <c r="C523" s="8"/>
@@ -9034,7 +9072,7 @@
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="5" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B524" s="8"/>
       <c r="C524" s="8"/>
@@ -9045,7 +9083,7 @@
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="5" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B525" s="8"/>
       <c r="C525" s="8"/>
@@ -9056,7 +9094,7 @@
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="5" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B526" s="8"/>
       <c r="C526" s="8"/>
@@ -9067,7 +9105,7 @@
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="5" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B527" s="8"/>
       <c r="C527" s="8"/>
@@ -9078,7 +9116,7 @@
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="5" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B528" s="8"/>
       <c r="C528" s="8"/>
@@ -9089,7 +9127,7 @@
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="5" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B529" s="8"/>
       <c r="C529" s="8"/>
@@ -9100,7 +9138,7 @@
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="5" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B530" s="8"/>
       <c r="C530" s="8"/>
@@ -9111,7 +9149,7 @@
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="5" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B531" s="8"/>
       <c r="C531" s="8"/>
@@ -9122,7 +9160,7 @@
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="5" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B532" s="8"/>
       <c r="C532" s="8"/>
@@ -9133,7 +9171,7 @@
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="5" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B533" s="8"/>
       <c r="C533" s="8"/>
@@ -9144,7 +9182,7 @@
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="5" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B534" s="8"/>
       <c r="C534" s="8"/>
@@ -9155,7 +9193,7 @@
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="5" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B535" s="8"/>
       <c r="C535" s="8"/>
@@ -9166,7 +9204,7 @@
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="5" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B536" s="8"/>
       <c r="C536" s="8"/>
@@ -9177,7 +9215,7 @@
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="5" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B537" s="8"/>
       <c r="C537" s="8"/>
@@ -9188,7 +9226,7 @@
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="5" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B538" s="8"/>
       <c r="C538" s="8"/>
@@ -9199,7 +9237,7 @@
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="5" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B539" s="8"/>
       <c r="C539" s="8"/>
@@ -9210,7 +9248,7 @@
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="5" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B540" s="8"/>
       <c r="C540" s="8"/>
@@ -9221,7 +9259,7 @@
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="5" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B541" s="8"/>
       <c r="C541" s="8"/>
@@ -9232,7 +9270,7 @@
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="5" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B542" s="8"/>
       <c r="C542" s="8"/>
@@ -9243,7 +9281,7 @@
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="5" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B543" s="8"/>
       <c r="C543" s="8"/>
@@ -9254,7 +9292,7 @@
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="5" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B544" s="8"/>
       <c r="C544" s="8"/>
@@ -9265,7 +9303,7 @@
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="5" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B545" s="8"/>
       <c r="C545" s="8"/>
@@ -9276,7 +9314,7 @@
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="5" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B546" s="8"/>
       <c r="C546" s="8"/>
@@ -9287,7 +9325,7 @@
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="5" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B547" s="8"/>
       <c r="C547" s="8"/>
@@ -9298,7 +9336,7 @@
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="5" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B548" s="8"/>
       <c r="C548" s="8"/>
@@ -9309,7 +9347,7 @@
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="5" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B549" s="8"/>
       <c r="C549" s="8"/>
@@ -9320,7 +9358,7 @@
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="5" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B550" s="8"/>
       <c r="C550" s="8"/>
@@ -9331,7 +9369,7 @@
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="5" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B551" s="8"/>
       <c r="C551" s="8"/>
@@ -9342,7 +9380,7 @@
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="5" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B552" s="8"/>
       <c r="C552" s="8"/>
@@ -9353,7 +9391,7 @@
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="5" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B553" s="8"/>
       <c r="C553" s="8"/>
@@ -9364,7 +9402,7 @@
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="5" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B554" s="8"/>
       <c r="C554" s="8"/>
@@ -9375,7 +9413,7 @@
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="5" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B555" s="8"/>
       <c r="C555" s="8"/>
@@ -9386,7 +9424,7 @@
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="5" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B556" s="8"/>
       <c r="C556" s="8"/>
@@ -9397,7 +9435,7 @@
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="5" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B557" s="8"/>
       <c r="C557" s="8"/>
@@ -9408,7 +9446,7 @@
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="5" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B558" s="8"/>
       <c r="C558" s="8"/>
@@ -9419,7 +9457,7 @@
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="5" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B559" s="8"/>
       <c r="C559" s="8"/>
@@ -9430,7 +9468,7 @@
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="5" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B560" s="8"/>
       <c r="C560" s="8"/>
@@ -9441,7 +9479,7 @@
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B561" s="8"/>
       <c r="C561" s="8"/>
@@ -9452,7 +9490,7 @@
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="5" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B562" s="8"/>
       <c r="C562" s="8"/>
@@ -9463,7 +9501,7 @@
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="5" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B563" s="8"/>
       <c r="C563" s="8"/>
@@ -9474,7 +9512,7 @@
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="5" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B564" s="8"/>
       <c r="C564" s="8"/>
@@ -9485,7 +9523,7 @@
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="5" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B565" s="8"/>
       <c r="C565" s="8"/>
@@ -9496,7 +9534,7 @@
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="5" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B566" s="8"/>
       <c r="C566" s="8"/>
@@ -9507,7 +9545,7 @@
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="5" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B567" s="8"/>
       <c r="C567" s="8"/>
@@ -9518,7 +9556,7 @@
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="5" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B568" s="8"/>
       <c r="C568" s="8"/>
@@ -9529,7 +9567,7 @@
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="5" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B569" s="8"/>
       <c r="C569" s="8"/>
@@ -9540,7 +9578,7 @@
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="5" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B570" s="8"/>
       <c r="C570" s="8"/>
@@ -9551,7 +9589,7 @@
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="5" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B571" s="8"/>
       <c r="C571" s="8"/>
@@ -9562,7 +9600,7 @@
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="5" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B572" s="8"/>
       <c r="C572" s="8"/>
@@ -9573,7 +9611,7 @@
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="5" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B573" s="8"/>
       <c r="C573" s="8"/>
@@ -9584,7 +9622,7 @@
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="5" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B574" s="8"/>
       <c r="C574" s="8"/>
@@ -9595,7 +9633,7 @@
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="5" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B575" s="8"/>
       <c r="C575" s="8"/>
@@ -9606,7 +9644,7 @@
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="5" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B576" s="8"/>
       <c r="C576" s="8"/>
@@ -9617,7 +9655,7 @@
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="5" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B577" s="8"/>
       <c r="C577" s="8"/>
@@ -9628,7 +9666,7 @@
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="5" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B578" s="8"/>
       <c r="C578" s="8"/>
@@ -9639,7 +9677,7 @@
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="5" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B579" s="8"/>
       <c r="C579" s="8"/>
@@ -9650,7 +9688,7 @@
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="5" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B580" s="8"/>
       <c r="C580" s="8"/>
@@ -9661,7 +9699,7 @@
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="5" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B581" s="8"/>
       <c r="C581" s="8"/>
@@ -9672,7 +9710,7 @@
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="5" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B582" s="8"/>
       <c r="C582" s="8"/>
@@ -9683,7 +9721,7 @@
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="5" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B583" s="8"/>
       <c r="C583" s="8"/>
@@ -9694,7 +9732,7 @@
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="5" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B584" s="8"/>
       <c r="C584" s="8"/>
@@ -9705,7 +9743,7 @@
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="5" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B585" s="8"/>
       <c r="C585" s="8"/>
@@ -9716,7 +9754,7 @@
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="5" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B586" s="8"/>
       <c r="C586" s="8"/>
@@ -9727,7 +9765,7 @@
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="5" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B587" s="8"/>
       <c r="C587" s="8"/>
@@ -9738,7 +9776,7 @@
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="5" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B588" s="8"/>
       <c r="C588" s="8"/>
@@ -9749,7 +9787,7 @@
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="5" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B589" s="8"/>
       <c r="C589" s="8"/>
@@ -9760,7 +9798,7 @@
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="5" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B590" s="8"/>
       <c r="C590" s="8"/>
@@ -9771,7 +9809,7 @@
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="5" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B591" s="8"/>
       <c r="C591" s="8"/>
@@ -9782,7 +9820,7 @@
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="5" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B592" s="8"/>
       <c r="C592" s="8"/>
@@ -9793,7 +9831,7 @@
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="5" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B593" s="8"/>
       <c r="C593" s="8"/>
@@ -9804,7 +9842,7 @@
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="5" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B594" s="8"/>
       <c r="C594" s="8"/>
@@ -9815,7 +9853,7 @@
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="5" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B595" s="8"/>
       <c r="C595" s="8"/>
@@ -9826,7 +9864,7 @@
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="5" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B596" s="8"/>
       <c r="C596" s="8"/>
@@ -9837,7 +9875,7 @@
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="5" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B597" s="8"/>
       <c r="C597" s="8"/>
@@ -9848,7 +9886,7 @@
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="5" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B598" s="8"/>
       <c r="C598" s="8"/>
@@ -9859,7 +9897,7 @@
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="5" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B599" s="8"/>
       <c r="C599" s="8"/>
@@ -9870,7 +9908,7 @@
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="5" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B600" s="8"/>
       <c r="C600" s="8"/>
@@ -9881,7 +9919,7 @@
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="5" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B601" s="8"/>
       <c r="C601" s="8"/>
@@ -9892,7 +9930,7 @@
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="5" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B602" s="8"/>
       <c r="C602" s="8"/>
@@ -9903,7 +9941,7 @@
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="5" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B603" s="8"/>
       <c r="C603" s="8"/>
@@ -9914,7 +9952,7 @@
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="5" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B604" s="8"/>
       <c r="C604" s="8"/>
@@ -9925,7 +9963,7 @@
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="5" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B605" s="8"/>
       <c r="C605" s="8"/>
@@ -9936,7 +9974,7 @@
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="5" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B606" s="8"/>
       <c r="C606" s="8"/>
@@ -9947,7 +9985,7 @@
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="5" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B607" s="8"/>
       <c r="C607" s="8"/>
@@ -9958,7 +9996,7 @@
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="5" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B608" s="8"/>
       <c r="C608" s="8"/>
@@ -9969,7 +10007,7 @@
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="5" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B609" s="8"/>
       <c r="C609" s="8"/>
@@ -9980,7 +10018,7 @@
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="5" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B610" s="8"/>
       <c r="C610" s="8"/>
@@ -9991,7 +10029,7 @@
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="5" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B611" s="8"/>
       <c r="C611" s="8"/>
@@ -10002,7 +10040,7 @@
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="5" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B612" s="8"/>
       <c r="C612" s="8"/>
@@ -10013,7 +10051,7 @@
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="5" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B613" s="8"/>
       <c r="C613" s="8"/>
@@ -10024,7 +10062,7 @@
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="5" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B614" s="8"/>
       <c r="C614" s="8"/>
@@ -10035,7 +10073,7 @@
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="5" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B615" s="8"/>
       <c r="C615" s="8"/>
@@ -10046,7 +10084,7 @@
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="5" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B616" s="8"/>
       <c r="C616" s="8"/>
@@ -10057,7 +10095,7 @@
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="5" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B617" s="8"/>
       <c r="C617" s="8"/>
@@ -10068,7 +10106,7 @@
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="5" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B618" s="8"/>
       <c r="C618" s="8"/>
@@ -10079,7 +10117,7 @@
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="5" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B619" s="8"/>
       <c r="C619" s="8"/>
@@ -10090,7 +10128,7 @@
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="5" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B620" s="8"/>
       <c r="C620" s="8"/>
@@ -10101,7 +10139,7 @@
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="5" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B621" s="8"/>
       <c r="C621" s="8"/>
@@ -10112,7 +10150,7 @@
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="5" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B622" s="8"/>
       <c r="C622" s="8"/>
@@ -10123,7 +10161,7 @@
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="5" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B623" s="8"/>
       <c r="C623" s="8"/>
@@ -10134,7 +10172,7 @@
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="5" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B624" s="8"/>
       <c r="C624" s="8"/>
@@ -10145,7 +10183,7 @@
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="5" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B625" s="8"/>
       <c r="C625" s="8"/>
@@ -10156,7 +10194,7 @@
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="5" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B626" s="8"/>
       <c r="C626" s="8"/>
@@ -10167,7 +10205,7 @@
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="5" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B627" s="8"/>
       <c r="C627" s="8"/>
@@ -10178,7 +10216,7 @@
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="5" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B628" s="8"/>
       <c r="C628" s="8"/>
@@ -10189,7 +10227,7 @@
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="5" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B629" s="8"/>
       <c r="C629" s="8"/>
@@ -10200,7 +10238,7 @@
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="5" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B630" s="8"/>
       <c r="C630" s="8"/>
@@ -10211,7 +10249,7 @@
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="5" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B631" s="8"/>
       <c r="C631" s="8"/>
@@ -10222,7 +10260,7 @@
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="5" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B632" s="8"/>
       <c r="C632" s="8"/>
@@ -10233,7 +10271,7 @@
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="5" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B633" s="8"/>
       <c r="C633" s="8"/>
@@ -10244,7 +10282,7 @@
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="5" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B634" s="8"/>
       <c r="C634" s="8"/>
@@ -10255,7 +10293,7 @@
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="5" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B635" s="8"/>
       <c r="C635" s="8"/>
@@ -10266,7 +10304,7 @@
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="5" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B636" s="8"/>
       <c r="C636" s="8"/>
@@ -10277,7 +10315,7 @@
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="5" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B637" s="8"/>
       <c r="C637" s="8"/>
@@ -10288,7 +10326,7 @@
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="5" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B638" s="8"/>
       <c r="C638" s="8"/>
@@ -10299,7 +10337,7 @@
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="5" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B639" s="8"/>
       <c r="C639" s="8"/>
@@ -10310,7 +10348,7 @@
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="5" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B640" s="8"/>
       <c r="C640" s="8"/>
@@ -10321,7 +10359,7 @@
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="5" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B641" s="8"/>
       <c r="C641" s="8"/>
@@ -10332,7 +10370,7 @@
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="5" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B642" s="8"/>
       <c r="C642" s="8"/>
@@ -10343,7 +10381,7 @@
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="5" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B643" s="8"/>
       <c r="C643" s="8"/>
@@ -10354,7 +10392,7 @@
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="5" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B644" s="8"/>
       <c r="C644" s="8"/>
@@ -10365,7 +10403,7 @@
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="5" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B645" s="8"/>
       <c r="C645" s="8"/>
@@ -10376,7 +10414,7 @@
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="5" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B646" s="8"/>
       <c r="C646" s="8"/>
@@ -10387,7 +10425,7 @@
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="5" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B647" s="8"/>
       <c r="C647" s="8"/>
@@ -10398,7 +10436,7 @@
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="5" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B648" s="8"/>
       <c r="C648" s="8"/>
@@ -10409,7 +10447,7 @@
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="5" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B649" s="8"/>
       <c r="C649" s="8"/>
@@ -10420,7 +10458,7 @@
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="5" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B650" s="8"/>
       <c r="C650" s="8"/>
@@ -10431,7 +10469,7 @@
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="5" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B651" s="8"/>
       <c r="C651" s="8"/>
@@ -10442,7 +10480,7 @@
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="5" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B652" s="8"/>
       <c r="C652" s="8"/>
@@ -10453,7 +10491,7 @@
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="5" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B653" s="8"/>
       <c r="C653" s="8"/>
@@ -10464,7 +10502,7 @@
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="5" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B654" s="8"/>
       <c r="C654" s="8"/>
@@ -10475,7 +10513,7 @@
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="5" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B655" s="8"/>
       <c r="C655" s="8"/>
@@ -10486,7 +10524,7 @@
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="5" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B656" s="8"/>
       <c r="C656" s="8"/>
@@ -10497,7 +10535,7 @@
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="5" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B657" s="8"/>
       <c r="C657" s="8"/>
@@ -10508,7 +10546,7 @@
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="5" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B658" s="8"/>
       <c r="C658" s="8"/>
@@ -10519,7 +10557,7 @@
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="5" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B659" s="8"/>
       <c r="C659" s="8"/>
@@ -10530,7 +10568,7 @@
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="5" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B660" s="8"/>
       <c r="C660" s="8"/>
@@ -10541,7 +10579,7 @@
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="5" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B661" s="8"/>
       <c r="C661" s="8"/>
@@ -10552,7 +10590,7 @@
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="5" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B662" s="8"/>
       <c r="C662" s="8"/>
@@ -10563,7 +10601,7 @@
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="5" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B663" s="8"/>
       <c r="C663" s="8"/>
@@ -10574,7 +10612,7 @@
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="5" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B664" s="8"/>
       <c r="C664" s="8"/>
@@ -10585,7 +10623,7 @@
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="5" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B665" s="8"/>
       <c r="C665" s="8"/>
@@ -10596,7 +10634,7 @@
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="5" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B666" s="8"/>
       <c r="C666" s="8"/>
@@ -10607,7 +10645,7 @@
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="5" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B667" s="8"/>
       <c r="C667" s="8"/>
@@ -10618,7 +10656,7 @@
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="5" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B668" s="8"/>
       <c r="C668" s="8"/>
@@ -10629,7 +10667,7 @@
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="5" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B669" s="8"/>
       <c r="C669" s="8"/>
@@ -10640,7 +10678,7 @@
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="5" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B670" s="8"/>
       <c r="C670" s="8"/>
@@ -10651,7 +10689,7 @@
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="5" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B671" s="8"/>
       <c r="C671" s="8"/>
@@ -10662,7 +10700,7 @@
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="5" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B672" s="8"/>
       <c r="C672" s="8"/>
@@ -10673,7 +10711,7 @@
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="5" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B673" s="8"/>
       <c r="C673" s="8"/>
@@ -10684,7 +10722,7 @@
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="5" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B674" s="8"/>
       <c r="C674" s="8"/>
@@ -10695,7 +10733,7 @@
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="5" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B675" s="8"/>
       <c r="C675" s="8"/>
@@ -10706,7 +10744,7 @@
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="5" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B676" s="8"/>
       <c r="C676" s="8"/>
@@ -10717,7 +10755,7 @@
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="5" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B677" s="8"/>
       <c r="C677" s="8"/>
@@ -10728,7 +10766,7 @@
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="5" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B678" s="8"/>
       <c r="C678" s="8"/>
@@ -10739,7 +10777,7 @@
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="5" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B679" s="8"/>
       <c r="C679" s="8"/>
@@ -10750,7 +10788,7 @@
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="5" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B680" s="8"/>
       <c r="C680" s="8"/>
@@ -10761,7 +10799,7 @@
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="5" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B681" s="8"/>
       <c r="C681" s="8"/>
@@ -10772,7 +10810,7 @@
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="5" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B682" s="8"/>
       <c r="C682" s="8"/>
@@ -10783,7 +10821,7 @@
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="5" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B683" s="8"/>
       <c r="C683" s="8"/>
@@ -10794,7 +10832,7 @@
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="5" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B684" s="8"/>
       <c r="C684" s="8"/>
@@ -10805,7 +10843,7 @@
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="5" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B685" s="8"/>
       <c r="C685" s="8"/>
@@ -10816,7 +10854,7 @@
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="5" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B686" s="8"/>
       <c r="C686" s="8"/>
@@ -10827,7 +10865,7 @@
     </row>
     <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="5" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B687" s="8"/>
       <c r="C687" s="8"/>
@@ -10838,7 +10876,7 @@
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="5" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B688" s="8"/>
       <c r="C688" s="8"/>
@@ -10849,7 +10887,7 @@
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="5" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B689" s="8"/>
       <c r="C689" s="8"/>
@@ -10860,7 +10898,7 @@
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="5" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B690" s="8"/>
       <c r="C690" s="8"/>
@@ -10871,7 +10909,7 @@
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="5" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B691" s="8"/>
       <c r="C691" s="8"/>
@@ -10882,7 +10920,7 @@
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="5" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B692" s="8"/>
       <c r="C692" s="8"/>
@@ -10893,7 +10931,7 @@
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="5" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B693" s="8"/>
       <c r="C693" s="8"/>
@@ -10904,7 +10942,7 @@
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="5" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B694" s="8"/>
       <c r="C694" s="8"/>
@@ -10915,7 +10953,7 @@
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="5" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B695" s="8"/>
       <c r="C695" s="8"/>
@@ -10926,7 +10964,7 @@
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="5" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B696" s="8"/>
       <c r="C696" s="8"/>
@@ -10937,7 +10975,7 @@
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="5" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B697" s="8"/>
       <c r="C697" s="8"/>
@@ -10948,7 +10986,7 @@
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="5" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B698" s="8"/>
       <c r="C698" s="8"/>
@@ -10959,7 +10997,7 @@
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="5" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B699" s="8"/>
       <c r="C699" s="8"/>
@@ -10970,7 +11008,7 @@
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="5" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B700" s="8"/>
       <c r="C700" s="8"/>
@@ -10981,7 +11019,7 @@
     </row>
     <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="5" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B701" s="8"/>
       <c r="C701" s="8"/>
@@ -10992,7 +11030,7 @@
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="5" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B702" s="8"/>
       <c r="C702" s="8"/>
@@ -11003,7 +11041,7 @@
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="5" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B703" s="8"/>
       <c r="C703" s="8"/>
@@ -11014,7 +11052,7 @@
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="5" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B704" s="8"/>
       <c r="C704" s="8"/>
@@ -11025,7 +11063,7 @@
     </row>
     <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="5" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B705" s="8"/>
       <c r="C705" s="8"/>
@@ -11036,7 +11074,7 @@
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="5" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B706" s="8"/>
       <c r="C706" s="8"/>
@@ -11047,7 +11085,7 @@
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="5" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B707" s="8"/>
       <c r="C707" s="8"/>
@@ -11058,7 +11096,7 @@
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="5" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B708" s="8"/>
       <c r="C708" s="8"/>
@@ -11069,7 +11107,7 @@
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="5" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B709" s="8"/>
       <c r="C709" s="8"/>
@@ -11080,7 +11118,7 @@
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="5" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B710" s="8"/>
       <c r="C710" s="8"/>
@@ -11091,7 +11129,7 @@
     </row>
     <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="5" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B711" s="8"/>
       <c r="C711" s="8"/>
@@ -11102,7 +11140,7 @@
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="5" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B712" s="8"/>
       <c r="C712" s="8"/>
@@ -11113,7 +11151,7 @@
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="5" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B713" s="8"/>
       <c r="C713" s="8"/>
@@ -11124,7 +11162,7 @@
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="5" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B714" s="8"/>
       <c r="C714" s="8"/>
@@ -11135,7 +11173,7 @@
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="5" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B715" s="8"/>
       <c r="C715" s="8"/>
@@ -11146,7 +11184,7 @@
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="5" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B716" s="8"/>
       <c r="C716" s="8"/>
@@ -11157,7 +11195,7 @@
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="5" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B717" s="8"/>
       <c r="C717" s="8"/>
@@ -11168,7 +11206,7 @@
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="5" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B718" s="8"/>
       <c r="C718" s="8"/>
@@ -11179,7 +11217,7 @@
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="5" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B719" s="8"/>
       <c r="C719" s="8"/>
@@ -11190,7 +11228,7 @@
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="5" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B720" s="8"/>
       <c r="C720" s="8"/>
@@ -11201,7 +11239,7 @@
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="5" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B721" s="8"/>
       <c r="C721" s="8"/>
@@ -11212,7 +11250,7 @@
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="5" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B722" s="8"/>
       <c r="C722" s="8"/>
@@ -11223,7 +11261,7 @@
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="5" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B723" s="8"/>
       <c r="C723" s="8"/>
@@ -11234,7 +11272,7 @@
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="5" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B724" s="8"/>
       <c r="C724" s="8"/>
@@ -11245,7 +11283,7 @@
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="5" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B725" s="8"/>
       <c r="C725" s="8"/>
@@ -11256,7 +11294,7 @@
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="5" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B726" s="8"/>
       <c r="C726" s="8"/>
@@ -11267,7 +11305,7 @@
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="5" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B727" s="8"/>
       <c r="C727" s="8"/>
@@ -11278,7 +11316,7 @@
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="5" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B728" s="8"/>
       <c r="C728" s="8"/>
@@ -11289,7 +11327,7 @@
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="5" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B729" s="8"/>
       <c r="C729" s="8"/>
@@ -11300,7 +11338,7 @@
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="5" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B730" s="8"/>
       <c r="C730" s="8"/>
@@ -11311,7 +11349,7 @@
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="5" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B731" s="8"/>
       <c r="C731" s="8"/>
@@ -11322,7 +11360,7 @@
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="5" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B732" s="8"/>
       <c r="C732" s="8"/>
@@ -11333,7 +11371,7 @@
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="5" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B733" s="8"/>
       <c r="C733" s="8"/>
@@ -11344,7 +11382,7 @@
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="5" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B734" s="8"/>
       <c r="C734" s="8"/>
@@ -11355,7 +11393,7 @@
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="5" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B735" s="8"/>
       <c r="C735" s="8"/>
@@ -11366,7 +11404,7 @@
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="5" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B736" s="8"/>
       <c r="C736" s="8"/>
@@ -11377,7 +11415,7 @@
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="5" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B737" s="8"/>
       <c r="C737" s="8"/>
@@ -11388,7 +11426,7 @@
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="5" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B738" s="8"/>
       <c r="C738" s="8"/>
@@ -11399,7 +11437,7 @@
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="5" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B739" s="8"/>
       <c r="C739" s="8"/>
@@ -11410,7 +11448,7 @@
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="5" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B740" s="8"/>
       <c r="C740" s="8"/>
@@ -11421,7 +11459,7 @@
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="5" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B741" s="8"/>
       <c r="C741" s="8"/>
@@ -11432,7 +11470,7 @@
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="5" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B742" s="8"/>
       <c r="C742" s="8"/>
@@ -11443,7 +11481,7 @@
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="5" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B743" s="8"/>
       <c r="C743" s="8"/>
@@ -11454,7 +11492,7 @@
     </row>
     <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="5" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B744" s="8"/>
       <c r="C744" s="8"/>
@@ -11465,7 +11503,7 @@
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="5" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B745" s="8"/>
       <c r="C745" s="8"/>
@@ -11476,7 +11514,7 @@
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="5" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B746" s="8"/>
       <c r="C746" s="8"/>
@@ -11487,7 +11525,7 @@
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="5" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B747" s="8"/>
       <c r="C747" s="8"/>
@@ -11498,7 +11536,7 @@
     </row>
     <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="5" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B748" s="8"/>
       <c r="C748" s="8"/>
@@ -11509,7 +11547,7 @@
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="5" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B749" s="8"/>
       <c r="C749" s="8"/>
@@ -11520,7 +11558,7 @@
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="5" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B750" s="8"/>
       <c r="C750" s="8"/>
@@ -11531,7 +11569,7 @@
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="5" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B751" s="8"/>
       <c r="C751" s="8"/>
@@ -11542,7 +11580,7 @@
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="5" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B752" s="8"/>
       <c r="C752" s="8"/>
@@ -11553,7 +11591,7 @@
     </row>
     <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="5" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B753" s="8"/>
       <c r="C753" s="8"/>
@@ -11564,7 +11602,7 @@
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="5" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B754" s="8"/>
       <c r="C754" s="8"/>
@@ -11575,7 +11613,7 @@
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="5" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B755" s="8"/>
       <c r="C755" s="8"/>
@@ -11586,7 +11624,7 @@
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="5" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B756" s="8"/>
       <c r="C756" s="8"/>
@@ -11597,7 +11635,7 @@
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="5" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B757" s="8"/>
       <c r="C757" s="8"/>
@@ -11608,7 +11646,7 @@
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="5" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B758" s="8"/>
       <c r="C758" s="8"/>
@@ -11619,7 +11657,7 @@
     </row>
     <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="5" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B759" s="8"/>
       <c r="C759" s="8"/>
@@ -11630,7 +11668,7 @@
     </row>
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="5" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B760" s="8"/>
       <c r="C760" s="8"/>
@@ -11641,7 +11679,7 @@
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="5" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B761" s="8"/>
       <c r="C761" s="8"/>
@@ -11652,7 +11690,7 @@
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="5" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B762" s="8"/>
       <c r="C762" s="8"/>
@@ -11663,7 +11701,7 @@
     </row>
     <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="5" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B763" s="8"/>
       <c r="C763" s="8"/>
@@ -11674,7 +11712,7 @@
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="5" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B764" s="8"/>
       <c r="C764" s="8"/>
@@ -11685,7 +11723,7 @@
     </row>
     <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="5" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B765" s="8"/>
       <c r="C765" s="8"/>
@@ -11696,7 +11734,7 @@
     </row>
     <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="5" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B766" s="8"/>
       <c r="C766" s="8"/>
@@ -11707,7 +11745,7 @@
     </row>
     <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="5" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B767" s="8"/>
       <c r="C767" s="8"/>
@@ -11718,7 +11756,7 @@
     </row>
     <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="5" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B768" s="8"/>
       <c r="C768" s="8"/>
@@ -11729,7 +11767,7 @@
     </row>
     <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="5" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B769" s="8"/>
       <c r="C769" s="8"/>
@@ -11740,7 +11778,7 @@
     </row>
     <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="5" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B770" s="8"/>
       <c r="C770" s="8"/>
@@ -11751,7 +11789,7 @@
     </row>
     <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="5" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B771" s="8"/>
       <c r="C771" s="8"/>
@@ -11762,7 +11800,7 @@
     </row>
     <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="5" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B772" s="8"/>
       <c r="C772" s="8"/>
@@ -11773,7 +11811,7 @@
     </row>
     <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="5" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B773" s="8"/>
       <c r="C773" s="8"/>
@@ -11784,7 +11822,7 @@
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="5" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B774" s="8"/>
       <c r="C774" s="8"/>
@@ -11795,7 +11833,7 @@
     </row>
     <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="5" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B775" s="8"/>
       <c r="C775" s="8"/>
@@ -11806,7 +11844,7 @@
     </row>
     <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="5" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B776" s="8"/>
       <c r="C776" s="8"/>
@@ -11817,7 +11855,7 @@
     </row>
     <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="5" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B777" s="8"/>
       <c r="C777" s="8"/>
@@ -11828,7 +11866,7 @@
     </row>
     <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="5" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B778" s="8"/>
       <c r="C778" s="8"/>
@@ -11839,7 +11877,7 @@
     </row>
     <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="5" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B779" s="8"/>
       <c r="C779" s="8"/>
@@ -11850,7 +11888,7 @@
     </row>
     <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="5" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B780" s="8"/>
       <c r="C780" s="8"/>
@@ -11861,7 +11899,7 @@
     </row>
     <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="5" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B781" s="8"/>
       <c r="C781" s="8"/>
@@ -11872,7 +11910,7 @@
     </row>
     <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="5" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B782" s="8"/>
       <c r="C782" s="8"/>
@@ -11883,7 +11921,7 @@
     </row>
     <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="5" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B783" s="8"/>
       <c r="C783" s="8"/>
@@ -11894,7 +11932,7 @@
     </row>
     <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="5" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B784" s="8"/>
       <c r="C784" s="8"/>
@@ -11905,7 +11943,7 @@
     </row>
     <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="5" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B785" s="8"/>
       <c r="C785" s="8"/>
@@ -11916,7 +11954,7 @@
     </row>
     <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="5" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B786" s="8"/>
       <c r="C786" s="8"/>
@@ -11927,7 +11965,7 @@
     </row>
     <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="5" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B787" s="8"/>
       <c r="C787" s="8"/>
@@ -11938,7 +11976,7 @@
     </row>
     <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="5" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B788" s="8"/>
       <c r="C788" s="8"/>
@@ -11949,7 +11987,7 @@
     </row>
     <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="5" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B789" s="8"/>
       <c r="C789" s="8"/>
@@ -11960,7 +11998,7 @@
     </row>
     <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="5" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B790" s="8"/>
       <c r="C790" s="8"/>
@@ -11971,7 +12009,7 @@
     </row>
     <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="5" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B791" s="8"/>
       <c r="C791" s="8"/>
@@ -11982,7 +12020,7 @@
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="5" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B792" s="8"/>
       <c r="C792" s="8"/>
@@ -11993,7 +12031,7 @@
     </row>
     <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="5" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B793" s="8"/>
       <c r="C793" s="8"/>
@@ -12004,7 +12042,7 @@
     </row>
     <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="5" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B794" s="8"/>
       <c r="C794" s="8"/>
@@ -12015,7 +12053,7 @@
     </row>
     <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="5" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B795" s="8"/>
       <c r="C795" s="8"/>
@@ -12026,7 +12064,7 @@
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="5" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B796" s="8"/>
       <c r="C796" s="8"/>
@@ -12037,7 +12075,7 @@
     </row>
     <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="5" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B797" s="8"/>
       <c r="C797" s="8"/>
@@ -12048,7 +12086,7 @@
     </row>
     <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="5" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B798" s="8"/>
       <c r="C798" s="8"/>
@@ -12059,7 +12097,7 @@
     </row>
     <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="5" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B799" s="8"/>
       <c r="C799" s="8"/>
@@ -12070,7 +12108,7 @@
     </row>
     <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="5" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B800" s="8"/>
       <c r="C800" s="8"/>
@@ -12081,7 +12119,7 @@
     </row>
     <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="5" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B801" s="8"/>
       <c r="C801" s="8"/>
@@ -12092,7 +12130,7 @@
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="5" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B802" s="8"/>
       <c r="C802" s="8"/>
@@ -12103,7 +12141,7 @@
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="5" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B803" s="8"/>
       <c r="C803" s="8"/>
@@ -12114,7 +12152,7 @@
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="5" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B804" s="8"/>
       <c r="C804" s="8"/>
@@ -12125,7 +12163,7 @@
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="5" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B805" s="8"/>
       <c r="C805" s="8"/>
@@ -12136,7 +12174,7 @@
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="5" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B806" s="8"/>
       <c r="C806" s="8"/>
@@ -12147,7 +12185,7 @@
     </row>
     <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="5" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B807" s="8"/>
       <c r="C807" s="8"/>
@@ -12158,7 +12196,7 @@
     </row>
     <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="5" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B808" s="8"/>
       <c r="C808" s="8"/>
@@ -12169,7 +12207,7 @@
     </row>
     <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="5" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B809" s="8"/>
       <c r="C809" s="8"/>
@@ -12180,7 +12218,7 @@
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="5" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B810" s="8"/>
       <c r="C810" s="8"/>
@@ -12191,7 +12229,7 @@
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="5" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B811" s="8"/>
       <c r="C811" s="8"/>
@@ -12202,7 +12240,7 @@
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="5" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B812" s="8"/>
       <c r="C812" s="8"/>
@@ -12213,7 +12251,7 @@
     </row>
     <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="5" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B813" s="8"/>
       <c r="C813" s="8"/>
@@ -12224,7 +12262,7 @@
     </row>
     <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="5" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B814" s="8"/>
       <c r="C814" s="8"/>
@@ -12235,7 +12273,7 @@
     </row>
     <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="5" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B815" s="8"/>
       <c r="C815" s="8"/>
@@ -12244,17 +12282,7 @@
       <c r="F815" s="8"/>
       <c r="G815" s="8"/>
     </row>
-    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="B816" s="8"/>
-      <c r="C816" s="8"/>
-      <c r="D816" s="8"/>
-      <c r="E816" s="8"/>
-      <c r="F816" s="8"/>
-      <c r="G816" s="8"/>
-    </row>
+    <row r="1048314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
